--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -10,14 +10,14 @@
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$F$4:$F$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$F$4:$F$85</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="135">
   <si>
     <t>任务ID</t>
   </si>
@@ -166,7 +166,7 @@
     <t>Collect_Iron</t>
   </si>
   <si>
-    <t>Item|1006|8_15</t>
+    <t>Item|1006|5_8</t>
   </si>
   <si>
     <t>Item|1002|250</t>
@@ -235,6 +235,12 @@
     <t>Item|1014|2_3</t>
   </si>
   <si>
+    <t>Item|1009|8_12</t>
+  </si>
+  <si>
+    <t>Item|1006|8_12</t>
+  </si>
+  <si>
     <t>Item|1002|800</t>
   </si>
   <si>
@@ -253,61 +259,76 @@
     <t>Item|1008|2_3</t>
   </si>
   <si>
-    <t>Item|1009|8_12</t>
+    <t>打古井水</t>
+  </si>
+  <si>
+    <t>吃水不忘挖井人，不过这井太古老了，也不知道谁挖的。</t>
+  </si>
+  <si>
+    <t>Collect_Well</t>
+  </si>
+  <si>
+    <t>Item|1018|1_2</t>
+  </si>
+  <si>
+    <t>采集紫藤</t>
+  </si>
+  <si>
+    <t>悬崖边上有很多紫藤，多采一些回来做藤甲。</t>
+  </si>
+  <si>
+    <t>Collect_Vine</t>
+  </si>
+  <si>
+    <t>Item|1005|8_12</t>
+  </si>
+  <si>
+    <t>钓鱼</t>
+  </si>
+  <si>
+    <t>荷花池里的鱼很美味，有空可以钓几条上来做菜。</t>
+  </si>
+  <si>
+    <t>Collect_Fish</t>
+  </si>
+  <si>
+    <t>Item|1012|5</t>
+  </si>
+  <si>
+    <t>Item|1002|1500</t>
+  </si>
+  <si>
+    <t>Item|1001|1500</t>
+  </si>
+  <si>
+    <t>Item|1004|250</t>
+  </si>
+  <si>
+    <t>Item|1007|3_5</t>
+  </si>
+  <si>
+    <t>Item|1003|250</t>
+  </si>
+  <si>
+    <t>Item|1008|3_5</t>
+  </si>
+  <si>
+    <t>Item|1015|3_5</t>
+  </si>
+  <si>
+    <t>Item|1022|2_3</t>
+  </si>
+  <si>
+    <t>Item|1014|3_5</t>
+  </si>
+  <si>
+    <t>Item|1009|12_20</t>
   </si>
   <si>
     <t>Item|1006|12_20</t>
   </si>
   <si>
-    <t>打古井水</t>
-  </si>
-  <si>
-    <t>吃水不忘挖井人，不过这井太古老了，也不知道谁挖的。</t>
-  </si>
-  <si>
-    <t>Collect_Well</t>
-  </si>
-  <si>
-    <t>Item|1018|1_2</t>
-  </si>
-  <si>
-    <t>采集紫藤</t>
-  </si>
-  <si>
-    <t>悬崖边上有很多紫藤，多采一些回来做藤甲。</t>
-  </si>
-  <si>
-    <t>Collect_Vine</t>
-  </si>
-  <si>
-    <t>Item|1005|3_5</t>
-  </si>
-  <si>
-    <t>Item|1002|1500</t>
-  </si>
-  <si>
-    <t>Item|1001|1500</t>
-  </si>
-  <si>
-    <t>Item|1004|250</t>
-  </si>
-  <si>
-    <t>Item|1007|3_5</t>
-  </si>
-  <si>
-    <t>Item|1003|250</t>
-  </si>
-  <si>
-    <t>Item|1008|3_5</t>
-  </si>
-  <si>
-    <t>Item|1015|3_5</t>
-  </si>
-  <si>
-    <t>Item|1022|2_3</t>
-  </si>
-  <si>
-    <t>Item|1014|3_5</t>
+    <t>Item|1005|12_20</t>
   </si>
   <si>
     <t>采集灵芝</t>
@@ -340,18 +361,6 @@
     <t>Item|1019|1_2</t>
   </si>
   <si>
-    <t>钓鱼</t>
-  </si>
-  <si>
-    <t>荷花池里的鱼很美味，有空可以钓几条上来做菜。</t>
-  </si>
-  <si>
-    <t>Collect_Fish</t>
-  </si>
-  <si>
-    <t>Item|1012|5</t>
-  </si>
-  <si>
     <t>狩猎熊</t>
   </si>
   <si>
@@ -386,6 +395,9 @@
   </si>
   <si>
     <t>Item|1006|18_30</t>
+  </si>
+  <si>
+    <t>Item|1005|18_30</t>
   </si>
   <si>
     <t>Item|1004|1500</t>
@@ -419,8 +431,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -439,7 +451,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,7 +466,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,15 +480,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,7 +518,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,6 +526,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -514,9 +572,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,59 +589,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,13 +615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,7 +645,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,25 +687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,25 +699,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,13 +747,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,25 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,31 +783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,6 +824,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -829,6 +865,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -838,32 +883,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,29 +907,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,7 +930,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -930,133 +942,133 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1393,13 +1405,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M84"/>
+  <sheetPr/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1417,7 +1429,8 @@
     <col min="11" max="11" width="21" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.125" style="3" customWidth="1"/>
     <col min="13" max="13" width="13.75" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.83333333333333" style="3"/>
+    <col min="14" max="14" width="12" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="8.83333333333333" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
@@ -1583,7 +1596,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3">
-        <v>10101</v>
+        <v>20101</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -1618,7 +1631,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3">
-        <v>10102</v>
+        <v>20102</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -1653,7 +1666,7 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:12">
       <c r="A7" s="2">
-        <v>10201</v>
+        <v>20201</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -1688,7 +1701,7 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:12">
       <c r="A8" s="2">
-        <v>10202</v>
+        <v>20202</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -1721,9 +1734,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" hidden="1" spans="1:12">
+    <row r="9" s="2" customFormat="1" spans="1:12">
       <c r="A9" s="2">
-        <v>10203</v>
+        <v>20203</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -1756,9 +1769,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" hidden="1" spans="1:12">
+    <row r="10" s="2" customFormat="1" spans="1:12">
       <c r="A10" s="2">
-        <v>10204</v>
+        <v>20204</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -1793,7 +1806,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3">
-        <v>10301</v>
+        <v>20301</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
@@ -1822,7 +1835,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3">
-        <v>10302</v>
+        <v>20302</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
@@ -1849,9 +1862,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:10">
+    <row r="13" spans="1:10">
       <c r="A13" s="3">
-        <v>10303</v>
+        <v>20303</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
@@ -1869,21 +1882,21 @@
         <v>55</v>
       </c>
       <c r="G13" s="3">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>56</v>
       </c>
       <c r="I13" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:10">
+    <row r="14" spans="1:10">
       <c r="A14" s="3">
-        <v>10304</v>
+        <v>20304</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
@@ -1901,21 +1914,21 @@
         <v>60</v>
       </c>
       <c r="G14" s="3">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>61</v>
       </c>
       <c r="I14" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:10">
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
-        <v>10305</v>
+        <v>20305</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -1939,15 +1952,15 @@
         <v>66</v>
       </c>
       <c r="I15" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:9">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
-        <v>10306</v>
+        <v>20306</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
@@ -1974,9 +1987,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:9">
+    <row r="17" spans="1:9">
       <c r="A17" s="3">
-        <v>10307</v>
+        <v>20307</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
@@ -1997,15 +2010,15 @@
         <v>300</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:9">
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
-        <v>10308</v>
+        <v>20308</v>
       </c>
       <c r="B18" s="3">
         <v>3</v>
@@ -2026,7 +2039,7 @@
         <v>300</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -2034,7 +2047,7 @@
     </row>
     <row r="19" s="2" customFormat="1" spans="1:9">
       <c r="A19" s="2">
-        <v>10401</v>
+        <v>20401</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -2055,7 +2068,7 @@
         <v>600</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -2063,7 +2076,7 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:9">
       <c r="A20" s="2">
-        <v>10402</v>
+        <v>20402</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -2084,15 +2097,15 @@
         <v>600</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" hidden="1" spans="1:10">
+    <row r="21" s="2" customFormat="1" spans="1:10">
       <c r="A21" s="2">
-        <v>10403</v>
+        <v>20403</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -2113,18 +2126,18 @@
         <v>600</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I21" s="2">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" hidden="1" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:10">
       <c r="A22" s="2">
-        <v>10404</v>
+        <v>20404</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
@@ -2145,18 +2158,18 @@
         <v>600</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I22" s="2">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" hidden="1" spans="1:10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:10">
       <c r="A23" s="2">
-        <v>10405</v>
+        <v>20405</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
@@ -2180,15 +2193,15 @@
         <v>66</v>
       </c>
       <c r="I23" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="24" s="2" customFormat="1" spans="1:9">
       <c r="A24" s="2">
-        <v>10406</v>
+        <v>20406</v>
       </c>
       <c r="B24" s="2">
         <v>4</v>
@@ -2215,9 +2228,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="25" s="2" customFormat="1" spans="1:9">
       <c r="A25" s="2">
-        <v>10407</v>
+        <v>20407</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -2235,18 +2248,18 @@
         <v>44</v>
       </c>
       <c r="G25" s="2">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="26" s="2" customFormat="1" spans="1:9">
       <c r="A26" s="2">
-        <v>10408</v>
+        <v>20408</v>
       </c>
       <c r="B26" s="2">
         <v>4</v>
@@ -2264,18 +2277,18 @@
         <v>48</v>
       </c>
       <c r="G26" s="2">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="27" s="2" customFormat="1" spans="1:9">
       <c r="A27" s="2">
-        <v>10409</v>
+        <v>20409</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -2302,9 +2315,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="28" s="2" customFormat="1" spans="1:9">
       <c r="A28" s="2">
-        <v>10410</v>
+        <v>20410</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
@@ -2322,7 +2335,7 @@
         <v>86</v>
       </c>
       <c r="G28" s="2">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>87</v>
@@ -2331,1716 +2344,1725 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="3">
-        <v>10501</v>
-      </c>
-      <c r="B29" s="3">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="3" t="s">
+    <row r="29" s="2" customFormat="1" spans="1:9">
+      <c r="A29" s="2">
+        <v>20411</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="3">
-        <v>900</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="F29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="2">
+        <v>480</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3">
-        <v>10502</v>
+        <v>20501</v>
       </c>
       <c r="B30" s="3">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G30" s="3">
         <v>900</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I30" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:10">
+    <row r="31" spans="1:9">
       <c r="A31" s="3">
-        <v>10503</v>
+        <v>20502</v>
       </c>
       <c r="B31" s="3">
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G31" s="3">
         <v>900</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I31" s="3">
-        <v>8000</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" hidden="1" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="3">
-        <v>10504</v>
+        <v>20503</v>
       </c>
       <c r="B32" s="3">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G32" s="3">
         <v>900</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I32" s="3">
         <v>8000</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" hidden="1" spans="1:10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="3">
-        <v>10505</v>
+        <v>20504</v>
       </c>
       <c r="B33" s="3">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G33" s="3">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I33" s="3">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" hidden="1" spans="1:9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="3">
-        <v>10506</v>
+        <v>20505</v>
       </c>
       <c r="B34" s="3">
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G34" s="3">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" hidden="1" spans="1:9">
+        <v>8000</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="3">
-        <v>10507</v>
+        <v>20506</v>
       </c>
       <c r="B35" s="3">
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G35" s="3">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:9">
+    <row r="36" spans="1:9">
       <c r="A36" s="3">
-        <v>10508</v>
+        <v>20507</v>
       </c>
       <c r="B36" s="3">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G36" s="3">
         <v>480</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:9">
+    <row r="37" spans="1:9">
       <c r="A37" s="3">
-        <v>10509</v>
+        <v>20508</v>
       </c>
       <c r="B37" s="3">
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="G37" s="3">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="I37" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:9">
+    <row r="38" spans="1:9">
       <c r="A38" s="3">
-        <v>10510</v>
+        <v>20509</v>
       </c>
       <c r="B38" s="3">
         <v>5</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G38" s="3">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:11">
+    <row r="39" spans="1:9">
       <c r="A39" s="3">
-        <v>10511</v>
+        <v>20510</v>
       </c>
       <c r="B39" s="3">
         <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G39" s="3">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
       </c>
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" hidden="1" spans="1:11">
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="3">
-        <v>10512</v>
+        <v>20511</v>
       </c>
       <c r="B40" s="3">
         <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G40" s="3">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I40" s="3">
-        <v>8000</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" hidden="1" spans="1:11">
+    <row r="41" spans="1:11">
       <c r="A41" s="3">
-        <v>10513</v>
+        <v>20512</v>
       </c>
       <c r="B41" s="3">
         <v>5</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G41" s="3">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>8000</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" hidden="1" spans="1:11">
+    <row r="42" spans="1:11">
       <c r="A42" s="3">
-        <v>10514</v>
+        <v>20513</v>
       </c>
       <c r="B42" s="3">
         <v>5</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="3">
+        <v>480</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="3">
+        <v>20514</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="F43" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="3">
         <v>1080</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="H43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="3">
         <v>8000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" s="2" customFormat="1" spans="1:9">
-      <c r="A43" s="2">
-        <v>10601</v>
-      </c>
-      <c r="B43" s="2">
-        <v>6</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="2">
-        <v>1200</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
+      <c r="J43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K43" s="4"/>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:9">
       <c r="A44" s="2">
-        <v>10602</v>
+        <v>20601</v>
       </c>
       <c r="B44" s="2">
         <v>6</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G44" s="2">
         <v>1200</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" hidden="1" spans="1:10">
+    <row r="45" s="2" customFormat="1" spans="1:9">
       <c r="A45" s="2">
-        <v>10603</v>
+        <v>20602</v>
       </c>
       <c r="B45" s="2">
         <v>6</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G45" s="2">
         <v>1200</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I45" s="2">
-        <v>8000</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" s="2" customFormat="1" hidden="1" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="1:10">
       <c r="A46" s="2">
-        <v>10604</v>
+        <v>20603</v>
       </c>
       <c r="B46" s="2">
         <v>6</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G46" s="2">
         <v>1200</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I46" s="2">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" s="2" customFormat="1" hidden="1" spans="1:10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:10">
       <c r="A47" s="2">
-        <v>10605</v>
+        <v>20604</v>
       </c>
       <c r="B47" s="2">
         <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G47" s="2">
-        <v>720</v>
+        <v>1200</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="I47" s="2">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" s="2" customFormat="1" hidden="1" spans="1:9">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:10">
       <c r="A48" s="2">
-        <v>10606</v>
+        <v>20605</v>
       </c>
       <c r="B48" s="2">
         <v>6</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G48" s="2">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" s="2" customFormat="1" hidden="1" spans="1:9">
+        <v>8000</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:9">
       <c r="A49" s="2">
-        <v>10607</v>
+        <v>20606</v>
       </c>
       <c r="B49" s="2">
         <v>6</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G49" s="2">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="50" s="2" customFormat="1" spans="1:9">
       <c r="A50" s="2">
-        <v>10608</v>
+        <v>20607</v>
       </c>
       <c r="B50" s="2">
         <v>6</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G50" s="2">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="51" s="2" customFormat="1" spans="1:9">
       <c r="A51" s="2">
-        <v>10609</v>
+        <v>20608</v>
       </c>
       <c r="B51" s="2">
         <v>6</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="G51" s="2">
         <v>600</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="I51" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="52" s="2" customFormat="1" spans="1:9">
       <c r="A52" s="2">
-        <v>10610</v>
+        <v>20609</v>
       </c>
       <c r="B52" s="2">
         <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G52" s="2">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I52" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="53" s="2" customFormat="1" spans="1:9">
       <c r="A53" s="2">
-        <v>10611</v>
+        <v>20610</v>
       </c>
       <c r="B53" s="2">
         <v>6</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G53" s="2">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="I53" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" hidden="1" spans="1:10">
+    <row r="54" s="2" customFormat="1" spans="1:9">
       <c r="A54" s="2">
-        <v>10612</v>
+        <v>20611</v>
       </c>
       <c r="B54" s="2">
         <v>6</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G54" s="2">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I54" s="2">
-        <v>8000</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" s="2" customFormat="1" hidden="1" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:10">
       <c r="A55" s="2">
-        <v>10613</v>
+        <v>20612</v>
       </c>
       <c r="B55" s="2">
         <v>6</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G55" s="2">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" s="2" customFormat="1" hidden="1" spans="1:10">
+        <v>8000</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:9">
       <c r="A56" s="2">
-        <v>10614</v>
+        <v>20613</v>
       </c>
       <c r="B56" s="2">
         <v>6</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" s="2">
+        <v>480</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:10">
+      <c r="A57" s="2">
+        <v>20614</v>
+      </c>
+      <c r="B57" s="2">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G56" s="2">
+      <c r="F57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G57" s="2">
         <v>1080</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I56" s="2">
+      <c r="H57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I57" s="2">
         <v>8000</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="3">
-        <v>10701</v>
-      </c>
-      <c r="B57" s="3">
-        <v>7</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
+      <c r="J57" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="3">
-        <v>10702</v>
+        <v>20701</v>
       </c>
       <c r="B58" s="3">
         <v>7</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G58" s="3">
         <v>1200</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:10">
+    <row r="59" spans="1:9">
       <c r="A59" s="3">
-        <v>10703</v>
+        <v>20702</v>
       </c>
       <c r="B59" s="3">
         <v>7</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G59" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I59" s="3">
-        <v>8000</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" hidden="1" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="3">
-        <v>10704</v>
+        <v>20703</v>
       </c>
       <c r="B60" s="3">
         <v>7</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G60" s="3">
         <v>1500</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I60" s="3">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" hidden="1" spans="1:10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="3">
-        <v>10705</v>
+        <v>20704</v>
       </c>
       <c r="B61" s="3">
         <v>7</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G61" s="3">
-        <v>720</v>
+        <v>1500</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="I61" s="3">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" hidden="1" spans="1:9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="3">
-        <v>10706</v>
+        <v>20705</v>
       </c>
       <c r="B62" s="3">
         <v>7</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G62" s="3">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" hidden="1" spans="1:9">
+        <v>9000</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="3">
-        <v>10707</v>
+        <v>20706</v>
       </c>
       <c r="B63" s="3">
         <v>7</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G63" s="3">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="I63" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:9">
+    <row r="64" spans="1:9">
       <c r="A64" s="3">
-        <v>10708</v>
+        <v>20707</v>
       </c>
       <c r="B64" s="3">
         <v>7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G64" s="3">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="I64" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:9">
+    <row r="65" spans="1:9">
       <c r="A65" s="3">
-        <v>10709</v>
+        <v>20708</v>
       </c>
       <c r="B65" s="3">
         <v>7</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="G65" s="3">
         <v>600</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="I65" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:9">
+    <row r="66" spans="1:9">
       <c r="A66" s="3">
-        <v>10710</v>
+        <v>20709</v>
       </c>
       <c r="B66" s="3">
         <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G66" s="3">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:9">
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
-        <v>10711</v>
+        <v>20710</v>
       </c>
       <c r="B67" s="3">
         <v>7</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G67" s="3">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="I67" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:10">
+    <row r="68" spans="1:9">
       <c r="A68" s="3">
-        <v>10712</v>
+        <v>20711</v>
       </c>
       <c r="B68" s="3">
         <v>7</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G68" s="3">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I68" s="3">
-        <v>8000</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" hidden="1" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="3">
-        <v>10713</v>
+        <v>20712</v>
       </c>
       <c r="B69" s="3">
         <v>7</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G69" s="3">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I69" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" hidden="1" spans="1:10">
+        <v>8000</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="3">
-        <v>10714</v>
+        <v>20713</v>
       </c>
       <c r="B70" s="3">
         <v>7</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G70" s="3">
+        <v>480</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="3">
+        <v>20714</v>
+      </c>
+      <c r="B71" s="3">
+        <v>7</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G70" s="3">
+      <c r="F71" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G71" s="3">
         <v>1080</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I70" s="3">
+      <c r="H71" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I71" s="3">
         <v>8000</v>
       </c>
-      <c r="J70" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" s="2" customFormat="1" spans="1:9">
-      <c r="A71" s="2">
-        <f>A57+100</f>
-        <v>10801</v>
-      </c>
-      <c r="B71" s="2">
-        <v>8</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" s="2">
-        <v>1200</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I71" s="2">
-        <v>0</v>
+      <c r="J71" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="72" s="2" customFormat="1" spans="1:9">
       <c r="A72" s="2">
-        <f t="shared" ref="A72:A84" si="0">A58+100</f>
-        <v>10802</v>
+        <v>20801</v>
       </c>
       <c r="B72" s="2">
         <v>8</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G72" s="2">
         <v>1200</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I72" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" hidden="1" spans="1:10">
+    <row r="73" s="2" customFormat="1" spans="1:9">
       <c r="A73" s="2">
-        <f t="shared" si="0"/>
-        <v>10803</v>
+        <v>20802</v>
       </c>
       <c r="B73" s="2">
         <v>8</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G73" s="2">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I73" s="2">
-        <v>8000</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" s="2" customFormat="1" hidden="1" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" s="2" customFormat="1" spans="1:10">
       <c r="A74" s="2">
-        <f t="shared" si="0"/>
-        <v>10804</v>
+        <v>20803</v>
       </c>
       <c r="B74" s="2">
         <v>8</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G74" s="2">
         <v>1800</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I74" s="2">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" s="2" customFormat="1" hidden="1" spans="1:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" spans="1:10">
       <c r="A75" s="2">
-        <f t="shared" si="0"/>
-        <v>10805</v>
+        <v>20804</v>
       </c>
       <c r="B75" s="2">
         <v>8</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G75" s="2">
-        <v>720</v>
+        <v>1800</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="I75" s="2">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" s="2" customFormat="1" hidden="1" spans="1:9">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" spans="1:10">
       <c r="A76" s="2">
-        <f t="shared" si="0"/>
-        <v>10806</v>
+        <v>20805</v>
       </c>
       <c r="B76" s="2">
         <v>8</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G76" s="2">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I76" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" s="2" customFormat="1" hidden="1" spans="1:9">
+        <v>9000</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" s="2" customFormat="1" spans="1:9">
       <c r="A77" s="2">
-        <f t="shared" si="0"/>
-        <v>10807</v>
+        <v>20806</v>
       </c>
       <c r="B77" s="2">
         <v>8</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G77" s="2">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="I77" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="78" s="2" customFormat="1" spans="1:9">
       <c r="A78" s="2">
-        <f t="shared" si="0"/>
-        <v>10808</v>
+        <v>20807</v>
       </c>
       <c r="B78" s="2">
         <v>8</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G78" s="2">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="I78" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="79" s="2" customFormat="1" spans="1:9">
       <c r="A79" s="2">
-        <f t="shared" si="0"/>
-        <v>10809</v>
+        <v>20808</v>
       </c>
       <c r="B79" s="2">
         <v>8</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="G79" s="2">
         <v>600</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="I79" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="80" s="2" customFormat="1" spans="1:9">
       <c r="A80" s="2">
-        <f t="shared" si="0"/>
-        <v>10810</v>
+        <v>20809</v>
       </c>
       <c r="B80" s="2">
         <v>8</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G80" s="2">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I80" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="81" s="2" customFormat="1" spans="1:9">
       <c r="A81" s="2">
-        <f t="shared" si="0"/>
-        <v>10811</v>
+        <v>20810</v>
       </c>
       <c r="B81" s="2">
         <v>8</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G81" s="2">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="I81" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" hidden="1" spans="1:10">
+    <row r="82" s="2" customFormat="1" spans="1:9">
       <c r="A82" s="2">
-        <f t="shared" si="0"/>
-        <v>10812</v>
+        <v>20811</v>
       </c>
       <c r="B82" s="2">
         <v>8</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G82" s="2">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I82" s="2">
-        <v>8000</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" s="2" customFormat="1" hidden="1" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" s="2" customFormat="1" spans="1:10">
       <c r="A83" s="2">
-        <f t="shared" si="0"/>
-        <v>10813</v>
+        <v>20812</v>
       </c>
       <c r="B83" s="2">
         <v>8</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G83" s="2">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I83" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" s="2" customFormat="1" hidden="1" spans="1:10">
+        <v>8000</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" s="2" customFormat="1" spans="1:9">
       <c r="A84" s="2">
-        <f t="shared" si="0"/>
-        <v>10814</v>
+        <v>20813</v>
       </c>
       <c r="B84" s="2">
         <v>8</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" s="2">
+        <v>480</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="1:10">
+      <c r="A85" s="2">
+        <v>20814</v>
+      </c>
+      <c r="B85" s="2">
+        <v>8</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G84" s="2">
+      <c r="F85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G85" s="2">
         <v>1080</v>
       </c>
-      <c r="H84" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I84" s="2">
+      <c r="H85" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I85" s="2">
         <v>8000</v>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>115</v>
+      <c r="J85" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F4:F84">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="Collect_QingRock"/>
-        <customFilter operator="equal" val="Collect_WuWood"/>
-      </customFilters>
-    </filterColumn>
+  <autoFilter ref="F4:F85">
     <extLst/>
   </autoFilter>
   <sortState ref="K39:K42">

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="146">
   <si>
     <t>任务ID</t>
   </si>
@@ -145,10 +145,10 @@
     <t>Item|1001|20</t>
   </si>
   <si>
-    <t>Item|1002|100</t>
-  </si>
-  <si>
-    <t>Item|1001|100</t>
+    <t>Item|1002|50</t>
+  </si>
+  <si>
+    <t>Item|1001|50</t>
   </si>
   <si>
     <t>狩猎野猪</t>
@@ -190,10 +190,10 @@
     <t>9901|20;9902|20;9902|20;9903|20;9903|20</t>
   </si>
   <si>
-    <t>Item|1002|250</t>
-  </si>
-  <si>
-    <t>Item|1001|250</t>
+    <t>Item|1002|120</t>
+  </si>
+  <si>
+    <t>Item|1001|120</t>
   </si>
   <si>
     <t>砍伐银木</t>
@@ -253,208 +253,196 @@
     <t>9904|20;9904|20;9904|20;9904|20;9904|20</t>
   </si>
   <si>
+    <t>Item|1002|300</t>
+  </si>
+  <si>
+    <t>Item|1001|300</t>
+  </si>
+  <si>
+    <t>Item|1004|50</t>
+  </si>
+  <si>
+    <t>Item|1007|2_3</t>
+  </si>
+  <si>
+    <t>Item|1003|50</t>
+  </si>
+  <si>
+    <t>Item|1008|2_3</t>
+  </si>
+  <si>
+    <t>捕捉青蛇</t>
+  </si>
+  <si>
+    <t>师娘特别怕蛇，看到了就一定要打死。</t>
+  </si>
+  <si>
+    <t>Collect_Snake</t>
+  </si>
+  <si>
+    <t>Item|1015|2_3</t>
+  </si>
+  <si>
+    <t>Item|1022|1_2</t>
+  </si>
+  <si>
+    <t>Item|1006|8_12</t>
+  </si>
+  <si>
+    <t>采集紫藤</t>
+  </si>
+  <si>
+    <t>悬崖边上有很多紫藤，多采一些回来做藤甲。</t>
+  </si>
+  <si>
+    <t>Collect_Vine</t>
+  </si>
+  <si>
+    <t>Item|1005|8_12</t>
+  </si>
+  <si>
+    <t>钓鱼</t>
+  </si>
+  <si>
+    <t>荷花池里的鱼很美味，有空可以钓几条上来做菜。</t>
+  </si>
+  <si>
+    <t>Collect_Fish</t>
+  </si>
+  <si>
+    <t>Item|1012|5</t>
+  </si>
+  <si>
+    <t>战倭寇</t>
+  </si>
+  <si>
+    <t>倭人犯我村民久已，卧榻之侧岂容他人猖狂。</t>
+  </si>
+  <si>
+    <t>Item|3003|1</t>
+  </si>
+  <si>
+    <t>Item|3101|1_2;Item|3102|1_2</t>
+  </si>
+  <si>
+    <t>9905|20;9906|20;9906|20;9907|20;9907|20</t>
+  </si>
+  <si>
     <t>Item|1002|800</t>
   </si>
   <si>
     <t>Item|1001|800</t>
   </si>
   <si>
-    <t>Item|1004|100</t>
-  </si>
-  <si>
-    <t>Item|1007|2_3</t>
-  </si>
-  <si>
-    <t>Item|1003|100</t>
-  </si>
-  <si>
-    <t>Item|1008|2_3</t>
-  </si>
-  <si>
-    <t>捕捉青蛇</t>
-  </si>
-  <si>
-    <t>师娘特别怕蛇，看到了就一定要打死。</t>
-  </si>
-  <si>
-    <t>Collect_Snake</t>
-  </si>
-  <si>
-    <t>Item|1015|2_3</t>
-  </si>
-  <si>
-    <t>Item|1022|1_2</t>
-  </si>
-  <si>
-    <t>Item|1006|8_12</t>
-  </si>
-  <si>
-    <t>采集紫藤</t>
-  </si>
-  <si>
-    <t>悬崖边上有很多紫藤，多采一些回来做藤甲。</t>
-  </si>
-  <si>
-    <t>Collect_Vine</t>
-  </si>
-  <si>
-    <t>Item|1005|8_12</t>
-  </si>
-  <si>
-    <t>钓鱼</t>
-  </si>
-  <si>
-    <t>荷花池里的鱼很美味，有空可以钓几条上来做菜。</t>
-  </si>
-  <si>
-    <t>Collect_Fish</t>
-  </si>
-  <si>
-    <t>Item|1012|5</t>
-  </si>
-  <si>
-    <t>战倭寇</t>
-  </si>
-  <si>
-    <t>倭人犯我村民久已，卧榻之侧岂容他人猖狂。</t>
-  </si>
-  <si>
-    <t>Item|3003|1</t>
-  </si>
-  <si>
-    <t>Item|3101|1_2;Item|3102|1_2</t>
-  </si>
-  <si>
-    <t>9905|20;9906|20;9906|20;9907|20;9907|20</t>
-  </si>
-  <si>
-    <t>Item|1002|1500</t>
-  </si>
-  <si>
-    <t>Item|1001|1500</t>
-  </si>
-  <si>
-    <t>Item|1004|250</t>
+    <t>Item|1004|120</t>
+  </si>
+  <si>
+    <t>Item|1003|120</t>
+  </si>
+  <si>
+    <t>Item|1014|3_5</t>
+  </si>
+  <si>
+    <t>Item|1009|8_12</t>
+  </si>
+  <si>
+    <t>打古井水</t>
+  </si>
+  <si>
+    <t>吃水不忘挖井人，不过这井太古老了，也不知道谁挖的。</t>
+  </si>
+  <si>
+    <t>Collect_Well</t>
+  </si>
+  <si>
+    <t>Item|1018|5_8</t>
+  </si>
+  <si>
+    <t>狩猎熊</t>
+  </si>
+  <si>
+    <t>最近黑瞎子经常到附近村里伤人，咱们不能放任不管。</t>
+  </si>
+  <si>
+    <t>Collect_Bear</t>
+  </si>
+  <si>
+    <t>Item|1009|12_18</t>
+  </si>
+  <si>
+    <t>Item|1011|1_2</t>
+  </si>
+  <si>
+    <t>Item|1002|2000</t>
+  </si>
+  <si>
+    <t>Item|1001|2000</t>
+  </si>
+  <si>
+    <t>Item|1004|300</t>
   </si>
   <si>
     <t>Item|1007|3_5</t>
   </si>
   <si>
-    <t>Item|1003|250</t>
+    <t>Item|1003|300</t>
   </si>
   <si>
     <t>Item|1008|3_5</t>
   </si>
   <si>
-    <t>Item|1014|3_5</t>
-  </si>
-  <si>
-    <t>Item|1009|8_12</t>
-  </si>
-  <si>
-    <t>打古井水</t>
-  </si>
-  <si>
-    <t>吃水不忘挖井人，不过这井太古老了，也不知道谁挖的。</t>
-  </si>
-  <si>
-    <t>Collect_Well</t>
-  </si>
-  <si>
-    <t>Item|1018|5_8</t>
-  </si>
-  <si>
-    <t>狩猎熊</t>
-  </si>
-  <si>
-    <t>最近黑瞎子经常到附近村里伤人，咱们不能放任不管。</t>
-  </si>
-  <si>
-    <t>Collect_Bear</t>
-  </si>
-  <si>
-    <t>Item|1009|12_18</t>
-  </si>
-  <si>
-    <t>Item|1011|1_2</t>
-  </si>
-  <si>
-    <t>Item|1002|2500</t>
-  </si>
-  <si>
-    <t>Item|1001|2500</t>
+    <t>Item|1015|3_5</t>
+  </si>
+  <si>
+    <t>Item|1022|2_3</t>
+  </si>
+  <si>
+    <t>Item|1006|12_20</t>
+  </si>
+  <si>
+    <t>采集灵芝</t>
+  </si>
+  <si>
+    <t>灵芝是极品药材，采的时候一定要小心翼翼。</t>
+  </si>
+  <si>
+    <t>Collect_Ganoderma</t>
+  </si>
+  <si>
+    <t>Item|1020|2_3</t>
+  </si>
+  <si>
+    <t>狩猎鹿</t>
+  </si>
+  <si>
+    <t>鹿肉不是重点，鹿茸才是真正的好东西。</t>
+  </si>
+  <si>
+    <t>Collect_Deer</t>
+  </si>
+  <si>
+    <t>Item|1009|10_15</t>
+  </si>
+  <si>
+    <t>Item|1019|1_2</t>
   </si>
   <si>
     <t>Item|1004|800</t>
   </si>
   <si>
+    <t>Item|1003|800</t>
+  </si>
+  <si>
+    <t>Item|1004|2000</t>
+  </si>
+  <si>
     <t>Item|1007|5_8</t>
   </si>
   <si>
-    <t>Item|1003|800</t>
+    <t>Item|1003|2000</t>
   </si>
   <si>
     <t>Item|1008|5_8</t>
-  </si>
-  <si>
-    <t>Item|1015|3_5</t>
-  </si>
-  <si>
-    <t>Item|1022|2_3</t>
-  </si>
-  <si>
-    <t>Item|1006|12_20</t>
-  </si>
-  <si>
-    <t>采集灵芝</t>
-  </si>
-  <si>
-    <t>灵芝是极品药材，采的时候一定要小心翼翼。</t>
-  </si>
-  <si>
-    <t>Collect_Ganoderma</t>
-  </si>
-  <si>
-    <t>Item|1020|2_3</t>
-  </si>
-  <si>
-    <t>狩猎鹿</t>
-  </si>
-  <si>
-    <t>鹿肉不是重点，鹿茸才是真正的好东西。</t>
-  </si>
-  <si>
-    <t>Collect_Deer</t>
-  </si>
-  <si>
-    <t>Item|1009|10_15</t>
-  </si>
-  <si>
-    <t>Item|1019|1_2</t>
-  </si>
-  <si>
-    <t>Item|1004|1500</t>
-  </si>
-  <si>
-    <t>Item|1007|8_12</t>
-  </si>
-  <si>
-    <t>Item|1003|1500</t>
-  </si>
-  <si>
-    <t>Item|1008|8_12</t>
-  </si>
-  <si>
-    <t>Item|1004|2500</t>
-  </si>
-  <si>
-    <t>Item|1007|12_20</t>
-  </si>
-  <si>
-    <t>Item|1003|2500</t>
-  </si>
-  <si>
-    <t>Item|1008|12_20</t>
   </si>
   <si>
     <t>最小等级</t>
@@ -503,29 +491,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,23 +511,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,19 +534,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -600,6 +557,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -608,15 +597,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -632,8 +612,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,6 +622,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,7 +667,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +751,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,13 +775,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,67 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,37 +829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,31 +847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,15 +891,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -923,15 +902,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,11 +923,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,9 +965,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,10 +979,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,43 +991,43 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1048,91 +1036,91 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1481,7 +1469,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -2002,7 +1990,7 @@
         <v>36</v>
       </c>
       <c r="G12" s="4">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>57</v>
@@ -2043,7 +2031,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="4">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>58</v>
@@ -2084,7 +2072,7 @@
         <v>61</v>
       </c>
       <c r="G14" s="4">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>62</v>
@@ -2104,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="O14" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2127,7 +2115,7 @@
         <v>66</v>
       </c>
       <c r="G15" s="4">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>67</v>
@@ -2385,7 +2373,7 @@
         <v>36</v>
       </c>
       <c r="G21" s="5">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>78</v>
@@ -2426,7 +2414,7 @@
         <v>40</v>
       </c>
       <c r="G22" s="5">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>79</v>
@@ -2467,13 +2455,13 @@
         <v>61</v>
       </c>
       <c r="G23" s="5">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>80</v>
       </c>
       <c r="I23" s="5">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>81</v>
@@ -2487,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:15">
@@ -2510,13 +2498,13 @@
         <v>66</v>
       </c>
       <c r="G24" s="5">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I24" s="5">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>83</v>
@@ -2823,7 +2811,7 @@
         <v>3</v>
       </c>
       <c r="O31" s="5">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2870,7 +2858,7 @@
         <v>3</v>
       </c>
       <c r="O32" s="5">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2917,7 +2905,7 @@
         <v>5</v>
       </c>
       <c r="O33" s="5">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2940,7 +2928,7 @@
         <v>36</v>
       </c>
       <c r="G34" s="4">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>103</v>
@@ -2981,7 +2969,7 @@
         <v>40</v>
       </c>
       <c r="G35" s="4">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>104</v>
@@ -3022,16 +3010,16 @@
         <v>61</v>
       </c>
       <c r="G36" s="4">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>105</v>
       </c>
       <c r="I36" s="4">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="K36" s="4">
         <v>450</v>
@@ -3042,7 +3030,7 @@
         <v>2</v>
       </c>
       <c r="O36" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3065,16 +3053,16 @@
         <v>66</v>
       </c>
       <c r="G37" s="4">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I37" s="4">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="K37" s="4">
         <v>450</v>
@@ -3154,7 +3142,7 @@
         <v>600</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I39" s="4">
         <v>0</v>
@@ -3195,7 +3183,7 @@
         <v>300</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I40" s="4">
         <v>0</v>
@@ -3265,19 +3253,19 @@
         <v>5</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="G42" s="4">
         <v>600</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I42" s="4">
         <v>0</v>
@@ -3388,25 +3376,25 @@
         <v>5</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="G45" s="4">
+        <v>600</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G45" s="4">
-        <v>1080</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="I45" s="4">
         <v>8000</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K45" s="4">
         <v>450</v>
@@ -3462,7 +3450,7 @@
         <v>3</v>
       </c>
       <c r="O46" s="4">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:15">
@@ -3509,7 +3497,7 @@
         <v>3</v>
       </c>
       <c r="O47" s="4">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:15">
@@ -3556,7 +3544,7 @@
         <v>5</v>
       </c>
       <c r="O48" s="4">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:15">
@@ -3579,10 +3567,10 @@
         <v>36</v>
       </c>
       <c r="G49" s="5">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I49" s="5">
         <v>0</v>
@@ -3620,10 +3608,10 @@
         <v>40</v>
       </c>
       <c r="G50" s="5">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I50" s="5">
         <v>0</v>
@@ -3661,16 +3649,16 @@
         <v>61</v>
       </c>
       <c r="G51" s="5">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I51" s="5">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K51" s="5">
         <v>800</v>
@@ -3681,7 +3669,7 @@
         <v>2</v>
       </c>
       <c r="O51" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:15">
@@ -3704,16 +3692,16 @@
         <v>66</v>
       </c>
       <c r="G52" s="5">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I52" s="5">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K52" s="5">
         <v>800</v>
@@ -3747,16 +3735,16 @@
         <v>86</v>
       </c>
       <c r="G53" s="5">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I53" s="5">
         <v>8000</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K53" s="5">
         <v>800</v>
@@ -3793,7 +3781,7 @@
         <v>600</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I54" s="5">
         <v>0</v>
@@ -3834,7 +3822,7 @@
         <v>300</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I55" s="5">
         <v>0</v>
@@ -3875,7 +3863,7 @@
         <v>600</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I56" s="5">
         <v>0</v>
@@ -3904,19 +3892,19 @@
         <v>6</v>
       </c>
       <c r="D57" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="G57" s="5">
         <v>600</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I57" s="5">
         <v>0</v>
@@ -3957,7 +3945,7 @@
         <v>600</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I58" s="5">
         <v>0</v>
@@ -3986,19 +3974,19 @@
         <v>6</v>
       </c>
       <c r="D59" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="G59" s="5">
+        <v>600</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G59" s="5">
-        <v>1200</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="I59" s="5">
         <v>0</v>
@@ -4027,25 +4015,25 @@
         <v>6</v>
       </c>
       <c r="D60" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="G60" s="5">
+        <v>600</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G60" s="5">
-        <v>1080</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="I60" s="5">
         <v>8000</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K60" s="5">
         <v>800</v>
@@ -4111,25 +4099,25 @@
         <v>6</v>
       </c>
       <c r="D62" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="G62" s="5">
+        <v>600</v>
+      </c>
+      <c r="H62" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G62" s="5">
-        <v>1080</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="I62" s="5">
         <v>8000</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K62" s="5">
         <v>800</v>
@@ -4185,7 +4173,7 @@
         <v>3</v>
       </c>
       <c r="O63" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4232,7 +4220,7 @@
         <v>3</v>
       </c>
       <c r="O64" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -4279,7 +4267,7 @@
         <v>5</v>
       </c>
       <c r="O65" s="5">
-        <v>1</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -4302,10 +4290,10 @@
         <v>36</v>
       </c>
       <c r="G66" s="4">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I66" s="4">
         <v>0</v>
@@ -4343,10 +4331,10 @@
         <v>40</v>
       </c>
       <c r="G67" s="4">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I67" s="4">
         <v>0</v>
@@ -4384,16 +4372,16 @@
         <v>61</v>
       </c>
       <c r="G68" s="4">
-        <v>1500</v>
+        <v>540</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I68" s="4">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="K68" s="4">
         <v>2000</v>
@@ -4404,7 +4392,7 @@
         <v>3</v>
       </c>
       <c r="O68" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4427,16 +4415,16 @@
         <v>66</v>
       </c>
       <c r="G69" s="4">
-        <v>1500</v>
+        <v>540</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I69" s="4">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="K69" s="4">
         <v>2000</v>
@@ -4470,16 +4458,16 @@
         <v>86</v>
       </c>
       <c r="G70" s="4">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I70" s="4">
         <v>9000</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K70" s="4">
         <v>2000</v>
@@ -4516,7 +4504,7 @@
         <v>600</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I71" s="4">
         <v>0</v>
@@ -4557,7 +4545,7 @@
         <v>300</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I72" s="4">
         <v>0</v>
@@ -4598,7 +4586,7 @@
         <v>600</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I73" s="4">
         <v>0</v>
@@ -4627,19 +4615,19 @@
         <v>7</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="G74" s="4">
         <v>600</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I74" s="4">
         <v>0</v>
@@ -4680,7 +4668,7 @@
         <v>600</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I75" s="4">
         <v>0</v>
@@ -4709,19 +4697,19 @@
         <v>7</v>
       </c>
       <c r="D76" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="G76" s="4">
+        <v>600</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G76" s="4">
-        <v>1200</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="I76" s="4">
         <v>0</v>
@@ -4750,25 +4738,25 @@
         <v>7</v>
       </c>
       <c r="D77" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="G77" s="4">
+        <v>600</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G77" s="4">
-        <v>1080</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="I77" s="4">
         <v>8000</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K77" s="4">
         <v>2000</v>
@@ -4834,25 +4822,25 @@
         <v>7</v>
       </c>
       <c r="D79" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="G79" s="4">
+        <v>600</v>
+      </c>
+      <c r="H79" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G79" s="4">
-        <v>1080</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="I79" s="4">
         <v>8000</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K79" s="4">
         <v>2000</v>
@@ -4908,7 +4896,7 @@
         <v>3</v>
       </c>
       <c r="O80" s="4">
-        <v>1</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" spans="1:15">
@@ -4955,7 +4943,7 @@
         <v>3</v>
       </c>
       <c r="O81" s="4">
-        <v>1</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" s="2" customFormat="1" spans="1:15">
@@ -5002,7 +4990,7 @@
         <v>5</v>
       </c>
       <c r="O82" s="4">
-        <v>1</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" spans="1:15">
@@ -5025,10 +5013,10 @@
         <v>36</v>
       </c>
       <c r="G83" s="5">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I83" s="5">
         <v>0</v>
@@ -5066,10 +5054,10 @@
         <v>40</v>
       </c>
       <c r="G84" s="5">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I84" s="5">
         <v>0</v>
@@ -5107,16 +5095,16 @@
         <v>61</v>
       </c>
       <c r="G85" s="5">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I85" s="5">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K85" s="5">
         <v>4500</v>
@@ -5127,7 +5115,7 @@
         <v>3</v>
       </c>
       <c r="O85" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" s="2" customFormat="1" spans="1:15">
@@ -5150,16 +5138,16 @@
         <v>66</v>
       </c>
       <c r="G86" s="5">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I86" s="5">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K86" s="5">
         <v>4500</v>
@@ -5193,16 +5181,16 @@
         <v>86</v>
       </c>
       <c r="G87" s="5">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I87" s="5">
         <v>9000</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K87" s="5">
         <v>4500</v>
@@ -5239,7 +5227,7 @@
         <v>600</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I88" s="5">
         <v>0</v>
@@ -5280,7 +5268,7 @@
         <v>300</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I89" s="5">
         <v>0</v>
@@ -5321,7 +5309,7 @@
         <v>600</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I90" s="5">
         <v>0</v>
@@ -5350,19 +5338,19 @@
         <v>8</v>
       </c>
       <c r="D91" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="G91" s="5">
         <v>600</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I91" s="5">
         <v>0</v>
@@ -5403,7 +5391,7 @@
         <v>600</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I92" s="5">
         <v>0</v>
@@ -5432,19 +5420,19 @@
         <v>8</v>
       </c>
       <c r="D93" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="G93" s="5">
+        <v>600</v>
+      </c>
+      <c r="H93" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G93" s="5">
-        <v>1200</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="I93" s="5">
         <v>0</v>
@@ -5473,25 +5461,25 @@
         <v>8</v>
       </c>
       <c r="D94" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="G94" s="5">
+        <v>600</v>
+      </c>
+      <c r="H94" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G94" s="5">
-        <v>1080</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="I94" s="5">
         <v>8000</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K94" s="5">
         <v>4500</v>
@@ -5557,25 +5545,25 @@
         <v>8</v>
       </c>
       <c r="D96" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="G96" s="5">
+        <v>600</v>
+      </c>
+      <c r="H96" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G96" s="5">
-        <v>1080</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="I96" s="5">
         <v>8000</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K96" s="5">
         <v>4500</v>
@@ -5631,7 +5619,7 @@
         <v>3</v>
       </c>
       <c r="O97" s="5">
-        <v>1</v>
+        <v>600</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5678,7 +5666,7 @@
         <v>3</v>
       </c>
       <c r="O98" s="5">
-        <v>1</v>
+        <v>600</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5725,21 +5713,21 @@
         <v>5</v>
       </c>
       <c r="O99" s="5">
-        <v>1</v>
+        <v>600</v>
       </c>
     </row>
     <row r="100" spans="18:21">
       <c r="R100" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="S100" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="U100" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="17:21">

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -10,14 +10,14 @@
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$F$1:$F$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$F$1:$F$108</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="142">
   <si>
     <t>任务ID</t>
   </si>
@@ -235,7 +235,7 @@
     <t>Collect_Chicken</t>
   </si>
   <si>
-    <t>Item|1014|2_3</t>
+    <t>Item|1014|3_5</t>
   </si>
   <si>
     <t>抓刺客</t>
@@ -340,7 +340,7 @@
     <t>Item|1003|120</t>
   </si>
   <si>
-    <t>Item|1014|3_5</t>
+    <t>Item|1014|5_8</t>
   </si>
   <si>
     <t>Item|1009|8_12</t>
@@ -443,18 +443,6 @@
   </si>
   <si>
     <t>Item|1008|5_8</t>
-  </si>
-  <si>
-    <t>最小等级</t>
-  </si>
-  <si>
-    <t>最大等级</t>
-  </si>
-  <si>
-    <t>小等级</t>
-  </si>
-  <si>
-    <t>高等级</t>
   </si>
 </sst>
 </file>
@@ -1464,12 +1452,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U108"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1485,10 +1473,7 @@
     <col min="10" max="10" width="25.875" style="3" customWidth="1"/>
     <col min="11" max="15" width="8.83333333333333" style="3"/>
     <col min="16" max="16" width="5.25" style="3" customWidth="1"/>
-    <col min="17" max="17" width="2.375" style="3" customWidth="1"/>
-    <col min="18" max="19" width="8.83333333333333" style="3"/>
-    <col min="20" max="21" width="7" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="8.83333333333333" style="3"/>
+    <col min="17" max="16384" width="8.83333333333333" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:15">
@@ -1863,7 +1848,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="5">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>47</v>
@@ -1922,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2158,7 +2143,7 @@
         <v>71</v>
       </c>
       <c r="G16" s="4">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>72</v>
@@ -2176,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2199,7 +2184,7 @@
         <v>46</v>
       </c>
       <c r="G17" s="4">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>47</v>
@@ -2258,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:15">
@@ -2326,7 +2311,7 @@
         <v>54</v>
       </c>
       <c r="G20" s="4">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>75</v>
@@ -2584,7 +2569,7 @@
         <v>71</v>
       </c>
       <c r="G26" s="5">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>72</v>
@@ -2602,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:15">
@@ -2625,7 +2610,7 @@
         <v>46</v>
       </c>
       <c r="G27" s="5">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>47</v>
@@ -2684,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="5">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:15">
@@ -2725,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:15">
@@ -2766,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="5">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2834,7 +2819,7 @@
         <v>54</v>
       </c>
       <c r="G32" s="5">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>75</v>
@@ -2881,7 +2866,7 @@
         <v>54</v>
       </c>
       <c r="G33" s="5">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>100</v>
@@ -3139,7 +3124,7 @@
         <v>71</v>
       </c>
       <c r="G39" s="4">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>107</v>
@@ -3157,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3239,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3280,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="O42" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3321,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3362,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="O44" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:15">
@@ -3473,7 +3458,7 @@
         <v>54</v>
       </c>
       <c r="G47" s="4">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>75</v>
@@ -3520,7 +3505,7 @@
         <v>54</v>
       </c>
       <c r="G48" s="4">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>100</v>
@@ -3778,7 +3763,7 @@
         <v>71</v>
       </c>
       <c r="G54" s="5">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>107</v>
@@ -3796,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="O54" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:15">
@@ -3878,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="O56" s="5">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" spans="1:15">
@@ -3919,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="O57" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" spans="1:15">
@@ -3960,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="O58" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -4001,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="O59" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -4044,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="O60" s="5">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -4085,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="O61" s="5">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -4196,7 +4181,7 @@
         <v>54</v>
       </c>
       <c r="G64" s="5">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>75</v>
@@ -4243,7 +4228,7 @@
         <v>54</v>
       </c>
       <c r="G65" s="5">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>100</v>
@@ -4501,7 +4486,7 @@
         <v>71</v>
       </c>
       <c r="G71" s="4">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>107</v>
@@ -4519,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="O71" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4601,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="O73" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" spans="1:15">
@@ -4642,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="O74" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" spans="1:15">
@@ -4683,7 +4668,7 @@
         <v>2</v>
       </c>
       <c r="O75" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" spans="1:15">
@@ -4724,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="O76" s="4">
-        <v>250</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" spans="1:15">
@@ -4767,7 +4752,7 @@
         <v>2</v>
       </c>
       <c r="O77" s="4">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" spans="1:15">
@@ -4808,7 +4793,7 @@
         <v>1</v>
       </c>
       <c r="O78" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" spans="1:15">
@@ -4919,7 +4904,7 @@
         <v>54</v>
       </c>
       <c r="G81" s="4">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>75</v>
@@ -4966,7 +4951,7 @@
         <v>54</v>
       </c>
       <c r="G82" s="4">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>100</v>
@@ -5224,7 +5209,7 @@
         <v>71</v>
       </c>
       <c r="G88" s="5">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>107</v>
@@ -5242,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="O88" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -5324,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="O90" s="5">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5365,7 +5350,7 @@
         <v>1</v>
       </c>
       <c r="O91" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5406,7 +5391,7 @@
         <v>2</v>
       </c>
       <c r="O92" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5447,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="O93" s="5">
-        <v>250</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5490,7 +5475,7 @@
         <v>2</v>
       </c>
       <c r="O94" s="5">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5531,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="O95" s="5">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5642,7 +5627,7 @@
         <v>54</v>
       </c>
       <c r="G98" s="5">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>75</v>
@@ -5689,7 +5674,7 @@
         <v>54</v>
       </c>
       <c r="G99" s="5">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>100</v>
@@ -5714,156 +5699,6 @@
       </c>
       <c r="O99" s="5">
         <v>600</v>
-      </c>
-    </row>
-    <row r="100" spans="18:21">
-      <c r="R100" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="17:21">
-      <c r="Q101" s="3">
-        <v>1</v>
-      </c>
-      <c r="R101" s="3">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
-        <v>20</v>
-      </c>
-      <c r="T101" s="3">
-        <v>1</v>
-      </c>
-      <c r="U101" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="17:21">
-      <c r="Q102" s="3">
-        <v>2</v>
-      </c>
-      <c r="R102" s="3">
-        <v>30</v>
-      </c>
-      <c r="S102" s="3">
-        <v>60</v>
-      </c>
-      <c r="T102" s="3">
-        <v>10</v>
-      </c>
-      <c r="U102" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103" spans="17:21">
-      <c r="Q103" s="3">
-        <v>3</v>
-      </c>
-      <c r="R103" s="3">
-        <v>80</v>
-      </c>
-      <c r="S103" s="3">
-        <v>120</v>
-      </c>
-      <c r="T103" s="3">
-        <v>40</v>
-      </c>
-      <c r="U103" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="17:21">
-      <c r="Q104" s="3">
-        <v>4</v>
-      </c>
-      <c r="R104" s="3">
-        <v>150</v>
-      </c>
-      <c r="S104" s="3">
-        <v>210</v>
-      </c>
-      <c r="T104" s="3">
-        <v>100</v>
-      </c>
-      <c r="U104" s="3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="105" spans="17:21">
-      <c r="Q105" s="3">
-        <v>5</v>
-      </c>
-      <c r="R105" s="3">
-        <v>240</v>
-      </c>
-      <c r="S105" s="3">
-        <v>300</v>
-      </c>
-      <c r="T105" s="3">
-        <v>150</v>
-      </c>
-      <c r="U105" s="3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="106" spans="17:21">
-      <c r="Q106" s="3">
-        <v>6</v>
-      </c>
-      <c r="R106" s="2">
-        <v>350</v>
-      </c>
-      <c r="S106" s="2">
-        <v>450</v>
-      </c>
-      <c r="T106" s="2">
-        <v>250</v>
-      </c>
-      <c r="U106" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="107" spans="17:21">
-      <c r="Q107" s="3">
-        <v>7</v>
-      </c>
-      <c r="R107" s="2">
-        <v>500</v>
-      </c>
-      <c r="S107" s="2">
-        <v>600</v>
-      </c>
-      <c r="T107" s="2">
-        <v>360</v>
-      </c>
-      <c r="U107" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="108" spans="17:21">
-      <c r="Q108" s="3">
-        <v>8</v>
-      </c>
-      <c r="R108" s="2">
-        <v>700</v>
-      </c>
-      <c r="S108" s="2">
-        <v>1000</v>
-      </c>
-      <c r="T108" s="2">
-        <v>600</v>
-      </c>
-      <c r="U108" s="2">
-        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -10,14 +10,14 @@
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$F$1:$F$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$F$1:$F$106</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="148">
   <si>
     <t>任务ID</t>
   </si>
@@ -443,6 +443,24 @@
   </si>
   <si>
     <t>Item|1008|5_8</t>
+  </si>
+  <si>
+    <t>砍树</t>
+  </si>
+  <si>
+    <t>盖房子当然要有木材，先去砍树吧。</t>
+  </si>
+  <si>
+    <t>采石</t>
+  </si>
+  <si>
+    <t>石材也是必不可少的建材，后山有不少。</t>
+  </si>
+  <si>
+    <t>Item|2001|1</t>
+  </si>
+  <si>
+    <t>9901|20;9902|20;9902|20</t>
   </si>
 </sst>
 </file>
@@ -479,29 +497,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,18 +510,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,9 +541,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,14 +591,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -585,13 +610,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -600,9 +618,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,8 +632,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,7 +673,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,19 +727,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,13 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,37 +781,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,7 +799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,37 +817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,25 +841,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,17 +897,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,20 +921,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,7 +940,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,6 +962,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -967,10 +985,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,16 +997,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,67 +1018,64 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1069,46 +1084,49 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1452,12 +1470,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
+      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -5701,6 +5719,128 @@
         <v>600</v>
       </c>
     </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="3">
+        <v>9001</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100" s="3">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3">
+        <v>50</v>
+      </c>
+      <c r="N100" s="3">
+        <v>1</v>
+      </c>
+      <c r="O100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="3">
+        <v>9002</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G101" s="3">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3">
+        <v>50</v>
+      </c>
+      <c r="N101" s="3">
+        <v>1</v>
+      </c>
+      <c r="O101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="3">
+        <v>9003</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G102" s="3">
+        <v>300</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>80</v>
+      </c>
+      <c r="L102" s="3">
+        <v>80</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N102" s="3">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="F39:F42">
     <sortCondition ref="F39" descending="1"/>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -10,7 +10,7 @@
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$F$1:$F$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$F$1:$F$102</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -241,7 +241,7 @@
     <t>抓刺客</t>
   </si>
   <si>
-    <t>听说昨晚赵员外被行刺了，咱去帮忙抓抓刺客。</t>
+    <t>昨晚赵员外被行刺了，请咱去帮忙抓刺客。</t>
   </si>
   <si>
     <t>Item|3002|1</t>
@@ -316,7 +316,7 @@
     <t>战倭寇</t>
   </si>
   <si>
-    <t>倭人犯我村民久已，卧榻之侧岂容他人猖狂。</t>
+    <t>倭人犯我百姓久已，卧榻之侧岂容他人猖狂。</t>
   </si>
   <si>
     <t>Item|3003|1</t>
@@ -469,9 +469,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -504,6 +504,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -511,7 +558,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,6 +599,14 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,9 +626,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,90 +635,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,43 +673,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,24 +703,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -757,13 +715,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,13 +769,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,25 +799,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,7 +829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,19 +853,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,9 +899,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,61 +971,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,10 +985,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,136 +997,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1473,9 +1473,9 @@
   <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1784,7 +1784,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="5">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>42</v>
@@ -1825,7 +1825,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="5">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>43</v>
@@ -1866,7 +1866,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="5">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>47</v>
@@ -1948,7 +1948,7 @@
         <v>54</v>
       </c>
       <c r="G11" s="5">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>55</v>
@@ -1993,7 +1993,7 @@
         <v>36</v>
       </c>
       <c r="G12" s="4">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>57</v>
@@ -2034,7 +2034,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="4">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>58</v>
@@ -2075,7 +2075,7 @@
         <v>61</v>
       </c>
       <c r="G14" s="4">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>62</v>
@@ -2118,7 +2118,7 @@
         <v>66</v>
       </c>
       <c r="G15" s="4">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>67</v>
@@ -2161,7 +2161,7 @@
         <v>71</v>
       </c>
       <c r="G16" s="4">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>72</v>
@@ -2202,7 +2202,7 @@
         <v>46</v>
       </c>
       <c r="G17" s="4">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>47</v>
@@ -2284,7 +2284,7 @@
         <v>54</v>
       </c>
       <c r="G19" s="4">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>55</v>
@@ -2329,7 +2329,7 @@
         <v>54</v>
       </c>
       <c r="G20" s="4">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>75</v>
@@ -2376,7 +2376,7 @@
         <v>36</v>
       </c>
       <c r="G21" s="5">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>78</v>
@@ -2417,7 +2417,7 @@
         <v>40</v>
       </c>
       <c r="G22" s="5">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>79</v>
@@ -2458,7 +2458,7 @@
         <v>61</v>
       </c>
       <c r="G23" s="5">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>80</v>
@@ -2501,7 +2501,7 @@
         <v>66</v>
       </c>
       <c r="G24" s="5">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>82</v>
@@ -2544,7 +2544,7 @@
         <v>86</v>
       </c>
       <c r="G25" s="5">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>87</v>
@@ -2587,7 +2587,7 @@
         <v>71</v>
       </c>
       <c r="G26" s="5">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>72</v>
@@ -2628,7 +2628,7 @@
         <v>46</v>
       </c>
       <c r="G27" s="5">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>47</v>
@@ -2669,7 +2669,7 @@
         <v>50</v>
       </c>
       <c r="G28" s="5">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>89</v>
@@ -2710,7 +2710,7 @@
         <v>92</v>
       </c>
       <c r="G29" s="5">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>93</v>
@@ -2751,7 +2751,7 @@
         <v>96</v>
       </c>
       <c r="G30" s="5">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>97</v>
@@ -2792,7 +2792,7 @@
         <v>54</v>
       </c>
       <c r="G31" s="5">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>55</v>
@@ -2837,7 +2837,7 @@
         <v>54</v>
       </c>
       <c r="G32" s="5">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>75</v>
@@ -2884,7 +2884,7 @@
         <v>54</v>
       </c>
       <c r="G33" s="5">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>100</v>
@@ -2931,7 +2931,7 @@
         <v>36</v>
       </c>
       <c r="G34" s="4">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>103</v>
@@ -2972,7 +2972,7 @@
         <v>40</v>
       </c>
       <c r="G35" s="4">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>104</v>
@@ -3013,7 +3013,7 @@
         <v>61</v>
       </c>
       <c r="G36" s="4">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>105</v>
@@ -3056,7 +3056,7 @@
         <v>66</v>
       </c>
       <c r="G37" s="4">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>106</v>
@@ -3099,7 +3099,7 @@
         <v>86</v>
       </c>
       <c r="G38" s="4">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>87</v>
@@ -3142,7 +3142,7 @@
         <v>71</v>
       </c>
       <c r="G39" s="4">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>107</v>
@@ -3183,7 +3183,7 @@
         <v>46</v>
       </c>
       <c r="G40" s="4">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>108</v>
@@ -3224,7 +3224,7 @@
         <v>50</v>
       </c>
       <c r="G41" s="4">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>89</v>
@@ -3265,7 +3265,7 @@
         <v>111</v>
       </c>
       <c r="G42" s="4">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>112</v>
@@ -3306,7 +3306,7 @@
         <v>92</v>
       </c>
       <c r="G43" s="4">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>93</v>
@@ -3347,7 +3347,7 @@
         <v>96</v>
       </c>
       <c r="G44" s="4">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>97</v>
@@ -3388,7 +3388,7 @@
         <v>115</v>
       </c>
       <c r="G45" s="4">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>116</v>
@@ -3431,7 +3431,7 @@
         <v>54</v>
       </c>
       <c r="G46" s="4">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>55</v>
@@ -3476,7 +3476,7 @@
         <v>54</v>
       </c>
       <c r="G47" s="4">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>75</v>
@@ -3523,7 +3523,7 @@
         <v>54</v>
       </c>
       <c r="G48" s="4">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>100</v>
@@ -3570,7 +3570,7 @@
         <v>36</v>
       </c>
       <c r="G49" s="5">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>118</v>
@@ -3611,7 +3611,7 @@
         <v>40</v>
       </c>
       <c r="G50" s="5">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>119</v>
@@ -3652,7 +3652,7 @@
         <v>61</v>
       </c>
       <c r="G51" s="5">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>120</v>
@@ -3695,7 +3695,7 @@
         <v>66</v>
       </c>
       <c r="G52" s="5">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>122</v>
@@ -3738,7 +3738,7 @@
         <v>86</v>
       </c>
       <c r="G53" s="5">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>124</v>
@@ -3781,7 +3781,7 @@
         <v>71</v>
       </c>
       <c r="G54" s="5">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>107</v>
@@ -3822,7 +3822,7 @@
         <v>46</v>
       </c>
       <c r="G55" s="5">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>108</v>
@@ -3863,7 +3863,7 @@
         <v>50</v>
       </c>
       <c r="G56" s="5">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>126</v>
@@ -3904,7 +3904,7 @@
         <v>111</v>
       </c>
       <c r="G57" s="5">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>112</v>
@@ -3945,7 +3945,7 @@
         <v>92</v>
       </c>
       <c r="G58" s="5">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>126</v>
@@ -3986,7 +3986,7 @@
         <v>129</v>
       </c>
       <c r="G59" s="5">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>130</v>
@@ -4027,7 +4027,7 @@
         <v>133</v>
       </c>
       <c r="G60" s="5">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>134</v>
@@ -4070,7 +4070,7 @@
         <v>96</v>
       </c>
       <c r="G61" s="5">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>97</v>
@@ -4111,7 +4111,7 @@
         <v>115</v>
       </c>
       <c r="G62" s="5">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>116</v>
@@ -4154,7 +4154,7 @@
         <v>54</v>
       </c>
       <c r="G63" s="5">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>55</v>
@@ -4199,7 +4199,7 @@
         <v>54</v>
       </c>
       <c r="G64" s="5">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>75</v>
@@ -4246,7 +4246,7 @@
         <v>54</v>
       </c>
       <c r="G65" s="5">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>100</v>
@@ -4293,7 +4293,7 @@
         <v>36</v>
       </c>
       <c r="G66" s="4">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>118</v>
@@ -4334,7 +4334,7 @@
         <v>40</v>
       </c>
       <c r="G67" s="4">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>119</v>
@@ -4375,7 +4375,7 @@
         <v>61</v>
       </c>
       <c r="G68" s="4">
-        <v>540</v>
+        <v>330</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>136</v>
@@ -4418,7 +4418,7 @@
         <v>66</v>
       </c>
       <c r="G69" s="4">
-        <v>540</v>
+        <v>330</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>137</v>
@@ -4461,7 +4461,7 @@
         <v>86</v>
       </c>
       <c r="G70" s="4">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>124</v>
@@ -4504,7 +4504,7 @@
         <v>71</v>
       </c>
       <c r="G71" s="4">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>107</v>
@@ -4545,7 +4545,7 @@
         <v>46</v>
       </c>
       <c r="G72" s="4">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>108</v>
@@ -4586,7 +4586,7 @@
         <v>50</v>
       </c>
       <c r="G73" s="4">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>126</v>
@@ -4627,7 +4627,7 @@
         <v>111</v>
       </c>
       <c r="G74" s="4">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>112</v>
@@ -4668,7 +4668,7 @@
         <v>92</v>
       </c>
       <c r="G75" s="4">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>126</v>
@@ -4709,7 +4709,7 @@
         <v>129</v>
       </c>
       <c r="G76" s="4">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>130</v>
@@ -4750,7 +4750,7 @@
         <v>133</v>
       </c>
       <c r="G77" s="4">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>134</v>
@@ -4793,7 +4793,7 @@
         <v>96</v>
       </c>
       <c r="G78" s="4">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>97</v>
@@ -4834,7 +4834,7 @@
         <v>115</v>
       </c>
       <c r="G79" s="4">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>116</v>
@@ -4877,7 +4877,7 @@
         <v>54</v>
       </c>
       <c r="G80" s="4">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>55</v>
@@ -4922,7 +4922,7 @@
         <v>54</v>
       </c>
       <c r="G81" s="4">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>75</v>
@@ -4969,7 +4969,7 @@
         <v>54</v>
       </c>
       <c r="G82" s="4">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>100</v>
@@ -5016,7 +5016,7 @@
         <v>36</v>
       </c>
       <c r="G83" s="5">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>118</v>
@@ -5057,7 +5057,7 @@
         <v>40</v>
       </c>
       <c r="G84" s="5">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>119</v>
@@ -5098,7 +5098,7 @@
         <v>61</v>
       </c>
       <c r="G85" s="5">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>138</v>
@@ -5141,7 +5141,7 @@
         <v>66</v>
       </c>
       <c r="G86" s="5">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>140</v>
@@ -5184,7 +5184,7 @@
         <v>86</v>
       </c>
       <c r="G87" s="5">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>124</v>
@@ -5227,7 +5227,7 @@
         <v>71</v>
       </c>
       <c r="G88" s="5">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>107</v>
@@ -5268,7 +5268,7 @@
         <v>46</v>
       </c>
       <c r="G89" s="5">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>108</v>
@@ -5309,7 +5309,7 @@
         <v>50</v>
       </c>
       <c r="G90" s="5">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>126</v>
@@ -5350,7 +5350,7 @@
         <v>111</v>
       </c>
       <c r="G91" s="5">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>112</v>
@@ -5391,7 +5391,7 @@
         <v>92</v>
       </c>
       <c r="G92" s="5">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>126</v>
@@ -5432,7 +5432,7 @@
         <v>129</v>
       </c>
       <c r="G93" s="5">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>130</v>
@@ -5473,7 +5473,7 @@
         <v>133</v>
       </c>
       <c r="G94" s="5">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>134</v>
@@ -5516,7 +5516,7 @@
         <v>96</v>
       </c>
       <c r="G95" s="5">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>97</v>
@@ -5557,7 +5557,7 @@
         <v>115</v>
       </c>
       <c r="G96" s="5">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>116</v>
@@ -5600,7 +5600,7 @@
         <v>54</v>
       </c>
       <c r="G97" s="5">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>55</v>
@@ -5645,7 +5645,7 @@
         <v>54</v>
       </c>
       <c r="G98" s="5">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>75</v>
@@ -5692,7 +5692,7 @@
         <v>54</v>
       </c>
       <c r="G99" s="5">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>100</v>
@@ -5747,7 +5747,6 @@
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3"/>
       <c r="K100" s="3">
         <v>50</v>
       </c>
@@ -5786,7 +5785,6 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3"/>
       <c r="K101" s="3">
         <v>50</v>
       </c>
@@ -5817,7 +5815,7 @@
         <v>54</v>
       </c>
       <c r="G102" s="3">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>146</v>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="31730" windowHeight="14830"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
   <si>
     <t>任务ID</t>
   </si>
@@ -468,10 +468,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -496,8 +496,91 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,9 +595,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -542,99 +633,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,19 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,25 +685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,37 +697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,13 +721,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,31 +829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,31 +847,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,32 +882,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -922,6 +896,36 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,17 +945,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,9 +971,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,10 +985,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,136 +997,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1473,12 +1473,12 @@
   <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.625" style="3" customWidth="1"/>
     <col min="2" max="3" width="10" style="3" customWidth="1"/>
@@ -1494,7 +1494,7 @@
     <col min="17" max="16384" width="8.83333333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:15">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:15">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:15">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -5795,10 +5795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="3">
-        <v>9003</v>
-      </c>
+    <row r="102" spans="2:15">
       <c r="B102" s="3" t="s">
         <v>33</v>
       </c>
@@ -5843,7 +5840,7 @@
   <sortState ref="F39:F42">
     <sortCondition ref="F39" descending="1"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31730" windowHeight="14830"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$F$1:$F$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$G$1:$G$102</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="164">
   <si>
     <t>任务ID</t>
   </si>
@@ -34,6 +34,9 @@
     <t>任务描述</t>
   </si>
   <si>
+    <t>任务文本</t>
+  </si>
+  <si>
     <t>任务类型</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>TaskDescription</t>
   </si>
   <si>
+    <t>TaskTxt</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -124,7 +130,10 @@
     <t>砍伐乌木</t>
   </si>
   <si>
-    <t>村西边的乌木长得快，木质好，盖房子最合适。</t>
+    <t>砍点木头盖房子。</t>
+  </si>
+  <si>
+    <t>村西边的乌木长得很快，质地又好，用来盖房子最合适不过了，附近的村子都用它。</t>
   </si>
   <si>
     <t>Collect_WuWood</t>
@@ -136,7 +145,10 @@
     <t>开采青石</t>
   </si>
   <si>
-    <t>山脚下的青石遍地都是，可以挖来做基地或者砌墙。</t>
+    <t>挖点石头盖房子。</t>
+  </si>
+  <si>
+    <t>山脚下的青石遍地都是，虽然颜色不太好看，好在很结实，可以采来做地基或者砌墙。</t>
   </si>
   <si>
     <t>Collect_QingRock</t>
@@ -154,7 +166,10 @@
     <t>狩猎野猪</t>
   </si>
   <si>
-    <t>池塘边总有野猪出没伤人，去宰了它给兄弟们加餐。</t>
+    <t>去池塘边抓野猪。</t>
+  </si>
+  <si>
+    <t>最近池塘边总有野猪出没，去宰了它给兄弟们加加餐。围捕的时候切记谨慎，被獠牙顶到可不是闹着玩的。</t>
   </si>
   <si>
     <t>Collect_Boar</t>
@@ -166,7 +181,10 @@
     <t>开采黑铁</t>
   </si>
   <si>
-    <t>打铁当然先要有铁，可以去后山找找看。</t>
+    <t>去后山开采黑铁。</t>
+  </si>
+  <si>
+    <t>打铁当然先要有铁，可以去后山找找看，有人在那里发现过黑铁矿石，去晚了可能就被别人抢走了。</t>
   </si>
   <si>
     <t>Collect_Iron</t>
@@ -178,7 +196,10 @@
     <t>剿匪徒</t>
   </si>
   <si>
-    <t>最近隔壁村闹山贼，村长请我们去剿匪。</t>
+    <t>去隔壁村围剿土匪。</t>
+  </si>
+  <si>
+    <t>最近隔壁村经常闹土匪，村民们苦不堪言，村长请我们去帮忙剿匪，事成之后必有重谢。</t>
   </si>
   <si>
     <t>Battle</t>
@@ -199,7 +220,7 @@
     <t>砍伐银木</t>
   </si>
   <si>
-    <t>银木是高级木材，要很久才能长成一棵。</t>
+    <t>银木是高级木材，需要很久才能长成，有时候还能在树上采到珍贵的银叶，是制作银叶甲的必备材料。</t>
   </si>
   <si>
     <t>Collect_SilverWood</t>
@@ -214,7 +235,7 @@
     <t>开采云岩</t>
   </si>
   <si>
-    <t>云岩的表面有一种像云一样的花纹，故名云岩。</t>
+    <t>云岩的表面有一种像云一样的花纹，故名云岩。石芯内部藏着一种稀有材料云晶，可以用来锻造武器。</t>
   </si>
   <si>
     <t>Collect_CloudRock</t>
@@ -229,7 +250,10 @@
     <t>捕捉鸡</t>
   </si>
   <si>
-    <t>庄上散养了很多鸡，想吃就直接去抓。</t>
+    <t>把庄上养的鸡抓来。</t>
+  </si>
+  <si>
+    <t>庄上散养了很多鸡，肉质肥美又劲道，想吃就直接去抓几只，剩下的交给伙房就可以。</t>
   </si>
   <si>
     <t>Collect_Chicken</t>
@@ -241,7 +265,10 @@
     <t>抓刺客</t>
   </si>
   <si>
-    <t>昨晚赵员外被行刺了，请咱去帮忙抓刺客。</t>
+    <t>帮赵员外抓刺客。</t>
+  </si>
+  <si>
+    <t>昨晚赵员外被行刺了，好在只受了点轻伤，没有性命之忧。听说员外家挺有钱的，咱们也去帮忙抓刺客吧。</t>
   </si>
   <si>
     <t>Item|3002|1</t>
@@ -274,7 +301,10 @@
     <t>捕捉青蛇</t>
   </si>
   <si>
-    <t>师娘特别怕蛇，看到了就一定要打死。</t>
+    <t>打死闯入庄上的蛇。</t>
+  </si>
+  <si>
+    <t>师娘特别怕蛇，看到了就一定要打死。尸体不要扔掉，蛇肉交给伙房，蛇胆交给药房，都是好东西。</t>
   </si>
   <si>
     <t>Collect_Snake</t>
@@ -292,7 +322,10 @@
     <t>采集紫藤</t>
   </si>
   <si>
-    <t>悬崖边上有很多紫藤，多采一些回来做藤甲。</t>
+    <t>去悬崖边采集紫藤。</t>
+  </si>
+  <si>
+    <t>悬崖边上有很多紫藤，多采一些回来做藤甲。悬崖边的石头很滑，采集的时候小心点，别掉下去。</t>
   </si>
   <si>
     <t>Collect_Vine</t>
@@ -304,7 +337,10 @@
     <t>钓鱼</t>
   </si>
   <si>
-    <t>荷花池里的鱼很美味，有空可以钓几条上来做菜。</t>
+    <t>去荷花池钓鱼。</t>
+  </si>
+  <si>
+    <t>荷花池里的鱼很美味，有空可以钓几条上来，清蒸红烧煲汤，想怎么吃都可以。</t>
   </si>
   <si>
     <t>Collect_Fish</t>
@@ -316,7 +352,10 @@
     <t>战倭寇</t>
   </si>
   <si>
-    <t>倭人犯我百姓久已，卧榻之侧岂容他人猖狂。</t>
+    <t>剿灭侵犯村子的倭寇。</t>
+  </si>
+  <si>
+    <t>倭人犯我天朝百姓久已，烧杀劫掠，无恶不作，吾等习武之人倘若坐视不管，岂不被人笑话。</t>
   </si>
   <si>
     <t>Item|3003|1</t>
@@ -349,7 +388,10 @@
     <t>打古井水</t>
   </si>
   <si>
-    <t>吃水不忘挖井人，不过这井太古老了，也不知道谁挖的。</t>
+    <t>去庄后头打点井水。</t>
+  </si>
+  <si>
+    <t>古人曰：吃水不忘挖井人，不过这井太古老了，也不知道是谁挖的，年头这么久了，井水还是那么清澈甘甜。</t>
   </si>
   <si>
     <t>Collect_Well</t>
@@ -361,7 +403,10 @@
     <t>狩猎熊</t>
   </si>
   <si>
-    <t>最近黑瞎子经常到附近村里伤人，咱们不能放任不管。</t>
+    <t>去附近村里狩猎黑熊。</t>
+  </si>
+  <si>
+    <t>最近经常有黑熊到附近村子里转悠，拍死咬伤了不少妇孺老人，猎户都拿它们没办法，是时候我们出马了。</t>
   </si>
   <si>
     <t>Collect_Bear</t>
@@ -403,7 +448,7 @@
     <t>采集灵芝</t>
   </si>
   <si>
-    <t>灵芝是极品药材，采的时候一定要小心翼翼。</t>
+    <t>灵芝是极品药材，采的时候一定要小心翼翼，千万别弄断了，不然会被药房师傅骂死。</t>
   </si>
   <si>
     <t>Collect_Ganoderma</t>
@@ -415,7 +460,10 @@
     <t>狩猎鹿</t>
   </si>
   <si>
-    <t>鹿肉不是重点，鹿茸才是真正的好东西。</t>
+    <t>去树林里狩猎鹿。</t>
+  </si>
+  <si>
+    <t>鹿肉不是重点，鹿茸才是真正的好东西，师父最爱的药酒就是用它泡的，不仅延年益寿，还能壮阳。</t>
   </si>
   <si>
     <t>Collect_Deer</t>
@@ -448,13 +496,13 @@
     <t>砍树</t>
   </si>
   <si>
-    <t>盖房子当然要有木材，先去砍树吧。</t>
+    <t>盖房子当然要有木材，先去砍树吧。村西边的乌木就很适合。</t>
   </si>
   <si>
     <t>采石</t>
   </si>
   <si>
-    <t>石材也是必不可少的建材，后山有不少。</t>
+    <t>石材也是必不可少的建材，后山有不少青石，做地基和砌墙都可以。</t>
   </si>
   <si>
     <t>Item|2001|1</t>
@@ -468,9 +516,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -504,6 +552,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -512,8 +603,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,6 +616,30 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,74 +660,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,16 +674,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,7 +721,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,13 +793,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,31 +847,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,49 +871,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,61 +895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,30 +935,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,6 +993,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -985,10 +1033,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,136 +1045,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1470,31 +1518,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.625" style="3" customWidth="1"/>
     <col min="2" max="3" width="10" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="45.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="25.875" style="3" customWidth="1"/>
-    <col min="11" max="15" width="8.83333333333333" style="3"/>
-    <col min="16" max="16" width="5.25" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="8.83333333333333" style="3"/>
+    <col min="5" max="5" width="21.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="90" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="5.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.875" style="3" customWidth="1"/>
+    <col min="12" max="16" width="8.83333333333333" style="3"/>
+    <col min="17" max="17" width="5.25" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="8.83333333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1522,10 +1571,10 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1540,4305 +1589,4614 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="4">
         <v>20101</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="4">
+        <v>38</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="4">
         <v>60</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
+      <c r="I5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4">
         <v>50</v>
       </c>
-      <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4">
-        <v>1</v>
-      </c>
+      <c r="N5" s="4"/>
       <c r="O5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="4">
         <v>20102</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="4">
+        <v>43</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4">
         <v>60</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
         <v>50</v>
       </c>
-      <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4">
-        <v>1</v>
-      </c>
+      <c r="N6" s="4"/>
       <c r="O6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:15">
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:16">
       <c r="A7" s="5">
         <v>20201</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="5">
+        <v>38</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="5">
         <v>120</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5">
+      <c r="I7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
         <v>80</v>
       </c>
-      <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="5">
-        <v>1</v>
-      </c>
+      <c r="N7" s="5"/>
       <c r="O7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:15">
+      <c r="P7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:16">
       <c r="A8" s="5">
         <v>20202</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="5">
+        <v>43</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="5">
         <v>120</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5">
+      <c r="I8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
         <v>80</v>
       </c>
-      <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="5">
-        <v>1</v>
-      </c>
+      <c r="N8" s="5"/>
       <c r="O8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:15">
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:16">
       <c r="A9" s="5">
         <v>20203</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="5">
+        <v>50</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="5">
         <v>150</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5">
+      <c r="I9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
         <v>80</v>
       </c>
-      <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
+      <c r="N9" s="5"/>
       <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:15">
+    <row r="10" s="2" customFormat="1" spans="1:16">
       <c r="A10" s="5">
         <v>20204</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="5">
+        <v>55</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="5">
         <v>300</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5">
+      <c r="I10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
         <v>80</v>
       </c>
-      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="5">
-        <v>1</v>
-      </c>
+      <c r="N10" s="5"/>
       <c r="O10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="5">
         <v>20205</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="5">
+        <v>60</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="5">
         <v>240</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5">
-        <v>80</v>
-      </c>
+      <c r="I11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5"/>
       <c r="L11" s="5">
         <v>80</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="5">
+      <c r="M11" s="5">
+        <v>80</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="5">
         <v>3</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" s="4">
         <v>20301</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="4">
+        <v>38</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="4">
         <v>150</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4">
+      <c r="I12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4">
         <v>150</v>
       </c>
-      <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
+      <c r="N12" s="4"/>
       <c r="O12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="4">
         <v>20302</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="4">
+        <v>43</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="4">
         <v>150</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4">
+      <c r="I13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
         <v>150</v>
       </c>
-      <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4">
-        <v>1</v>
-      </c>
+      <c r="N13" s="4"/>
       <c r="O13" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="4">
         <v>20303</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4">
         <v>3</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="4">
+        <v>67</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="4">
         <v>150</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="I14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="4">
         <v>6000</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="K14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="4">
         <v>150</v>
       </c>
-      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4">
+      <c r="N14" s="4"/>
+      <c r="O14" s="4">
         <v>2</v>
       </c>
-      <c r="O14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="4">
         <v>20304</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="4">
+        <v>72</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="4">
         <v>150</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="I15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="4">
         <v>6000</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="K15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="4">
         <v>150</v>
       </c>
-      <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="4">
+      <c r="N15" s="4"/>
+      <c r="O15" s="4">
         <v>2</v>
       </c>
-      <c r="O15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="4">
         <v>20305</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="4">
+        <v>78</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="4">
         <v>120</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4">
+      <c r="I16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
         <v>150</v>
       </c>
-      <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="4">
-        <v>1</v>
-      </c>
+      <c r="N16" s="4"/>
       <c r="O16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="4">
         <v>20306</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="4">
+        <v>50</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="4">
         <v>150</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4">
+      <c r="I17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
         <v>150</v>
       </c>
-      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4">
+      <c r="N17" s="4"/>
+      <c r="O17" s="4">
         <v>2</v>
       </c>
-      <c r="O17" s="4">
+      <c r="P17" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" s="4">
         <v>20307</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4">
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="4">
+        <v>55</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="4">
         <v>300</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4">
+      <c r="I18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
         <v>150</v>
       </c>
-      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4">
-        <v>1</v>
-      </c>
+      <c r="N18" s="4"/>
       <c r="O18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:15">
+      <c r="P18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:16">
       <c r="A19" s="4">
         <v>20308</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="4">
+        <v>60</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="4">
         <v>240</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4">
+      <c r="I19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
         <v>150</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>120</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="N19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="4">
         <v>3</v>
       </c>
-      <c r="O19" s="4">
+      <c r="P19" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:15">
+    <row r="20" s="2" customFormat="1" spans="1:16">
       <c r="A20" s="4">
         <v>20309</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4">
         <v>3</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="4">
+        <v>83</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="4">
         <v>300</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="I20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="4">
         <v>3000</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="4">
+      <c r="K20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="4">
         <v>150</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
         <v>120</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="N20" s="4">
+      <c r="N20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" s="4">
         <v>3</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:15">
+    <row r="21" s="2" customFormat="1" spans="1:16">
       <c r="A21" s="5">
         <v>20401</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="5">
         <v>4</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="5">
+        <v>38</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="5">
         <v>180</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5">
+      <c r="I21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5">
         <v>250</v>
       </c>
-      <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5">
+      <c r="N21" s="5"/>
+      <c r="O21" s="5">
         <v>2</v>
       </c>
-      <c r="O21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:15">
+      <c r="P21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:16">
       <c r="A22" s="5">
         <v>20402</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" s="5">
         <v>4</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="5">
+        <v>43</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="5">
         <v>180</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5">
+      <c r="I22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5">
         <v>250</v>
       </c>
-      <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="5">
+      <c r="N22" s="5"/>
+      <c r="O22" s="5">
         <v>2</v>
       </c>
-      <c r="O22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:15">
+      <c r="P22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:16">
       <c r="A23" s="5">
         <v>20403</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C23" s="5">
         <v>4</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="5">
+        <v>67</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="5">
         <v>180</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="5">
+      <c r="I23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="5">
         <v>6000</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K23" s="5">
+      <c r="K23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="5">
         <v>250</v>
       </c>
-      <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5">
+      <c r="N23" s="5"/>
+      <c r="O23" s="5">
         <v>2</v>
       </c>
-      <c r="O23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:15">
+      <c r="P23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:16">
       <c r="A24" s="5">
         <v>20404</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C24" s="5">
         <v>4</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="5">
+        <v>72</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="5">
         <v>180</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="5">
+      <c r="I24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="5">
         <v>6000</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="5">
+      <c r="K24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="5">
         <v>250</v>
       </c>
-      <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="5">
+      <c r="N24" s="5"/>
+      <c r="O24" s="5">
         <v>2</v>
       </c>
-      <c r="O24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:15">
+      <c r="P24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:16">
       <c r="A25" s="5">
         <v>20405</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C25" s="5">
         <v>4</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="5">
+        <v>95</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="5">
         <v>360</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I25" s="5">
+      <c r="I25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="5">
         <v>6000</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" s="5">
+      <c r="K25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" s="5">
         <v>250</v>
       </c>
-      <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="5">
-        <v>1</v>
-      </c>
+      <c r="N25" s="5"/>
       <c r="O25" s="5">
+        <v>1</v>
+      </c>
+      <c r="P25" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:15">
+    <row r="26" s="2" customFormat="1" spans="1:16">
       <c r="A26" s="5">
         <v>20406</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C26" s="5">
         <v>4</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="5">
+        <v>78</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="5">
         <v>120</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" s="5">
-        <v>0</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5">
+      <c r="I26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5">
         <v>250</v>
       </c>
-      <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5">
-        <v>1</v>
-      </c>
+      <c r="N26" s="5"/>
       <c r="O26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:15">
+      <c r="P26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:16">
       <c r="A27" s="5">
         <v>20407</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5">
         <v>4</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="5">
+        <v>50</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="5">
         <v>150</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5">
+      <c r="I27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5">
         <v>250</v>
       </c>
-      <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="5">
+      <c r="N27" s="5"/>
+      <c r="O27" s="5">
         <v>2</v>
       </c>
-      <c r="O27" s="5">
+      <c r="P27" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:15">
+    <row r="28" s="2" customFormat="1" spans="1:16">
       <c r="A28" s="5">
         <v>20408</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C28" s="5">
         <v>4</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="5">
+        <v>55</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="5">
         <v>360</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I28" s="5">
-        <v>0</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5">
+      <c r="I28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5">
         <v>250</v>
       </c>
-      <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="5">
-        <v>1</v>
-      </c>
+      <c r="N28" s="5"/>
       <c r="O28" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="1:15">
+      <c r="P28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:16">
       <c r="A29" s="5">
         <v>20409</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5">
         <v>4</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="5">
+        <v>102</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="5">
         <v>300</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I29" s="5">
-        <v>0</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5">
+      <c r="I29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5">
         <v>250</v>
       </c>
-      <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5">
+      <c r="N29" s="5"/>
+      <c r="O29" s="5">
         <v>2</v>
       </c>
-      <c r="O29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="1:15">
+      <c r="P29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:16">
       <c r="A30" s="5">
         <v>20410</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C30" s="5">
         <v>4</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="5">
+        <v>107</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="5">
         <v>300</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5">
+      <c r="I30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5">
         <v>250</v>
       </c>
-      <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="5">
-        <v>1</v>
-      </c>
+      <c r="N30" s="5"/>
       <c r="O30" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="5">
         <v>20411</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31" s="5">
         <v>4</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="5">
+        <v>60</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="5">
         <v>240</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5">
+      <c r="I31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5">
         <v>250</v>
       </c>
-      <c r="L31" s="5">
+      <c r="M31" s="5">
         <v>200</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N31" s="5">
+      <c r="N31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O31" s="5">
         <v>3</v>
       </c>
-      <c r="O31" s="5">
+      <c r="P31" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" s="5">
         <v>20412</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5">
         <v>4</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="5">
+        <v>83</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="5">
         <v>300</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" s="5">
+      <c r="I32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="5">
         <v>3000</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K32" s="5">
+      <c r="K32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32" s="5">
         <v>250</v>
       </c>
-      <c r="L32" s="5">
+      <c r="M32" s="5">
         <v>200</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="N32" s="5">
+      <c r="N32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O32" s="5">
         <v>3</v>
       </c>
-      <c r="O32" s="5">
+      <c r="P32" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33" s="5">
         <v>20414</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33" s="5">
         <v>4</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="5">
+        <v>112</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="5">
         <v>360</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="I33" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33" s="5">
+        <v>5000</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L33" s="5">
+        <v>250</v>
+      </c>
+      <c r="M33" s="5">
+        <v>200</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O33" s="5">
+        <v>5</v>
+      </c>
+      <c r="P33" s="5">
         <v>100</v>
       </c>
-      <c r="I33" s="5">
-        <v>5000</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K33" s="5">
-        <v>250</v>
-      </c>
-      <c r="L33" s="5">
-        <v>200</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="N33" s="5">
-        <v>5</v>
-      </c>
-      <c r="O33" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="4">
         <v>20501</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C34" s="4">
         <v>5</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="4">
+        <v>38</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="4">
         <v>240</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4">
+      <c r="I34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4">
         <v>450</v>
       </c>
-      <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="4">
+      <c r="N34" s="4"/>
+      <c r="O34" s="4">
         <v>2</v>
       </c>
-      <c r="O34" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="4">
         <v>20502</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C35" s="4">
         <v>5</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="4">
+        <v>43</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="4">
         <v>240</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4">
+      <c r="I35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4">
         <v>450</v>
       </c>
-      <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="4">
+      <c r="N35" s="4"/>
+      <c r="O35" s="4">
         <v>2</v>
       </c>
-      <c r="O35" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="4">
         <v>20503</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C36" s="4">
         <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="4">
+        <v>67</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="4">
         <v>240</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I36" s="4">
+      <c r="I36" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J36" s="4">
         <v>7000</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K36" s="4">
+      <c r="K36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L36" s="4">
         <v>450</v>
       </c>
-      <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="4">
+      <c r="N36" s="4"/>
+      <c r="O36" s="4">
         <v>2</v>
       </c>
-      <c r="O36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="4">
         <v>20504</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C37" s="4">
         <v>5</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="4">
+        <v>72</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="4">
         <v>240</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I37" s="4">
+      <c r="I37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J37" s="4">
         <v>7000</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K37" s="4">
+      <c r="K37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L37" s="4">
         <v>450</v>
       </c>
-      <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="4">
+      <c r="N37" s="4"/>
+      <c r="O37" s="4">
         <v>2</v>
       </c>
-      <c r="O37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="4">
         <v>20505</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C38" s="4">
         <v>5</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" s="4">
+        <v>95</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="4">
         <v>360</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I38" s="4">
+      <c r="I38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J38" s="4">
         <v>6000</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K38" s="4">
+      <c r="K38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L38" s="4">
         <v>450</v>
       </c>
-      <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="4">
-        <v>1</v>
-      </c>
+      <c r="N38" s="4"/>
       <c r="O38" s="4">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="A39" s="4">
         <v>20506</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C39" s="4">
         <v>5</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="4">
+        <v>78</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" s="4">
         <v>180</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I39" s="4">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4">
+      <c r="I39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4">
         <v>450</v>
       </c>
-      <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="4">
-        <v>1</v>
-      </c>
+      <c r="N39" s="4"/>
       <c r="O39" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="P39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="4">
         <v>20507</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C40" s="4">
         <v>5</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" s="4">
+        <v>50</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="4">
         <v>210</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4">
+      <c r="I40" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4">
         <v>450</v>
       </c>
-      <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="4">
+      <c r="N40" s="4"/>
+      <c r="O40" s="4">
         <v>2</v>
       </c>
-      <c r="O40" s="4">
+      <c r="P40" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:16">
       <c r="A41" s="4">
         <v>20508</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C41" s="4">
         <v>5</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="4">
+        <v>55</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="4">
         <v>360</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4">
+      <c r="I41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4">
         <v>450</v>
       </c>
-      <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="4">
-        <v>1</v>
-      </c>
+      <c r="N41" s="4"/>
       <c r="O41" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="P41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="4">
         <v>20509</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C42" s="4">
         <v>5</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G42" s="4">
+        <v>124</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42" s="4">
         <v>360</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I42" s="4">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4">
+      <c r="I42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4">
         <v>450</v>
       </c>
-      <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="4">
-        <v>1</v>
-      </c>
+      <c r="N42" s="4"/>
       <c r="O42" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="P42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="4">
         <v>20510</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C43" s="4">
         <v>5</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G43" s="4">
+        <v>102</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" s="4">
         <v>300</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I43" s="4">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4">
+      <c r="I43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4">
         <v>450</v>
       </c>
-      <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="4">
+      <c r="N43" s="4"/>
+      <c r="O43" s="4">
         <v>2</v>
       </c>
-      <c r="O43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="P43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="4">
         <v>20511</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C44" s="4">
         <v>5</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G44" s="4">
+        <v>107</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" s="4">
         <v>300</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4">
+      <c r="I44" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4">
         <v>450</v>
       </c>
-      <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="4">
-        <v>1</v>
-      </c>
+      <c r="N44" s="4"/>
       <c r="O44" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" s="2" customFormat="1" spans="1:15">
+      <c r="P44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:16">
       <c r="A45" s="4">
         <v>20512</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C45" s="4">
         <v>5</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G45" s="4">
+        <v>129</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H45" s="4">
         <v>360</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I45" s="4">
+      <c r="I45" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45" s="4">
         <v>8000</v>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K45" s="4">
+      <c r="K45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L45" s="4">
         <v>450</v>
       </c>
-      <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="4">
+      <c r="N45" s="4"/>
+      <c r="O45" s="4">
         <v>2</v>
       </c>
-      <c r="O45" s="4">
+      <c r="P45" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:15">
+    <row r="46" s="2" customFormat="1" spans="1:16">
       <c r="A46" s="4">
         <v>20513</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C46" s="4">
         <v>5</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" s="4">
+        <v>60</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="4">
         <v>240</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I46" s="4">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4">
+      <c r="I46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4">
         <v>450</v>
       </c>
-      <c r="L46" s="4">
+      <c r="M46" s="4">
         <v>350</v>
       </c>
-      <c r="M46" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N46" s="4">
+      <c r="N46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O46" s="4">
         <v>3</v>
       </c>
-      <c r="O46" s="4">
+      <c r="P46" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:15">
+    <row r="47" s="2" customFormat="1" spans="1:16">
       <c r="A47" s="4">
         <v>20514</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C47" s="4">
         <v>5</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G47" s="4">
+        <v>83</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="4">
         <v>300</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I47" s="4">
+      <c r="I47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J47" s="4">
         <v>3000</v>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K47" s="4">
+      <c r="K47" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L47" s="4">
         <v>450</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>350</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="N47" s="4">
+      <c r="N47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O47" s="4">
         <v>3</v>
       </c>
-      <c r="O47" s="4">
+      <c r="P47" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:15">
+    <row r="48" s="2" customFormat="1" spans="1:16">
       <c r="A48" s="4">
         <v>20515</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C48" s="4">
         <v>5</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" s="4">
+        <v>112</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="4">
         <v>360</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I48" s="4">
+      <c r="I48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J48" s="4">
         <v>5000</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K48" s="4">
+      <c r="K48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L48" s="4">
         <v>450</v>
       </c>
-      <c r="L48" s="4">
+      <c r="M48" s="4">
         <v>350</v>
       </c>
-      <c r="M48" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N48" s="4">
+      <c r="N48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="O48" s="4">
         <v>5</v>
       </c>
-      <c r="O48" s="4">
+      <c r="P48" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:15">
+    <row r="49" s="2" customFormat="1" spans="1:16">
       <c r="A49" s="5">
         <v>20601</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C49" s="5">
         <v>6</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G49" s="5">
+        <v>38</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="5">
         <v>300</v>
       </c>
-      <c r="H49" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I49" s="5">
-        <v>0</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5">
+      <c r="I49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5">
         <v>800</v>
       </c>
-      <c r="L49" s="5"/>
       <c r="M49" s="5"/>
-      <c r="N49" s="5">
+      <c r="N49" s="5"/>
+      <c r="O49" s="5">
         <v>2</v>
       </c>
-      <c r="O49" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" s="2" customFormat="1" spans="1:15">
+      <c r="P49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:16">
       <c r="A50" s="5">
         <v>20602</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C50" s="5">
         <v>6</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" s="5">
+        <v>43</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="5">
         <v>300</v>
       </c>
-      <c r="H50" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I50" s="5">
-        <v>0</v>
-      </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5">
+      <c r="I50" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5">
         <v>800</v>
       </c>
-      <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="5">
+      <c r="N50" s="5"/>
+      <c r="O50" s="5">
         <v>2</v>
       </c>
-      <c r="O50" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" s="2" customFormat="1" spans="1:15">
+      <c r="P50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:16">
       <c r="A51" s="5">
         <v>20603</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C51" s="5">
         <v>6</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" s="5">
+        <v>67</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="5">
         <v>300</v>
       </c>
-      <c r="H51" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I51" s="5">
+      <c r="I51" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J51" s="5">
         <v>7000</v>
       </c>
-      <c r="J51" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="K51" s="5">
+      <c r="K51" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L51" s="5">
         <v>800</v>
       </c>
-      <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="5">
+      <c r="N51" s="5"/>
+      <c r="O51" s="5">
         <v>2</v>
       </c>
-      <c r="O51" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" s="2" customFormat="1" spans="1:15">
+      <c r="P51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="1:16">
       <c r="A52" s="5">
         <v>20604</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C52" s="5">
         <v>6</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" s="5">
+        <v>72</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="5">
         <v>300</v>
       </c>
-      <c r="H52" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I52" s="5">
+      <c r="I52" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J52" s="5">
         <v>7000</v>
       </c>
-      <c r="J52" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="K52" s="5">
+      <c r="K52" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L52" s="5">
         <v>800</v>
       </c>
-      <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="5">
+      <c r="N52" s="5"/>
+      <c r="O52" s="5">
         <v>2</v>
       </c>
-      <c r="O52" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" s="2" customFormat="1" spans="1:15">
+      <c r="P52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="1:16">
       <c r="A53" s="5">
         <v>20605</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C53" s="5">
         <v>6</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G53" s="5">
+        <v>95</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H53" s="5">
         <v>480</v>
       </c>
-      <c r="H53" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I53" s="5">
+      <c r="I53" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J53" s="5">
         <v>8000</v>
       </c>
-      <c r="J53" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K53" s="5">
+      <c r="K53" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L53" s="5">
         <v>800</v>
       </c>
-      <c r="L53" s="5"/>
       <c r="M53" s="5"/>
-      <c r="N53" s="5">
-        <v>1</v>
-      </c>
+      <c r="N53" s="5"/>
       <c r="O53" s="5">
+        <v>1</v>
+      </c>
+      <c r="P53" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" spans="1:15">
+    <row r="54" s="2" customFormat="1" spans="1:16">
       <c r="A54" s="5">
         <v>20606</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C54" s="5">
         <v>6</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G54" s="5">
+        <v>78</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" s="5">
         <v>180</v>
       </c>
-      <c r="H54" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I54" s="5">
-        <v>0</v>
-      </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5">
+      <c r="I54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5">
         <v>800</v>
       </c>
-      <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="5">
-        <v>1</v>
-      </c>
+      <c r="N54" s="5"/>
       <c r="O54" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" s="2" customFormat="1" spans="1:15">
+      <c r="P54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:16">
       <c r="A55" s="5">
         <v>20607</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C55" s="5">
         <v>6</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G55" s="5">
+        <v>50</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="5">
         <v>210</v>
       </c>
-      <c r="H55" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I55" s="5">
-        <v>0</v>
-      </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5">
+      <c r="I55" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J55" s="5">
+        <v>0</v>
+      </c>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5">
         <v>800</v>
       </c>
-      <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="5">
+      <c r="N55" s="5"/>
+      <c r="O55" s="5">
         <v>2</v>
       </c>
-      <c r="O55" s="5">
+      <c r="P55" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:15">
+    <row r="56" s="2" customFormat="1" spans="1:16">
       <c r="A56" s="5">
         <v>20608</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C56" s="5">
         <v>6</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" s="5">
+        <v>55</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="5">
         <v>480</v>
       </c>
-      <c r="H56" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I56" s="5">
-        <v>0</v>
-      </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5">
+      <c r="I56" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5">
         <v>800</v>
       </c>
-      <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="5">
-        <v>1</v>
-      </c>
+      <c r="N56" s="5"/>
       <c r="O56" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" s="2" customFormat="1" spans="1:15">
+      <c r="P56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:16">
       <c r="A57" s="5">
         <v>20609</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C57" s="5">
         <v>6</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G57" s="5">
+        <v>124</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H57" s="5">
         <v>360</v>
       </c>
-      <c r="H57" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I57" s="5">
-        <v>0</v>
-      </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5">
+      <c r="I57" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0</v>
+      </c>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5">
         <v>800</v>
       </c>
-      <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="5">
-        <v>1</v>
-      </c>
+      <c r="N57" s="5"/>
       <c r="O57" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" s="2" customFormat="1" spans="1:15">
+      <c r="P57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="1:16">
       <c r="A58" s="5">
         <v>20610</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C58" s="5">
         <v>6</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G58" s="5">
+        <v>102</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H58" s="5">
         <v>360</v>
       </c>
-      <c r="H58" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I58" s="5">
-        <v>0</v>
-      </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5">
+      <c r="I58" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0</v>
+      </c>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5">
         <v>800</v>
       </c>
-      <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="5">
+      <c r="N58" s="5"/>
+      <c r="O58" s="5">
         <v>2</v>
       </c>
-      <c r="O58" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="P58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="5">
         <v>20611</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C59" s="5">
         <v>6</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G59" s="5">
+        <v>143</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H59" s="5">
         <v>480</v>
       </c>
-      <c r="H59" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I59" s="5">
-        <v>0</v>
-      </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5">
+      <c r="I59" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5">
         <v>800</v>
       </c>
-      <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="5">
-        <v>1</v>
-      </c>
+      <c r="N59" s="5"/>
       <c r="O59" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="P59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="5">
         <v>20612</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C60" s="5">
         <v>6</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G60" s="5">
+        <v>148</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H60" s="5">
         <v>300</v>
       </c>
-      <c r="H60" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I60" s="5">
+      <c r="I60" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J60" s="5">
         <v>8000</v>
       </c>
-      <c r="J60" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K60" s="5">
+      <c r="K60" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L60" s="5">
         <v>800</v>
       </c>
-      <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="5">
+      <c r="N60" s="5"/>
+      <c r="O60" s="5">
         <v>2</v>
       </c>
-      <c r="O60" s="5">
+      <c r="P60" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:16">
       <c r="A61" s="5">
         <v>20613</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C61" s="5">
         <v>6</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G61" s="5">
+        <v>107</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="5">
         <v>300</v>
       </c>
-      <c r="H61" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I61" s="5">
-        <v>0</v>
-      </c>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5">
+      <c r="I61" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5">
         <v>800</v>
       </c>
-      <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="5">
-        <v>1</v>
-      </c>
+      <c r="N61" s="5"/>
       <c r="O61" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="P61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="5">
         <v>20614</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C62" s="5">
         <v>6</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G62" s="5">
+        <v>129</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H62" s="5">
         <v>360</v>
       </c>
-      <c r="H62" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I62" s="5">
+      <c r="I62" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J62" s="5">
         <v>8000</v>
       </c>
-      <c r="J62" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K62" s="5">
+      <c r="K62" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L62" s="5">
         <v>800</v>
       </c>
-      <c r="L62" s="5"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="5">
+      <c r="N62" s="5"/>
+      <c r="O62" s="5">
         <v>2</v>
       </c>
-      <c r="O62" s="5">
+      <c r="P62" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:16">
       <c r="A63" s="5">
         <v>20615</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C63" s="5">
         <v>6</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G63" s="5">
+        <v>60</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63" s="5">
         <v>240</v>
       </c>
-      <c r="H63" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I63" s="5">
-        <v>0</v>
-      </c>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5">
+      <c r="I63" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0</v>
+      </c>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5">
         <v>800</v>
       </c>
-      <c r="L63" s="5">
+      <c r="M63" s="5">
         <v>600</v>
       </c>
-      <c r="M63" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N63" s="5">
+      <c r="N63" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O63" s="5">
         <v>3</v>
       </c>
-      <c r="O63" s="5">
+      <c r="P63" s="5">
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:16">
       <c r="A64" s="5">
         <v>20616</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C64" s="5">
         <v>6</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G64" s="5">
+        <v>83</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H64" s="5">
         <v>300</v>
       </c>
-      <c r="H64" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I64" s="5">
+      <c r="I64" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J64" s="5">
         <v>4000</v>
       </c>
-      <c r="J64" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K64" s="5">
+      <c r="K64" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L64" s="5">
         <v>800</v>
       </c>
-      <c r="L64" s="5">
+      <c r="M64" s="5">
         <v>600</v>
       </c>
-      <c r="M64" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="N64" s="5">
+      <c r="N64" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O64" s="5">
         <v>3</v>
       </c>
-      <c r="O64" s="5">
+      <c r="P64" s="5">
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:16">
       <c r="A65" s="5">
         <v>20617</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C65" s="5">
         <v>6</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G65" s="5">
+        <v>112</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H65" s="5">
         <v>360</v>
       </c>
-      <c r="H65" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I65" s="5">
+      <c r="I65" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J65" s="5">
         <v>6000</v>
       </c>
-      <c r="J65" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K65" s="5">
+      <c r="K65" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L65" s="5">
         <v>800</v>
       </c>
-      <c r="L65" s="5">
+      <c r="M65" s="5">
         <v>600</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="N65" s="5">
+      <c r="N65" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O65" s="5">
         <v>5</v>
       </c>
-      <c r="O65" s="5">
+      <c r="P65" s="5">
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:16">
       <c r="A66" s="4">
         <v>20701</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C66" s="4">
         <v>7</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" s="4">
+        <v>38</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66" s="4">
         <v>300</v>
       </c>
-      <c r="H66" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I66" s="4">
-        <v>0</v>
-      </c>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4">
+      <c r="I66" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0</v>
+      </c>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4">
         <v>2000</v>
       </c>
-      <c r="L66" s="4"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="4">
+      <c r="N66" s="4"/>
+      <c r="O66" s="4">
         <v>2</v>
       </c>
-      <c r="O66" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="P66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="4">
         <v>20702</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C67" s="4">
         <v>7</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G67" s="4">
+        <v>43</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" s="4">
         <v>300</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I67" s="4">
-        <v>0</v>
-      </c>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4">
+      <c r="I67" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4">
         <v>2000</v>
       </c>
-      <c r="L67" s="4"/>
       <c r="M67" s="4"/>
-      <c r="N67" s="4">
+      <c r="N67" s="4"/>
+      <c r="O67" s="4">
         <v>2</v>
       </c>
-      <c r="O67" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="P67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="4">
         <v>20703</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C68" s="4">
         <v>7</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G68" s="4">
+        <v>67</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" s="4">
         <v>330</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="I68" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J68" s="4">
+        <v>8000</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I68" s="4">
-        <v>8000</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K68" s="4">
+      <c r="L68" s="4">
         <v>2000</v>
       </c>
-      <c r="L68" s="4"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="4">
+      <c r="N68" s="4"/>
+      <c r="O68" s="4">
         <v>3</v>
       </c>
-      <c r="O68" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="P68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="4">
         <v>20704</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C69" s="4">
         <v>7</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G69" s="4">
+        <v>72</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H69" s="4">
         <v>330</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I69" s="4">
+      <c r="I69" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J69" s="4">
         <v>8000</v>
       </c>
-      <c r="J69" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K69" s="4">
+      <c r="K69" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L69" s="4">
         <v>2000</v>
       </c>
-      <c r="L69" s="4"/>
       <c r="M69" s="4"/>
-      <c r="N69" s="4">
+      <c r="N69" s="4"/>
+      <c r="O69" s="4">
         <v>3</v>
       </c>
-      <c r="O69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="P69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="4">
         <v>20705</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C70" s="4">
         <v>7</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G70" s="4">
+        <v>95</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H70" s="4">
         <v>480</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I70" s="4">
+      <c r="I70" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J70" s="4">
         <v>9000</v>
       </c>
-      <c r="J70" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K70" s="4">
+      <c r="K70" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L70" s="4">
         <v>2000</v>
       </c>
-      <c r="L70" s="4"/>
       <c r="M70" s="4"/>
-      <c r="N70" s="4">
-        <v>1</v>
-      </c>
+      <c r="N70" s="4"/>
       <c r="O70" s="4">
+        <v>1</v>
+      </c>
+      <c r="P70" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:16">
       <c r="A71" s="4">
         <v>20706</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C71" s="4">
         <v>7</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G71" s="4">
+        <v>78</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" s="4">
         <v>180</v>
       </c>
-      <c r="H71" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I71" s="4">
-        <v>0</v>
-      </c>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4">
+      <c r="I71" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4">
         <v>2000</v>
       </c>
-      <c r="L71" s="4"/>
       <c r="M71" s="4"/>
-      <c r="N71" s="4">
-        <v>1</v>
-      </c>
+      <c r="N71" s="4"/>
       <c r="O71" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:15">
+      <c r="P71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="4">
         <v>20707</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C72" s="4">
         <v>7</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G72" s="4">
+        <v>50</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H72" s="4">
         <v>210</v>
       </c>
-      <c r="H72" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I72" s="4">
-        <v>0</v>
-      </c>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4">
+      <c r="I72" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4">
         <v>2000</v>
       </c>
-      <c r="L72" s="4"/>
       <c r="M72" s="4"/>
-      <c r="N72" s="4">
+      <c r="N72" s="4"/>
+      <c r="O72" s="4">
         <v>2</v>
       </c>
-      <c r="O72" s="4">
+      <c r="P72" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" spans="1:15">
+    <row r="73" s="2" customFormat="1" spans="1:16">
       <c r="A73" s="4">
         <v>20708</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C73" s="4">
         <v>7</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G73" s="4">
+        <v>55</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H73" s="4">
         <v>480</v>
       </c>
-      <c r="H73" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I73" s="4">
-        <v>0</v>
-      </c>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4">
+      <c r="I73" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4">
         <v>2000</v>
       </c>
-      <c r="L73" s="4"/>
       <c r="M73" s="4"/>
-      <c r="N73" s="4">
-        <v>1</v>
-      </c>
+      <c r="N73" s="4"/>
       <c r="O73" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" s="2" customFormat="1" spans="1:15">
+      <c r="P73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" s="2" customFormat="1" spans="1:16">
       <c r="A74" s="4">
         <v>20709</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C74" s="4">
         <v>7</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G74" s="4">
+        <v>124</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H74" s="4">
         <v>360</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I74" s="4">
-        <v>0</v>
-      </c>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4">
+      <c r="I74" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4">
         <v>2000</v>
       </c>
-      <c r="L74" s="4"/>
       <c r="M74" s="4"/>
-      <c r="N74" s="4">
-        <v>1</v>
-      </c>
+      <c r="N74" s="4"/>
       <c r="O74" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" s="2" customFormat="1" spans="1:15">
+      <c r="P74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" spans="1:16">
       <c r="A75" s="4">
         <v>20710</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C75" s="4">
         <v>7</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G75" s="4">
+        <v>102</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H75" s="4">
         <v>360</v>
       </c>
-      <c r="H75" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I75" s="4">
-        <v>0</v>
-      </c>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4">
+      <c r="I75" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J75" s="4">
+        <v>0</v>
+      </c>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4">
         <v>2000</v>
       </c>
-      <c r="L75" s="4"/>
       <c r="M75" s="4"/>
-      <c r="N75" s="4">
+      <c r="N75" s="4"/>
+      <c r="O75" s="4">
         <v>2</v>
       </c>
-      <c r="O75" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" s="2" customFormat="1" spans="1:15">
+      <c r="P75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" s="2" customFormat="1" spans="1:16">
       <c r="A76" s="4">
         <v>20711</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C76" s="4">
         <v>7</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G76" s="4">
+        <v>143</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H76" s="4">
         <v>480</v>
       </c>
-      <c r="H76" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="I76" s="4">
-        <v>0</v>
-      </c>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4">
+      <c r="I76" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J76" s="4">
+        <v>0</v>
+      </c>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4">
         <v>2000</v>
       </c>
-      <c r="L76" s="4"/>
       <c r="M76" s="4"/>
-      <c r="N76" s="4">
-        <v>1</v>
-      </c>
+      <c r="N76" s="4"/>
       <c r="O76" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" s="2" customFormat="1" spans="1:15">
+      <c r="P76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" s="2" customFormat="1" spans="1:16">
       <c r="A77" s="4">
         <v>20712</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C77" s="4">
         <v>7</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G77" s="4">
+        <v>148</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H77" s="4">
         <v>300</v>
       </c>
-      <c r="H77" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I77" s="4">
+      <c r="I77" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J77" s="4">
         <v>8000</v>
       </c>
-      <c r="J77" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K77" s="4">
+      <c r="K77" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L77" s="4">
         <v>2000</v>
       </c>
-      <c r="L77" s="4"/>
       <c r="M77" s="4"/>
-      <c r="N77" s="4">
+      <c r="N77" s="4"/>
+      <c r="O77" s="4">
         <v>2</v>
       </c>
-      <c r="O77" s="4">
+      <c r="P77" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" spans="1:15">
+    <row r="78" s="2" customFormat="1" spans="1:16">
       <c r="A78" s="4">
         <v>20713</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C78" s="4">
         <v>7</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G78" s="4">
+        <v>107</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H78" s="4">
         <v>300</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I78" s="4">
-        <v>0</v>
-      </c>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4">
+      <c r="I78" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4">
         <v>2000</v>
       </c>
-      <c r="L78" s="4"/>
       <c r="M78" s="4"/>
-      <c r="N78" s="4">
-        <v>1</v>
-      </c>
+      <c r="N78" s="4"/>
       <c r="O78" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" s="2" customFormat="1" spans="1:15">
+      <c r="P78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1" spans="1:16">
       <c r="A79" s="4">
         <v>20714</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C79" s="4">
         <v>7</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G79" s="4">
+        <v>129</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H79" s="4">
         <v>360</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I79" s="4">
+      <c r="I79" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J79" s="4">
         <v>8000</v>
       </c>
-      <c r="J79" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K79" s="4">
+      <c r="K79" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L79" s="4">
         <v>2000</v>
       </c>
-      <c r="L79" s="4"/>
       <c r="M79" s="4"/>
-      <c r="N79" s="4">
+      <c r="N79" s="4"/>
+      <c r="O79" s="4">
         <v>2</v>
       </c>
-      <c r="O79" s="4">
+      <c r="P79" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" spans="1:15">
+    <row r="80" s="2" customFormat="1" spans="1:16">
       <c r="A80" s="4">
         <v>20715</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C80" s="4">
         <v>7</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G80" s="4">
+        <v>60</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" s="4">
         <v>240</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I80" s="4">
-        <v>0</v>
-      </c>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4">
+      <c r="I80" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J80" s="4">
+        <v>0</v>
+      </c>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4">
         <v>2000</v>
       </c>
-      <c r="L80" s="4">
+      <c r="M80" s="4">
         <v>1200</v>
       </c>
-      <c r="M80" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N80" s="4">
+      <c r="N80" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O80" s="4">
         <v>3</v>
       </c>
-      <c r="O80" s="4">
+      <c r="P80" s="4">
         <v>360</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" spans="1:15">
+    <row r="81" s="2" customFormat="1" spans="1:16">
       <c r="A81" s="4">
         <v>20716</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C81" s="4">
         <v>7</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G81" s="4">
+        <v>83</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H81" s="4">
         <v>300</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I81" s="4">
+      <c r="I81" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J81" s="4">
         <v>4000</v>
       </c>
-      <c r="J81" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K81" s="4">
+      <c r="K81" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L81" s="4">
         <v>2000</v>
       </c>
-      <c r="L81" s="4">
+      <c r="M81" s="4">
         <v>1200</v>
       </c>
-      <c r="M81" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="N81" s="4">
+      <c r="N81" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O81" s="4">
         <v>3</v>
       </c>
-      <c r="O81" s="4">
+      <c r="P81" s="4">
         <v>360</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" spans="1:15">
+    <row r="82" s="2" customFormat="1" spans="1:16">
       <c r="A82" s="4">
         <v>20717</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C82" s="4">
         <v>7</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G82" s="4">
+        <v>112</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H82" s="4">
         <v>360</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I82" s="4">
+      <c r="I82" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J82" s="4">
         <v>6000</v>
       </c>
-      <c r="J82" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K82" s="4">
+      <c r="K82" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L82" s="4">
         <v>2000</v>
       </c>
-      <c r="L82" s="4">
+      <c r="M82" s="4">
         <v>1200</v>
       </c>
-      <c r="M82" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N82" s="4">
+      <c r="N82" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="O82" s="4">
         <v>5</v>
       </c>
-      <c r="O82" s="4">
+      <c r="P82" s="4">
         <v>360</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" spans="1:15">
+    <row r="83" s="2" customFormat="1" spans="1:16">
       <c r="A83" s="5">
         <v>20801</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C83" s="5">
         <v>8</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G83" s="5">
+        <v>38</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H83" s="5">
         <v>300</v>
       </c>
-      <c r="H83" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I83" s="5">
-        <v>0</v>
-      </c>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5">
+      <c r="I83" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J83" s="5">
+        <v>0</v>
+      </c>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5">
         <v>4500</v>
       </c>
-      <c r="L83" s="5"/>
       <c r="M83" s="5"/>
-      <c r="N83" s="5">
+      <c r="N83" s="5"/>
+      <c r="O83" s="5">
         <v>2</v>
       </c>
-      <c r="O83" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" s="2" customFormat="1" spans="1:15">
+      <c r="P83" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" s="2" customFormat="1" spans="1:16">
       <c r="A84" s="5">
         <v>20802</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C84" s="5">
         <v>8</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G84" s="5">
+        <v>43</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H84" s="5">
         <v>300</v>
       </c>
-      <c r="H84" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I84" s="5">
-        <v>0</v>
-      </c>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5">
+      <c r="I84" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0</v>
+      </c>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5">
         <v>4500</v>
       </c>
-      <c r="L84" s="5"/>
       <c r="M84" s="5"/>
-      <c r="N84" s="5">
+      <c r="N84" s="5"/>
+      <c r="O84" s="5">
         <v>2</v>
       </c>
-      <c r="O84" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" s="2" customFormat="1" spans="1:15">
+      <c r="P84" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="1:16">
       <c r="A85" s="5">
         <v>20803</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C85" s="5">
         <v>8</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G85" s="5">
+        <v>67</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H85" s="5">
         <v>360</v>
       </c>
-      <c r="H85" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I85" s="5">
+      <c r="I85" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J85" s="5">
         <v>8000</v>
       </c>
-      <c r="J85" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="K85" s="5">
+      <c r="K85" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L85" s="5">
         <v>4500</v>
       </c>
-      <c r="L85" s="5"/>
       <c r="M85" s="5"/>
-      <c r="N85" s="5">
+      <c r="N85" s="5"/>
+      <c r="O85" s="5">
         <v>3</v>
       </c>
-      <c r="O85" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" s="2" customFormat="1" spans="1:15">
+      <c r="P85" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" s="2" customFormat="1" spans="1:16">
       <c r="A86" s="5">
         <v>20804</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C86" s="5">
         <v>8</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G86" s="5">
+        <v>72</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" s="5">
         <v>360</v>
       </c>
-      <c r="H86" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I86" s="5">
+      <c r="I86" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J86" s="5">
         <v>8000</v>
       </c>
-      <c r="J86" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K86" s="5">
+      <c r="K86" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L86" s="5">
         <v>4500</v>
       </c>
-      <c r="L86" s="5"/>
       <c r="M86" s="5"/>
-      <c r="N86" s="5">
+      <c r="N86" s="5"/>
+      <c r="O86" s="5">
         <v>3</v>
       </c>
-      <c r="O86" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="P86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="5">
         <v>20805</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C87" s="5">
         <v>8</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G87" s="5">
+        <v>95</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H87" s="5">
         <v>480</v>
       </c>
-      <c r="H87" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I87" s="5">
+      <c r="I87" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J87" s="5">
         <v>9000</v>
       </c>
-      <c r="J87" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K87" s="5">
+      <c r="K87" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L87" s="5">
         <v>4500</v>
       </c>
-      <c r="L87" s="5"/>
       <c r="M87" s="5"/>
-      <c r="N87" s="5">
-        <v>1</v>
-      </c>
+      <c r="N87" s="5"/>
       <c r="O87" s="5">
+        <v>1</v>
+      </c>
+      <c r="P87" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:16">
       <c r="A88" s="5">
         <v>20806</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C88" s="5">
         <v>8</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G88" s="5">
+        <v>78</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H88" s="5">
         <v>180</v>
       </c>
-      <c r="H88" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I88" s="5">
-        <v>0</v>
-      </c>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5">
+      <c r="I88" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J88" s="5">
+        <v>0</v>
+      </c>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5">
         <v>4500</v>
       </c>
-      <c r="L88" s="5"/>
       <c r="M88" s="5"/>
-      <c r="N88" s="5">
-        <v>1</v>
-      </c>
+      <c r="N88" s="5"/>
       <c r="O88" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:15">
+      <c r="P88" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" s="5">
         <v>20807</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C89" s="5">
         <v>8</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G89" s="5">
+        <v>50</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H89" s="5">
         <v>210</v>
       </c>
-      <c r="H89" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I89" s="5">
-        <v>0</v>
-      </c>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5">
+      <c r="I89" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J89" s="5">
+        <v>0</v>
+      </c>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5">
         <v>4500</v>
       </c>
-      <c r="L89" s="5"/>
       <c r="M89" s="5"/>
-      <c r="N89" s="5">
+      <c r="N89" s="5"/>
+      <c r="O89" s="5">
         <v>2</v>
       </c>
-      <c r="O89" s="5">
+      <c r="P89" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:16">
       <c r="A90" s="5">
         <v>20808</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C90" s="5">
         <v>8</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G90" s="5">
+        <v>55</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H90" s="5">
         <v>480</v>
       </c>
-      <c r="H90" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I90" s="5">
-        <v>0</v>
-      </c>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5">
+      <c r="I90" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0</v>
+      </c>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5">
         <v>4500</v>
       </c>
-      <c r="L90" s="5"/>
       <c r="M90" s="5"/>
-      <c r="N90" s="5">
-        <v>1</v>
-      </c>
+      <c r="N90" s="5"/>
       <c r="O90" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:15">
+      <c r="P90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="5">
         <v>20809</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C91" s="5">
         <v>8</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G91" s="5">
+        <v>124</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H91" s="5">
         <v>360</v>
       </c>
-      <c r="H91" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I91" s="5">
-        <v>0</v>
-      </c>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5">
+      <c r="I91" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J91" s="5">
+        <v>0</v>
+      </c>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5">
         <v>4500</v>
       </c>
-      <c r="L91" s="5"/>
       <c r="M91" s="5"/>
-      <c r="N91" s="5">
-        <v>1</v>
-      </c>
+      <c r="N91" s="5"/>
       <c r="O91" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:15">
+      <c r="P91" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" s="5">
         <v>20810</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C92" s="5">
         <v>8</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G92" s="5">
+        <v>102</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H92" s="5">
         <v>360</v>
       </c>
-      <c r="H92" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I92" s="5">
-        <v>0</v>
-      </c>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5">
+      <c r="I92" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J92" s="5">
+        <v>0</v>
+      </c>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5">
         <v>4500</v>
       </c>
-      <c r="L92" s="5"/>
       <c r="M92" s="5"/>
-      <c r="N92" s="5">
+      <c r="N92" s="5"/>
+      <c r="O92" s="5">
         <v>2</v>
       </c>
-      <c r="O92" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+      <c r="P92" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="5">
         <v>20811</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C93" s="5">
         <v>8</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G93" s="5">
+        <v>143</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H93" s="5">
         <v>480</v>
       </c>
-      <c r="H93" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I93" s="5">
-        <v>0</v>
-      </c>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5">
+      <c r="I93" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J93" s="5">
+        <v>0</v>
+      </c>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5">
         <v>4500</v>
       </c>
-      <c r="L93" s="5"/>
       <c r="M93" s="5"/>
-      <c r="N93" s="5">
-        <v>1</v>
-      </c>
+      <c r="N93" s="5"/>
       <c r="O93" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:15">
+      <c r="P93" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="5">
         <v>20812</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C94" s="5">
         <v>8</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G94" s="5">
+        <v>148</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H94" s="5">
         <v>300</v>
       </c>
-      <c r="H94" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I94" s="5">
+      <c r="I94" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J94" s="5">
         <v>8000</v>
       </c>
-      <c r="J94" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K94" s="5">
+      <c r="K94" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L94" s="5">
         <v>4500</v>
       </c>
-      <c r="L94" s="5"/>
       <c r="M94" s="5"/>
-      <c r="N94" s="5">
+      <c r="N94" s="5"/>
+      <c r="O94" s="5">
         <v>2</v>
       </c>
-      <c r="O94" s="5">
+      <c r="P94" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:16">
       <c r="A95" s="5">
         <v>20813</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C95" s="5">
         <v>8</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G95" s="5">
+        <v>107</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H95" s="5">
         <v>300</v>
       </c>
-      <c r="H95" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I95" s="5">
-        <v>0</v>
-      </c>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5">
+      <c r="I95" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J95" s="5">
+        <v>0</v>
+      </c>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5">
         <v>4500</v>
       </c>
-      <c r="L95" s="5"/>
       <c r="M95" s="5"/>
-      <c r="N95" s="5">
-        <v>1</v>
-      </c>
+      <c r="N95" s="5"/>
       <c r="O95" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:15">
+      <c r="P95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="5">
         <v>20814</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C96" s="5">
         <v>8</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G96" s="5">
+        <v>129</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H96" s="5">
         <v>360</v>
       </c>
-      <c r="H96" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I96" s="5">
+      <c r="I96" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J96" s="5">
         <v>8000</v>
       </c>
-      <c r="J96" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K96" s="5">
+      <c r="K96" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L96" s="5">
         <v>4500</v>
       </c>
-      <c r="L96" s="5"/>
       <c r="M96" s="5"/>
-      <c r="N96" s="5">
+      <c r="N96" s="5"/>
+      <c r="O96" s="5">
         <v>2</v>
       </c>
-      <c r="O96" s="5">
+      <c r="P96" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:16">
       <c r="A97" s="5">
         <v>20815</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C97" s="5">
         <v>8</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G97" s="5">
+        <v>60</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H97" s="5">
         <v>240</v>
       </c>
-      <c r="H97" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I97" s="5">
-        <v>0</v>
-      </c>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5">
+      <c r="I97" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J97" s="5">
+        <v>0</v>
+      </c>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5">
         <v>4500</v>
       </c>
-      <c r="L97" s="5">
+      <c r="M97" s="5">
         <v>2500</v>
       </c>
-      <c r="M97" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N97" s="5">
+      <c r="N97" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O97" s="5">
         <v>3</v>
       </c>
-      <c r="O97" s="5">
+      <c r="P97" s="5">
         <v>600</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:16">
       <c r="A98" s="5">
         <v>20816</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C98" s="5">
         <v>8</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G98" s="5">
+        <v>83</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H98" s="5">
         <v>300</v>
       </c>
-      <c r="H98" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I98" s="5">
+      <c r="I98" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J98" s="5">
         <v>6000</v>
       </c>
-      <c r="J98" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K98" s="5">
+      <c r="K98" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L98" s="5">
         <v>4500</v>
       </c>
-      <c r="L98" s="5">
+      <c r="M98" s="5">
         <v>2500</v>
       </c>
-      <c r="M98" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="N98" s="5">
+      <c r="N98" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O98" s="5">
         <v>3</v>
       </c>
-      <c r="O98" s="5">
+      <c r="P98" s="5">
         <v>600</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:16">
       <c r="A99" s="5">
         <v>20817</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C99" s="5">
         <v>8</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G99" s="5">
+        <v>112</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H99" s="5">
         <v>360</v>
       </c>
-      <c r="H99" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I99" s="5">
+      <c r="I99" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J99" s="5">
         <v>8000</v>
       </c>
-      <c r="J99" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K99" s="5">
+      <c r="K99" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L99" s="5">
         <v>4500</v>
       </c>
-      <c r="L99" s="5">
+      <c r="M99" s="5">
         <v>2500</v>
       </c>
-      <c r="M99" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="N99" s="5">
+      <c r="N99" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O99" s="5">
         <v>5</v>
       </c>
-      <c r="O99" s="5">
+      <c r="P99" s="5">
         <v>600</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:16">
       <c r="A100" s="3">
         <v>9001</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C100" s="3">
         <v>0</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G100" s="3">
+        <v>159</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H100" s="3">
         <v>3</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>50</v>
       </c>
-      <c r="N100" s="3">
-        <v>1</v>
-      </c>
       <c r="O100" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="P100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" s="3">
         <v>9002</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C101" s="3">
         <v>0</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G101" s="3">
+        <v>161</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H101" s="3">
         <v>3</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>50</v>
       </c>
-      <c r="N101" s="3">
-        <v>1</v>
-      </c>
       <c r="O101" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="2:15">
+      <c r="P101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="3">
+        <v>9003</v>
+      </c>
       <c r="B102" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C102" s="3">
         <v>0</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G102" s="3">
+        <v>60</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H102" s="3">
         <v>5</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>80</v>
+      <c r="I102" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>80</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="M102" s="3">
+        <v>80</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O102" s="3">
         <v>3</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="F39:F42">
-    <sortCondition ref="F39" descending="1"/>
+  <sortState ref="G39:G42">
+    <sortCondition ref="G39" descending="1"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="6140" windowWidth="6140" windowHeight="4520"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
   <si>
     <t>任务ID</t>
   </si>
@@ -517,9 +517,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -544,16 +544,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,27 +581,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -603,9 +589,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,31 +605,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,15 +627,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,17 +665,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -721,7 +721,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,19 +793,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,73 +811,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,13 +835,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,7 +853,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,37 +901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,15 +926,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,15 +956,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,8 +993,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,16 +1009,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,136 +1045,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1523,10 +1523,10 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.625" style="3" customWidth="1"/>
     <col min="2" max="3" width="10" style="3" customWidth="1"/>
@@ -1534,16 +1534,16 @@
     <col min="5" max="5" width="21.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="90" style="3" customWidth="1"/>
     <col min="7" max="7" width="18.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="15.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19.75" style="3" customWidth="1"/>
     <col min="11" max="11" width="25.875" style="3" customWidth="1"/>
     <col min="12" max="16" width="8.83333333333333" style="3"/>
     <col min="17" max="17" width="5.25" style="3" customWidth="1"/>
     <col min="18" max="16384" width="8.83333333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:16">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:16">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:16">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -6141,16 +6141,13 @@
         <v>50</v>
       </c>
       <c r="O101" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P101" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
-      <c r="A102" s="3">
-        <v>9003</v>
-      </c>
+    <row r="102" spans="2:16">
       <c r="B102" s="3" t="s">
         <v>35</v>
       </c>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6140" windowWidth="6140" windowHeight="4520"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="164">
   <si>
     <t>任务ID</t>
   </si>
@@ -517,8 +517,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -545,7 +545,98 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,44 +651,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,21 +672,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -634,57 +680,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -721,13 +721,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,43 +745,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,7 +781,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,49 +871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,43 +895,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,6 +926,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,30 +1008,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1014,16 +1023,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,10 +1033,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,136 +1045,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1521,12 +1521,12 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J$1:J$1048576"/>
+      <selection pane="bottomLeft" activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.625" style="3" customWidth="1"/>
     <col min="2" max="3" width="10" style="3" customWidth="1"/>
@@ -1543,7 +1543,7 @@
     <col min="18" max="16384" width="8.83333333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:16">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:16">
+    <row r="2" s="1" customFormat="1" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:16">
+    <row r="3" s="1" customFormat="1" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:16">
+    <row r="4" s="1" customFormat="1" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>39</v>
       </c>
       <c r="H100" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>40</v>
@@ -6129,7 +6129,7 @@
         <v>44</v>
       </c>
       <c r="H101" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>45</v>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="78">
   <si>
     <t>任务ID</t>
   </si>
@@ -235,6 +235,9 @@
     <t>Item|1002|20</t>
   </si>
   <si>
+    <t>9901|20;9902|20;9902|20</t>
+  </si>
+  <si>
     <t>采石</t>
   </si>
   <si>
@@ -248,9 +251,6 @@
   </si>
   <si>
     <t>Item|2001|1</t>
-  </si>
-  <si>
-    <t>9901|20;9902|20;9902|20</t>
   </si>
 </sst>
 </file>
@@ -258,10 +258,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -277,36 +277,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -337,10 +307,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,25 +353,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,18 +402,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,6 +415,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -456,25 +456,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,157 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,11 +665,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,30 +723,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -737,28 +754,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,10 +768,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,16 +780,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -798,118 +798,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1255,10 +1255,10 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="3" width="10" style="2" customWidth="1"/>
@@ -1267,12 +1267,14 @@
     <col min="6" max="6" width="90" style="2" customWidth="1"/>
     <col min="7" max="7" width="7.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="25.25" style="2" customWidth="1"/>
-    <col min="9" max="13" width="8.83333333333333" style="2"/>
+    <col min="9" max="10" width="8.83333333333333" style="2"/>
+    <col min="11" max="11" width="38.0833333333333" style="2" customWidth="1"/>
+    <col min="12" max="13" width="8.83333333333333" style="2"/>
     <col min="14" max="14" width="5.25" style="2" customWidth="1"/>
     <col min="15" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1354,7 +1356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:13">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1395,7 +1397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:13">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3287,6 +3289,9 @@
       <c r="I52" s="2">
         <v>50</v>
       </c>
+      <c r="K52" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="L52" s="2">
         <v>1</v>
       </c>
@@ -3305,23 +3310,26 @@
         <v>0</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I53" s="2">
         <v>50</v>
       </c>
+      <c r="K53" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="L53" s="2">
         <v>2</v>
       </c>
@@ -3349,7 +3357,7 @@
         <v>33</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I54" s="2">
         <v>80</v>
@@ -3358,7 +3366,7 @@
         <v>80</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L54" s="2">
         <v>3</v>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -434,8 +434,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21">
@@ -455,7 +455,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,15 +483,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,22 +528,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,25 +559,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,13 +582,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -568,31 +592,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,7 +625,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,37 +745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,19 +757,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,37 +781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,61 +793,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,26 +834,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,7 +862,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,6 +878,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -904,15 +913,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,10 +937,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -949,136 +949,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1427,7 +1427,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -2497,7 +2497,7 @@
         <v>87</v>
       </c>
       <c r="J25" s="6">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="K25" s="6">
         <v>600</v>
@@ -2539,7 +2539,7 @@
         <v>67</v>
       </c>
       <c r="J26" s="6">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="K26" s="6">
         <v>600</v>
@@ -2581,7 +2581,7 @@
         <v>48</v>
       </c>
       <c r="J27" s="6">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="K27" s="6">
         <v>600</v>
@@ -2623,7 +2623,7 @@
         <v>94</v>
       </c>
       <c r="J28" s="6">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="K28" s="6">
         <v>600</v>
@@ -2665,7 +2665,7 @@
         <v>81</v>
       </c>
       <c r="J29" s="6">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="K29" s="6">
         <v>600</v>
@@ -2707,7 +2707,7 @@
         <v>97</v>
       </c>
       <c r="J30" s="6">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="K30" s="6">
         <v>600</v>
@@ -2749,7 +2749,7 @@
         <v>99</v>
       </c>
       <c r="J31" s="6">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="K31" s="6">
         <v>600</v>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="144">
   <si>
     <t>任务ID</t>
   </si>
@@ -115,6 +115,9 @@
     <t>Common</t>
   </si>
   <si>
+    <t>wolf</t>
+  </si>
+  <si>
     <t>狩猎狼</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t>9605|2|80</t>
   </si>
   <si>
+    <t>shanzeiboss</t>
+  </si>
+  <si>
     <t>剿匪徒</t>
   </si>
   <si>
@@ -154,6 +160,9 @@
     <t>9605|2|350</t>
   </si>
   <si>
+    <t>boar</t>
+  </si>
+  <si>
     <t>狩猎野猪</t>
   </si>
   <si>
@@ -190,6 +199,9 @@
     <t>9701|1|1500;9702|1|1500;9703|1|1500</t>
   </si>
   <si>
+    <t>cike</t>
+  </si>
+  <si>
     <t>抓刺客</t>
   </si>
   <si>
@@ -211,6 +223,9 @@
     <t>9605|2|8500</t>
   </si>
   <si>
+    <t>snake</t>
+  </si>
+  <si>
     <t>捕捉青蛇</t>
   </si>
   <si>
@@ -253,6 +268,9 @@
     <t>9602|2|80000</t>
   </si>
   <si>
+    <t>bear</t>
+  </si>
+  <si>
     <t>狩猎熊</t>
   </si>
   <si>
@@ -292,6 +310,9 @@
     <t>9602|2|550000</t>
   </si>
   <si>
+    <t>deer</t>
+  </si>
+  <si>
     <t>狩猎鹿</t>
   </si>
   <si>
@@ -350,6 +371,9 @@
   </si>
   <si>
     <t>9804|3|20000000</t>
+  </si>
+  <si>
+    <t>wokou1</t>
   </si>
   <si>
     <t>战倭寇</t>
@@ -454,6 +478,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -461,8 +500,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,6 +510,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,6 +530,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -491,30 +545,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,7 +585,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -551,32 +607,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,14 +617,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,13 +649,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,31 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +721,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,13 +733,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,7 +805,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,79 +829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,6 +868,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -854,35 +893,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,17 +927,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,10 +961,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -949,136 +973,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1425,9 +1449,9 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1640,21 +1664,23 @@
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J5" s="5">
         <v>100</v>
@@ -1663,7 +1689,7 @@
         <v>50</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M5" s="5">
         <v>2</v>
@@ -1682,21 +1708,23 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J6" s="5">
         <v>100</v>
@@ -1705,7 +1733,7 @@
         <v>50</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M6" s="5">
         <v>3</v>
@@ -1724,21 +1752,23 @@
       <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="E7" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J7" s="6">
         <v>250</v>
@@ -1747,7 +1777,7 @@
         <v>80</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="6">
         <v>2</v>
@@ -1766,21 +1796,23 @@
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E8" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J8" s="6">
         <v>250</v>
@@ -1789,7 +1821,7 @@
         <v>80</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M8" s="6">
         <v>2</v>
@@ -1808,21 +1840,23 @@
       <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J9" s="6">
         <v>250</v>
@@ -1831,7 +1865,7 @@
         <v>80</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M9" s="6">
         <v>3</v>
@@ -1850,21 +1884,23 @@
       <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J10" s="5">
         <v>800</v>
@@ -1873,7 +1909,7 @@
         <v>120</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M10" s="5">
         <v>2</v>
@@ -1892,21 +1928,23 @@
       <c r="C11" s="5">
         <v>3</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J11" s="5">
         <v>800</v>
@@ -1915,7 +1953,7 @@
         <v>120</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M11" s="5">
         <v>2</v>
@@ -1934,21 +1972,23 @@
       <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J12" s="5">
         <v>800</v>
@@ -1957,7 +1997,7 @@
         <v>120</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M12" s="5">
         <v>3</v>
@@ -1976,21 +2016,23 @@
       <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="E13" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J13" s="5">
         <v>800</v>
@@ -1999,7 +2041,7 @@
         <v>120</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M13" s="5">
         <v>3</v>
@@ -2018,21 +2060,23 @@
       <c r="C14" s="6">
         <v>4</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="E14" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J14" s="6">
         <v>2400</v>
@@ -2041,7 +2085,7 @@
         <v>200</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M14" s="6">
         <v>2</v>
@@ -2060,21 +2104,23 @@
       <c r="C15" s="6">
         <v>4</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="E15" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J15" s="6">
         <v>2400</v>
@@ -2083,7 +2129,7 @@
         <v>200</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M15" s="6">
         <v>2</v>
@@ -2102,21 +2148,23 @@
       <c r="C16" s="6">
         <v>4</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E16" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J16" s="6">
         <v>2400</v>
@@ -2125,7 +2173,7 @@
         <v>200</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M16" s="6">
         <v>2</v>
@@ -2144,21 +2192,23 @@
       <c r="C17" s="6">
         <v>4</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="E17" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J17" s="6">
         <v>2400</v>
@@ -2167,7 +2217,7 @@
         <v>200</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M17" s="6">
         <v>3</v>
@@ -2186,21 +2236,23 @@
       <c r="C18" s="6">
         <v>4</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="E18" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J18" s="6">
         <v>2400</v>
@@ -2209,7 +2261,7 @@
         <v>200</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M18" s="6">
         <v>3</v>
@@ -2228,21 +2280,23 @@
       <c r="C19" s="5">
         <v>5</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E19" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J19" s="5">
         <v>6000</v>
@@ -2251,7 +2305,7 @@
         <v>350</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M19" s="5">
         <v>2</v>
@@ -2270,21 +2324,23 @@
       <c r="C20" s="5">
         <v>5</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="E20" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J20" s="5">
         <v>6000</v>
@@ -2293,7 +2349,7 @@
         <v>350</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M20" s="5">
         <v>2</v>
@@ -2312,21 +2368,23 @@
       <c r="C21" s="5">
         <v>5</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="E21" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J21" s="5">
         <v>6000</v>
@@ -2335,7 +2393,7 @@
         <v>350</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M21" s="5">
         <v>2</v>
@@ -2354,21 +2412,23 @@
       <c r="C22" s="5">
         <v>5</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="E22" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J22" s="5">
         <v>6000</v>
@@ -2377,7 +2437,7 @@
         <v>350</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M22" s="5">
         <v>2</v>
@@ -2396,21 +2456,23 @@
       <c r="C23" s="5">
         <v>5</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="E23" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J23" s="5">
         <v>6000</v>
@@ -2419,7 +2481,7 @@
         <v>350</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M23" s="5">
         <v>3</v>
@@ -2438,21 +2500,23 @@
       <c r="C24" s="5">
         <v>5</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="E24" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J24" s="5">
         <v>6000</v>
@@ -2461,7 +2525,7 @@
         <v>350</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M24" s="5">
         <v>3</v>
@@ -2480,21 +2544,23 @@
       <c r="C25" s="6">
         <v>6</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="E25" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J25" s="6">
         <v>18000</v>
@@ -2503,7 +2569,7 @@
         <v>600</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M25" s="6">
         <v>2</v>
@@ -2522,21 +2588,23 @@
       <c r="C26" s="6">
         <v>6</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="E26" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J26" s="6">
         <v>18000</v>
@@ -2545,7 +2613,7 @@
         <v>600</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M26" s="6">
         <v>2</v>
@@ -2564,21 +2632,23 @@
       <c r="C27" s="6">
         <v>6</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E27" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J27" s="6">
         <v>18000</v>
@@ -2587,7 +2657,7 @@
         <v>600</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M27" s="6">
         <v>2</v>
@@ -2606,21 +2676,23 @@
       <c r="C28" s="6">
         <v>6</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="E28" s="6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J28" s="6">
         <v>18000</v>
@@ -2629,7 +2701,7 @@
         <v>600</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M28" s="6">
         <v>2</v>
@@ -2648,21 +2720,23 @@
       <c r="C29" s="6">
         <v>6</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="E29" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J29" s="6">
         <v>18000</v>
@@ -2671,7 +2745,7 @@
         <v>600</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M29" s="6">
         <v>2</v>
@@ -2690,21 +2764,23 @@
       <c r="C30" s="6">
         <v>6</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="E30" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J30" s="6">
         <v>18000</v>
@@ -2713,7 +2789,7 @@
         <v>600</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M30" s="6">
         <v>3</v>
@@ -2732,21 +2808,23 @@
       <c r="C31" s="6">
         <v>6</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="E31" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J31" s="6">
         <v>18000</v>
@@ -2755,7 +2833,7 @@
         <v>600</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M31" s="6">
         <v>3</v>
@@ -2774,21 +2852,23 @@
       <c r="C32" s="5">
         <v>7</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E32" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J32" s="5">
         <v>60000</v>
@@ -2797,7 +2877,7 @@
         <v>1200</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M32" s="5">
         <v>2</v>
@@ -2816,21 +2896,23 @@
       <c r="C33" s="5">
         <v>7</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="E33" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J33" s="5">
         <v>60000</v>
@@ -2839,7 +2921,7 @@
         <v>1200</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M33" s="5">
         <v>2</v>
@@ -2858,21 +2940,23 @@
       <c r="C34" s="5">
         <v>7</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="E34" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J34" s="5">
         <v>60000</v>
@@ -2881,7 +2965,7 @@
         <v>1200</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M34" s="5">
         <v>2</v>
@@ -2900,21 +2984,23 @@
       <c r="C35" s="5">
         <v>7</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="E35" s="5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J35" s="5">
         <v>60000</v>
@@ -2923,7 +3009,7 @@
         <v>1200</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M35" s="5">
         <v>2</v>
@@ -2942,21 +3028,23 @@
       <c r="C36" s="5">
         <v>7</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="E36" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J36" s="5">
         <v>60000</v>
@@ -2965,7 +3053,7 @@
         <v>1200</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M36" s="5">
         <v>2</v>
@@ -2984,21 +3072,23 @@
       <c r="C37" s="5">
         <v>7</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="E37" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J37" s="5">
         <v>60000</v>
@@ -3007,7 +3097,7 @@
         <v>1200</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M37" s="5">
         <v>3</v>
@@ -3026,21 +3116,23 @@
       <c r="C38" s="5">
         <v>7</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="E38" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J38" s="5">
         <v>60000</v>
@@ -3049,7 +3141,7 @@
         <v>1200</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M38" s="5">
         <v>3</v>
@@ -3068,21 +3160,23 @@
       <c r="C39" s="5">
         <v>7</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="E39" s="5" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J39" s="5">
         <v>60000</v>
@@ -3091,7 +3185,7 @@
         <v>1200</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M39" s="5">
         <v>5</v>
@@ -3110,21 +3204,23 @@
       <c r="C40" s="6">
         <v>8</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="E40" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="J40" s="6">
         <v>200000</v>
@@ -3133,7 +3229,7 @@
         <v>2500</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M40" s="6">
         <v>2</v>
@@ -3152,21 +3248,23 @@
       <c r="C41" s="6">
         <v>8</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="E41" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J41" s="6">
         <v>200000</v>
@@ -3175,7 +3273,7 @@
         <v>2500</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="M41" s="6">
         <v>2</v>
@@ -3194,21 +3292,23 @@
       <c r="C42" s="6">
         <v>8</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E42" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J42" s="6">
         <v>200000</v>
@@ -3217,7 +3317,7 @@
         <v>2500</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M42" s="6">
         <v>2</v>
@@ -3236,21 +3336,23 @@
       <c r="C43" s="6">
         <v>8</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="E43" s="6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J43" s="6">
         <v>200000</v>
@@ -3259,7 +3361,7 @@
         <v>2500</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="M43" s="6">
         <v>2</v>
@@ -3278,21 +3380,23 @@
       <c r="C44" s="6">
         <v>8</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="E44" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J44" s="6">
         <v>200000</v>
@@ -3301,7 +3405,7 @@
         <v>2500</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M44" s="6">
         <v>2</v>
@@ -3320,21 +3424,23 @@
       <c r="C45" s="6">
         <v>8</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="E45" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="J45" s="6">
         <v>200000</v>
@@ -3343,7 +3449,7 @@
         <v>2500</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M45" s="6">
         <v>3</v>
@@ -3362,21 +3468,23 @@
       <c r="C46" s="6">
         <v>8</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="E46" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="J46" s="6">
         <v>200000</v>
@@ -3385,7 +3493,7 @@
         <v>2500</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="M46" s="6">
         <v>3</v>
@@ -3404,21 +3512,23 @@
       <c r="C47" s="6">
         <v>8</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="E47" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="J47" s="6">
         <v>200000</v>
@@ -3427,7 +3537,7 @@
         <v>2500</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="M47" s="6">
         <v>5</v>
@@ -3447,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="J48" s="3">
         <v>50</v>
@@ -3485,19 +3595,19 @@
         <v>0</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="J49" s="3">
         <v>50</v>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -10,14 +10,14 @@
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$E$4:$E$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$E$4:$E$49</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="140">
   <si>
     <t>任务ID</t>
   </si>
@@ -166,36 +166,48 @@
     <t>昨晚赵员外被行刺了，好在只受了点轻伤，没有性命之忧。听说员外家挺有钱的，咱们也去帮忙抓刺客吧。</t>
   </si>
   <si>
+    <t>Coin|100|60;Medicine|101|1|40</t>
+  </si>
+  <si>
+    <t>9804|3|80</t>
+  </si>
+  <si>
     <t>Item|2001|1|20;Coin|160|50;Kongfu|1001|1|30</t>
   </si>
   <si>
     <t>9605|2|350</t>
   </si>
   <si>
+    <t>boar</t>
+  </si>
+  <si>
+    <t>狩猎野猪</t>
+  </si>
+  <si>
+    <t>去池塘边抓野猪。</t>
+  </si>
+  <si>
+    <t>最近池塘边总有野猪出没，去宰了它给兄弟们加加餐。围捕的时候切记谨慎，被獠牙顶到可不是闹着玩的。</t>
+  </si>
+  <si>
     <t>Item|1009|3_5</t>
   </si>
   <si>
     <t>9602|2|350</t>
   </si>
   <si>
-    <t>boar</t>
-  </si>
-  <si>
-    <t>狩猎野猪</t>
-  </si>
-  <si>
-    <t>去池塘边抓野猪。</t>
-  </si>
-  <si>
-    <t>最近池塘边总有野猪出没，去宰了它给兄弟们加加餐。围捕的时候切记谨慎，被獠牙顶到可不是闹着玩的。</t>
-  </si>
-  <si>
     <t>Food|10|30;Coin|160|30;Item|3001|1_2|40</t>
   </si>
   <si>
     <t>9701|1|350;9702|1|350;9703|1|350</t>
   </si>
   <si>
+    <t>Coin|160|60;Medicine|101|1|40</t>
+  </si>
+  <si>
+    <t>9804|3|350</t>
+  </si>
+  <si>
     <t>Item|2001|1|20;Coin|240|50;Kongfu|1001|1|30</t>
   </si>
   <si>
@@ -250,7 +262,7 @@
     <t>9701|1|8500;9702|1|8500;9703|1|8500</t>
   </si>
   <si>
-    <t>Coin|360|60;Medicine|101|1|40</t>
+    <t>Coin|360|40;Medicine|101|1|30;Medicine|102|1|30</t>
   </si>
   <si>
     <t>9804|3|8500</t>
@@ -280,7 +292,7 @@
     <t>最近经常有黑熊到附近村子里转悠，拍死咬伤了不少妇孺老人，猎户都拿它们没办法，是时候我们出马了。</t>
   </si>
   <si>
-    <t>Item|1009|5_8|70;Item|1011|1_2|30</t>
+    <t>Item|1011|3_4|100</t>
   </si>
   <si>
     <t>9601|2|80000</t>
@@ -322,7 +334,7 @@
     <t>鹿肉不是重点，鹿茸才是真正的好东西，师父最爱的药酒就是用它泡的，不仅延年益寿，还能壮阳。</t>
   </si>
   <si>
-    <t>Item|1009|3_5|70;Item|1019|1_2|30</t>
+    <t>Item|1019|3_5|30</t>
   </si>
   <si>
     <t>9603|2|550000</t>
@@ -425,36 +437,6 @@
   </si>
   <si>
     <t>9901|1|450000000;9902|2|450000000;9903|2|450000000</t>
-  </si>
-  <si>
-    <t>砍树</t>
-  </si>
-  <si>
-    <t>砍点木头盖房子。</t>
-  </si>
-  <si>
-    <t>盖房子当然要有木材，先去砍树吧。村西边的乌木就很适合。</t>
-  </si>
-  <si>
-    <t>Item|1002|20</t>
-  </si>
-  <si>
-    <t>9901|20;9902|20;9902|20</t>
-  </si>
-  <si>
-    <t>采石</t>
-  </si>
-  <si>
-    <t>挖点石头盖房子。</t>
-  </si>
-  <si>
-    <t>石材也是必不可少的建材，后山有不少青石，做地基和砌墙都可以。</t>
-  </si>
-  <si>
-    <t>Item|1001|20</t>
-  </si>
-  <si>
-    <t>Item|2001|1</t>
   </si>
 </sst>
 </file>
@@ -463,8 +445,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -483,16 +465,38 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,15 +510,76 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,90 +595,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,7 +603,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,7 +642,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,61 +780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,49 +798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,37 +822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,7 +870,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,64 +948,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -984,136 +966,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1454,12 +1436,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1683,10 +1665,10 @@
         <v>37</v>
       </c>
       <c r="J5" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K5" s="4">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>38</v>
@@ -1727,10 +1709,10 @@
         <v>43</v>
       </c>
       <c r="J6" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K6" s="4">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>44</v>
@@ -1771,10 +1753,10 @@
         <v>49</v>
       </c>
       <c r="J7" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K7" s="4">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>50</v>
@@ -1783,7 +1765,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="4">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:14">
@@ -1815,10 +1797,10 @@
         <v>51</v>
       </c>
       <c r="J8" s="5">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K8" s="5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>52</v>
@@ -1859,10 +1841,10 @@
         <v>57</v>
       </c>
       <c r="J9" s="5">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K9" s="5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>58</v>
@@ -1903,10 +1885,10 @@
         <v>59</v>
       </c>
       <c r="J10" s="5">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K10" s="5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>60</v>
@@ -1915,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="5">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1944,22 +1926,22 @@
         <v>36</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J11" s="5">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K11" s="5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" s="5">
         <v>2</v>
       </c>
       <c r="N11" s="5">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:14">
@@ -1988,7 +1970,7 @@
         <v>36</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J12" s="4">
         <v>800</v>
@@ -1997,7 +1979,7 @@
         <v>120</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M12" s="4">
         <v>2</v>
@@ -2032,7 +2014,7 @@
         <v>36</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J13" s="4">
         <v>800</v>
@@ -2041,7 +2023,7 @@
         <v>120</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M13" s="4">
         <v>2</v>
@@ -2076,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J14" s="4">
         <v>800</v>
@@ -2085,7 +2067,7 @@
         <v>120</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M14" s="4">
         <v>3</v>
@@ -2120,7 +2102,7 @@
         <v>36</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J15" s="4">
         <v>800</v>
@@ -2129,7 +2111,7 @@
         <v>120</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M15" s="4">
         <v>3</v>
@@ -2164,7 +2146,7 @@
         <v>36</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J16" s="5">
         <v>2400</v>
@@ -2173,7 +2155,7 @@
         <v>200</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M16" s="5">
         <v>2</v>
@@ -2193,22 +2175,22 @@
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J17" s="5">
         <v>2400</v>
@@ -2217,7 +2199,7 @@
         <v>200</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M17" s="5">
         <v>2</v>
@@ -2252,7 +2234,7 @@
         <v>36</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J18" s="5">
         <v>2400</v>
@@ -2261,7 +2243,7 @@
         <v>200</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M18" s="5">
         <v>2</v>
@@ -2296,7 +2278,7 @@
         <v>36</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J19" s="5">
         <v>2400</v>
@@ -2305,7 +2287,7 @@
         <v>200</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M19" s="5">
         <v>3</v>
@@ -2340,7 +2322,7 @@
         <v>36</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J20" s="5">
         <v>2400</v>
@@ -2349,7 +2331,7 @@
         <v>200</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M20" s="5">
         <v>3</v>
@@ -2384,7 +2366,7 @@
         <v>36</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J21" s="4">
         <v>6000</v>
@@ -2393,7 +2375,7 @@
         <v>350</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M21" s="4">
         <v>2</v>
@@ -2413,22 +2395,22 @@
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J22" s="4">
         <v>6000</v>
@@ -2437,7 +2419,7 @@
         <v>350</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M22" s="4">
         <v>2</v>
@@ -2472,7 +2454,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J23" s="4">
         <v>6000</v>
@@ -2481,7 +2463,7 @@
         <v>350</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M23" s="4">
         <v>2</v>
@@ -2501,22 +2483,22 @@
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J24" s="4">
         <v>6000</v>
@@ -2525,7 +2507,7 @@
         <v>350</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M24" s="4">
         <v>2</v>
@@ -2560,7 +2542,7 @@
         <v>36</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J25" s="4">
         <v>6000</v>
@@ -2569,7 +2551,7 @@
         <v>350</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M25" s="4">
         <v>3</v>
@@ -2604,7 +2586,7 @@
         <v>36</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J26" s="4">
         <v>6000</v>
@@ -2613,7 +2595,7 @@
         <v>350</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M26" s="4">
         <v>3</v>
@@ -2648,7 +2630,7 @@
         <v>36</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J27" s="5">
         <v>15000</v>
@@ -2657,7 +2639,7 @@
         <v>600</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M27" s="5">
         <v>2</v>
@@ -2677,22 +2659,22 @@
         <v>6</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J28" s="5">
         <v>15000</v>
@@ -2701,7 +2683,7 @@
         <v>600</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M28" s="5">
         <v>2</v>
@@ -2736,7 +2718,7 @@
         <v>36</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J29" s="5">
         <v>15000</v>
@@ -2745,7 +2727,7 @@
         <v>600</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M29" s="5">
         <v>2</v>
@@ -2765,22 +2747,22 @@
         <v>6</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J30" s="5">
         <v>15000</v>
@@ -2789,7 +2771,7 @@
         <v>600</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M30" s="5">
         <v>2</v>
@@ -2809,22 +2791,22 @@
         <v>6</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J31" s="5">
         <v>15000</v>
@@ -2833,7 +2815,7 @@
         <v>600</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M31" s="5">
         <v>2</v>
@@ -2868,7 +2850,7 @@
         <v>36</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J32" s="5">
         <v>15000</v>
@@ -2877,7 +2859,7 @@
         <v>600</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M32" s="5">
         <v>3</v>
@@ -2912,7 +2894,7 @@
         <v>36</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J33" s="5">
         <v>15000</v>
@@ -2921,7 +2903,7 @@
         <v>600</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M33" s="5">
         <v>3</v>
@@ -2956,7 +2938,7 @@
         <v>36</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J34" s="4">
         <v>60000</v>
@@ -2965,7 +2947,7 @@
         <v>1200</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M34" s="4">
         <v>2</v>
@@ -2985,22 +2967,22 @@
         <v>7</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J35" s="4">
         <v>60000</v>
@@ -3009,7 +2991,7 @@
         <v>1200</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M35" s="4">
         <v>2</v>
@@ -3044,7 +3026,7 @@
         <v>36</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J36" s="4">
         <v>60000</v>
@@ -3053,7 +3035,7 @@
         <v>1200</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M36" s="4">
         <v>2</v>
@@ -3073,22 +3055,22 @@
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J37" s="4">
         <v>60000</v>
@@ -3097,7 +3079,7 @@
         <v>1200</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M37" s="4">
         <v>2</v>
@@ -3117,22 +3099,22 @@
         <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J38" s="4">
         <v>60000</v>
@@ -3141,7 +3123,7 @@
         <v>1200</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M38" s="4">
         <v>2</v>
@@ -3176,7 +3158,7 @@
         <v>36</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J39" s="4">
         <v>60000</v>
@@ -3185,7 +3167,7 @@
         <v>1200</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M39" s="4">
         <v>3</v>
@@ -3220,7 +3202,7 @@
         <v>36</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J40" s="4">
         <v>60000</v>
@@ -3229,7 +3211,7 @@
         <v>1200</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M40" s="4">
         <v>3</v>
@@ -3249,22 +3231,22 @@
         <v>7</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J41" s="4">
         <v>60000</v>
@@ -3273,7 +3255,7 @@
         <v>1200</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M41" s="4">
         <v>5</v>
@@ -3308,7 +3290,7 @@
         <v>36</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J42" s="5">
         <v>200000</v>
@@ -3317,7 +3299,7 @@
         <v>2500</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M42" s="5">
         <v>2</v>
@@ -3337,22 +3319,22 @@
         <v>8</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J43" s="5">
         <v>200000</v>
@@ -3361,7 +3343,7 @@
         <v>2500</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M43" s="5">
         <v>2</v>
@@ -3396,7 +3378,7 @@
         <v>36</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J44" s="5">
         <v>200000</v>
@@ -3405,7 +3387,7 @@
         <v>2500</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M44" s="5">
         <v>2</v>
@@ -3425,22 +3407,22 @@
         <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J45" s="5">
         <v>200000</v>
@@ -3449,7 +3431,7 @@
         <v>2500</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M45" s="5">
         <v>2</v>
@@ -3469,22 +3451,22 @@
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J46" s="5">
         <v>200000</v>
@@ -3493,7 +3475,7 @@
         <v>2500</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M46" s="5">
         <v>2</v>
@@ -3528,7 +3510,7 @@
         <v>36</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J47" s="5">
         <v>200000</v>
@@ -3537,7 +3519,7 @@
         <v>2500</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M47" s="5">
         <v>3</v>
@@ -3572,7 +3554,7 @@
         <v>36</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J48" s="5">
         <v>200000</v>
@@ -3581,7 +3563,7 @@
         <v>2500</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M48" s="5">
         <v>3</v>
@@ -3601,22 +3583,22 @@
         <v>8</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J49" s="5">
         <v>200000</v>
@@ -3625,127 +3607,13 @@
         <v>2500</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M49" s="5">
         <v>5</v>
       </c>
       <c r="N49" s="5">
         <v>600</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="2">
-        <v>9001</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J50" s="2">
-        <v>50</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M50" s="2">
-        <v>1</v>
-      </c>
-      <c r="N50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="2">
-        <v>9002</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J51" s="2">
-        <v>50</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M51" s="2">
-        <v>2</v>
-      </c>
-      <c r="N51" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14">
-      <c r="B52" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J52" s="2">
-        <v>80</v>
-      </c>
-      <c r="K52" s="2">
-        <v>80</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M52" s="2">
-        <v>3</v>
-      </c>
-      <c r="N52" s="2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="14080"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="140">
   <si>
     <t>任务ID</t>
   </si>
@@ -444,10 +444,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -472,9 +472,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,28 +481,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,7 +496,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,60 +519,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,7 +534,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,7 +542,68 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,31 +642,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,19 +672,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,13 +738,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,85 +798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,13 +810,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,7 +870,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,7 +920,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,57 +948,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -966,136 +966,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1436,15 +1436,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="4" width="10" style="2" customWidth="1"/>
@@ -1460,7 +1460,7 @@
     <col min="16" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:14">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -3614,6 +3614,94 @@
       </c>
       <c r="N49" s="5">
         <v>600</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:14">
+      <c r="A50" s="4">
+        <v>9001</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50" s="4">
+        <v>100</v>
+      </c>
+      <c r="K50" s="4">
+        <v>50</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M50" s="4">
+        <v>2</v>
+      </c>
+      <c r="N50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="1:14">
+      <c r="A51" s="4">
+        <v>9002</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J51" s="4">
+        <v>100</v>
+      </c>
+      <c r="K51" s="4">
+        <v>50</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M51" s="4">
+        <v>3</v>
+      </c>
+      <c r="N51" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14080"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="129">
   <si>
     <t>任务ID</t>
   </si>
@@ -172,7 +172,7 @@
     <t>9804|3|80</t>
   </si>
   <si>
-    <t>Item|2001|1|20;Coin|160|50;Kongfu|1001|1|30</t>
+    <t>Item|2001|1|20;Coin|100|50;Kongfu|1001|1|30</t>
   </si>
   <si>
     <t>9605|2|350</t>
@@ -196,40 +196,28 @@
     <t>9602|2|350</t>
   </si>
   <si>
-    <t>Food|10|30;Coin|160|30;Item|3001|1_2|40</t>
+    <t>Food|10|30;Coin|100|30;Item|3001|1_2|40</t>
   </si>
   <si>
     <t>9701|1|350;9702|1|350;9703|1|350</t>
   </si>
   <si>
-    <t>Coin|160|60;Medicine|101|1|40</t>
-  </si>
-  <si>
     <t>9804|3|350</t>
   </si>
   <si>
-    <t>Item|2001|1|20;Coin|240|50;Kongfu|1001|1|30</t>
-  </si>
-  <si>
     <t>9605|2|1500</t>
   </si>
   <si>
     <t>9602|2|1500</t>
   </si>
   <si>
-    <t>Food|10|30;Coin|240|30;Item|3001|1_2|40</t>
-  </si>
-  <si>
     <t>9701|1|1500;9702|1|1500;9703|1|1500</t>
   </si>
   <si>
-    <t>Coin|240|60;Medicine|101|1|40</t>
-  </si>
-  <si>
     <t>9804|3|1500</t>
   </si>
   <si>
-    <t>Item|2001|1|20;Coin|360|40;Kongfu|2001|1|40</t>
+    <t>Item|2001|1|20;Coin|100|40;Kongfu|2001|1|40</t>
   </si>
   <si>
     <t>9605|2|8500</t>
@@ -256,19 +244,19 @@
     <t>9602|2|8500</t>
   </si>
   <si>
-    <t>Food|20|30;Coin|360|30;Item|3002|1_2|40</t>
+    <t>Food|20|30;Coin|100|30;Item|3002|1_2|40</t>
   </si>
   <si>
     <t>9701|1|8500;9702|1|8500;9703|1|8500</t>
   </si>
   <si>
-    <t>Coin|360|40;Medicine|101|1|30;Medicine|102|1|30</t>
+    <t>Coin|100|40;Medicine|101|1|30;Medicine|102|1|30</t>
   </si>
   <si>
     <t>9804|3|8500</t>
   </si>
   <si>
-    <t>Item|2002|1|20;Coin|500|40;Kongfu|2001|1|40</t>
+    <t>Item|2002|1|20;Coin|100|40;Kongfu|2001|1|40</t>
   </si>
   <si>
     <t>9605|2|80000</t>
@@ -298,19 +286,13 @@
     <t>9601|2|80000</t>
   </si>
   <si>
-    <t>Food|20|30;Coin|500|30;Item|3002|1_2|40</t>
-  </si>
-  <si>
     <t>9701|1|80000;9702|1|80000;9703|1|80000</t>
   </si>
   <si>
-    <t>Coin|500|40;Medicine|101|1|30;Medicine|102|1|30</t>
-  </si>
-  <si>
     <t>9804|3|80000</t>
   </si>
   <si>
-    <t>Item|2002|1|20;Coin|700|40;Kongfu|3001|1|40</t>
+    <t>Item|2002|1|20;Coin|100|40;Kongfu|3001|1|40</t>
   </si>
   <si>
     <t>9605|2|550000</t>
@@ -343,21 +325,15 @@
     <t>9601|2|550000</t>
   </si>
   <si>
-    <t>Food|30|30;Coin|700|30;Item|3002|1_2|40</t>
+    <t>Food|30|30;Coin|100|30;Item|3002|1_2|40</t>
   </si>
   <si>
     <t>9701|1|550000;9702|1|550000;9703|1|550000</t>
   </si>
   <si>
-    <t>Coin|700|40;Medicine|101|1|30;Medicine|102|1|30</t>
-  </si>
-  <si>
     <t>9804|3|550000</t>
   </si>
   <si>
-    <t>Item|2002|1|20;Coin|1000|40;Kongfu|3001|1|40</t>
-  </si>
-  <si>
     <t>9605|2|20000000</t>
   </si>
   <si>
@@ -373,13 +349,13 @@
     <t>9601|2|20000000</t>
   </si>
   <si>
-    <t>Food|30|30;Coin|1000|30;Item|3003|1_2|40</t>
+    <t>Food|30|30;Coin|100|30;Item|3003|1_2|40</t>
   </si>
   <si>
     <t>9701|1|20000000;9702|1|20000000;9703|1|20000000</t>
   </si>
   <si>
-    <t>Coin|1000|10;Medicine|101|1|30;Medicine|102|1|30;Medicine|103|1|30</t>
+    <t>Coin|100|10;Medicine|101|1|30;Medicine|102|1|30;Medicine|103|1|30</t>
   </si>
   <si>
     <t>9804|3|20000000</t>
@@ -397,15 +373,12 @@
     <t>倭人犯我天朝百姓久已，烧杀劫掠，无恶不作，吾等习武之人倘若坐视不管，岂不被人笑话。</t>
   </si>
   <si>
-    <t>Coin|1000|20;Item|3102|1_2|80</t>
+    <t>Coin|100|20;Item|3102|1_2|80</t>
   </si>
   <si>
     <t>9901|1|20000000;9902|2|20000000;9903|2|20000000</t>
   </si>
   <si>
-    <t>Item|2002|1|20;Coin|1500|40;Kongfu|3001|1|40</t>
-  </si>
-  <si>
     <t>9605|2|450000000</t>
   </si>
   <si>
@@ -421,19 +394,13 @@
     <t>9601|2|450000000</t>
   </si>
   <si>
-    <t>Food|30|30;Coin|1500|30;Item|3003|1_2|40</t>
-  </si>
-  <si>
     <t>9701|1|450000000;9702|1|450000000;9703|1|450000000</t>
   </si>
   <si>
-    <t>Coin|1500|10;Medicine|101|1|30;Medicine|102|1|30;Medicine|103|1|30</t>
-  </si>
-  <si>
     <t>9804|3|450000000</t>
   </si>
   <si>
-    <t>Coin|1500|20;Item|3101|1_2|40;Item|3102|1_2|40</t>
+    <t>Coin|100|20;Item|3101|1_2|40;Item|3102|1_2|40</t>
   </si>
   <si>
     <t>9901|1|450000000;9902|2|450000000;9903|2|450000000</t>
@@ -444,10 +411,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -465,122 +432,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,7 +457,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,7 +609,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,31 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,109 +741,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,19 +771,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,56 +818,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -912,15 +829,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,8 +851,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,10 +921,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -966,136 +933,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1439,12 +1406,12 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="4" width="10" style="2" customWidth="1"/>
@@ -1452,7 +1419,7 @@
     <col min="6" max="6" width="21.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="30" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="34.75" style="2" customWidth="1"/>
     <col min="10" max="11" width="8.83333333333333" style="2"/>
     <col min="12" max="12" width="38.0833333333333" style="2" customWidth="1"/>
     <col min="13" max="14" width="8.83333333333333" style="2"/>
@@ -1460,7 +1427,7 @@
     <col min="16" max="16384" width="8.83333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:14">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:14">
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,7 +1515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:14">
+    <row r="3" s="1" customFormat="1" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,7 +1559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:14">
+    <row r="4" s="1" customFormat="1" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1926,7 +1893,7 @@
         <v>36</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J11" s="5">
         <v>250</v>
@@ -1935,7 +1902,7 @@
         <v>80</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M11" s="5">
         <v>2</v>
@@ -1970,7 +1937,7 @@
         <v>36</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J12" s="4">
         <v>800</v>
@@ -1979,7 +1946,7 @@
         <v>120</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M12" s="4">
         <v>2</v>
@@ -2023,7 +1990,7 @@
         <v>120</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M13" s="4">
         <v>2</v>
@@ -2058,7 +2025,7 @@
         <v>36</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J14" s="4">
         <v>800</v>
@@ -2067,7 +2034,7 @@
         <v>120</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M14" s="4">
         <v>3</v>
@@ -2102,7 +2069,7 @@
         <v>36</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="J15" s="4">
         <v>800</v>
@@ -2111,7 +2078,7 @@
         <v>120</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M15" s="4">
         <v>3</v>
@@ -2146,7 +2113,7 @@
         <v>36</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J16" s="5">
         <v>2400</v>
@@ -2155,7 +2122,7 @@
         <v>200</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M16" s="5">
         <v>2</v>
@@ -2175,22 +2142,22 @@
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="J17" s="5">
         <v>2400</v>
@@ -2199,7 +2166,7 @@
         <v>200</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M17" s="5">
         <v>2</v>
@@ -2243,7 +2210,7 @@
         <v>200</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M18" s="5">
         <v>2</v>
@@ -2278,7 +2245,7 @@
         <v>36</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J19" s="5">
         <v>2400</v>
@@ -2287,7 +2254,7 @@
         <v>200</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M19" s="5">
         <v>3</v>
@@ -2322,7 +2289,7 @@
         <v>36</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J20" s="5">
         <v>2400</v>
@@ -2331,7 +2298,7 @@
         <v>200</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M20" s="5">
         <v>3</v>
@@ -2366,7 +2333,7 @@
         <v>36</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J21" s="4">
         <v>6000</v>
@@ -2375,7 +2342,7 @@
         <v>350</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M21" s="4">
         <v>2</v>
@@ -2395,22 +2362,22 @@
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="J22" s="4">
         <v>6000</v>
@@ -2419,7 +2386,7 @@
         <v>350</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M22" s="4">
         <v>2</v>
@@ -2463,7 +2430,7 @@
         <v>350</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M23" s="4">
         <v>2</v>
@@ -2483,22 +2450,22 @@
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="J24" s="4">
         <v>6000</v>
@@ -2507,7 +2474,7 @@
         <v>350</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M24" s="4">
         <v>2</v>
@@ -2542,7 +2509,7 @@
         <v>36</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="J25" s="4">
         <v>6000</v>
@@ -2551,7 +2518,7 @@
         <v>350</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M25" s="4">
         <v>3</v>
@@ -2586,7 +2553,7 @@
         <v>36</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="J26" s="4">
         <v>6000</v>
@@ -2595,7 +2562,7 @@
         <v>350</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M26" s="4">
         <v>3</v>
@@ -2630,7 +2597,7 @@
         <v>36</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J27" s="5">
         <v>15000</v>
@@ -2639,7 +2606,7 @@
         <v>600</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M27" s="5">
         <v>2</v>
@@ -2659,22 +2626,22 @@
         <v>6</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="J28" s="5">
         <v>15000</v>
@@ -2683,7 +2650,7 @@
         <v>600</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M28" s="5">
         <v>2</v>
@@ -2727,7 +2694,7 @@
         <v>600</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M29" s="5">
         <v>2</v>
@@ -2747,22 +2714,22 @@
         <v>6</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J30" s="5">
         <v>15000</v>
@@ -2771,7 +2738,7 @@
         <v>600</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M30" s="5">
         <v>2</v>
@@ -2791,22 +2758,22 @@
         <v>6</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="J31" s="5">
         <v>15000</v>
@@ -2815,7 +2782,7 @@
         <v>600</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M31" s="5">
         <v>2</v>
@@ -2850,7 +2817,7 @@
         <v>36</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J32" s="5">
         <v>15000</v>
@@ -2859,7 +2826,7 @@
         <v>600</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M32" s="5">
         <v>3</v>
@@ -2894,7 +2861,7 @@
         <v>36</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="J33" s="5">
         <v>15000</v>
@@ -2903,7 +2870,7 @@
         <v>600</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M33" s="5">
         <v>3</v>
@@ -2938,7 +2905,7 @@
         <v>36</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="J34" s="4">
         <v>60000</v>
@@ -2947,7 +2914,7 @@
         <v>1200</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M34" s="4">
         <v>2</v>
@@ -2967,22 +2934,22 @@
         <v>7</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="J35" s="4">
         <v>60000</v>
@@ -2991,7 +2958,7 @@
         <v>1200</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M35" s="4">
         <v>2</v>
@@ -3035,7 +3002,7 @@
         <v>1200</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M36" s="4">
         <v>2</v>
@@ -3055,22 +3022,22 @@
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J37" s="4">
         <v>60000</v>
@@ -3079,7 +3046,7 @@
         <v>1200</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M37" s="4">
         <v>2</v>
@@ -3099,22 +3066,22 @@
         <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="J38" s="4">
         <v>60000</v>
@@ -3123,7 +3090,7 @@
         <v>1200</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="M38" s="4">
         <v>2</v>
@@ -3158,7 +3125,7 @@
         <v>36</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="J39" s="4">
         <v>60000</v>
@@ -3167,7 +3134,7 @@
         <v>1200</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="M39" s="4">
         <v>3</v>
@@ -3202,7 +3169,7 @@
         <v>36</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J40" s="4">
         <v>60000</v>
@@ -3211,7 +3178,7 @@
         <v>1200</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="M40" s="4">
         <v>3</v>
@@ -3231,22 +3198,22 @@
         <v>7</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J41" s="4">
         <v>60000</v>
@@ -3255,7 +3222,7 @@
         <v>1200</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M41" s="4">
         <v>5</v>
@@ -3290,7 +3257,7 @@
         <v>36</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="J42" s="5">
         <v>200000</v>
@@ -3299,7 +3266,7 @@
         <v>2500</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M42" s="5">
         <v>2</v>
@@ -3319,22 +3286,22 @@
         <v>8</v>
       </c>
       <c r="D43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="J43" s="5">
         <v>200000</v>
@@ -3343,7 +3310,7 @@
         <v>2500</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="M43" s="5">
         <v>2</v>
@@ -3387,7 +3354,7 @@
         <v>2500</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="M44" s="5">
         <v>2</v>
@@ -3407,22 +3374,22 @@
         <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J45" s="5">
         <v>200000</v>
@@ -3431,7 +3398,7 @@
         <v>2500</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="M45" s="5">
         <v>2</v>
@@ -3451,22 +3418,22 @@
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="J46" s="5">
         <v>200000</v>
@@ -3475,7 +3442,7 @@
         <v>2500</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="M46" s="5">
         <v>2</v>
@@ -3510,7 +3477,7 @@
         <v>36</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="J47" s="5">
         <v>200000</v>
@@ -3519,7 +3486,7 @@
         <v>2500</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="M47" s="5">
         <v>3</v>
@@ -3554,7 +3521,7 @@
         <v>36</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="J48" s="5">
         <v>200000</v>
@@ -3563,7 +3530,7 @@
         <v>2500</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="M48" s="5">
         <v>3</v>
@@ -3583,22 +3550,22 @@
         <v>8</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="J49" s="5">
         <v>200000</v>
@@ -3607,7 +3574,7 @@
         <v>2500</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M49" s="5">
         <v>5</v>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -411,10 +411,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -432,9 +432,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,6 +464,66 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,26 +544,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,83 +560,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,31 +609,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,19 +657,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,25 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,25 +699,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,31 +723,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,13 +753,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,17 +818,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,9 +868,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,25 +892,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -899,19 +910,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,10 +921,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -933,136 +933,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1406,9 +1406,9 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1729,7 +1729,7 @@
         <v>50</v>
       </c>
       <c r="M7" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" s="4">
         <v>1</v>
@@ -1817,7 +1817,7 @@
         <v>58</v>
       </c>
       <c r="M9" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" s="5">
         <v>25</v>
@@ -1861,7 +1861,7 @@
         <v>60</v>
       </c>
       <c r="M10" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" s="5">
         <v>25</v>
@@ -1905,7 +1905,7 @@
         <v>61</v>
       </c>
       <c r="M11" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="5">
         <v>25</v>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="131">
   <si>
     <t>任务ID</t>
   </si>
@@ -404,6 +404,12 @@
   </si>
   <si>
     <t>9901|1|450000000;9902|2|450000000;9903|2|450000000</t>
+  </si>
+  <si>
+    <t>9605|1|80</t>
+  </si>
+  <si>
+    <t>9701|1|80;9702|1|80</t>
   </si>
 </sst>
 </file>
@@ -411,10 +417,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -433,14 +439,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,7 +500,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,60 +523,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,15 +560,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -562,21 +569,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,7 +615,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,25 +765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,67 +783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,67 +801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,16 +830,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -844,9 +856,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,13 +880,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,17 +910,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,10 +933,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -933,140 +945,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1081,6 +1093,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1406,9 +1421,9 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M51" sqref="M51"/>
+      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -3584,90 +3599,90 @@
       </c>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:14">
-      <c r="A50" s="4">
+      <c r="A50" s="6">
         <v>9001</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="6">
         <v>0</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I50" s="4" t="s">
+      <c r="H50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="6">
         <v>100</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="6">
         <v>50</v>
       </c>
-      <c r="L50" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M50" s="4">
+      <c r="L50" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="M50" s="6">
+        <v>1</v>
+      </c>
+      <c r="N50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="1:14">
+      <c r="A51" s="6">
+        <v>9002</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J51" s="6">
+        <v>100</v>
+      </c>
+      <c r="K51" s="6">
+        <v>50</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M51" s="6">
         <v>2</v>
       </c>
-      <c r="N50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" s="3" customFormat="1" spans="1:14">
-      <c r="A51" s="4">
-        <v>9002</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J51" s="4">
-        <v>100</v>
-      </c>
-      <c r="K51" s="4">
-        <v>50</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M51" s="4">
-        <v>3</v>
-      </c>
-      <c r="N51" s="4">
+      <c r="N51" s="6">
         <v>1</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -133,7 +133,7 @@
     <t>Item|2001|1|20;Coin|100|80</t>
   </si>
   <si>
-    <t>9605|2|80</t>
+    <t>9605|2|60</t>
   </si>
   <si>
     <t>shanzeiboss</t>
@@ -151,7 +151,7 @@
     <t>Food|10|50;Coin|100|50</t>
   </si>
   <si>
-    <t>9701|1|80;9702|1|80;9703|1|80</t>
+    <t>9701|1|60;9702|1|60;9703|1|60</t>
   </si>
   <si>
     <t>cike</t>
@@ -169,13 +169,13 @@
     <t>Coin|100|60;Medicine|101|1|40</t>
   </si>
   <si>
-    <t>9804|3|80</t>
+    <t>9804|3|60</t>
   </si>
   <si>
     <t>Item|2001|1|20;Coin|100|50;Kongfu|1001|1|30</t>
   </si>
   <si>
-    <t>9605|2|350</t>
+    <t>9605|2|100</t>
   </si>
   <si>
     <t>boar</t>
@@ -193,34 +193,34 @@
     <t>Item|1009|3_5</t>
   </si>
   <si>
-    <t>9602|2|350</t>
+    <t>9602|2|100</t>
   </si>
   <si>
     <t>Food|10|30;Coin|100|30;Item|3001|1_2|40</t>
   </si>
   <si>
-    <t>9701|1|350;9702|1|350;9703|1|350</t>
-  </si>
-  <si>
-    <t>9804|3|350</t>
-  </si>
-  <si>
-    <t>9605|2|1500</t>
-  </si>
-  <si>
-    <t>9602|2|1500</t>
-  </si>
-  <si>
-    <t>9701|1|1500;9702|1|1500;9703|1|1500</t>
-  </si>
-  <si>
-    <t>9804|3|1500</t>
+    <t>9701|1|100;9702|1|100;9703|1|100</t>
+  </si>
+  <si>
+    <t>9804|3|100</t>
+  </si>
+  <si>
+    <t>9605|2|250</t>
+  </si>
+  <si>
+    <t>9602|2|250</t>
+  </si>
+  <si>
+    <t>9701|1|250;9702|1|250;9703|1|250</t>
+  </si>
+  <si>
+    <t>9804|3|250</t>
   </si>
   <si>
     <t>Item|2001|1|20;Coin|100|40;Kongfu|2001|1|40</t>
   </si>
   <si>
-    <t>9605|2|8500</t>
+    <t>9605|2|800</t>
   </si>
   <si>
     <t>snake</t>
@@ -238,27 +238,102 @@
     <t>Item|1015|2_3|70;Item|1022|1_2|30</t>
   </si>
   <si>
-    <t>9604|2|8500</t>
-  </si>
-  <si>
-    <t>9602|2|8500</t>
+    <t>9604|2|800</t>
+  </si>
+  <si>
+    <t>9602|2|800</t>
   </si>
   <si>
     <t>Food|20|30;Coin|100|30;Item|3002|1_2|40</t>
   </si>
   <si>
-    <t>9701|1|8500;9702|1|8500;9703|1|8500</t>
+    <t>9701|1|800;9702|1|800;9703|1|800</t>
   </si>
   <si>
     <t>Coin|100|40;Medicine|101|1|30;Medicine|102|1|30</t>
   </si>
   <si>
-    <t>9804|3|8500</t>
+    <t>9804|3|800</t>
   </si>
   <si>
     <t>Item|2002|1|20;Coin|100|40;Kongfu|2001|1|40</t>
   </si>
   <si>
+    <t>9605|2|300</t>
+  </si>
+  <si>
+    <t>9604|2|300</t>
+  </si>
+  <si>
+    <t>9602|2|300</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>狩猎熊</t>
+  </si>
+  <si>
+    <t>去附近村里狩猎黑熊。</t>
+  </si>
+  <si>
+    <t>最近经常有黑熊到附近村子里转悠，拍死咬伤了不少妇孺老人，猎户都拿它们没办法，是时候我们出马了。</t>
+  </si>
+  <si>
+    <t>Item|1011|3_4|100</t>
+  </si>
+  <si>
+    <t>9601|2|300</t>
+  </si>
+  <si>
+    <t>9701|1|300;9702|1|300;9703|1|300</t>
+  </si>
+  <si>
+    <t>9804|3|300</t>
+  </si>
+  <si>
+    <t>Item|2002|1|20;Coin|100|40;Kongfu|3001|1|40</t>
+  </si>
+  <si>
+    <t>9605|2|12000</t>
+  </si>
+  <si>
+    <t>9604|2|12000</t>
+  </si>
+  <si>
+    <t>9602|2|12000</t>
+  </si>
+  <si>
+    <t>deer</t>
+  </si>
+  <si>
+    <t>狩猎鹿</t>
+  </si>
+  <si>
+    <t>去树林里狩猎鹿。</t>
+  </si>
+  <si>
+    <t>鹿肉不是重点，鹿茸才是真正的好东西，师父最爱的药酒就是用它泡的，不仅延年益寿，还能壮阳。</t>
+  </si>
+  <si>
+    <t>Item|1019|3_5|30</t>
+  </si>
+  <si>
+    <t>9603|2|12000</t>
+  </si>
+  <si>
+    <t>9601|2|12000</t>
+  </si>
+  <si>
+    <t>Food|30|30;Coin|100|30;Item|3002|1_2|40</t>
+  </si>
+  <si>
+    <t>9701|1|12000;9702|1|12000;9703|1|12000</t>
+  </si>
+  <si>
+    <t>9804|3|12000</t>
+  </si>
+  <si>
     <t>9605|2|80000</t>
   </si>
   <si>
@@ -268,99 +343,24 @@
     <t>9602|2|80000</t>
   </si>
   <si>
-    <t>bear</t>
-  </si>
-  <si>
-    <t>狩猎熊</t>
-  </si>
-  <si>
-    <t>去附近村里狩猎黑熊。</t>
-  </si>
-  <si>
-    <t>最近经常有黑熊到附近村子里转悠，拍死咬伤了不少妇孺老人，猎户都拿它们没办法，是时候我们出马了。</t>
-  </si>
-  <si>
-    <t>Item|1011|3_4|100</t>
+    <t>9603|2|80000</t>
   </si>
   <si>
     <t>9601|2|80000</t>
   </si>
   <si>
+    <t>Food|30|30;Coin|100|30;Item|3003|1_2|40</t>
+  </si>
+  <si>
     <t>9701|1|80000;9702|1|80000;9703|1|80000</t>
   </si>
   <si>
+    <t>Coin|100|10;Medicine|101|1|30;Medicine|102|1|30;Medicine|103|1|30</t>
+  </si>
+  <si>
     <t>9804|3|80000</t>
   </si>
   <si>
-    <t>Item|2002|1|20;Coin|100|40;Kongfu|3001|1|40</t>
-  </si>
-  <si>
-    <t>9605|2|550000</t>
-  </si>
-  <si>
-    <t>9604|2|550000</t>
-  </si>
-  <si>
-    <t>9602|2|550000</t>
-  </si>
-  <si>
-    <t>deer</t>
-  </si>
-  <si>
-    <t>狩猎鹿</t>
-  </si>
-  <si>
-    <t>去树林里狩猎鹿。</t>
-  </si>
-  <si>
-    <t>鹿肉不是重点，鹿茸才是真正的好东西，师父最爱的药酒就是用它泡的，不仅延年益寿，还能壮阳。</t>
-  </si>
-  <si>
-    <t>Item|1019|3_5|30</t>
-  </si>
-  <si>
-    <t>9603|2|550000</t>
-  </si>
-  <si>
-    <t>9601|2|550000</t>
-  </si>
-  <si>
-    <t>Food|30|30;Coin|100|30;Item|3002|1_2|40</t>
-  </si>
-  <si>
-    <t>9701|1|550000;9702|1|550000;9703|1|550000</t>
-  </si>
-  <si>
-    <t>9804|3|550000</t>
-  </si>
-  <si>
-    <t>9605|2|20000000</t>
-  </si>
-  <si>
-    <t>9604|2|20000000</t>
-  </si>
-  <si>
-    <t>9602|2|20000000</t>
-  </si>
-  <si>
-    <t>9603|2|20000000</t>
-  </si>
-  <si>
-    <t>9601|2|20000000</t>
-  </si>
-  <si>
-    <t>Food|30|30;Coin|100|30;Item|3003|1_2|40</t>
-  </si>
-  <si>
-    <t>9701|1|20000000;9702|1|20000000;9703|1|20000000</t>
-  </si>
-  <si>
-    <t>Coin|100|10;Medicine|101|1|30;Medicine|102|1|30;Medicine|103|1|30</t>
-  </si>
-  <si>
-    <t>9804|3|20000000</t>
-  </si>
-  <si>
     <t>wokou1</t>
   </si>
   <si>
@@ -376,34 +376,34 @@
     <t>Coin|100|20;Item|3102|1_2|80</t>
   </si>
   <si>
-    <t>9901|1|20000000;9902|2|20000000;9903|2|20000000</t>
-  </si>
-  <si>
-    <t>9605|2|450000000</t>
-  </si>
-  <si>
-    <t>9604|2|450000000</t>
-  </si>
-  <si>
-    <t>9602|2|450000000</t>
-  </si>
-  <si>
-    <t>9603|2|450000000</t>
-  </si>
-  <si>
-    <t>9601|2|450000000</t>
-  </si>
-  <si>
-    <t>9701|1|450000000;9702|1|450000000;9703|1|450000000</t>
-  </si>
-  <si>
-    <t>9804|3|450000000</t>
+    <t>9901|1|80000;9902|2|80000;9903|2|80000</t>
+  </si>
+  <si>
+    <t>9605|2|500000</t>
+  </si>
+  <si>
+    <t>9604|2|500000</t>
+  </si>
+  <si>
+    <t>9602|2|500000</t>
+  </si>
+  <si>
+    <t>9603|2|500000</t>
+  </si>
+  <si>
+    <t>9601|2|500000</t>
+  </si>
+  <si>
+    <t>9701|1|500000;9702|1|500000;9703|1|500000</t>
+  </si>
+  <si>
+    <t>9804|3|500000</t>
   </si>
   <si>
     <t>Coin|100|20;Item|3101|1_2|40;Item|3102|1_2|40</t>
   </si>
   <si>
-    <t>9901|1|450000000;9902|2|450000000;9903|2|450000000</t>
+    <t>9901|1|500000;9902|2|500000;9903|2|500000</t>
   </si>
   <si>
     <t>9605|1|80</t>
@@ -418,9 +418,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -445,9 +445,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,15 +497,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -485,75 +545,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,20 +559,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -621,13 +621,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,7 +651,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,19 +687,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +729,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,37 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,55 +789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,19 +801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,37 +830,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,6 +869,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -909,172 +927,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1421,9 +1421,9 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="5">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:14">
@@ -1835,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="N9" s="5">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:14">
@@ -1879,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="5">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1923,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="5">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:14">
@@ -1967,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="N12" s="4">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2011,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="4">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:14">
@@ -2055,7 +2055,7 @@
         <v>3</v>
       </c>
       <c r="N14" s="4">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:14">
@@ -2099,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="N15" s="4">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:14">
@@ -2143,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="N16" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:14">
@@ -2187,7 +2187,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:14">
@@ -2231,7 +2231,7 @@
         <v>2</v>
       </c>
       <c r="N18" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2275,7 +2275,7 @@
         <v>3</v>
       </c>
       <c r="N19" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2319,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="N20" s="5">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2363,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="4">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:14">
@@ -2407,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="N22" s="4">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2451,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="N23" s="4">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2495,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="N24" s="4">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" spans="1:14">
@@ -2539,7 +2539,7 @@
         <v>3</v>
       </c>
       <c r="N25" s="4">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" spans="1:14">
@@ -2583,7 +2583,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="4">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1" spans="1:14">
@@ -2627,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="N27" s="5">
-        <v>320</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" spans="1:14">
@@ -2671,7 +2671,7 @@
         <v>2</v>
       </c>
       <c r="N28" s="5">
-        <v>320</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" spans="1:14">
@@ -2715,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="N29" s="5">
-        <v>320</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1" spans="1:14">
@@ -2759,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="N30" s="5">
-        <v>320</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" s="3" customFormat="1" spans="1:14">
@@ -2803,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="N31" s="5">
-        <v>320</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2847,7 +2847,7 @@
         <v>3</v>
       </c>
       <c r="N32" s="5">
-        <v>320</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2891,7 +2891,7 @@
         <v>3</v>
       </c>
       <c r="N33" s="5">
-        <v>320</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2935,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="N34" s="4">
-        <v>450</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2979,7 +2979,7 @@
         <v>2</v>
       </c>
       <c r="N35" s="4">
-        <v>450</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3023,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="N36" s="4">
-        <v>450</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:14">
@@ -3067,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="N37" s="4">
-        <v>450</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3111,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="N38" s="4">
-        <v>450</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3155,7 +3155,7 @@
         <v>3</v>
       </c>
       <c r="N39" s="4">
-        <v>450</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" s="3" customFormat="1" spans="1:14">
@@ -3199,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="N40" s="4">
-        <v>450</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" s="3" customFormat="1" spans="1:14">
@@ -3243,7 +3243,7 @@
         <v>5</v>
       </c>
       <c r="N41" s="4">
-        <v>450</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" s="3" customFormat="1" spans="1:14">
@@ -3287,7 +3287,7 @@
         <v>2</v>
       </c>
       <c r="N42" s="5">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1" spans="1:14">
@@ -3331,7 +3331,7 @@
         <v>2</v>
       </c>
       <c r="N43" s="5">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="1" spans="1:14">
@@ -3375,7 +3375,7 @@
         <v>2</v>
       </c>
       <c r="N44" s="5">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="1" spans="1:14">
@@ -3419,7 +3419,7 @@
         <v>2</v>
       </c>
       <c r="N45" s="5">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3463,7 +3463,7 @@
         <v>2</v>
       </c>
       <c r="N46" s="5">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3507,7 +3507,7 @@
         <v>3</v>
       </c>
       <c r="N47" s="5">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3551,7 +3551,7 @@
         <v>3</v>
       </c>
       <c r="N48" s="5">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3595,7 +3595,7 @@
         <v>5</v>
       </c>
       <c r="N49" s="5">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:14">

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="176">
   <si>
     <t>任务ID</t>
   </si>
@@ -535,7 +535,13 @@
     <t>9901|1|150000;9902|2|150000;9903|2|150000</t>
   </si>
   <si>
+    <t>Item|2001|1|20</t>
+  </si>
+  <si>
     <t>9605|1|60</t>
+  </si>
+  <si>
+    <t>Kongfu|1001|1</t>
   </si>
   <si>
     <t>9701|1|80;9702|1|60</t>
@@ -577,7 +583,73 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,32 +664,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -630,36 +680,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,7 +688,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,21 +703,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -704,11 +710,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -745,7 +751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,7 +763,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,25 +811,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,73 +841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +859,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,13 +901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,19 +913,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,6 +956,32 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,26 +1012,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,21 +1024,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,11 +1043,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,10 +1063,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1069,140 +1075,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1210,13 +1216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1555,27 +1555,27 @@
   <dimension ref="A1:AB81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="4" customWidth="1"/>
-    <col min="2" max="4" width="10" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="30" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="34.75" style="4" customWidth="1"/>
-    <col min="10" max="11" width="8.83333333333333" style="4"/>
-    <col min="12" max="12" width="38.0833333333333" style="4" customWidth="1"/>
-    <col min="13" max="14" width="8.83333333333333" style="4"/>
-    <col min="15" max="21" width="8.83333333333333" style="5"/>
-    <col min="22" max="25" width="8.83333333333333" style="4"/>
-    <col min="27" max="27" width="40.375" style="4" customWidth="1"/>
-    <col min="29" max="16384" width="8.83333333333333" style="4"/>
+    <col min="1" max="1" width="6.625" style="3" customWidth="1"/>
+    <col min="2" max="4" width="10" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="60.375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="8.83333333333333" style="3"/>
+    <col min="12" max="12" width="38.0833333333333" style="3" customWidth="1"/>
+    <col min="13" max="14" width="8.83333333333333" style="3"/>
+    <col min="15" max="21" width="8.83333333333333" style="2"/>
+    <col min="22" max="25" width="8.83333333333333" style="3"/>
+    <col min="27" max="27" width="40.375" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="8.83333333333333" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:27">
@@ -1621,18 +1621,18 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
       <c r="AA1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1680,16 +1680,16 @@
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="1" t="s">
@@ -1734,16 +1734,16 @@
       <c r="N3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:24">
       <c r="A4" s="1" t="s">
@@ -1788,3227 +1788,2943 @@
       <c r="N4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:27">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>101</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>100</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>50</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>2</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="4">
         <v>1</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5">
+      <c r="P5" s="2">
         <v>9601</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5">
+      <c r="S5" s="2">
         <v>50</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="2">
         <v>100</v>
       </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5">
+      <c r="V5" s="2">
         <v>60</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="2">
         <f>ROUND(X5*0.6,0)</f>
         <v>60</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="2">
         <v>100</v>
       </c>
       <c r="Y5" s="2">
         <f>V5</f>
         <v>60</v>
       </c>
-      <c r="AA5" s="3" t="str">
+      <c r="AA5" s="2" t="str">
         <f>"9605|2|"&amp;Y5</f>
         <v>9605|2|60</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:27">
-      <c r="A6" s="6">
+    <row r="6" s="2" customFormat="1" spans="1:27">
+      <c r="A6" s="4">
         <v>102</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>100</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <v>50</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <v>3</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="4">
         <v>1</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5">
+      <c r="P6" s="2">
         <v>9602</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5">
+      <c r="S6" s="2">
         <v>80</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="2">
         <v>250</v>
       </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5">
+      <c r="V6" s="2">
         <v>100</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="2">
         <f t="shared" ref="W6:W12" si="0">ROUND(X6*0.6,0)</f>
         <v>103</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="2">
         <v>172</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="2">
         <f>Y5</f>
         <v>60</v>
       </c>
-      <c r="AA6" s="3" t="str">
+      <c r="AA6" s="2" t="str">
         <f>"9701|1|"&amp;Y6&amp;";9702|1|"&amp;Y6&amp;";9703|1|"&amp;Y6</f>
         <v>9701|1|60;9702|1|60;9703|1|60</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:27">
-      <c r="A7" s="6">
+    <row r="7" s="2" customFormat="1" spans="1:27">
+      <c r="A7" s="4">
         <v>103</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>100</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <v>50</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="4">
         <v>3</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="4">
         <v>1</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5">
+      <c r="P7" s="2">
         <v>9603</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5">
+      <c r="S7" s="2">
         <v>120</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="2">
         <v>800</v>
       </c>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5">
+      <c r="V7" s="2">
         <v>340</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="2">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="2">
         <v>392</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="2">
         <f t="shared" ref="Y7:Y49" si="1">Y6</f>
         <v>60</v>
       </c>
-      <c r="AA7" s="3" t="str">
+      <c r="AA7" s="2" t="str">
         <f>"9804|3|"&amp;Y7</f>
         <v>9804|3|60</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:27">
-      <c r="A8" s="7">
+    <row r="8" s="2" customFormat="1" spans="1:27">
+      <c r="A8" s="5">
         <v>201</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>250</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <v>80</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <v>2</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="5">
         <v>15</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5">
+      <c r="P8" s="2">
         <v>9604</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5">
+      <c r="S8" s="2">
         <v>200</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="2">
         <v>2400</v>
       </c>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5">
+      <c r="V8" s="2">
         <v>650</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="2">
         <f t="shared" si="0"/>
         <v>642</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="2">
         <v>1070</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="2">
         <f>V6</f>
         <v>100</v>
       </c>
-      <c r="AA8" s="3" t="str">
+      <c r="AA8" s="2" t="str">
         <f>"9605|2|"&amp;Y8</f>
         <v>9605|2|100</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:27">
-      <c r="A9" s="7">
+    <row r="9" s="2" customFormat="1" spans="1:27">
+      <c r="A9" s="5">
         <v>202</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>250</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>80</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="5">
         <v>2</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="5">
         <v>15</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5">
+      <c r="P9" s="2">
         <v>9605</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5">
+      <c r="S9" s="2">
         <v>350</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="2">
         <v>6000</v>
       </c>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5">
+      <c r="V9" s="2">
         <v>2200</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="2">
         <f t="shared" si="0"/>
         <v>2254</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="2">
         <v>3756</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="AA9" s="3" t="str">
+      <c r="AA9" s="2" t="str">
         <f>"9602|2|"&amp;Y9</f>
         <v>9602|2|100</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:27">
-      <c r="A10" s="7">
+    <row r="10" s="2" customFormat="1" spans="1:27">
+      <c r="A10" s="5">
         <v>203</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>250</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>80</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="5">
         <v>3</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="5">
         <v>15</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5">
+      <c r="P10" s="2">
         <v>9701</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5">
+      <c r="S10" s="2">
         <v>600</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="2">
         <v>15000</v>
       </c>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5">
+      <c r="V10" s="2">
         <v>7500</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" s="2">
         <f t="shared" si="0"/>
         <v>7579</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" s="2">
         <v>12631</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="AA10" s="3" t="str">
+      <c r="AA10" s="2" t="str">
         <f>"9701|1|"&amp;Y10&amp;";9702|1|"&amp;Y10&amp;";9703|1|"&amp;Y10</f>
         <v>9701|1|100;9702|1|100;9703|1|100</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:28">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>204</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>250</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <v>80</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="5">
         <v>3</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="5">
         <v>15</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5">
+      <c r="P11" s="2">
         <v>9702</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5">
+      <c r="S11" s="2">
         <v>1200</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="2">
         <v>60000</v>
       </c>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5">
+      <c r="V11" s="2">
         <v>31000</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="2">
         <f t="shared" si="0"/>
         <v>30946</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" s="2">
         <v>51577</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="3" t="str">
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="2" t="str">
         <f>"9804|3|"&amp;Y11</f>
         <v>9804|3|100</v>
       </c>
-      <c r="AB11" s="10"/>
+      <c r="AB11" s="8"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:27">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>301</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="4">
         <v>800</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="4">
         <v>120</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="4">
         <v>2</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="4">
         <v>50</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5">
+      <c r="P12" s="2">
         <v>9703</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5">
+      <c r="S12" s="2">
         <v>2500</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="2">
         <v>200000</v>
       </c>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5">
+      <c r="V12" s="2">
         <v>150000</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="2">
         <f t="shared" si="0"/>
         <v>153946</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X12" s="2">
         <v>256576</v>
       </c>
       <c r="Y12" s="2">
         <f>V7</f>
         <v>340</v>
       </c>
-      <c r="AA12" s="3" t="str">
+      <c r="AA12" s="2" t="str">
         <f>"9605|2|"&amp;Y12</f>
         <v>9605|2|340</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:28">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>302</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>3</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="4">
         <v>800</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="4">
         <v>120</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="4">
         <v>2</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="4">
         <v>50</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5">
+      <c r="P13" s="2">
         <v>9804</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
       <c r="Y13" s="2">
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="3" t="str">
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="2" t="str">
         <f>"9602|2|"&amp;Y13</f>
         <v>9602|2|340</v>
       </c>
-      <c r="AB13" s="10"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:27">
-      <c r="A14" s="6">
+      <c r="AB13" s="8"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:27">
+      <c r="A14" s="4">
         <v>303</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>3</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="4">
         <v>800</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="4">
         <v>120</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="4">
         <v>3</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="4">
         <v>50</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5">
+      <c r="P14" s="2">
         <v>9901</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5">
+      <c r="V14" s="2">
         <v>1</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14" s="2">
         <v>5</v>
       </c>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="3">
+      <c r="Y14" s="2">
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
-      <c r="AA14" s="3" t="str">
+      <c r="AA14" s="2" t="str">
         <f>"9701|1|"&amp;Y14&amp;";9702|1|"&amp;Y14&amp;";9703|1|"&amp;Y14</f>
         <v>9701|1|340;9702|1|340;9703|1|340</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:27">
-      <c r="A15" s="6">
+    <row r="15" s="2" customFormat="1" spans="1:27">
+      <c r="A15" s="4">
         <v>304</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>3</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="4">
         <v>800</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="4">
         <v>120</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="4">
         <v>3</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="4">
         <v>50</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5">
+      <c r="P15" s="2">
         <v>9902</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <v>15</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="3">
         <v>20</v>
       </c>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="3">
+      <c r="X15" s="3"/>
+      <c r="Y15" s="2">
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
-      <c r="AA15" s="3" t="str">
+      <c r="AA15" s="2" t="str">
         <f>"9804|3|"&amp;Y15</f>
         <v>9804|3|340</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:27">
-      <c r="A16" s="7">
+    <row r="16" s="2" customFormat="1" spans="1:27">
+      <c r="A16" s="5">
         <v>401</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>4</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>2400</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <v>200</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="5">
         <v>2</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="5">
         <v>100</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5">
+      <c r="P16" s="2">
         <v>9903</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5">
+      <c r="V16" s="2">
         <v>50</v>
       </c>
-      <c r="W16" s="5">
+      <c r="W16" s="2">
         <v>60</v>
       </c>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="3">
+      <c r="Y16" s="2">
         <f>V8</f>
         <v>650</v>
       </c>
-      <c r="AA16" s="3" t="str">
+      <c r="AA16" s="2" t="str">
         <f>"9605|2|"&amp;Y16</f>
         <v>9605|2|650</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:27">
-      <c r="A17" s="7">
+    <row r="17" s="2" customFormat="1" spans="1:27">
+      <c r="A17" s="5">
         <v>402</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <v>2400</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="5">
         <v>200</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="5">
         <v>2</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="5">
         <v>100</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5">
+      <c r="V17" s="2">
         <v>100</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="2">
         <v>120</v>
       </c>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="3">
+      <c r="Y17" s="2">
         <f t="shared" si="1"/>
         <v>650</v>
       </c>
-      <c r="AA17" s="3" t="str">
+      <c r="AA17" s="2" t="str">
         <f>"9604|2|"&amp;Y17</f>
         <v>9604|2|650</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:27">
-      <c r="A18" s="7">
+    <row r="18" s="2" customFormat="1" spans="1:27">
+      <c r="A18" s="5">
         <v>403</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>4</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <v>2400</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="5">
         <v>200</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="5">
         <v>2</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="5">
         <v>100</v>
       </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="2">
         <v>1009</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="S18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5">
+      <c r="V18" s="2">
         <v>180</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="2">
         <v>210</v>
       </c>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="3">
+      <c r="Y18" s="2">
         <f t="shared" si="1"/>
         <v>650</v>
       </c>
-      <c r="AA18" s="3" t="str">
+      <c r="AA18" s="2" t="str">
         <f>"9602|2|"&amp;Y18</f>
         <v>9602|2|650</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:28">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>404</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>4</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="5">
         <v>2400</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="5">
         <v>200</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="5">
         <v>3</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="5">
         <v>100</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="2">
         <v>1011</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="S19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5">
+      <c r="V19" s="2">
         <v>250</v>
       </c>
-      <c r="W19" s="5">
+      <c r="W19" s="2">
         <v>300</v>
       </c>
-      <c r="X19" s="5"/>
       <c r="Y19" s="2">
         <f t="shared" si="1"/>
         <v>650</v>
       </c>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="3" t="str">
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="2" t="str">
         <f>"9701|1|"&amp;Y19&amp;";9702|1|"&amp;Y19&amp;";9703|1|"&amp;Y19</f>
         <v>9701|1|650;9702|1|650;9703|1|650</v>
       </c>
-      <c r="AB19" s="10"/>
+      <c r="AB19" s="8"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:28">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>405</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <v>4</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="5">
         <v>2400</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="5">
         <v>200</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="5">
         <v>3</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="5">
         <v>100</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5" t="s">
+      <c r="P20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="2">
         <v>1015</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="R20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="S20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5">
+      <c r="V20" s="2">
         <v>360</v>
       </c>
-      <c r="W20" s="5">
+      <c r="W20" s="2">
         <v>450</v>
       </c>
-      <c r="X20" s="5"/>
       <c r="Y20" s="2">
         <f t="shared" si="1"/>
         <v>650</v>
       </c>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="3" t="str">
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="2" t="str">
         <f>"9804|3|"&amp;Y20</f>
         <v>9804|3|650</v>
       </c>
-      <c r="AB20" s="10"/>
+      <c r="AB20" s="8"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:28">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>501</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>5</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="4">
         <v>6000</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="4">
         <v>350</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="4">
         <v>2</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="4">
         <v>180</v>
       </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="2">
         <v>1019</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="4">
+      <c r="V21" s="3">
         <v>500</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W21" s="3">
         <v>600</v>
       </c>
-      <c r="X21" s="4"/>
+      <c r="X21" s="3"/>
       <c r="Y21" s="2">
         <f>V9</f>
         <v>2200</v>
       </c>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="3" t="str">
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="2" t="str">
         <f>"9605|2|"&amp;Y21</f>
         <v>9605|2|2200</v>
       </c>
-      <c r="AB21" s="10"/>
+      <c r="AB21" s="8"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:27">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>502</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>5</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="4">
         <v>6000</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="4">
         <v>350</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="4">
         <v>2</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="4">
         <v>180</v>
       </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="2">
         <v>1022</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="S22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
       <c r="Y22" s="2">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="AA22" s="3" t="str">
+      <c r="AA22" s="2" t="str">
         <f>"9604|2|"&amp;Y22</f>
         <v>9604|2|2200</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:28">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>503</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>5</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="4">
         <v>6000</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="4">
         <v>350</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="4">
         <v>2</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="4">
         <v>180</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
       <c r="Y23" s="2">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="3" t="str">
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="2" t="str">
         <f>"9602|2|"&amp;Y23</f>
         <v>9602|2|2200</v>
       </c>
-      <c r="AB23" s="10"/>
+      <c r="AB23" s="8"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:28">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>504</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>5</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="4">
         <v>6000</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="4">
         <v>350</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="4">
         <v>2</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="4">
         <v>180</v>
       </c>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5" t="s">
+      <c r="P24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
       <c r="Y24" s="2">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="3" t="str">
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="2" t="str">
         <f>"9601|2|"&amp;Y24</f>
         <v>9601|2|2200</v>
       </c>
-      <c r="AB24" s="10"/>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="1:27">
-      <c r="A25" s="6">
+      <c r="AB24" s="8"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:27">
+      <c r="A25" s="4">
         <v>505</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <v>5</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="4">
         <v>6000</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="4">
         <v>350</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="4">
         <v>3</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="4">
         <v>180</v>
       </c>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5" t="s">
+      <c r="P25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="3">
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="2">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="AA25" s="3" t="str">
+      <c r="AA25" s="2" t="str">
         <f>"9701|1|"&amp;Y25&amp;";9702|1|"&amp;Y25&amp;";9703|1|"&amp;Y25</f>
         <v>9701|1|2200;9702|1|2200;9703|1|2200</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:27">
-      <c r="A26" s="6">
+    <row r="26" s="2" customFormat="1" spans="1:27">
+      <c r="A26" s="4">
         <v>506</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>5</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="4">
         <v>6000</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="4">
         <v>350</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="4">
         <v>3</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="4">
         <v>180</v>
       </c>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5" t="s">
+      <c r="P26" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="3">
+      <c r="Y26" s="2">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="AA26" s="3" t="str">
+      <c r="AA26" s="2" t="str">
         <f>"9804|3|"&amp;Y26</f>
         <v>9804|3|2200</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:27">
-      <c r="A27" s="7">
+    <row r="27" s="2" customFormat="1" spans="1:27">
+      <c r="A27" s="5">
         <v>601</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>6</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="5">
         <v>15000</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="5">
         <v>600</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="5">
         <v>2</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="5">
         <v>250</v>
       </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5" t="s">
+      <c r="P27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="3">
+      <c r="Y27" s="2">
         <f>V10</f>
         <v>7500</v>
       </c>
-      <c r="AA27" s="3" t="str">
+      <c r="AA27" s="2" t="str">
         <f>"9605|2|"&amp;Y27</f>
         <v>9605|2|7500</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:27">
-      <c r="A28" s="7">
+    <row r="28" s="2" customFormat="1" spans="1:27">
+      <c r="A28" s="5">
         <v>602</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="5">
         <v>6</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="5">
         <v>15000</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="5">
         <v>600</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="5">
         <v>2</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="5">
         <v>250</v>
       </c>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5" t="s">
+      <c r="P28" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="3">
+      <c r="Y28" s="2">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="AA28" s="3" t="str">
+      <c r="AA28" s="2" t="str">
         <f>"9604|2|"&amp;Y28</f>
         <v>9604|2|7500</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:27">
-      <c r="A29" s="7">
+    <row r="29" s="2" customFormat="1" spans="1:27">
+      <c r="A29" s="5">
         <v>603</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="5">
         <v>6</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="5">
         <v>15000</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="5">
         <v>600</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="5">
         <v>2</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="5">
         <v>250</v>
       </c>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5" t="s">
+      <c r="P29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q29" s="2">
         <v>2001</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="R29" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="S29" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="3">
+      <c r="Y29" s="2">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="AA29" s="3" t="str">
+      <c r="AA29" s="2" t="str">
         <f>"9602|2|"&amp;Y29</f>
         <v>9602|2|7500</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:27">
-      <c r="A30" s="7">
+    <row r="30" s="2" customFormat="1" spans="1:27">
+      <c r="A30" s="5">
         <v>604</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="5">
         <v>6</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="5">
         <v>15000</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="5">
         <v>600</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="5">
         <v>2</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="5">
         <v>250</v>
       </c>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5" t="s">
+      <c r="P30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="Q30" s="2">
         <v>2002</v>
       </c>
-      <c r="R30" s="5" t="s">
+      <c r="R30" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="S30" s="5" t="s">
+      <c r="S30" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="3">
+      <c r="Y30" s="2">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="AA30" s="3" t="str">
+      <c r="AA30" s="2" t="str">
         <f>"9603|2|"&amp;Y30</f>
         <v>9603|2|7500</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:27">
-      <c r="A31" s="7">
+    <row r="31" s="2" customFormat="1" spans="1:27">
+      <c r="A31" s="5">
         <v>605</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="5">
         <v>6</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="5">
         <v>15000</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="5">
         <v>600</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="5">
         <v>2</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="5">
         <v>250</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5" t="s">
+      <c r="P31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="Q31" s="2">
         <v>3001</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="S31" s="5" t="s">
+      <c r="S31" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="3">
+      <c r="Y31" s="2">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="AA31" s="3" t="str">
+      <c r="AA31" s="2" t="str">
         <f>"9601|2|"&amp;Y31</f>
         <v>9601|2|7500</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:28">
-      <c r="A32" s="7">
+      <c r="A32" s="5">
         <v>606</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="5">
         <v>6</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="5">
         <v>15000</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="5">
         <v>600</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="5">
         <v>3</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="5">
         <v>250</v>
       </c>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5" t="s">
+      <c r="P32" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="Q32" s="2">
         <v>3002</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="S32" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
       <c r="Y32" s="2">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="3" t="str">
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="2" t="str">
         <f>"9701|1|"&amp;Y32&amp;";9702|1|"&amp;Y32&amp;";9703|1|"&amp;Y32</f>
         <v>9701|1|7500;9702|1|7500;9703|1|7500</v>
       </c>
-      <c r="AB32" s="10"/>
+      <c r="AB32" s="8"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:28">
-      <c r="A33" s="7">
+      <c r="A33" s="5">
         <v>607</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="5">
         <v>6</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="5">
         <v>15000</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="5">
         <v>600</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="5">
         <v>3</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="5">
         <v>250</v>
       </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5" t="s">
+      <c r="P33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="Q33" s="2">
         <v>3003</v>
       </c>
-      <c r="R33" s="5" t="s">
+      <c r="R33" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="S33" s="5" t="s">
+      <c r="S33" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
       <c r="Y33" s="2">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="3" t="str">
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="2" t="str">
         <f>"9804|3|"&amp;Y33</f>
         <v>9804|3|7500</v>
       </c>
-      <c r="AB33" s="10"/>
+      <c r="AB33" s="8"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:28">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>701</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="4">
         <v>7</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="4">
         <v>60000</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="4">
         <v>1200</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="4">
         <v>2</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="4">
         <v>360</v>
       </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5" t="s">
+      <c r="P34" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="Q34" s="2">
         <v>3101</v>
       </c>
-      <c r="R34" s="5" t="s">
+      <c r="R34" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="S34" s="5" t="s">
+      <c r="S34" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
       <c r="Y34" s="2">
         <f>V11</f>
         <v>31000</v>
       </c>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="3" t="str">
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="2" t="str">
         <f>"9605|2|"&amp;Y34</f>
         <v>9605|2|31000</v>
       </c>
-      <c r="AB34" s="10"/>
+      <c r="AB34" s="8"/>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:28">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>702</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="4">
         <v>7</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="4">
         <v>60000</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="4">
         <v>1200</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="4">
         <v>2</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="4">
         <v>360</v>
       </c>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5" t="s">
+      <c r="P35" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="Q35" s="2">
         <v>3102</v>
       </c>
-      <c r="R35" s="5" t="s">
+      <c r="R35" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S35" s="5" t="s">
+      <c r="S35" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
       <c r="Y35" s="2">
         <f t="shared" si="1"/>
         <v>31000</v>
       </c>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="3" t="str">
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="2" t="str">
         <f>"9604|2|"&amp;Y35</f>
         <v>9604|2|31000</v>
       </c>
-      <c r="AB35" s="10"/>
+      <c r="AB35" s="8"/>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:28">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>703</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>7</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="4">
         <v>60000</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="4">
         <v>1200</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="4">
         <v>2</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="4">
         <v>360</v>
       </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
       <c r="Y36" s="2">
         <f t="shared" si="1"/>
         <v>31000</v>
       </c>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="3" t="str">
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="2" t="str">
         <f>"9602|2|"&amp;Y36</f>
         <v>9602|2|31000</v>
       </c>
-      <c r="AB36" s="10"/>
+      <c r="AB36" s="8"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:27">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>704</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="4">
         <v>7</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="4">
         <v>60000</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="4">
         <v>1200</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="4">
         <v>2</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="4">
         <v>360</v>
       </c>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
       <c r="Y37" s="2">
         <f t="shared" si="1"/>
         <v>31000</v>
       </c>
-      <c r="AA37" s="3" t="str">
+      <c r="AA37" s="2" t="str">
         <f>"9603|2|"&amp;Y37</f>
         <v>9603|2|31000</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:28">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>705</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="4">
         <v>7</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="4">
         <v>60000</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="4">
         <v>1200</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="4">
         <v>2</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="4">
         <v>360</v>
       </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
       <c r="Y38" s="2">
         <f t="shared" si="1"/>
         <v>31000</v>
       </c>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="3" t="str">
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="2" t="str">
         <f>"9601|2|"&amp;Y38</f>
         <v>9601|2|31000</v>
       </c>
-      <c r="AB38" s="10"/>
+      <c r="AB38" s="8"/>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:28">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>706</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="4">
         <v>7</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="4">
         <v>60000</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="4">
         <v>1200</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="4">
         <v>3</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="4">
         <v>360</v>
       </c>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
       <c r="Y39" s="2">
         <f t="shared" si="1"/>
         <v>31000</v>
       </c>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="3" t="str">
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="2" t="str">
         <f>"9701|1|"&amp;Y39&amp;";9702|1|"&amp;Y39&amp;";9703|1|"&amp;Y39</f>
         <v>9701|1|31000;9702|1|31000;9703|1|31000</v>
       </c>
-      <c r="AB39" s="10"/>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="1:27">
-      <c r="A40" s="6">
+      <c r="AB39" s="8"/>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:27">
+      <c r="A40" s="4">
         <v>707</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="4">
         <v>7</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="4">
         <v>60000</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="4">
         <v>1200</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L40" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40" s="4">
         <v>3</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="4">
         <v>360</v>
       </c>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="3">
+      <c r="Y40" s="2">
         <f t="shared" si="1"/>
         <v>31000</v>
       </c>
-      <c r="AA40" s="3" t="str">
+      <c r="AA40" s="2" t="str">
         <f>"9804|3|"&amp;Y40</f>
         <v>9804|3|31000</v>
       </c>
     </row>
-    <row r="41" s="3" customFormat="1" spans="1:27">
-      <c r="A41" s="6">
+    <row r="41" s="2" customFormat="1" spans="1:27">
+      <c r="A41" s="4">
         <v>708</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="4">
         <v>7</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="4">
         <v>60000</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="4">
         <v>1200</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="4">
         <v>5</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="4">
         <v>360</v>
       </c>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="3">
+      <c r="Y41" s="2">
         <f t="shared" si="1"/>
         <v>31000</v>
       </c>
-      <c r="AA41" s="3" t="str">
+      <c r="AA41" s="2" t="str">
         <f>"9901|1|"&amp;Y41&amp;";9902|2|"&amp;Y41&amp;";9903|2|"&amp;Y41</f>
         <v>9901|1|31000;9902|2|31000;9903|2|31000</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="1" spans="1:27">
-      <c r="A42" s="7">
+    <row r="42" s="2" customFormat="1" spans="1:27">
+      <c r="A42" s="5">
         <v>801</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="5">
         <v>8</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="5">
         <v>200000</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="5">
         <v>2500</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="5">
         <v>2</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N42" s="5">
         <v>500</v>
       </c>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="3">
+      <c r="Y42" s="2">
         <f>V12</f>
         <v>150000</v>
       </c>
-      <c r="AA42" s="3" t="str">
+      <c r="AA42" s="2" t="str">
         <f>"9605|2|"&amp;Y42</f>
         <v>9605|2|150000</v>
       </c>
     </row>
-    <row r="43" s="3" customFormat="1" spans="1:27">
-      <c r="A43" s="7">
+    <row r="43" s="2" customFormat="1" spans="1:27">
+      <c r="A43" s="5">
         <v>802</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="5">
         <v>8</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="5">
         <v>200000</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="5">
         <v>2500</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="5">
         <v>2</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N43" s="5">
         <v>500</v>
       </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="3">
+      <c r="Y43" s="2">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
-      <c r="AA43" s="3" t="str">
+      <c r="AA43" s="2" t="str">
         <f>"9604|2|"&amp;Y43</f>
         <v>9604|2|150000</v>
       </c>
     </row>
-    <row r="44" s="3" customFormat="1" spans="1:27">
-      <c r="A44" s="7">
+    <row r="44" s="2" customFormat="1" spans="1:27">
+      <c r="A44" s="5">
         <v>803</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="5">
         <v>8</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="5">
         <v>200000</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="5">
         <v>2500</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="L44" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="5">
         <v>2</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N44" s="5">
         <v>500</v>
       </c>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="3">
+      <c r="Y44" s="2">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
-      <c r="AA44" s="3" t="str">
+      <c r="AA44" s="2" t="str">
         <f>"9602|2|"&amp;Y44</f>
         <v>9602|2|150000</v>
       </c>
     </row>
-    <row r="45" s="3" customFormat="1" spans="1:27">
-      <c r="A45" s="7">
+    <row r="45" s="2" customFormat="1" spans="1:27">
+      <c r="A45" s="5">
         <v>804</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="5">
         <v>8</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="5">
         <v>200000</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="5">
         <v>2500</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="L45" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="5">
         <v>2</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="5">
         <v>500</v>
       </c>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="3">
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="2">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
-      <c r="AA45" s="3" t="str">
+      <c r="AA45" s="2" t="str">
         <f>"9603|2|"&amp;Y45</f>
         <v>9603|2|150000</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:28">
-      <c r="A46" s="7">
+      <c r="A46" s="5">
         <v>805</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="5">
         <v>8</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="5">
         <v>200000</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="5">
         <v>2500</v>
       </c>
-      <c r="L46" s="7" t="s">
+      <c r="L46" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="5">
         <v>2</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N46" s="5">
         <v>500</v>
       </c>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
       <c r="Y46" s="2">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="3" t="str">
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="2" t="str">
         <f>"9601|2|"&amp;Y46</f>
         <v>9601|2|150000</v>
       </c>
-      <c r="AB46" s="10"/>
+      <c r="AB46" s="8"/>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:28">
-      <c r="A47" s="7">
+      <c r="A47" s="5">
         <v>806</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="5">
         <v>8</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="5">
         <v>200000</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="5">
         <v>2500</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="L47" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="5">
         <v>3</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N47" s="5">
         <v>500</v>
       </c>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
       <c r="Y47" s="2">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="3" t="str">
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="2" t="str">
         <f>"9701|1|"&amp;Y47&amp;";9702|1|"&amp;Y47&amp;";9703|1|"&amp;Y47</f>
         <v>9701|1|150000;9702|1|150000;9703|1|150000</v>
       </c>
-      <c r="AB47" s="10"/>
+      <c r="AB47" s="8"/>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:28">
-      <c r="A48" s="7">
+      <c r="A48" s="5">
         <v>807</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="5">
         <v>8</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="5">
         <v>200000</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="5">
         <v>2500</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="L48" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="5">
         <v>3</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N48" s="5">
         <v>500</v>
       </c>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
       <c r="Y48" s="2">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="3" t="str">
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="2" t="str">
         <f>"9804|3|"&amp;Y48</f>
         <v>9804|3|150000</v>
       </c>
-      <c r="AB48" s="10"/>
+      <c r="AB48" s="8"/>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:28">
-      <c r="A49" s="7">
+      <c r="A49" s="5">
         <v>808</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="5">
         <v>8</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I49" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="5">
         <v>200000</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="5">
         <v>2500</v>
       </c>
-      <c r="L49" s="7" t="s">
+      <c r="L49" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="5">
         <v>5</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="5">
         <v>500</v>
       </c>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
       <c r="Y49" s="2">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="3" t="str">
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="2" t="str">
         <f>"9901|1|"&amp;Y49&amp;";9902|2|"&amp;Y49&amp;";9903|2|"&amp;Y49</f>
         <v>9901|1|150000;9902|2|150000;9903|2|150000</v>
       </c>
-      <c r="AB49" s="10"/>
+      <c r="AB49" s="8"/>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:24">
-      <c r="A50" s="8">
+      <c r="A50" s="6">
         <v>9001</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="6">
         <v>0</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I50" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J50" s="8">
+      <c r="I50" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J50" s="6">
         <v>100</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="6">
         <v>50</v>
       </c>
-      <c r="L50" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="M50" s="8">
+      <c r="L50" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="M50" s="6">
         <v>1</v>
       </c>
-      <c r="N50" s="8">
+      <c r="N50" s="6">
         <v>1</v>
       </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-    </row>
-    <row r="51" s="3" customFormat="1" spans="1:24">
-      <c r="A51" s="8">
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:24">
+      <c r="A51" s="6">
         <v>9002</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="6">
         <v>0</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I51" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J51" s="8">
+      <c r="I51" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J51" s="6">
         <v>100</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="6">
         <v>50</v>
       </c>
-      <c r="L51" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="M51" s="8">
+      <c r="L51" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="M51" s="6">
         <v>2</v>
       </c>
-      <c r="N51" s="8">
+      <c r="N51" s="6">
         <v>1</v>
       </c>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
     </row>
     <row r="81" spans="15:15">
-      <c r="O81" s="4"/>
+      <c r="O81" s="3"/>
     </row>
   </sheetData>
   <sortState ref="H39:H42">

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="210">
   <si>
     <t>任务ID</t>
   </si>
@@ -61,6 +61,12 @@
     <t>弟子等级要求</t>
   </si>
   <si>
+    <t>功夫经验</t>
+  </si>
+  <si>
+    <t>弟子经验</t>
+  </si>
+  <si>
     <t>敌人功力</t>
   </si>
   <si>
@@ -139,7 +145,7 @@
     <t>Item|2001|1|20;Coin|100|80</t>
   </si>
   <si>
-    <t>9605|2|60</t>
+    <t>9605|2|50</t>
   </si>
   <si>
     <t>熊</t>
@@ -160,7 +166,7 @@
     <t>Food|10|50;Coin|100|50</t>
   </si>
   <si>
-    <t>9701|1|60;9702|1|60;9703|1|60</t>
+    <t>9701|1|50;9702|1|50;9703|1|50</t>
   </si>
   <si>
     <t>野猪</t>
@@ -178,76 +184,79 @@
     <t>昨晚赵员外被行刺了，好在只受了点轻伤，没有性命之忧。听说员外家挺有钱的，咱们也去帮忙抓刺客吧。</t>
   </si>
   <si>
+    <t>Coin|100|100</t>
+  </si>
+  <si>
+    <t>9804|3|50</t>
+  </si>
+  <si>
+    <t>鹿</t>
+  </si>
+  <si>
+    <t>Item|2001|1|20;Coin|100|50;Kongfu|1001|1|30</t>
+  </si>
+  <si>
+    <t>9605|2|85</t>
+  </si>
+  <si>
+    <t>蛇</t>
+  </si>
+  <si>
+    <t>boar</t>
+  </si>
+  <si>
+    <t>狩猎野猪</t>
+  </si>
+  <si>
+    <t>去池塘边抓野猪。</t>
+  </si>
+  <si>
+    <t>最近池塘边总有野猪出没，去宰了它给兄弟们加加餐。围捕的时候切记谨慎，被獠牙顶到可不是闹着玩的。</t>
+  </si>
+  <si>
+    <t>Item|1009|3_5</t>
+  </si>
+  <si>
+    <t>9602|2|85</t>
+  </si>
+  <si>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>Food|10|30;Coin|100|30;Item|3001|1_2|40</t>
+  </si>
+  <si>
+    <t>9701|1|85;9702|1|85;9703|1|85</t>
+  </si>
+  <si>
+    <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
+  </si>
+  <si>
     <t>Coin|100|60;Medicine|101|1|40</t>
   </si>
   <si>
-    <t>9804|3|60</t>
-  </si>
-  <si>
-    <t>鹿</t>
-  </si>
-  <si>
-    <t>Item|2001|1|20;Coin|100|50;Kongfu|1001|1|30</t>
-  </si>
-  <si>
-    <t>9605|2|100</t>
-  </si>
-  <si>
-    <t>蛇</t>
-  </si>
-  <si>
-    <t>boar</t>
-  </si>
-  <si>
-    <t>狩猎野猪</t>
-  </si>
-  <si>
-    <t>去池塘边抓野猪。</t>
-  </si>
-  <si>
-    <t>最近池塘边总有野猪出没，去宰了它给兄弟们加加餐。围捕的时候切记谨慎，被獠牙顶到可不是闹着玩的。</t>
-  </si>
-  <si>
-    <t>Item|1009|3_5</t>
-  </si>
-  <si>
-    <t>9602|2|100</t>
-  </si>
-  <si>
-    <t>狼</t>
-  </si>
-  <si>
-    <t>Food|10|30;Coin|100|30;Item|3001|1_2|40</t>
-  </si>
-  <si>
-    <t>9701|1|100;9702|1|100;9703|1|100</t>
-  </si>
-  <si>
-    <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
-  </si>
-  <si>
-    <t>9804|3|100</t>
+    <t>9804|3|85</t>
   </si>
   <si>
     <t>山贼喽啰</t>
   </si>
   <si>
-    <t>9605|2|340</t>
-  </si>
-  <si>
-    <t>9602|2|340</t>
+    <t>9605|2|195</t>
+  </si>
+  <si>
+    <t>9602|2|195</t>
   </si>
   <si>
     <t>刺客草上飞|刺客小旋风|刺客鼓上蚤</t>
   </si>
   <si>
-    <t>9701|1|340;9702|1|340;9703|1|340</t>
+    <t>9701|1|195;9702|1|195;9703|1|195</t>
   </si>
   <si>
     <t>倭寇半藏|倭寇佐助|倭寇一郎|倭寇小五郎|倭寇龙马</t>
   </si>
   <si>
-    <t>9804|3|340</t>
+    <t>9804|3|195</t>
   </si>
   <si>
     <t>倭寇花屋|倭寇坂东|倭寇朱吉|倭寇耕二|倭寇小次郎</t>
@@ -256,7 +265,7 @@
     <t>Item|2001|1|20;Coin|100|40;Kongfu|2001|1|40</t>
   </si>
   <si>
-    <t>9605|2|650</t>
+    <t>9605|2|530</t>
   </si>
   <si>
     <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
@@ -277,10 +286,10 @@
     <t>Item|1015|2_3|70;Item|1022|1_2|30</t>
   </si>
   <si>
-    <t>9604|2|650</t>
-  </si>
-  <si>
-    <t>9602|2|650</t>
+    <t>9604|2|530</t>
+  </si>
+  <si>
+    <t>9602|2|530</t>
   </si>
   <si>
     <t>Item</t>
@@ -295,7 +304,7 @@
     <t>Food|20|30;Coin|100|30;Item|3002|1_2|40</t>
   </si>
   <si>
-    <t>9701|1|650;9702|1|650;9703|1|650</t>
+    <t>9701|1|530;9702|1|530;9703|1|530</t>
   </si>
   <si>
     <t>bearspaw</t>
@@ -307,7 +316,7 @@
     <t>Coin|100|40;Medicine|101|1|30;Medicine|102|1|30</t>
   </si>
   <si>
-    <t>9804|3|650</t>
+    <t>9804|3|530</t>
   </si>
   <si>
     <t>snakegall</t>
@@ -319,7 +328,7 @@
     <t>Item|2002|1|20;Coin|100|40;Kongfu|2001|1|40</t>
   </si>
   <si>
-    <t>9605|2|2200</t>
+    <t>9605|2|1875</t>
   </si>
   <si>
     <t>antier</t>
@@ -328,7 +337,7 @@
     <t>鹿茸</t>
   </si>
   <si>
-    <t>9604|2|2200</t>
+    <t>9604|2|1875</t>
   </si>
   <si>
     <t>poisonfang</t>
@@ -337,7 +346,7 @@
     <t>毒牙</t>
   </si>
   <si>
-    <t>9602|2|2200</t>
+    <t>9602|2|1875</t>
   </si>
   <si>
     <t>bear</t>
@@ -355,19 +364,19 @@
     <t>Item|1011|3_4|100</t>
   </si>
   <si>
-    <t>9601|2|2200</t>
+    <t>9601|2|1875</t>
   </si>
   <si>
     <t>Food</t>
   </si>
   <si>
-    <t>9701|1|2200;9702|1|2200;9703|1|2200</t>
+    <t>9701|1|1875;9702|1|1875;9703|1|1875</t>
   </si>
   <si>
     <t>Coin</t>
   </si>
   <si>
-    <t>9804|3|2200</t>
+    <t>9804|3|1875</t>
   </si>
   <si>
     <t>Equip</t>
@@ -376,19 +385,19 @@
     <t>Item|2002|1|20;Coin|100|40;Kongfu|3001|1|40</t>
   </si>
   <si>
-    <t>9605|2|7500</t>
+    <t>9605|2|6315</t>
   </si>
   <si>
     <t>Kongfu</t>
   </si>
   <si>
-    <t>9604|2|7500</t>
+    <t>9604|2|6315</t>
   </si>
   <si>
     <t>Medicine</t>
   </si>
   <si>
-    <t>9602|2|7500</t>
+    <t>9602|2|6315</t>
   </si>
   <si>
     <t>SilverOlder</t>
@@ -412,7 +421,7 @@
     <t>Item|1019|3_5|30</t>
   </si>
   <si>
-    <t>9603|2|7500</t>
+    <t>9603|2|6315</t>
   </si>
   <si>
     <t>GoldOlder</t>
@@ -421,7 +430,7 @@
     <t>金牌招募令</t>
   </si>
   <si>
-    <t>9601|2|7500</t>
+    <t>9601|2|6315</t>
   </si>
   <si>
     <t>Malachite</t>
@@ -433,7 +442,7 @@
     <t>Food|30|30;Coin|100|30;Item|3002|1_2|40</t>
   </si>
   <si>
-    <t>9701|1|7500;9702|1|7500;9703|1|7500</t>
+    <t>9701|1|6315;9702|1|6315;9703|1|6315</t>
   </si>
   <si>
     <t>Agate</t>
@@ -442,7 +451,7 @@
     <t>红玛瑙</t>
   </si>
   <si>
-    <t>9804|3|7500</t>
+    <t>9804|3|6315</t>
   </si>
   <si>
     <t>Crystal</t>
@@ -451,7 +460,7 @@
     <t>紫龙晶</t>
   </si>
   <si>
-    <t>9605|2|31000</t>
+    <t>9605|2|25785</t>
   </si>
   <si>
     <t>GoldenThread</t>
@@ -460,7 +469,7 @@
     <t>金丝</t>
   </si>
   <si>
-    <t>9604|2|31000</t>
+    <t>9604|2|25785</t>
   </si>
   <si>
     <t>DragonScales</t>
@@ -469,25 +478,49 @@
     <t>龙鳞</t>
   </si>
   <si>
-    <t>9602|2|31000</t>
-  </si>
-  <si>
-    <t>9603|2|31000</t>
-  </si>
-  <si>
-    <t>9601|2|31000</t>
+    <t>9602|2|25785</t>
+  </si>
+  <si>
+    <t>9603|2|25785</t>
+  </si>
+  <si>
+    <t>9601|2|25785</t>
+  </si>
+  <si>
+    <t>招募令，功夫</t>
+  </si>
+  <si>
+    <t>食物，装备石</t>
+  </si>
+  <si>
+    <t>药</t>
+  </si>
+  <si>
+    <t>稀有材料</t>
   </si>
   <si>
     <t>Food|30|30;Coin|100|30;Item|3003|1_2|40</t>
   </si>
   <si>
-    <t>9701|1|31000;9702|1|31000;9703|1|31000</t>
+    <t>9701|1|25785;9702|1|25785;9703|1|25785</t>
+  </si>
+  <si>
+    <t>狼1</t>
+  </si>
+  <si>
+    <t>山贼1</t>
+  </si>
+  <si>
+    <t>刺客3</t>
+  </si>
+  <si>
+    <t>倭寇7</t>
   </si>
   <si>
     <t>Coin|100|10;Medicine|101|1|30;Medicine|102|1|30;Medicine|103|1|30</t>
   </si>
   <si>
-    <t>9804|3|31000</t>
+    <t>9804|3|25785</t>
   </si>
   <si>
     <t>wokou1</t>
@@ -505,34 +538,103 @@
     <t>Coin|100|20;Item|3102|1_2|80</t>
   </si>
   <si>
-    <t>9901|1|31000;9902|2|31000;9903|2|31000</t>
-  </si>
-  <si>
-    <t>9605|2|150000</t>
-  </si>
-  <si>
-    <t>9604|2|150000</t>
-  </si>
-  <si>
-    <t>9602|2|150000</t>
-  </si>
-  <si>
-    <t>9603|2|150000</t>
-  </si>
-  <si>
-    <t>9601|2|150000</t>
-  </si>
-  <si>
-    <t>9701|1|150000;9702|1|150000;9703|1|150000</t>
-  </si>
-  <si>
-    <t>9804|3|150000</t>
+    <t>9901|1|25785;9902|2|25785;9903|2|25785</t>
+  </si>
+  <si>
+    <t>Item|2001|1|20;Coin|160|50;Kongfu|1001|1|30</t>
+  </si>
+  <si>
+    <t>Food|10|30;Coin|160|30;Item|3001|1_2|40</t>
+  </si>
+  <si>
+    <t>Coin|160|60;Medicine|101|1|40</t>
+  </si>
+  <si>
+    <t>9605|2|128285</t>
+  </si>
+  <si>
+    <t>Item|2001|1|20;Coin|240|50;Kongfu|1001|1|30</t>
+  </si>
+  <si>
+    <t>Food|10|30;Coin|240|30;Item|3001|1_2|40</t>
+  </si>
+  <si>
+    <t>Coin|240|60;Medicine|101|1|40</t>
+  </si>
+  <si>
+    <t>9604|2|128285</t>
+  </si>
+  <si>
+    <t>Item|2001|1|20;Coin|360|40;Kongfu|2001|1|40</t>
+  </si>
+  <si>
+    <t>Food|20|30;Coin|360|30;Item|3002|1_2|40</t>
+  </si>
+  <si>
+    <t>Coin|360|40;Medicine|101|1|30;Medicine|102|1|30</t>
+  </si>
+  <si>
+    <t>9602|2|128285</t>
+  </si>
+  <si>
+    <t>Item|2002|1|20;Coin|500|40;Kongfu|2001|1|40</t>
+  </si>
+  <si>
+    <t>Food|20|30;Coin|500|30;Item|3002|1_2|40</t>
+  </si>
+  <si>
+    <t>Coin|500|40;Medicine|101|1|30;Medicine|102|1|30</t>
+  </si>
+  <si>
+    <t>9603|2|128285</t>
+  </si>
+  <si>
+    <t>Item|2002|1|20;Coin|700|40;Kongfu|3001|1|40</t>
+  </si>
+  <si>
+    <t>Food|30|30;Coin|700|30;Item|3002|1_2|40</t>
+  </si>
+  <si>
+    <t>Coin|700|40;Medicine|101|1|30;Medicine|102|1|30</t>
+  </si>
+  <si>
+    <t>9601|2|128285</t>
+  </si>
+  <si>
+    <t>Item|2002|1|20;Coin|1000|40;Kongfu|3001|1|40</t>
+  </si>
+  <si>
+    <t>Food|30|30;Coin|1000|30;Item|3003|1_2|40</t>
+  </si>
+  <si>
+    <t>Coin|1000|10;Medicine|101|1|30;Medicine|102|1|30;Medicine|103|1|30</t>
+  </si>
+  <si>
+    <t>Coin|1000|40;Item|3102|1_2|60</t>
+  </si>
+  <si>
+    <t>9701|1|128285;9702|1|128285;9703|1|128285</t>
+  </si>
+  <si>
+    <t>Item|2002|1|20;Coin|1500|40;Kongfu|3001|1|40</t>
+  </si>
+  <si>
+    <t>Food|30|30;Coin|1500|30;Item|3003|1_2|40</t>
+  </si>
+  <si>
+    <t>Coin|1500|10;Medicine|101|1|30;Medicine|102|1|30;Medicine|103|1|30</t>
+  </si>
+  <si>
+    <t>Coin|1500|40;Item|3101|1_2|30;Item|3102|1_2|30</t>
+  </si>
+  <si>
+    <t>9804|3|128285</t>
   </si>
   <si>
     <t>Coin|100|20;Item|3101|1_2|40;Item|3102|1_2|40</t>
   </si>
   <si>
-    <t>9901|1|150000;9902|2|150000;9903|2|150000</t>
+    <t>9901|1|128285;9902|2|128285;9903|2|128285</t>
   </si>
   <si>
     <t>Item|2001|1|20</t>
@@ -552,11 +654,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -574,97 +676,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -680,7 +693,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,9 +781,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,9 +813,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,7 +853,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,7 +883,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,13 +901,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,13 +931,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,67 +1015,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,55 +1027,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,28 +1062,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,27 +1094,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,17 +1118,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,10 +1165,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1075,136 +1177,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1554,10 +1656,10 @@
   <sheetPr/>
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
+      <selection pane="bottomLeft" activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1625,60 +1727,64 @@
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="S1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="U1" s="7"/>
       <c r="V1" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
       <c r="AA1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -1693,46 +1799,46 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -1747,46 +1853,46 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -1804,28 +1910,28 @@
         <v>101</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J5" s="4">
         <v>100</v>
@@ -1834,7 +1940,7 @@
         <v>50</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M5" s="4">
         <v>2</v>
@@ -1846,7 +1952,7 @@
         <v>9601</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S5" s="2">
         <v>50</v>
@@ -1855,22 +1961,22 @@
         <v>100</v>
       </c>
       <c r="V5" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="W5" s="2">
-        <f>ROUND(X5*0.6,0)</f>
-        <v>60</v>
+        <f>ROUND(X5*0.5,0)</f>
+        <v>50</v>
       </c>
       <c r="X5" s="2">
         <v>100</v>
       </c>
       <c r="Y5" s="2">
         <f>V5</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA5" s="2" t="str">
         <f>"9605|2|"&amp;Y5</f>
-        <v>9605|2|60</v>
+        <v>9605|2|50</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:27">
@@ -1878,28 +1984,28 @@
         <v>102</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J6" s="4">
         <v>100</v>
@@ -1908,7 +2014,7 @@
         <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M6" s="4">
         <v>3</v>
@@ -1920,7 +2026,7 @@
         <v>9602</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S6" s="2">
         <v>80</v>
@@ -1929,22 +2035,22 @@
         <v>250</v>
       </c>
       <c r="V6" s="2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="W6" s="2">
-        <f t="shared" ref="W6:W12" si="0">ROUND(X6*0.6,0)</f>
-        <v>103</v>
+        <f t="shared" ref="W6:W12" si="0">ROUND(X6*0.5,0)</f>
+        <v>86</v>
       </c>
       <c r="X6" s="2">
         <v>172</v>
       </c>
       <c r="Y6" s="2">
         <f>Y5</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA6" s="2" t="str">
         <f>"9701|1|"&amp;Y6&amp;";9702|1|"&amp;Y6&amp;";9703|1|"&amp;Y6</f>
-        <v>9701|1|60;9702|1|60;9703|1|60</v>
+        <v>9701|1|50;9702|1|50;9703|1|50</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:27">
@@ -1952,28 +2058,28 @@
         <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J7" s="4">
         <v>100</v>
@@ -1982,7 +2088,7 @@
         <v>50</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M7" s="4">
         <v>3</v>
@@ -1994,7 +2100,7 @@
         <v>9603</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S7" s="2">
         <v>120</v>
@@ -2003,22 +2109,22 @@
         <v>800</v>
       </c>
       <c r="V7" s="2">
-        <v>340</v>
+        <v>195</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="X7" s="2">
         <v>392</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" ref="Y7:Y49" si="1">Y6</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA7" s="2" t="str">
         <f>"9804|3|"&amp;Y7</f>
-        <v>9804|3|60</v>
+        <v>9804|3|50</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:27">
@@ -2026,28 +2132,28 @@
         <v>201</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J8" s="5">
         <v>250</v>
@@ -2056,19 +2162,19 @@
         <v>80</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M8" s="5">
         <v>2</v>
       </c>
       <c r="N8" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P8" s="2">
         <v>9604</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S8" s="2">
         <v>200</v>
@@ -2077,22 +2183,22 @@
         <v>2400</v>
       </c>
       <c r="V8" s="2">
-        <v>650</v>
+        <v>530</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>642</v>
+        <v>535</v>
       </c>
       <c r="X8" s="2">
         <v>1070</v>
       </c>
       <c r="Y8" s="2">
         <f>V6</f>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA8" s="2" t="str">
         <f>"9605|2|"&amp;Y8</f>
-        <v>9605|2|100</v>
+        <v>9605|2|85</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:27">
@@ -2100,28 +2206,28 @@
         <v>202</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J9" s="5">
         <v>250</v>
@@ -2130,19 +2236,19 @@
         <v>80</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M9" s="5">
         <v>2</v>
       </c>
       <c r="N9" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P9" s="2">
         <v>9605</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S9" s="2">
         <v>350</v>
@@ -2151,22 +2257,22 @@
         <v>6000</v>
       </c>
       <c r="V9" s="2">
-        <v>2200</v>
+        <v>1875</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="0"/>
-        <v>2254</v>
+        <v>1878</v>
       </c>
       <c r="X9" s="2">
         <v>3756</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA9" s="2" t="str">
         <f>"9602|2|"&amp;Y9</f>
-        <v>9602|2|100</v>
+        <v>9602|2|85</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:27">
@@ -2174,28 +2280,28 @@
         <v>203</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J10" s="5">
         <v>250</v>
@@ -2204,19 +2310,19 @@
         <v>80</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M10" s="5">
         <v>3</v>
       </c>
       <c r="N10" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P10" s="2">
         <v>9701</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S10" s="2">
         <v>600</v>
@@ -2225,22 +2331,22 @@
         <v>15000</v>
       </c>
       <c r="V10" s="2">
-        <v>7500</v>
+        <v>6315</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="0"/>
-        <v>7579</v>
+        <v>6316</v>
       </c>
       <c r="X10" s="2">
         <v>12631</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA10" s="2" t="str">
         <f>"9701|1|"&amp;Y10&amp;";9702|1|"&amp;Y10&amp;";9703|1|"&amp;Y10</f>
-        <v>9701|1|100;9702|1|100;9703|1|100</v>
+        <v>9701|1|85;9702|1|85;9703|1|85</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:28">
@@ -2248,28 +2354,28 @@
         <v>204</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="J11" s="5">
         <v>250</v>
@@ -2278,19 +2384,19 @@
         <v>80</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M11" s="5">
         <v>3</v>
       </c>
       <c r="N11" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P11" s="2">
         <v>9702</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S11" s="2">
         <v>1200</v>
@@ -2299,23 +2405,23 @@
         <v>60000</v>
       </c>
       <c r="V11" s="2">
-        <v>31000</v>
+        <v>25785</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="0"/>
-        <v>30946</v>
+        <v>25789</v>
       </c>
       <c r="X11" s="2">
         <v>51577</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Z11" s="8"/>
       <c r="AA11" s="2" t="str">
         <f>"9804|3|"&amp;Y11</f>
-        <v>9804|3|100</v>
+        <v>9804|3|85</v>
       </c>
       <c r="AB11" s="8"/>
     </row>
@@ -2324,28 +2430,28 @@
         <v>301</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J12" s="4">
         <v>800</v>
@@ -2354,7 +2460,7 @@
         <v>120</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M12" s="4">
         <v>2</v>
@@ -2366,7 +2472,7 @@
         <v>9703</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S12" s="2">
         <v>2500</v>
@@ -2375,22 +2481,22 @@
         <v>200000</v>
       </c>
       <c r="V12" s="2">
-        <v>150000</v>
+        <v>128285</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="0"/>
-        <v>153946</v>
+        <v>128288</v>
       </c>
       <c r="X12" s="2">
         <v>256576</v>
       </c>
       <c r="Y12" s="2">
         <f>V7</f>
-        <v>340</v>
+        <v>195</v>
       </c>
       <c r="AA12" s="2" t="str">
         <f>"9605|2|"&amp;Y12</f>
-        <v>9605|2|340</v>
+        <v>9605|2|195</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:28">
@@ -2398,28 +2504,28 @@
         <v>302</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J13" s="4">
         <v>800</v>
@@ -2428,7 +2534,7 @@
         <v>120</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13" s="4">
         <v>2</v>
@@ -2440,19 +2546,19 @@
         <v>9804</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="2">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>195</v>
       </c>
       <c r="Z13" s="8"/>
       <c r="AA13" s="2" t="str">
         <f>"9602|2|"&amp;Y13</f>
-        <v>9602|2|340</v>
+        <v>9602|2|195</v>
       </c>
       <c r="AB13" s="8"/>
     </row>
@@ -2461,28 +2567,28 @@
         <v>303</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4">
         <v>3</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J14" s="4">
         <v>800</v>
@@ -2491,7 +2597,7 @@
         <v>120</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M14" s="4">
         <v>3</v>
@@ -2503,7 +2609,7 @@
         <v>9901</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V14" s="2">
         <v>1</v>
@@ -2513,11 +2619,11 @@
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>195</v>
       </c>
       <c r="AA14" s="2" t="str">
         <f>"9701|1|"&amp;Y14&amp;";9702|1|"&amp;Y14&amp;";9703|1|"&amp;Y14</f>
-        <v>9701|1|340;9702|1|340;9703|1|340</v>
+        <v>9701|1|195;9702|1|195;9703|1|195</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:27">
@@ -2525,28 +2631,28 @@
         <v>304</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="J15" s="4">
         <v>800</v>
@@ -2555,7 +2661,7 @@
         <v>120</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M15" s="4">
         <v>3</v>
@@ -2567,10 +2673,10 @@
         <v>9902</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="V15" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W15" s="3">
         <v>20</v>
@@ -2578,11 +2684,11 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="2">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>195</v>
       </c>
       <c r="AA15" s="2" t="str">
         <f>"9804|3|"&amp;Y15</f>
-        <v>9804|3|340</v>
+        <v>9804|3|195</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:27">
@@ -2590,28 +2696,28 @@
         <v>401</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5">
         <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J16" s="5">
         <v>2400</v>
@@ -2620,7 +2726,7 @@
         <v>200</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M16" s="5">
         <v>2</v>
@@ -2632,7 +2738,7 @@
         <v>9903</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V16" s="2">
         <v>50</v>
@@ -2642,11 +2748,11 @@
       </c>
       <c r="Y16" s="2">
         <f>V8</f>
-        <v>650</v>
+        <v>530</v>
       </c>
       <c r="AA16" s="2" t="str">
         <f>"9605|2|"&amp;Y16</f>
-        <v>9605|2|650</v>
+        <v>9605|2|530</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:27">
@@ -2654,28 +2760,28 @@
         <v>402</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5">
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J17" s="5">
         <v>2400</v>
@@ -2684,7 +2790,7 @@
         <v>200</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M17" s="5">
         <v>2</v>
@@ -2700,11 +2806,11 @@
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>530</v>
       </c>
       <c r="AA17" s="2" t="str">
         <f>"9604|2|"&amp;Y17</f>
-        <v>9604|2|650</v>
+        <v>9604|2|530</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:27">
@@ -2712,28 +2818,28 @@
         <v>403</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="5">
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J18" s="5">
         <v>2400</v>
@@ -2742,7 +2848,7 @@
         <v>200</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M18" s="5">
         <v>2</v>
@@ -2751,16 +2857,16 @@
         <v>100</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="2">
         <v>1009</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="V18" s="2">
         <v>180</v>
@@ -2770,11 +2876,11 @@
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>530</v>
       </c>
       <c r="AA18" s="2" t="str">
         <f>"9602|2|"&amp;Y18</f>
-        <v>9602|2|650</v>
+        <v>9602|2|530</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:28">
@@ -2782,28 +2888,28 @@
         <v>404</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" s="5">
         <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J19" s="5">
         <v>2400</v>
@@ -2812,7 +2918,7 @@
         <v>200</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M19" s="5">
         <v>3</v>
@@ -2821,16 +2927,16 @@
         <v>100</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="2">
         <v>1011</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="V19" s="2">
         <v>250</v>
@@ -2840,12 +2946,12 @@
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>530</v>
       </c>
       <c r="Z19" s="8"/>
       <c r="AA19" s="2" t="str">
         <f>"9701|1|"&amp;Y19&amp;";9702|1|"&amp;Y19&amp;";9703|1|"&amp;Y19</f>
-        <v>9701|1|650;9702|1|650;9703|1|650</v>
+        <v>9701|1|530;9702|1|530;9703|1|530</v>
       </c>
       <c r="AB19" s="8"/>
     </row>
@@ -2854,28 +2960,28 @@
         <v>405</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="5">
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J20" s="5">
         <v>2400</v>
@@ -2884,7 +2990,7 @@
         <v>200</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M20" s="5">
         <v>3</v>
@@ -2893,16 +2999,16 @@
         <v>100</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="2">
         <v>1015</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="V20" s="2">
         <v>360</v>
@@ -2912,12 +3018,12 @@
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>530</v>
       </c>
       <c r="Z20" s="8"/>
       <c r="AA20" s="2" t="str">
         <f>"9804|3|"&amp;Y20</f>
-        <v>9804|3|650</v>
+        <v>9804|3|530</v>
       </c>
       <c r="AB20" s="8"/>
     </row>
@@ -2926,28 +3032,28 @@
         <v>501</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="4">
         <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J21" s="4">
         <v>6000</v>
@@ -2956,7 +3062,7 @@
         <v>350</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M21" s="4">
         <v>2</v>
@@ -2965,19 +3071,19 @@
         <v>180</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q21" s="2">
         <v>1019</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="V21" s="3">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="W21" s="3">
         <v>600</v>
@@ -2985,12 +3091,12 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="2">
         <f>V9</f>
-        <v>2200</v>
+        <v>1875</v>
       </c>
       <c r="Z21" s="8"/>
       <c r="AA21" s="2" t="str">
         <f>"9605|2|"&amp;Y21</f>
-        <v>9605|2|2200</v>
+        <v>9605|2|1875</v>
       </c>
       <c r="AB21" s="8"/>
     </row>
@@ -2999,28 +3105,28 @@
         <v>502</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4">
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J22" s="4">
         <v>6000</v>
@@ -3029,7 +3135,7 @@
         <v>350</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M22" s="4">
         <v>2</v>
@@ -3038,27 +3144,27 @@
         <v>180</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="2">
         <v>1022</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="2">
         <f t="shared" si="1"/>
-        <v>2200</v>
+        <v>1875</v>
       </c>
       <c r="AA22" s="2" t="str">
         <f>"9604|2|"&amp;Y22</f>
-        <v>9604|2|2200</v>
+        <v>9604|2|1875</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:28">
@@ -3066,28 +3172,28 @@
         <v>503</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4">
         <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J23" s="4">
         <v>6000</v>
@@ -3096,7 +3202,7 @@
         <v>350</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M23" s="4">
         <v>2</v>
@@ -3106,12 +3212,12 @@
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="1"/>
-        <v>2200</v>
+        <v>1875</v>
       </c>
       <c r="Z23" s="8"/>
       <c r="AA23" s="2" t="str">
         <f>"9602|2|"&amp;Y23</f>
-        <v>9602|2|2200</v>
+        <v>9602|2|1875</v>
       </c>
       <c r="AB23" s="8"/>
     </row>
@@ -3120,28 +3226,28 @@
         <v>504</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C24" s="4">
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J24" s="4">
         <v>6000</v>
@@ -3150,7 +3256,7 @@
         <v>350</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M24" s="4">
         <v>2</v>
@@ -3159,19 +3265,19 @@
         <v>180</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="2">
         <f t="shared" si="1"/>
-        <v>2200</v>
+        <v>1875</v>
       </c>
       <c r="Z24" s="8"/>
       <c r="AA24" s="2" t="str">
         <f>"9601|2|"&amp;Y24</f>
-        <v>9601|2|2200</v>
+        <v>9601|2|1875</v>
       </c>
       <c r="AB24" s="8"/>
     </row>
@@ -3180,28 +3286,28 @@
         <v>505</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C25" s="4">
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J25" s="4">
         <v>6000</v>
@@ -3210,7 +3316,7 @@
         <v>350</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M25" s="4">
         <v>3</v>
@@ -3219,18 +3325,18 @@
         <v>180</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="2">
         <f t="shared" si="1"/>
-        <v>2200</v>
+        <v>1875</v>
       </c>
       <c r="AA25" s="2" t="str">
         <f>"9701|1|"&amp;Y25&amp;";9702|1|"&amp;Y25&amp;";9703|1|"&amp;Y25</f>
-        <v>9701|1|2200;9702|1|2200;9703|1|2200</v>
+        <v>9701|1|1875;9702|1|1875;9703|1|1875</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:27">
@@ -3238,28 +3344,28 @@
         <v>506</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C26" s="4">
         <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J26" s="4">
         <v>6000</v>
@@ -3268,7 +3374,7 @@
         <v>350</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M26" s="4">
         <v>3</v>
@@ -3277,15 +3383,15 @@
         <v>180</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="1"/>
-        <v>2200</v>
+        <v>1875</v>
       </c>
       <c r="AA26" s="2" t="str">
         <f>"9804|3|"&amp;Y26</f>
-        <v>9804|3|2200</v>
+        <v>9804|3|1875</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:27">
@@ -3293,28 +3399,28 @@
         <v>601</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5">
         <v>6</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J27" s="5">
         <v>15000</v>
@@ -3323,7 +3429,7 @@
         <v>600</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M27" s="5">
         <v>2</v>
@@ -3332,15 +3438,15 @@
         <v>250</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Y27" s="2">
         <f>V10</f>
-        <v>7500</v>
+        <v>6315</v>
       </c>
       <c r="AA27" s="2" t="str">
         <f>"9605|2|"&amp;Y27</f>
-        <v>9605|2|7500</v>
+        <v>9605|2|6315</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:27">
@@ -3348,28 +3454,28 @@
         <v>602</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C28" s="5">
         <v>6</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J28" s="5">
         <v>15000</v>
@@ -3378,7 +3484,7 @@
         <v>600</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M28" s="5">
         <v>2</v>
@@ -3387,15 +3493,15 @@
         <v>250</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>6315</v>
       </c>
       <c r="AA28" s="2" t="str">
         <f>"9604|2|"&amp;Y28</f>
-        <v>9604|2|7500</v>
+        <v>9604|2|6315</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:27">
@@ -3403,28 +3509,28 @@
         <v>603</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5">
         <v>6</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J29" s="5">
         <v>15000</v>
@@ -3433,7 +3539,7 @@
         <v>600</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M29" s="5">
         <v>2</v>
@@ -3442,24 +3548,24 @@
         <v>250</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q29" s="2">
         <v>2001</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>6315</v>
       </c>
       <c r="AA29" s="2" t="str">
         <f>"9602|2|"&amp;Y29</f>
-        <v>9602|2|7500</v>
+        <v>9602|2|6315</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:27">
@@ -3467,28 +3573,28 @@
         <v>604</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C30" s="5">
         <v>6</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J30" s="5">
         <v>15000</v>
@@ -3497,7 +3603,7 @@
         <v>600</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M30" s="5">
         <v>2</v>
@@ -3506,24 +3612,24 @@
         <v>250</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q30" s="2">
         <v>2002</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>6315</v>
       </c>
       <c r="AA30" s="2" t="str">
         <f>"9603|2|"&amp;Y30</f>
-        <v>9603|2|7500</v>
+        <v>9603|2|6315</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:27">
@@ -3531,28 +3637,28 @@
         <v>605</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31" s="5">
         <v>6</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J31" s="5">
         <v>15000</v>
@@ -3561,7 +3667,7 @@
         <v>600</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M31" s="5">
         <v>2</v>
@@ -3570,24 +3676,24 @@
         <v>250</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q31" s="2">
         <v>3001</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>6315</v>
       </c>
       <c r="AA31" s="2" t="str">
         <f>"9601|2|"&amp;Y31</f>
-        <v>9601|2|7500</v>
+        <v>9601|2|6315</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:28">
@@ -3595,28 +3701,28 @@
         <v>606</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5">
         <v>6</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J32" s="5">
         <v>15000</v>
@@ -3625,7 +3731,7 @@
         <v>600</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M32" s="5">
         <v>3</v>
@@ -3634,28 +3740,28 @@
         <v>250</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q32" s="2">
         <v>3002</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="2">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>6315</v>
       </c>
       <c r="Z32" s="8"/>
       <c r="AA32" s="2" t="str">
         <f>"9701|1|"&amp;Y32&amp;";9702|1|"&amp;Y32&amp;";9703|1|"&amp;Y32</f>
-        <v>9701|1|7500;9702|1|7500;9703|1|7500</v>
+        <v>9701|1|6315;9702|1|6315;9703|1|6315</v>
       </c>
       <c r="AB32" s="8"/>
     </row>
@@ -3664,28 +3770,28 @@
         <v>607</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33" s="5">
         <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J33" s="5">
         <v>15000</v>
@@ -3694,7 +3800,7 @@
         <v>600</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M33" s="5">
         <v>3</v>
@@ -3703,28 +3809,28 @@
         <v>250</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q33" s="2">
         <v>3003</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="2">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>6315</v>
       </c>
       <c r="Z33" s="8"/>
       <c r="AA33" s="2" t="str">
         <f>"9804|3|"&amp;Y33</f>
-        <v>9804|3|7500</v>
+        <v>9804|3|6315</v>
       </c>
       <c r="AB33" s="8"/>
     </row>
@@ -3733,28 +3839,28 @@
         <v>701</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C34" s="4">
         <v>7</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J34" s="4">
         <v>60000</v>
@@ -3763,7 +3869,7 @@
         <v>1200</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M34" s="4">
         <v>2</v>
@@ -3772,28 +3878,28 @@
         <v>360</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q34" s="2">
         <v>3101</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="2">
         <f>V11</f>
-        <v>31000</v>
+        <v>25785</v>
       </c>
       <c r="Z34" s="8"/>
       <c r="AA34" s="2" t="str">
         <f>"9605|2|"&amp;Y34</f>
-        <v>9605|2|31000</v>
+        <v>9605|2|25785</v>
       </c>
       <c r="AB34" s="8"/>
     </row>
@@ -3802,28 +3908,28 @@
         <v>702</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C35" s="4">
         <v>7</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J35" s="4">
         <v>60000</v>
@@ -3832,7 +3938,7 @@
         <v>1200</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M35" s="4">
         <v>2</v>
@@ -3841,28 +3947,28 @@
         <v>360</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q35" s="2">
         <v>3102</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="2">
         <f t="shared" si="1"/>
-        <v>31000</v>
+        <v>25785</v>
       </c>
       <c r="Z35" s="8"/>
       <c r="AA35" s="2" t="str">
         <f>"9604|2|"&amp;Y35</f>
-        <v>9604|2|31000</v>
+        <v>9604|2|25785</v>
       </c>
       <c r="AB35" s="8"/>
     </row>
@@ -3871,28 +3977,28 @@
         <v>703</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C36" s="4">
         <v>7</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J36" s="4">
         <v>60000</v>
@@ -3901,7 +4007,7 @@
         <v>1200</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M36" s="4">
         <v>2</v>
@@ -3911,12 +4017,12 @@
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="1"/>
-        <v>31000</v>
+        <v>25785</v>
       </c>
       <c r="Z36" s="8"/>
       <c r="AA36" s="2" t="str">
         <f>"9602|2|"&amp;Y36</f>
-        <v>9602|2|31000</v>
+        <v>9602|2|25785</v>
       </c>
       <c r="AB36" s="8"/>
     </row>
@@ -3925,28 +4031,28 @@
         <v>704</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C37" s="4">
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J37" s="4">
         <v>60000</v>
@@ -3955,7 +4061,7 @@
         <v>1200</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M37" s="4">
         <v>2</v>
@@ -3968,11 +4074,11 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="2">
         <f t="shared" si="1"/>
-        <v>31000</v>
+        <v>25785</v>
       </c>
       <c r="AA37" s="2" t="str">
         <f>"9603|2|"&amp;Y37</f>
-        <v>9603|2|31000</v>
+        <v>9603|2|25785</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:28">
@@ -3980,28 +4086,28 @@
         <v>705</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C38" s="4">
         <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J38" s="4">
         <v>60000</v>
@@ -4010,25 +4116,37 @@
         <v>1200</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M38" s="4">
         <v>2</v>
       </c>
       <c r="N38" s="4">
         <v>360</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="2">
         <f t="shared" si="1"/>
-        <v>31000</v>
+        <v>25785</v>
       </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="2" t="str">
         <f>"9601|2|"&amp;Y38</f>
-        <v>9601|2|31000</v>
+        <v>9601|2|25785</v>
       </c>
       <c r="AB38" s="8"/>
     </row>
@@ -4037,28 +4155,28 @@
         <v>706</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C39" s="4">
         <v>7</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="J39" s="4">
         <v>60000</v>
@@ -4067,7 +4185,7 @@
         <v>1200</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M39" s="4">
         <v>3</v>
@@ -4075,14 +4193,26 @@
       <c r="N39" s="4">
         <v>360</v>
       </c>
+      <c r="R39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="Y39" s="2">
         <f t="shared" si="1"/>
-        <v>31000</v>
+        <v>25785</v>
       </c>
       <c r="Z39" s="8"/>
       <c r="AA39" s="2" t="str">
         <f>"9701|1|"&amp;Y39&amp;";9702|1|"&amp;Y39&amp;";9703|1|"&amp;Y39</f>
-        <v>9701|1|31000;9702|1|31000;9703|1|31000</v>
+        <v>9701|1|25785;9702|1|25785;9703|1|25785</v>
       </c>
       <c r="AB39" s="8"/>
     </row>
@@ -4091,28 +4221,28 @@
         <v>707</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C40" s="4">
         <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="J40" s="4">
         <v>60000</v>
@@ -4121,7 +4251,7 @@
         <v>1200</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="M40" s="4">
         <v>3</v>
@@ -4129,13 +4259,23 @@
       <c r="N40" s="4">
         <v>360</v>
       </c>
+      <c r="R40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U40" s="2"/>
       <c r="Y40" s="2">
         <f t="shared" si="1"/>
-        <v>31000</v>
+        <v>25785</v>
       </c>
       <c r="AA40" s="2" t="str">
         <f>"9804|3|"&amp;Y40</f>
-        <v>9804|3|31000</v>
+        <v>9804|3|25785</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:27">
@@ -4143,28 +4283,28 @@
         <v>708</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C41" s="4">
         <v>7</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="J41" s="4">
         <v>60000</v>
@@ -4173,7 +4313,7 @@
         <v>1200</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="M41" s="4">
         <v>5</v>
@@ -4181,13 +4321,23 @@
       <c r="N41" s="4">
         <v>360</v>
       </c>
+      <c r="R41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="U41" s="2"/>
       <c r="Y41" s="2">
         <f t="shared" si="1"/>
-        <v>31000</v>
+        <v>25785</v>
       </c>
       <c r="AA41" s="2" t="str">
         <f>"9901|1|"&amp;Y41&amp;";9902|2|"&amp;Y41&amp;";9903|2|"&amp;Y41</f>
-        <v>9901|1|31000;9902|2|31000;9903|2|31000</v>
+        <v>9901|1|25785;9902|2|25785;9903|2|25785</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:27">
@@ -4195,28 +4345,28 @@
         <v>801</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C42" s="5">
         <v>8</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J42" s="5">
         <v>200000</v>
@@ -4225,21 +4375,31 @@
         <v>2500</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M42" s="5">
         <v>2</v>
       </c>
       <c r="N42" s="5">
-        <v>500</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="U42" s="2"/>
       <c r="Y42" s="2">
         <f>V12</f>
-        <v>150000</v>
+        <v>128285</v>
       </c>
       <c r="AA42" s="2" t="str">
         <f>"9605|2|"&amp;Y42</f>
-        <v>9605|2|150000</v>
+        <v>9605|2|128285</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:27">
@@ -4247,28 +4407,28 @@
         <v>802</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C43" s="5">
         <v>8</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J43" s="5">
         <v>200000</v>
@@ -4277,21 +4437,31 @@
         <v>2500</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="M43" s="5">
         <v>2</v>
       </c>
       <c r="N43" s="5">
-        <v>500</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="U43" s="2"/>
       <c r="Y43" s="2">
         <f t="shared" si="1"/>
-        <v>150000</v>
+        <v>128285</v>
       </c>
       <c r="AA43" s="2" t="str">
         <f>"9604|2|"&amp;Y43</f>
-        <v>9604|2|150000</v>
+        <v>9604|2|128285</v>
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:27">
@@ -4299,28 +4469,28 @@
         <v>803</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C44" s="5">
         <v>8</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J44" s="5">
         <v>200000</v>
@@ -4329,21 +4499,31 @@
         <v>2500</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="M44" s="5">
         <v>2</v>
       </c>
       <c r="N44" s="5">
-        <v>500</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="U44" s="2"/>
       <c r="Y44" s="2">
         <f t="shared" si="1"/>
-        <v>150000</v>
+        <v>128285</v>
       </c>
       <c r="AA44" s="2" t="str">
         <f>"9602|2|"&amp;Y44</f>
-        <v>9602|2|150000</v>
+        <v>9602|2|128285</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:27">
@@ -4351,28 +4531,28 @@
         <v>804</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C45" s="5">
         <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J45" s="5">
         <v>200000</v>
@@ -4381,24 +4561,34 @@
         <v>2500</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="M45" s="5">
         <v>2</v>
       </c>
       <c r="N45" s="5">
-        <v>500</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="U45" s="2"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="2">
         <f t="shared" si="1"/>
-        <v>150000</v>
+        <v>128285</v>
       </c>
       <c r="AA45" s="2" t="str">
         <f>"9603|2|"&amp;Y45</f>
-        <v>9603|2|150000</v>
+        <v>9603|2|128285</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:28">
@@ -4406,28 +4596,28 @@
         <v>805</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C46" s="5">
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J46" s="5">
         <v>200000</v>
@@ -4436,25 +4626,37 @@
         <v>2500</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="M46" s="5">
         <v>2</v>
       </c>
       <c r="N46" s="5">
-        <v>500</v>
+        <v>480</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="2">
         <f t="shared" si="1"/>
-        <v>150000</v>
+        <v>128285</v>
       </c>
       <c r="Z46" s="8"/>
       <c r="AA46" s="2" t="str">
         <f>"9601|2|"&amp;Y46</f>
-        <v>9601|2|150000</v>
+        <v>9601|2|128285</v>
       </c>
       <c r="AB46" s="8"/>
     </row>
@@ -4463,28 +4665,28 @@
         <v>806</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C47" s="5">
         <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="J47" s="5">
         <v>200000</v>
@@ -4493,25 +4695,37 @@
         <v>2500</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="M47" s="5">
         <v>3</v>
       </c>
       <c r="N47" s="5">
-        <v>500</v>
+        <v>480</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="2">
         <f t="shared" si="1"/>
-        <v>150000</v>
+        <v>128285</v>
       </c>
       <c r="Z47" s="8"/>
       <c r="AA47" s="2" t="str">
         <f>"9701|1|"&amp;Y47&amp;";9702|1|"&amp;Y47&amp;";9703|1|"&amp;Y47</f>
-        <v>9701|1|150000;9702|1|150000;9703|1|150000</v>
+        <v>9701|1|128285;9702|1|128285;9703|1|128285</v>
       </c>
       <c r="AB47" s="8"/>
     </row>
@@ -4520,28 +4734,28 @@
         <v>807</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C48" s="5">
         <v>8</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="J48" s="5">
         <v>200000</v>
@@ -4550,25 +4764,25 @@
         <v>2500</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="M48" s="5">
         <v>3</v>
       </c>
       <c r="N48" s="5">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="2">
         <f t="shared" si="1"/>
-        <v>150000</v>
+        <v>128285</v>
       </c>
       <c r="Z48" s="8"/>
       <c r="AA48" s="2" t="str">
         <f>"9804|3|"&amp;Y48</f>
-        <v>9804|3|150000</v>
+        <v>9804|3|128285</v>
       </c>
       <c r="AB48" s="8"/>
     </row>
@@ -4577,28 +4791,28 @@
         <v>808</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C49" s="5">
         <v>8</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="J49" s="5">
         <v>200000</v>
@@ -4607,25 +4821,25 @@
         <v>2500</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="M49" s="5">
         <v>5</v>
       </c>
       <c r="N49" s="5">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="2">
         <f t="shared" si="1"/>
-        <v>150000</v>
+        <v>128285</v>
       </c>
       <c r="Z49" s="8"/>
       <c r="AA49" s="2" t="str">
         <f>"9901|1|"&amp;Y49&amp;";9902|2|"&amp;Y49&amp;";9903|2|"&amp;Y49</f>
-        <v>9901|1|150000;9902|2|150000;9903|2|150000</v>
+        <v>9901|1|128285;9902|2|128285;9903|2|128285</v>
       </c>
       <c r="AB49" s="8"/>
     </row>
@@ -4634,28 +4848,28 @@
         <v>9001</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="J50" s="6">
         <v>100</v>
@@ -4664,7 +4878,7 @@
         <v>50</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="M50" s="6">
         <v>1</v>
@@ -4681,28 +4895,28 @@
         <v>9002</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C51" s="6">
         <v>0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="J51" s="6">
         <v>100</v>
@@ -4711,7 +4925,7 @@
         <v>50</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="M51" s="6">
         <v>2</v>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="199">
   <si>
     <t>任务ID</t>
   </si>
@@ -523,6 +523,9 @@
     <t>9804|3|25785</t>
   </si>
   <si>
+    <t>Coin|100|70;Medicine|101|1|30</t>
+  </si>
+  <si>
     <t>wokou1</t>
   </si>
   <si>
@@ -541,73 +544,43 @@
     <t>9901|1|25785;9902|2|25785;9903|2|25785</t>
   </si>
   <si>
-    <t>Item|2001|1|20;Coin|160|50;Kongfu|1001|1|30</t>
-  </si>
-  <si>
-    <t>Food|10|30;Coin|160|30;Item|3001|1_2|40</t>
-  </si>
-  <si>
-    <t>Coin|160|60;Medicine|101|1|40</t>
+    <t>Item|2001|1|20;Coin|120|60;Arms|101|1|20</t>
   </si>
   <si>
     <t>9605|2|128285</t>
   </si>
   <si>
-    <t>Item|2001|1|20;Coin|240|50;Kongfu|1001|1|30</t>
-  </si>
-  <si>
-    <t>Food|10|30;Coin|240|30;Item|3001|1_2|40</t>
-  </si>
-  <si>
-    <t>Coin|240|60;Medicine|101|1|40</t>
+    <t>Item|2001|1|20;Coin|150|60;Arms|101|1|20</t>
   </si>
   <si>
     <t>9604|2|128285</t>
   </si>
   <si>
-    <t>Item|2001|1|20;Coin|360|40;Kongfu|2001|1|40</t>
-  </si>
-  <si>
-    <t>Food|20|30;Coin|360|30;Item|3002|1_2|40</t>
-  </si>
-  <si>
-    <t>Coin|360|40;Medicine|101|1|30;Medicine|102|1|30</t>
+    <t>Item|2001|1|20;Coin|180|60;Arms|202|1|20</t>
+  </si>
+  <si>
+    <t>Coin|100|70;Medicine|101|1|15;Medicine|102|1|15</t>
   </si>
   <si>
     <t>9602|2|128285</t>
   </si>
   <si>
-    <t>Item|2002|1|20;Coin|500|40;Kongfu|2001|1|40</t>
-  </si>
-  <si>
-    <t>Food|20|30;Coin|500|30;Item|3002|1_2|40</t>
-  </si>
-  <si>
-    <t>Coin|500|40;Medicine|101|1|30;Medicine|102|1|30</t>
+    <t>Item|2002|1|20;Coin|210|60;Arms|202|1|20</t>
   </si>
   <si>
     <t>9603|2|128285</t>
   </si>
   <si>
-    <t>Item|2002|1|20;Coin|700|40;Kongfu|3001|1|40</t>
-  </si>
-  <si>
-    <t>Food|30|30;Coin|700|30;Item|3002|1_2|40</t>
-  </si>
-  <si>
-    <t>Coin|700|40;Medicine|101|1|30;Medicine|102|1|30</t>
+    <t>Item|2002|1|20;Coin|240|60;Arms|202|1|20</t>
   </si>
   <si>
     <t>9601|2|128285</t>
   </si>
   <si>
-    <t>Item|2002|1|20;Coin|1000|40;Kongfu|3001|1|40</t>
-  </si>
-  <si>
-    <t>Food|30|30;Coin|1000|30;Item|3003|1_2|40</t>
-  </si>
-  <si>
-    <t>Coin|1000|10;Medicine|101|1|30;Medicine|102|1|30;Medicine|103|1|30</t>
+    <t>Item|2002|1|20;Coin|300|60;Arms|202|1|20</t>
+  </si>
+  <si>
+    <t>Coin|100|70;Medicine|102|1|15;Medicine|103|1|15</t>
   </si>
   <si>
     <t>Coin|1000|40;Item|3102|1_2|60</t>
@@ -616,13 +589,7 @@
     <t>9701|1|128285;9702|1|128285;9703|1|128285</t>
   </si>
   <si>
-    <t>Item|2002|1|20;Coin|1500|40;Kongfu|3001|1|40</t>
-  </si>
-  <si>
-    <t>Food|30|30;Coin|1500|30;Item|3003|1_2|40</t>
-  </si>
-  <si>
-    <t>Coin|1500|10;Medicine|101|1|30;Medicine|102|1|30;Medicine|103|1|30</t>
+    <t>Item|2002|1|20;Coin|500|60;Arms|202|1|20</t>
   </si>
   <si>
     <t>Coin|1500|40;Item|3101|1_2|30;Item|3102|1_2|30</t>
@@ -654,11 +621,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -676,37 +643,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -714,17 +650,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -743,22 +673,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -775,7 +728,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,34 +742,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -853,6 +820,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -860,6 +845,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,7 +952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,31 +964,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,115 +994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,6 +1025,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,44 +1085,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,9 +1109,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,10 +1132,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1177,10 +1144,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1189,124 +1156,124 @@
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1657,9 +1624,9 @@
   <dimension ref="A1:AB81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="W27" sqref="W27"/>
+      <selection pane="bottomLeft" activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -4266,9 +4233,8 @@
         <v>48</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U40" s="2"/>
+        <v>168</v>
+      </c>
       <c r="Y40" s="2">
         <f t="shared" si="1"/>
         <v>25785</v>
@@ -4289,22 +4255,22 @@
         <v>7</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J41" s="4">
         <v>60000</v>
@@ -4313,7 +4279,7 @@
         <v>1200</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M41" s="4">
         <v>5</v>
@@ -4322,15 +4288,14 @@
         <v>360</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="U41" s="2"/>
+        <v>168</v>
+      </c>
       <c r="Y41" s="2">
         <f t="shared" si="1"/>
         <v>25785</v>
@@ -4375,7 +4340,7 @@
         <v>2500</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M42" s="5">
         <v>2</v>
@@ -4384,15 +4349,14 @@
         <v>480</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="U42" s="2"/>
+        <v>168</v>
+      </c>
       <c r="Y42" s="2">
         <f>V12</f>
         <v>128285</v>
@@ -4437,7 +4401,7 @@
         <v>2500</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M43" s="5">
         <v>2</v>
@@ -4446,15 +4410,14 @@
         <v>480</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="U43" s="2"/>
+        <v>180</v>
+      </c>
       <c r="Y43" s="2">
         <f t="shared" si="1"/>
         <v>128285</v>
@@ -4499,7 +4462,7 @@
         <v>2500</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M44" s="5">
         <v>2</v>
@@ -4508,15 +4471,14 @@
         <v>480</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="U44" s="2"/>
+        <v>180</v>
+      </c>
       <c r="Y44" s="2">
         <f t="shared" si="1"/>
         <v>128285</v>
@@ -4561,7 +4523,7 @@
         <v>2500</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M45" s="5">
         <v>2</v>
@@ -4570,15 +4532,14 @@
         <v>480</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="U45" s="2"/>
+        <v>180</v>
+      </c>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
@@ -4626,7 +4587,7 @@
         <v>2500</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M46" s="5">
         <v>2</v>
@@ -4635,16 +4596,16 @@
         <v>480</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -4695,7 +4656,7 @@
         <v>2500</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="M47" s="5">
         <v>3</v>
@@ -4704,16 +4665,16 @@
         <v>480</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
@@ -4764,7 +4725,7 @@
         <v>2500</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="M48" s="5">
         <v>3</v>
@@ -4797,22 +4758,22 @@
         <v>8</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="J49" s="5">
         <v>200000</v>
@@ -4821,7 +4782,7 @@
         <v>2500</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="M49" s="5">
         <v>5</v>
@@ -4869,7 +4830,7 @@
         <v>40</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="J50" s="6">
         <v>100</v>
@@ -4878,7 +4839,7 @@
         <v>50</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="M50" s="6">
         <v>1</v>
@@ -4916,7 +4877,7 @@
         <v>40</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="J51" s="6">
         <v>100</v>
@@ -4925,7 +4886,7 @@
         <v>50</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="M51" s="6">
         <v>2</v>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -214,7 +214,7 @@
     <t>最近池塘边总有野猪出没，去宰了它给兄弟们加加餐。围捕的时候切记谨慎，被獠牙顶到可不是闹着玩的。</t>
   </si>
   <si>
-    <t>Item|1009|3_5</t>
+    <t>Item|1009|3_5|100</t>
   </si>
   <si>
     <t>9602|2|85</t>
@@ -418,7 +418,7 @@
     <t>鹿肉不是重点，鹿茸才是真正的好东西，师父最爱的药酒就是用它泡的，不仅延年益寿，还能壮阳。</t>
   </si>
   <si>
-    <t>Item|1019|3_5|30</t>
+    <t>Item|1019|3_5|100</t>
   </si>
   <si>
     <t>9603|2|6315</t>
@@ -604,13 +604,13 @@
     <t>9901|1|128285;9902|2|128285;9903|2|128285</t>
   </si>
   <si>
-    <t>Item|2001|1|20</t>
+    <t>Item|2001|1|100</t>
   </si>
   <si>
     <t>9605|1|60</t>
   </si>
   <si>
-    <t>Kongfu|1001|1</t>
+    <t>Kongfu|1001|1|100</t>
   </si>
   <si>
     <t>9701|1|80;9702|1|60</t>
@@ -621,11 +621,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -643,8 +643,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,66 +669,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -728,7 +685,73 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,22 +766,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,21 +784,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -820,7 +820,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +856,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,19 +910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,13 +928,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,109 +994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,6 +1033,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1049,21 +1073,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,23 +1095,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,25 +1126,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1144,136 +1144,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1623,10 +1623,10 @@
   <sheetPr/>
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R47" sqref="R47"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -10,14 +10,14 @@
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$E$4:$E$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet!$E$4:$E$51</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="205">
   <si>
     <t>任务ID</t>
   </si>
@@ -55,6 +55,9 @@
     <t>敌人配置</t>
   </si>
   <si>
+    <t>敌人派别</t>
+  </si>
+  <si>
     <t>可派弟子数量</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t>Enemy</t>
   </si>
   <si>
+    <t>EnemyClan</t>
+  </si>
+  <si>
     <t>RoleAmount</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>9605|2|50</t>
   </si>
   <si>
+    <t>野兽</t>
+  </si>
+  <si>
     <t>熊</t>
   </si>
   <si>
@@ -169,6 +178,9 @@
     <t>9701|1|50;9702|1|50;9703|1|50</t>
   </si>
   <si>
+    <t>山贼</t>
+  </si>
+  <si>
     <t>野猪</t>
   </si>
   <si>
@@ -190,6 +202,9 @@
     <t>9804|3|50</t>
   </si>
   <si>
+    <t>刺客</t>
+  </si>
+  <si>
     <t>鹿</t>
   </si>
   <si>
@@ -542,6 +557,9 @@
   </si>
   <si>
     <t>9901|1|25785;9902|2|25785;9903|2|25785</t>
+  </si>
+  <si>
+    <t>倭寇</t>
   </si>
   <si>
     <t>Item|2001|1|20;Coin|120|60;Arms|101|1|20</t>
@@ -621,11 +639,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -643,25 +661,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,11 +684,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,22 +700,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,15 +722,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,17 +745,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,6 +768,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -773,7 +784,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,6 +793,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,7 +838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,13 +850,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,61 +958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,13 +976,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,67 +1012,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,11 +1047,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,37 +1120,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,21 +1130,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,10 +1150,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1144,136 +1162,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1621,12 +1639,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB81"/>
+  <dimension ref="A1:AC81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1634,20 +1652,21 @@
     <col min="1" max="1" width="6.625" style="3" customWidth="1"/>
     <col min="2" max="4" width="10" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="7.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="60.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="45" style="3" customWidth="1"/>
     <col min="10" max="11" width="8.83333333333333" style="3"/>
-    <col min="12" max="12" width="38.0833333333333" style="3" customWidth="1"/>
-    <col min="13" max="14" width="8.83333333333333" style="3"/>
-    <col min="15" max="21" width="8.83333333333333" style="2"/>
-    <col min="22" max="25" width="8.83333333333333" style="3"/>
-    <col min="27" max="27" width="40.375" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="8.83333333333333" style="3"/>
+    <col min="12" max="12" width="33.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="3" customWidth="1"/>
+    <col min="14" max="15" width="8.83333333333333" style="3"/>
+    <col min="16" max="22" width="8.83333333333333" style="2"/>
+    <col min="23" max="26" width="8.83333333333333" style="3"/>
+    <col min="28" max="28" width="40.375" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="8.83333333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:27">
+    <row r="1" s="1" customFormat="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1690,70 +1709,75 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7"/>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
-      <c r="S1" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="S1" s="7"/>
       <c r="T1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="X1" s="7"/>
-      <c r="AA1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:24">
+      <c r="Y1" s="7"/>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -1763,51 +1787,54 @@
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:24">
+      <c r="Y2" s="7"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1817,51 +1844,54 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:24">
+      <c r="Y3" s="7"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -1871,34 +1901,35 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:27">
+      <c r="Y4" s="7"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:28">
       <c r="A5" s="4">
         <v>101</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J5" s="4">
         <v>100</v>
@@ -1907,72 +1938,75 @@
         <v>50</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="4">
+        <v>44</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="4">
         <v>2</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>1</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>9601</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="2">
+      <c r="R5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="2">
         <v>50</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="2">
         <v>100</v>
       </c>
-      <c r="V5" s="2">
+      <c r="W5" s="2">
         <v>50</v>
       </c>
-      <c r="W5" s="2">
-        <f>ROUND(X5*0.5,0)</f>
+      <c r="X5" s="2">
+        <f>ROUND(Y5*0.5,0)</f>
         <v>50</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Y5" s="2">
         <v>100</v>
       </c>
-      <c r="Y5" s="2">
-        <f>V5</f>
+      <c r="Z5" s="2">
+        <f>W5</f>
         <v>50</v>
       </c>
-      <c r="AA5" s="2" t="str">
-        <f>"9605|2|"&amp;Y5</f>
+      <c r="AB5" s="2" t="str">
+        <f>"9605|2|"&amp;Z5</f>
         <v>9605|2|50</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:27">
+    <row r="6" s="2" customFormat="1" spans="1:28">
       <c r="A6" s="4">
         <v>102</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J6" s="4">
         <v>100</v>
@@ -1981,72 +2015,75 @@
         <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="4">
+        <v>52</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="4">
         <v>3</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>1</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>9602</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="2">
+        <v>80</v>
+      </c>
+      <c r="U6" s="2">
+        <v>250</v>
+      </c>
+      <c r="W6" s="2">
+        <v>85</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" ref="X6:X12" si="0">ROUND(Y6*0.5,0)</f>
+        <v>86</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>172</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>Z5</f>
         <v>50</v>
       </c>
-      <c r="S6" s="2">
-        <v>80</v>
-      </c>
-      <c r="T6" s="2">
-        <v>250</v>
-      </c>
-      <c r="V6" s="2">
-        <v>85</v>
-      </c>
-      <c r="W6" s="2">
-        <f t="shared" ref="W6:W12" si="0">ROUND(X6*0.5,0)</f>
-        <v>86</v>
-      </c>
-      <c r="X6" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y6" s="2">
-        <f>Y5</f>
-        <v>50</v>
-      </c>
-      <c r="AA6" s="2" t="str">
-        <f>"9701|1|"&amp;Y6&amp;";9702|1|"&amp;Y6&amp;";9703|1|"&amp;Y6</f>
+      <c r="AB6" s="2" t="str">
+        <f>"9701|1|"&amp;Z6&amp;";9702|1|"&amp;Z6&amp;";9703|1|"&amp;Z6</f>
         <v>9701|1|50;9702|1|50;9703|1|50</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:27">
+    <row r="7" s="2" customFormat="1" spans="1:28">
       <c r="A7" s="4">
         <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J7" s="4">
         <v>100</v>
@@ -2055,72 +2092,75 @@
         <v>50</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="4">
+        <v>60</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="4">
         <v>3</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>1</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>9603</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S7" s="2">
+      <c r="R7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" s="2">
         <v>120</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>800</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>195</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>392</v>
       </c>
-      <c r="Y7" s="2">
-        <f t="shared" ref="Y7:Y49" si="1">Y6</f>
+      <c r="Z7" s="2">
+        <f t="shared" ref="Z7:Z49" si="1">Z6</f>
         <v>50</v>
       </c>
-      <c r="AA7" s="2" t="str">
-        <f>"9804|3|"&amp;Y7</f>
+      <c r="AB7" s="2" t="str">
+        <f>"9804|3|"&amp;Z7</f>
         <v>9804|3|50</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:27">
+    <row r="8" s="2" customFormat="1" spans="1:28">
       <c r="A8" s="5">
         <v>201</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J8" s="5">
         <v>250</v>
@@ -2129,72 +2169,75 @@
         <v>80</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="5">
+        <v>64</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="5">
         <v>2</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>10</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>9604</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S8" s="2">
+      <c r="R8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T8" s="2">
         <v>200</v>
       </c>
-      <c r="T8" s="2">
+      <c r="U8" s="2">
         <v>2400</v>
       </c>
-      <c r="V8" s="2">
+      <c r="W8" s="2">
         <v>530</v>
       </c>
-      <c r="W8" s="2">
+      <c r="X8" s="2">
         <f t="shared" si="0"/>
         <v>535</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2">
         <v>1070</v>
       </c>
-      <c r="Y8" s="2">
-        <f>V6</f>
+      <c r="Z8" s="2">
+        <f>W6</f>
         <v>85</v>
       </c>
-      <c r="AA8" s="2" t="str">
-        <f>"9605|2|"&amp;Y8</f>
+      <c r="AB8" s="2" t="str">
+        <f>"9605|2|"&amp;Z8</f>
         <v>9605|2|85</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:27">
+    <row r="9" s="2" customFormat="1" spans="1:28">
       <c r="A9" s="5">
         <v>202</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J9" s="5">
         <v>250</v>
@@ -2203,72 +2246,75 @@
         <v>80</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" s="5">
+        <v>71</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="5">
         <v>2</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <v>10</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>9605</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S9" s="2">
+      <c r="R9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T9" s="2">
         <v>350</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="2">
         <v>6000</v>
       </c>
-      <c r="V9" s="2">
+      <c r="W9" s="2">
         <v>1875</v>
       </c>
-      <c r="W9" s="2">
+      <c r="X9" s="2">
         <f t="shared" si="0"/>
         <v>1878</v>
       </c>
-      <c r="X9" s="2">
+      <c r="Y9" s="2">
         <v>3756</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Z9" s="2">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="AA9" s="2" t="str">
-        <f>"9602|2|"&amp;Y9</f>
+      <c r="AB9" s="2" t="str">
+        <f>"9602|2|"&amp;Z9</f>
         <v>9602|2|85</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:27">
+    <row r="10" s="2" customFormat="1" spans="1:28">
       <c r="A10" s="5">
         <v>203</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J10" s="5">
         <v>250</v>
@@ -2277,72 +2323,75 @@
         <v>80</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="5">
+        <v>74</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="5">
         <v>3</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <v>10</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>9701</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S10" s="2">
+      <c r="R10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" s="2">
         <v>600</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="2">
         <v>15000</v>
       </c>
-      <c r="V10" s="2">
+      <c r="W10" s="2">
         <v>6315</v>
       </c>
-      <c r="W10" s="2">
+      <c r="X10" s="2">
         <f t="shared" si="0"/>
         <v>6316</v>
       </c>
-      <c r="X10" s="2">
+      <c r="Y10" s="2">
         <v>12631</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Z10" s="2">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="AA10" s="2" t="str">
-        <f>"9701|1|"&amp;Y10&amp;";9702|1|"&amp;Y10&amp;";9703|1|"&amp;Y10</f>
+      <c r="AB10" s="2" t="str">
+        <f>"9701|1|"&amp;Z10&amp;";9702|1|"&amp;Z10&amp;";9703|1|"&amp;Z10</f>
         <v>9701|1|85;9702|1|85;9703|1|85</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:28">
+    <row r="11" s="2" customFormat="1" spans="1:29">
       <c r="A11" s="5">
         <v>204</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J11" s="5">
         <v>250</v>
@@ -2351,74 +2400,77 @@
         <v>80</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="5">
+        <v>77</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="5">
         <v>3</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <v>10</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>9702</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S11" s="2">
+      <c r="R11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T11" s="2">
         <v>1200</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="2">
         <v>60000</v>
       </c>
-      <c r="V11" s="2">
+      <c r="W11" s="2">
         <v>25785</v>
       </c>
-      <c r="W11" s="2">
+      <c r="X11" s="2">
         <f t="shared" si="0"/>
         <v>25789</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Y11" s="2">
         <v>51577</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Z11" s="2">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="2" t="str">
-        <f>"9804|3|"&amp;Y11</f>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="2" t="str">
+        <f>"9804|3|"&amp;Z11</f>
         <v>9804|3|85</v>
       </c>
-      <c r="AB11" s="8"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:27">
+      <c r="AC11" s="8"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:28">
       <c r="A12" s="4">
         <v>301</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J12" s="4">
         <v>800</v>
@@ -2427,72 +2479,75 @@
         <v>120</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="4">
+        <v>79</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="4">
         <v>2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>50</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>9703</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S12" s="2">
+      <c r="R12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T12" s="2">
         <v>2500</v>
       </c>
-      <c r="T12" s="2">
+      <c r="U12" s="2">
         <v>200000</v>
       </c>
-      <c r="V12" s="2">
+      <c r="W12" s="2">
         <v>128285</v>
       </c>
-      <c r="W12" s="2">
+      <c r="X12" s="2">
         <f t="shared" si="0"/>
         <v>128288</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Y12" s="2">
         <v>256576</v>
       </c>
-      <c r="Y12" s="2">
-        <f>V7</f>
+      <c r="Z12" s="2">
+        <f>W7</f>
         <v>195</v>
       </c>
-      <c r="AA12" s="2" t="str">
-        <f>"9605|2|"&amp;Y12</f>
+      <c r="AB12" s="2" t="str">
+        <f>"9605|2|"&amp;Z12</f>
         <v>9605|2|195</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:28">
+    <row r="13" s="2" customFormat="1" spans="1:29">
       <c r="A13" s="4">
         <v>302</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J13" s="4">
         <v>800</v>
@@ -2501,61 +2556,64 @@
         <v>120</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="4">
+        <v>80</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="4">
         <v>2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>50</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Q13" s="2">
         <v>9804</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="V13" s="3"/>
+      <c r="R13" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="2">
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="2">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="2" t="str">
-        <f>"9602|2|"&amp;Y13</f>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="2" t="str">
+        <f>"9602|2|"&amp;Z13</f>
         <v>9602|2|195</v>
       </c>
-      <c r="AB13" s="8"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:27">
+      <c r="AC13" s="8"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:28">
       <c r="A14" s="4">
         <v>303</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4">
         <v>3</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J14" s="4">
         <v>800</v>
@@ -2564,62 +2622,65 @@
         <v>120</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="4">
+        <v>82</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="4">
         <v>3</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>50</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>9901</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V14" s="2">
+      <c r="R14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W14" s="2">
         <v>1</v>
       </c>
-      <c r="W14" s="2">
+      <c r="X14" s="2">
         <v>5</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Z14" s="2">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="AA14" s="2" t="str">
-        <f>"9701|1|"&amp;Y14&amp;";9702|1|"&amp;Y14&amp;";9703|1|"&amp;Y14</f>
+      <c r="AB14" s="2" t="str">
+        <f>"9701|1|"&amp;Z14&amp;";9702|1|"&amp;Z14&amp;";9703|1|"&amp;Z14</f>
         <v>9701|1|195;9702|1|195;9703|1|195</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:27">
+    <row r="15" s="2" customFormat="1" spans="1:28">
       <c r="A15" s="4">
         <v>304</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J15" s="4">
         <v>800</v>
@@ -2628,63 +2689,66 @@
         <v>120</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" s="4">
+        <v>84</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="4">
         <v>3</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>50</v>
       </c>
-      <c r="P15" s="2">
+      <c r="Q15" s="2">
         <v>9902</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="R15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="W15" s="3">
         <v>10</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>20</v>
       </c>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="2">
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="2">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="AA15" s="2" t="str">
-        <f>"9804|3|"&amp;Y15</f>
+      <c r="AB15" s="2" t="str">
+        <f>"9804|3|"&amp;Z15</f>
         <v>9804|3|195</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:27">
+    <row r="16" s="2" customFormat="1" spans="1:28">
       <c r="A16" s="5">
         <v>401</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5">
         <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J16" s="5">
         <v>2400</v>
@@ -2693,62 +2757,65 @@
         <v>200</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="5">
+        <v>87</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="5">
         <v>2</v>
       </c>
-      <c r="N16" s="5">
+      <c r="O16" s="5">
         <v>100</v>
       </c>
-      <c r="P16" s="2">
+      <c r="Q16" s="2">
         <v>9903</v>
       </c>
-      <c r="Q16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="V16" s="2">
+      <c r="R16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W16" s="2">
         <v>50</v>
       </c>
-      <c r="W16" s="2">
+      <c r="X16" s="2">
         <v>60</v>
       </c>
-      <c r="Y16" s="2">
-        <f>V8</f>
+      <c r="Z16" s="2">
+        <f>W8</f>
         <v>530</v>
       </c>
-      <c r="AA16" s="2" t="str">
-        <f>"9605|2|"&amp;Y16</f>
+      <c r="AB16" s="2" t="str">
+        <f>"9605|2|"&amp;Z16</f>
         <v>9605|2|530</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:27">
+    <row r="17" s="2" customFormat="1" spans="1:28">
       <c r="A17" s="5">
         <v>402</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5">
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J17" s="5">
         <v>2400</v>
@@ -2757,56 +2824,59 @@
         <v>200</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" s="5">
+        <v>94</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="5">
         <v>2</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="5">
         <v>100</v>
       </c>
-      <c r="V17" s="2">
+      <c r="W17" s="2">
         <v>100</v>
       </c>
-      <c r="W17" s="2">
+      <c r="X17" s="2">
         <v>120</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Z17" s="2">
         <f t="shared" si="1"/>
         <v>530</v>
       </c>
-      <c r="AA17" s="2" t="str">
-        <f>"9604|2|"&amp;Y17</f>
+      <c r="AB17" s="2" t="str">
+        <f>"9604|2|"&amp;Z17</f>
         <v>9604|2|530</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:27">
+    <row r="18" s="2" customFormat="1" spans="1:28">
       <c r="A18" s="5">
         <v>403</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="5">
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J18" s="5">
         <v>2400</v>
@@ -2815,68 +2885,71 @@
         <v>200</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M18" s="5">
+        <v>95</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="5">
         <v>2</v>
       </c>
-      <c r="N18" s="5">
+      <c r="O18" s="5">
         <v>100</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R18" s="2">
         <v>1009</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="S18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V18" s="2">
+        <v>97</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="W18" s="2">
         <v>180</v>
       </c>
-      <c r="W18" s="2">
+      <c r="X18" s="2">
         <v>210</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Z18" s="2">
         <f t="shared" si="1"/>
         <v>530</v>
       </c>
-      <c r="AA18" s="2" t="str">
-        <f>"9602|2|"&amp;Y18</f>
+      <c r="AB18" s="2" t="str">
+        <f>"9602|2|"&amp;Z18</f>
         <v>9602|2|530</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:28">
+    <row r="19" s="2" customFormat="1" spans="1:29">
       <c r="A19" s="5">
         <v>404</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="5">
         <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J19" s="5">
         <v>2400</v>
@@ -2885,70 +2958,73 @@
         <v>200</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="M19" s="5">
+        <v>100</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="5">
         <v>3</v>
       </c>
-      <c r="N19" s="5">
+      <c r="O19" s="5">
         <v>100</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" s="2">
         <v>1011</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="S19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="V19" s="2">
+        <v>101</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="W19" s="2">
         <v>250</v>
       </c>
-      <c r="W19" s="2">
+      <c r="X19" s="2">
         <v>300</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Z19" s="2">
         <f t="shared" si="1"/>
         <v>530</v>
       </c>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="2" t="str">
-        <f>"9701|1|"&amp;Y19&amp;";9702|1|"&amp;Y19&amp;";9703|1|"&amp;Y19</f>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="2" t="str">
+        <f>"9701|1|"&amp;Z19&amp;";9702|1|"&amp;Z19&amp;";9703|1|"&amp;Z19</f>
         <v>9701|1|530;9702|1|530;9703|1|530</v>
       </c>
-      <c r="AB19" s="8"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:28">
+      <c r="AC19" s="8"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:29">
       <c r="A20" s="5">
         <v>405</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5">
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J20" s="5">
         <v>2400</v>
@@ -2957,70 +3033,73 @@
         <v>200</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="M20" s="5">
+        <v>104</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" s="5">
         <v>3</v>
       </c>
-      <c r="N20" s="5">
+      <c r="O20" s="5">
         <v>100</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R20" s="2">
         <v>1015</v>
       </c>
-      <c r="R20" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="S20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="V20" s="2">
+        <v>105</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="W20" s="2">
         <v>360</v>
       </c>
-      <c r="W20" s="2">
+      <c r="X20" s="2">
         <v>450</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Z20" s="2">
         <f t="shared" si="1"/>
         <v>530</v>
       </c>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="2" t="str">
-        <f>"9804|3|"&amp;Y20</f>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="2" t="str">
+        <f>"9804|3|"&amp;Z20</f>
         <v>9804|3|530</v>
       </c>
-      <c r="AB20" s="8"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:28">
+      <c r="AC20" s="8"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:29">
       <c r="A21" s="4">
         <v>501</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4">
         <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J21" s="4">
         <v>6000</v>
@@ -3029,71 +3108,74 @@
         <v>350</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="M21" s="4">
+        <v>108</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="4">
         <v>2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="O21" s="4">
         <v>180</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R21" s="2">
         <v>1019</v>
       </c>
-      <c r="R21" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="S21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="V21" s="3">
+        <v>109</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="W21" s="3">
         <v>480</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>600</v>
       </c>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="2">
-        <f>V9</f>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="2">
+        <f>W9</f>
         <v>1875</v>
       </c>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="2" t="str">
-        <f>"9605|2|"&amp;Y21</f>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="2" t="str">
+        <f>"9605|2|"&amp;Z21</f>
         <v>9605|2|1875</v>
       </c>
-      <c r="AB21" s="8"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:27">
+      <c r="AC21" s="8"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:28">
       <c r="A22" s="4">
         <v>502</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4">
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J22" s="4">
         <v>6000</v>
@@ -3102,65 +3184,68 @@
         <v>350</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="M22" s="4">
+        <v>111</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="4">
         <v>2</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>180</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R22" s="2">
         <v>1022</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="S22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="V22" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-      <c r="Y22" s="2">
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="2">
         <f t="shared" si="1"/>
         <v>1875</v>
       </c>
-      <c r="AA22" s="2" t="str">
-        <f>"9604|2|"&amp;Y22</f>
+      <c r="AB22" s="2" t="str">
+        <f>"9604|2|"&amp;Z22</f>
         <v>9604|2|1875</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:28">
+    <row r="23" s="2" customFormat="1" spans="1:29">
       <c r="A23" s="4">
         <v>503</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4">
         <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J23" s="4">
         <v>6000</v>
@@ -3169,52 +3254,55 @@
         <v>350</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="M23" s="4">
+        <v>114</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="4">
         <v>2</v>
       </c>
-      <c r="N23" s="4">
+      <c r="O23" s="4">
         <v>180</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="Z23" s="2">
         <f t="shared" si="1"/>
         <v>1875</v>
       </c>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="2" t="str">
-        <f>"9602|2|"&amp;Y23</f>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="2" t="str">
+        <f>"9602|2|"&amp;Z23</f>
         <v>9602|2|1875</v>
       </c>
-      <c r="AB23" s="8"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:28">
+      <c r="AC23" s="8"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:29">
       <c r="A24" s="4">
         <v>504</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4">
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J24" s="4">
         <v>6000</v>
@@ -3223,58 +3311,61 @@
         <v>350</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="M24" s="4">
+        <v>120</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="4">
         <v>2</v>
       </c>
-      <c r="N24" s="4">
+      <c r="O24" s="4">
         <v>180</v>
       </c>
-      <c r="P24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="V24" s="3"/>
+      <c r="Q24" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-      <c r="Y24" s="2">
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="2">
         <f t="shared" si="1"/>
         <v>1875</v>
       </c>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="2" t="str">
-        <f>"9601|2|"&amp;Y24</f>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="2" t="str">
+        <f>"9601|2|"&amp;Z24</f>
         <v>9601|2|1875</v>
       </c>
-      <c r="AB24" s="8"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:27">
+      <c r="AC24" s="8"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:28">
       <c r="A25" s="4">
         <v>505</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C25" s="4">
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J25" s="4">
         <v>6000</v>
@@ -3283,56 +3374,59 @@
         <v>350</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="M25" s="4">
+        <v>122</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" s="4">
         <v>3</v>
       </c>
-      <c r="N25" s="4">
+      <c r="O25" s="4">
         <v>180</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="V25" s="3"/>
+      <c r="Q25" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-      <c r="Y25" s="2">
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="2">
         <f t="shared" si="1"/>
         <v>1875</v>
       </c>
-      <c r="AA25" s="2" t="str">
-        <f>"9701|1|"&amp;Y25&amp;";9702|1|"&amp;Y25&amp;";9703|1|"&amp;Y25</f>
+      <c r="AB25" s="2" t="str">
+        <f>"9701|1|"&amp;Z25&amp;";9702|1|"&amp;Z25&amp;";9703|1|"&amp;Z25</f>
         <v>9701|1|1875;9702|1|1875;9703|1|1875</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:27">
+    <row r="26" s="2" customFormat="1" spans="1:28">
       <c r="A26" s="4">
         <v>506</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C26" s="4">
         <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J26" s="4">
         <v>6000</v>
@@ -3341,53 +3435,56 @@
         <v>350</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M26" s="4">
+        <v>124</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="4">
         <v>3</v>
       </c>
-      <c r="N26" s="4">
+      <c r="O26" s="4">
         <v>180</v>
       </c>
-      <c r="P26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y26" s="2">
+      <c r="Q26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z26" s="2">
         <f t="shared" si="1"/>
         <v>1875</v>
       </c>
-      <c r="AA26" s="2" t="str">
-        <f>"9804|3|"&amp;Y26</f>
+      <c r="AB26" s="2" t="str">
+        <f>"9804|3|"&amp;Z26</f>
         <v>9804|3|1875</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:27">
+    <row r="27" s="2" customFormat="1" spans="1:28">
       <c r="A27" s="5">
         <v>601</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5">
         <v>6</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J27" s="5">
         <v>15000</v>
@@ -3396,53 +3493,56 @@
         <v>600</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="M27" s="5">
+        <v>127</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="5">
         <v>2</v>
       </c>
-      <c r="N27" s="5">
+      <c r="O27" s="5">
         <v>250</v>
       </c>
-      <c r="P27" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y27" s="2">
-        <f>V10</f>
+      <c r="Q27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z27" s="2">
+        <f>W10</f>
         <v>6315</v>
       </c>
-      <c r="AA27" s="2" t="str">
-        <f>"9605|2|"&amp;Y27</f>
+      <c r="AB27" s="2" t="str">
+        <f>"9605|2|"&amp;Z27</f>
         <v>9605|2|6315</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:27">
+    <row r="28" s="2" customFormat="1" spans="1:28">
       <c r="A28" s="5">
         <v>602</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C28" s="5">
         <v>6</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J28" s="5">
         <v>15000</v>
@@ -3451,53 +3551,56 @@
         <v>600</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="M28" s="5">
+        <v>129</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" s="5">
         <v>2</v>
       </c>
-      <c r="N28" s="5">
+      <c r="O28" s="5">
         <v>250</v>
       </c>
-      <c r="P28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y28" s="2">
+      <c r="Q28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z28" s="2">
         <f t="shared" si="1"/>
         <v>6315</v>
       </c>
-      <c r="AA28" s="2" t="str">
-        <f>"9604|2|"&amp;Y28</f>
+      <c r="AB28" s="2" t="str">
+        <f>"9604|2|"&amp;Z28</f>
         <v>9604|2|6315</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:27">
+    <row r="29" s="2" customFormat="1" spans="1:28">
       <c r="A29" s="5">
         <v>603</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5">
         <v>6</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J29" s="5">
         <v>15000</v>
@@ -3506,62 +3609,65 @@
         <v>600</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="M29" s="5">
+        <v>131</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" s="5">
         <v>2</v>
       </c>
-      <c r="N29" s="5">
+      <c r="O29" s="5">
         <v>250</v>
       </c>
-      <c r="P29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R29" s="2">
         <v>2001</v>
       </c>
-      <c r="R29" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="S29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y29" s="2">
+        <v>132</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z29" s="2">
         <f t="shared" si="1"/>
         <v>6315</v>
       </c>
-      <c r="AA29" s="2" t="str">
-        <f>"9602|2|"&amp;Y29</f>
+      <c r="AB29" s="2" t="str">
+        <f>"9602|2|"&amp;Z29</f>
         <v>9602|2|6315</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:27">
+    <row r="30" s="2" customFormat="1" spans="1:28">
       <c r="A30" s="5">
         <v>604</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C30" s="5">
         <v>6</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J30" s="5">
         <v>15000</v>
@@ -3570,62 +3676,65 @@
         <v>600</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="M30" s="5">
+        <v>139</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" s="5">
         <v>2</v>
       </c>
-      <c r="N30" s="5">
+      <c r="O30" s="5">
         <v>250</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R30" s="2">
         <v>2002</v>
       </c>
-      <c r="R30" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="S30" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y30" s="2">
+        <v>140</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z30" s="2">
         <f t="shared" si="1"/>
         <v>6315</v>
       </c>
-      <c r="AA30" s="2" t="str">
-        <f>"9603|2|"&amp;Y30</f>
+      <c r="AB30" s="2" t="str">
+        <f>"9603|2|"&amp;Z30</f>
         <v>9603|2|6315</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:27">
+    <row r="31" s="2" customFormat="1" spans="1:28">
       <c r="A31" s="5">
         <v>605</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C31" s="5">
         <v>6</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J31" s="5">
         <v>15000</v>
@@ -3634,62 +3743,65 @@
         <v>600</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="M31" s="5">
+        <v>142</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31" s="5">
         <v>2</v>
       </c>
-      <c r="N31" s="5">
+      <c r="O31" s="5">
         <v>250</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R31" s="2">
         <v>3001</v>
       </c>
-      <c r="R31" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="S31" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y31" s="2">
+        <v>143</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z31" s="2">
         <f t="shared" si="1"/>
         <v>6315</v>
       </c>
-      <c r="AA31" s="2" t="str">
-        <f>"9601|2|"&amp;Y31</f>
+      <c r="AB31" s="2" t="str">
+        <f>"9601|2|"&amp;Z31</f>
         <v>9601|2|6315</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:28">
+    <row r="32" s="2" customFormat="1" spans="1:29">
       <c r="A32" s="5">
         <v>606</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C32" s="5">
         <v>6</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="J32" s="5">
         <v>15000</v>
@@ -3698,67 +3810,70 @@
         <v>600</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="M32" s="5">
+        <v>146</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N32" s="5">
         <v>3</v>
       </c>
-      <c r="N32" s="5">
+      <c r="O32" s="5">
         <v>250</v>
       </c>
-      <c r="P32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R32" s="2">
         <v>3002</v>
       </c>
-      <c r="R32" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="S32" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="V32" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-      <c r="Y32" s="2">
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="2">
         <f t="shared" si="1"/>
         <v>6315</v>
       </c>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="2" t="str">
-        <f>"9701|1|"&amp;Y32&amp;";9702|1|"&amp;Y32&amp;";9703|1|"&amp;Y32</f>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="2" t="str">
+        <f>"9701|1|"&amp;Z32&amp;";9702|1|"&amp;Z32&amp;";9703|1|"&amp;Z32</f>
         <v>9701|1|6315;9702|1|6315;9703|1|6315</v>
       </c>
-      <c r="AB32" s="8"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:28">
+      <c r="AC32" s="8"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:29">
       <c r="A33" s="5">
         <v>607</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C33" s="5">
         <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J33" s="5">
         <v>15000</v>
@@ -3767,67 +3882,70 @@
         <v>600</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="M33" s="5">
+        <v>149</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N33" s="5">
         <v>3</v>
       </c>
-      <c r="N33" s="5">
+      <c r="O33" s="5">
         <v>250</v>
       </c>
-      <c r="P33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R33" s="2">
         <v>3003</v>
       </c>
-      <c r="R33" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="S33" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="V33" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-      <c r="Y33" s="2">
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="2">
         <f t="shared" si="1"/>
         <v>6315</v>
       </c>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="2" t="str">
-        <f>"9804|3|"&amp;Y33</f>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="2" t="str">
+        <f>"9804|3|"&amp;Z33</f>
         <v>9804|3|6315</v>
       </c>
-      <c r="AB33" s="8"/>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="1:28">
+      <c r="AC33" s="8"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:29">
       <c r="A34" s="4">
         <v>701</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C34" s="4">
         <v>7</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J34" s="4">
         <v>60000</v>
@@ -3836,67 +3954,70 @@
         <v>1200</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="M34" s="4">
+        <v>152</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N34" s="4">
         <v>2</v>
       </c>
-      <c r="N34" s="4">
+      <c r="O34" s="4">
         <v>360</v>
       </c>
-      <c r="P34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R34" s="2">
         <v>3101</v>
       </c>
-      <c r="R34" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="S34" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="V34" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
-      <c r="Y34" s="2">
-        <f>V11</f>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="2">
+        <f>W11</f>
         <v>25785</v>
       </c>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="2" t="str">
-        <f>"9605|2|"&amp;Y34</f>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="2" t="str">
+        <f>"9605|2|"&amp;Z34</f>
         <v>9605|2|25785</v>
       </c>
-      <c r="AB34" s="8"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:28">
+      <c r="AC34" s="8"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:29">
       <c r="A35" s="4">
         <v>702</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C35" s="4">
         <v>7</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J35" s="4">
         <v>60000</v>
@@ -3905,67 +4026,70 @@
         <v>1200</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M35" s="4">
+        <v>155</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N35" s="4">
         <v>2</v>
       </c>
-      <c r="N35" s="4">
+      <c r="O35" s="4">
         <v>360</v>
       </c>
-      <c r="P35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R35" s="2">
         <v>3102</v>
       </c>
-      <c r="R35" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="S35" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="V35" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-      <c r="Y35" s="2">
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="2">
         <f t="shared" si="1"/>
         <v>25785</v>
       </c>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="2" t="str">
-        <f>"9604|2|"&amp;Y35</f>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="2" t="str">
+        <f>"9604|2|"&amp;Z35</f>
         <v>9604|2|25785</v>
       </c>
-      <c r="AB35" s="8"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:28">
+      <c r="AC35" s="8"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:29">
       <c r="A36" s="4">
         <v>703</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C36" s="4">
         <v>7</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J36" s="4">
         <v>60000</v>
@@ -3974,52 +4098,55 @@
         <v>1200</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="M36" s="4">
+        <v>158</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N36" s="4">
         <v>2</v>
       </c>
-      <c r="N36" s="4">
+      <c r="O36" s="4">
         <v>360</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="Z36" s="2">
         <f t="shared" si="1"/>
         <v>25785</v>
       </c>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="2" t="str">
-        <f>"9602|2|"&amp;Y36</f>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="2" t="str">
+        <f>"9602|2|"&amp;Z36</f>
         <v>9602|2|25785</v>
       </c>
-      <c r="AB36" s="8"/>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="1:27">
+      <c r="AC36" s="8"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:28">
       <c r="A37" s="4">
         <v>704</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C37" s="4">
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J37" s="4">
         <v>60000</v>
@@ -4028,53 +4155,56 @@
         <v>1200</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="M37" s="4">
+        <v>159</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N37" s="4">
         <v>2</v>
       </c>
-      <c r="N37" s="4">
+      <c r="O37" s="4">
         <v>360</v>
       </c>
-      <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-      <c r="Y37" s="2">
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="2">
         <f t="shared" si="1"/>
         <v>25785</v>
       </c>
-      <c r="AA37" s="2" t="str">
-        <f>"9603|2|"&amp;Y37</f>
+      <c r="AB37" s="2" t="str">
+        <f>"9603|2|"&amp;Z37</f>
         <v>9603|2|25785</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:28">
+    <row r="38" s="2" customFormat="1" spans="1:29">
       <c r="A38" s="4">
         <v>705</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C38" s="4">
         <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J38" s="4">
         <v>60000</v>
@@ -4083,67 +4213,70 @@
         <v>1200</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="M38" s="4">
+        <v>160</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N38" s="4">
         <v>2</v>
       </c>
-      <c r="N38" s="4">
+      <c r="O38" s="4">
         <v>360</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="S38" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="V38" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
-      <c r="Y38" s="2">
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="2">
         <f t="shared" si="1"/>
         <v>25785</v>
       </c>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="2" t="str">
-        <f>"9601|2|"&amp;Y38</f>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="2" t="str">
+        <f>"9601|2|"&amp;Z38</f>
         <v>9601|2|25785</v>
       </c>
-      <c r="AB38" s="8"/>
-    </row>
-    <row r="39" s="2" customFormat="1" spans="1:28">
+      <c r="AC38" s="8"/>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:29">
       <c r="A39" s="4">
         <v>706</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C39" s="4">
         <v>7</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J39" s="4">
         <v>60000</v>
@@ -4152,64 +4285,67 @@
         <v>1200</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M39" s="4">
+        <v>166</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N39" s="4">
         <v>3</v>
       </c>
-      <c r="N39" s="4">
+      <c r="O39" s="4">
         <v>360</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="S39" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y39" s="2">
+        <v>169</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z39" s="2">
         <f t="shared" si="1"/>
         <v>25785</v>
       </c>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="2" t="str">
-        <f>"9701|1|"&amp;Y39&amp;";9702|1|"&amp;Y39&amp;";9703|1|"&amp;Y39</f>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="2" t="str">
+        <f>"9701|1|"&amp;Z39&amp;";9702|1|"&amp;Z39&amp;";9703|1|"&amp;Z39</f>
         <v>9701|1|25785;9702|1|25785;9703|1|25785</v>
       </c>
-      <c r="AB39" s="8"/>
-    </row>
-    <row r="40" s="2" customFormat="1" spans="1:27">
+      <c r="AC39" s="8"/>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:28">
       <c r="A40" s="4">
         <v>707</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C40" s="4">
         <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J40" s="4">
         <v>60000</v>
@@ -4218,59 +4354,62 @@
         <v>1200</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="M40" s="4">
+        <v>172</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N40" s="4">
         <v>3</v>
       </c>
-      <c r="N40" s="4">
+      <c r="O40" s="4">
         <v>360</v>
       </c>
-      <c r="R40" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="S40" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y40" s="2">
+        <v>51</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z40" s="2">
         <f t="shared" si="1"/>
         <v>25785</v>
       </c>
-      <c r="AA40" s="2" t="str">
-        <f>"9804|3|"&amp;Y40</f>
+      <c r="AB40" s="2" t="str">
+        <f>"9804|3|"&amp;Z40</f>
         <v>9804|3|25785</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:27">
+    <row r="41" s="2" customFormat="1" spans="1:28">
       <c r="A41" s="4">
         <v>708</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C41" s="4">
         <v>7</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J41" s="4">
         <v>60000</v>
@@ -4279,59 +4418,62 @@
         <v>1200</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="M41" s="4">
+        <v>179</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N41" s="4">
         <v>5</v>
       </c>
-      <c r="N41" s="4">
+      <c r="O41" s="4">
         <v>360</v>
       </c>
-      <c r="R41" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="S41" s="2" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y41" s="2">
+        <v>73</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z41" s="2">
         <f t="shared" si="1"/>
         <v>25785</v>
       </c>
-      <c r="AA41" s="2" t="str">
-        <f>"9901|1|"&amp;Y41&amp;";9902|2|"&amp;Y41&amp;";9903|2|"&amp;Y41</f>
+      <c r="AB41" s="2" t="str">
+        <f>"9901|1|"&amp;Z41&amp;";9902|2|"&amp;Z41&amp;";9903|2|"&amp;Z41</f>
         <v>9901|1|25785;9902|2|25785;9903|2|25785</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:27">
+    <row r="42" s="2" customFormat="1" spans="1:28">
       <c r="A42" s="5">
         <v>801</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C42" s="5">
         <v>8</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J42" s="5">
         <v>200000</v>
@@ -4340,59 +4482,62 @@
         <v>2500</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="M42" s="5">
+        <v>182</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N42" s="5">
         <v>2</v>
       </c>
-      <c r="N42" s="5">
+      <c r="O42" s="5">
         <v>480</v>
       </c>
-      <c r="R42" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="S42" s="2" t="s">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y42" s="2">
-        <f>V12</f>
+        <v>73</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z42" s="2">
+        <f>W12</f>
         <v>128285</v>
       </c>
-      <c r="AA42" s="2" t="str">
-        <f>"9605|2|"&amp;Y42</f>
+      <c r="AB42" s="2" t="str">
+        <f>"9605|2|"&amp;Z42</f>
         <v>9605|2|128285</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:27">
+    <row r="43" s="2" customFormat="1" spans="1:28">
       <c r="A43" s="5">
         <v>802</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C43" s="5">
         <v>8</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J43" s="5">
         <v>200000</v>
@@ -4401,59 +4546,62 @@
         <v>2500</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="M43" s="5">
+        <v>184</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N43" s="5">
         <v>2</v>
       </c>
-      <c r="N43" s="5">
+      <c r="O43" s="5">
         <v>480</v>
       </c>
-      <c r="R43" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="S43" s="2" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y43" s="2">
+        <v>99</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z43" s="2">
         <f t="shared" si="1"/>
         <v>128285</v>
       </c>
-      <c r="AA43" s="2" t="str">
-        <f>"9604|2|"&amp;Y43</f>
+      <c r="AB43" s="2" t="str">
+        <f>"9604|2|"&amp;Z43</f>
         <v>9604|2|128285</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:27">
+    <row r="44" s="2" customFormat="1" spans="1:28">
       <c r="A44" s="5">
         <v>803</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C44" s="5">
         <v>8</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J44" s="5">
         <v>200000</v>
@@ -4462,59 +4610,62 @@
         <v>2500</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="M44" s="5">
+        <v>187</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N44" s="5">
         <v>2</v>
       </c>
-      <c r="N44" s="5">
+      <c r="O44" s="5">
         <v>480</v>
       </c>
-      <c r="R44" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="S44" s="2" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y44" s="2">
+        <v>99</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z44" s="2">
         <f t="shared" si="1"/>
         <v>128285</v>
       </c>
-      <c r="AA44" s="2" t="str">
-        <f>"9602|2|"&amp;Y44</f>
+      <c r="AB44" s="2" t="str">
+        <f>"9602|2|"&amp;Z44</f>
         <v>9602|2|128285</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:27">
+    <row r="45" s="2" customFormat="1" spans="1:28">
       <c r="A45" s="5">
         <v>804</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C45" s="5">
         <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J45" s="5">
         <v>200000</v>
@@ -4523,62 +4674,65 @@
         <v>2500</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="M45" s="5">
+        <v>189</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N45" s="5">
         <v>2</v>
       </c>
-      <c r="N45" s="5">
+      <c r="O45" s="5">
         <v>480</v>
       </c>
-      <c r="R45" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="S45" s="2" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="V45" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
-      <c r="Y45" s="2">
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="2">
         <f t="shared" si="1"/>
         <v>128285</v>
       </c>
-      <c r="AA45" s="2" t="str">
-        <f>"9603|2|"&amp;Y45</f>
+      <c r="AB45" s="2" t="str">
+        <f>"9603|2|"&amp;Z45</f>
         <v>9603|2|128285</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:28">
+    <row r="46" s="2" customFormat="1" spans="1:29">
       <c r="A46" s="5">
         <v>805</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C46" s="5">
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J46" s="5">
         <v>200000</v>
@@ -4587,67 +4741,70 @@
         <v>2500</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="M46" s="5">
+        <v>191</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N46" s="5">
         <v>2</v>
       </c>
-      <c r="N46" s="5">
+      <c r="O46" s="5">
         <v>480</v>
       </c>
-      <c r="R46" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="S46" s="2" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="V46" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
-      <c r="Y46" s="2">
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="2">
         <f t="shared" si="1"/>
         <v>128285</v>
       </c>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="2" t="str">
-        <f>"9601|2|"&amp;Y46</f>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="2" t="str">
+        <f>"9601|2|"&amp;Z46</f>
         <v>9601|2|128285</v>
       </c>
-      <c r="AB46" s="8"/>
-    </row>
-    <row r="47" s="2" customFormat="1" spans="1:28">
+      <c r="AC46" s="8"/>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:29">
       <c r="A47" s="5">
         <v>806</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C47" s="5">
         <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J47" s="5">
         <v>200000</v>
@@ -4656,67 +4813,70 @@
         <v>2500</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="M47" s="5">
+        <v>195</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N47" s="5">
         <v>3</v>
       </c>
-      <c r="N47" s="5">
+      <c r="O47" s="5">
         <v>480</v>
       </c>
-      <c r="R47" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="S47" s="2" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="V47" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
-      <c r="Y47" s="2">
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="2">
         <f t="shared" si="1"/>
         <v>128285</v>
       </c>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="2" t="str">
-        <f>"9701|1|"&amp;Y47&amp;";9702|1|"&amp;Y47&amp;";9703|1|"&amp;Y47</f>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="2" t="str">
+        <f>"9701|1|"&amp;Z47&amp;";9702|1|"&amp;Z47&amp;";9703|1|"&amp;Z47</f>
         <v>9701|1|128285;9702|1|128285;9703|1|128285</v>
       </c>
-      <c r="AB47" s="8"/>
-    </row>
-    <row r="48" s="2" customFormat="1" spans="1:28">
+      <c r="AC47" s="8"/>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:29">
       <c r="A48" s="5">
         <v>807</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C48" s="5">
         <v>8</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J48" s="5">
         <v>200000</v>
@@ -4725,55 +4885,58 @@
         <v>2500</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="M48" s="5">
+        <v>198</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N48" s="5">
         <v>3</v>
       </c>
-      <c r="N48" s="5">
+      <c r="O48" s="5">
         <v>480</v>
       </c>
-      <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-      <c r="Y48" s="2">
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="2">
         <f t="shared" si="1"/>
         <v>128285</v>
       </c>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="2" t="str">
-        <f>"9804|3|"&amp;Y48</f>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="2" t="str">
+        <f>"9804|3|"&amp;Z48</f>
         <v>9804|3|128285</v>
       </c>
-      <c r="AB48" s="8"/>
-    </row>
-    <row r="49" s="2" customFormat="1" spans="1:28">
+      <c r="AC48" s="8"/>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:29">
       <c r="A49" s="5">
         <v>808</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C49" s="5">
         <v>8</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J49" s="5">
         <v>200000</v>
@@ -4782,55 +4945,58 @@
         <v>2500</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="M49" s="5">
+        <v>200</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N49" s="5">
         <v>5</v>
       </c>
-      <c r="N49" s="5">
+      <c r="O49" s="5">
         <v>480</v>
       </c>
-      <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
-      <c r="Y49" s="2">
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="2">
         <f t="shared" si="1"/>
         <v>128285</v>
       </c>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="2" t="str">
-        <f>"9901|1|"&amp;Y49&amp;";9902|2|"&amp;Y49&amp;";9903|2|"&amp;Y49</f>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="2" t="str">
+        <f>"9901|1|"&amp;Z49&amp;";9902|2|"&amp;Z49&amp;";9903|2|"&amp;Z49</f>
         <v>9901|1|128285;9902|2|128285;9903|2|128285</v>
       </c>
-      <c r="AB49" s="8"/>
-    </row>
-    <row r="50" s="2" customFormat="1" spans="1:24">
+      <c r="AC49" s="8"/>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:25">
       <c r="A50" s="6">
         <v>9001</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="J50" s="6">
         <v>100</v>
@@ -4839,45 +5005,48 @@
         <v>50</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="M50" s="6">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="N50" s="6">
         <v>1</v>
       </c>
-      <c r="V50" s="3"/>
+      <c r="O50" s="6">
+        <v>1</v>
+      </c>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
-    </row>
-    <row r="51" s="2" customFormat="1" spans="1:24">
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:25">
       <c r="A51" s="6">
         <v>9002</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C51" s="6">
         <v>0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J51" s="6">
         <v>100</v>
@@ -4886,20 +5055,23 @@
         <v>50</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="M51" s="6">
+        <v>204</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N51" s="6">
         <v>2</v>
       </c>
-      <c r="N51" s="6">
+      <c r="O51" s="6">
         <v>1</v>
       </c>
-      <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
-    </row>
-    <row r="81" spans="15:15">
-      <c r="O81" s="3"/>
+      <c r="Y51" s="3"/>
+    </row>
+    <row r="81" spans="16:16">
+      <c r="P81" s="3"/>
     </row>
   </sheetData>
   <sortState ref="H39:H42">

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="206">
   <si>
     <t>任务ID</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>弟子经验</t>
+  </si>
+  <si>
+    <t>弟子等级</t>
   </si>
   <si>
     <t>敌人功力</t>
@@ -639,9 +642,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -662,7 +665,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,7 +673,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,29 +702,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -722,9 +709,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,15 +724,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,6 +756,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,25 +785,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -838,7 +841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,19 +853,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,19 +943,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,31 +985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,31 +997,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,37 +1015,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,30 +1046,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,17 +1080,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,7 +1099,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,16 +1123,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1162,16 +1165,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1180,122 +1183,122 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1317,6 +1320,9 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1639,12 +1645,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC81"/>
+  <dimension ref="A1:AD81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1660,13 +1666,13 @@
     <col min="12" max="12" width="33.125" style="3" customWidth="1"/>
     <col min="13" max="13" width="9.875" style="3" customWidth="1"/>
     <col min="14" max="15" width="8.83333333333333" style="3"/>
-    <col min="16" max="22" width="8.83333333333333" style="2"/>
-    <col min="23" max="26" width="8.83333333333333" style="3"/>
-    <col min="28" max="28" width="40.375" style="3" customWidth="1"/>
-    <col min="30" max="16384" width="8.83333333333333" style="3"/>
+    <col min="16" max="23" width="8.83333333333333" style="2"/>
+    <col min="24" max="27" width="8.83333333333333" style="3"/>
+    <col min="29" max="29" width="40.375" style="3" customWidth="1"/>
+    <col min="31" max="16384" width="8.83333333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:28">
+    <row r="1" s="1" customFormat="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1726,57 +1732,60 @@
       <c r="W1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="7"/>
+      <c r="X1" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="Y1" s="7"/>
-      <c r="AB1" s="1" t="s">
-        <v>18</v>
+      <c r="Z1" s="7"/>
+      <c r="AC1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:25">
+    <row r="2" s="1" customFormat="1" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -1788,52 +1797,53 @@
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:25">
+    <row r="3" s="1" customFormat="1" spans="1:26">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -1845,52 +1855,53 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:25">
+    <row r="4" s="1" customFormat="1" spans="1:26">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -1902,34 +1913,35 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:28">
+    <row r="5" s="2" customFormat="1" spans="1:29">
       <c r="A5" s="4">
         <v>101</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" s="4">
         <v>100</v>
@@ -1938,10 +1950,10 @@
         <v>50</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N5" s="4">
         <v>2</v>
@@ -1953,7 +1965,7 @@
         <v>9601</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T5" s="2">
         <v>50</v>
@@ -1961,52 +1973,56 @@
       <c r="U5" s="2">
         <v>100</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="8">
+        <f>X14</f>
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
         <v>50</v>
       </c>
-      <c r="X5" s="2">
-        <f>ROUND(Y5*0.5,0)</f>
+      <c r="Y5" s="2">
+        <f>ROUND(Z5*0.5,0)</f>
         <v>50</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Z5" s="2">
         <v>100</v>
       </c>
-      <c r="Z5" s="2">
-        <f>W5</f>
+      <c r="AA5" s="2">
+        <f>X5</f>
         <v>50</v>
       </c>
-      <c r="AB5" s="2" t="str">
-        <f>"9605|2|"&amp;Z5</f>
+      <c r="AC5" s="2" t="str">
+        <f>"9605|2|"&amp;AA5</f>
         <v>9605|2|50</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:28">
+    <row r="6" s="2" customFormat="1" spans="1:29">
       <c r="A6" s="4">
         <v>102</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J6" s="4">
         <v>100</v>
@@ -2015,10 +2031,10 @@
         <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N6" s="4">
         <v>3</v>
@@ -2030,7 +2046,7 @@
         <v>9602</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T6" s="2">
         <v>80</v>
@@ -2038,52 +2054,56 @@
       <c r="U6" s="2">
         <v>250</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="8">
+        <f t="shared" ref="W6:W11" si="0">W5</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="2">
         <v>85</v>
       </c>
-      <c r="X6" s="2">
-        <f t="shared" ref="X6:X12" si="0">ROUND(Y6*0.5,0)</f>
+      <c r="Y6" s="2">
+        <f t="shared" ref="Y6:Y12" si="1">ROUND(Z6*0.5,0)</f>
         <v>86</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Z6" s="2">
         <v>172</v>
       </c>
-      <c r="Z6" s="2">
-        <f>Z5</f>
+      <c r="AA6" s="2">
+        <f>AA5</f>
         <v>50</v>
       </c>
-      <c r="AB6" s="2" t="str">
-        <f>"9701|1|"&amp;Z6&amp;";9702|1|"&amp;Z6&amp;";9703|1|"&amp;Z6</f>
+      <c r="AC6" s="2" t="str">
+        <f>"9701|1|"&amp;AA6&amp;";9702|1|"&amp;AA6&amp;";9703|1|"&amp;AA6</f>
         <v>9701|1|50;9702|1|50;9703|1|50</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:28">
+    <row r="7" s="2" customFormat="1" spans="1:29">
       <c r="A7" s="4">
         <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J7" s="4">
         <v>100</v>
@@ -2092,10 +2112,10 @@
         <v>50</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N7" s="4">
         <v>3</v>
@@ -2107,7 +2127,7 @@
         <v>9603</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T7" s="2">
         <v>120</v>
@@ -2115,52 +2135,56 @@
       <c r="U7" s="2">
         <v>800</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X7" s="2">
         <v>195</v>
       </c>
-      <c r="X7" s="2">
-        <f t="shared" si="0"/>
+      <c r="Y7" s="2">
+        <f t="shared" si="1"/>
         <v>196</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>392</v>
       </c>
-      <c r="Z7" s="2">
-        <f t="shared" ref="Z7:Z49" si="1">Z6</f>
+      <c r="AA7" s="2">
+        <f t="shared" ref="AA7:AA49" si="2">AA6</f>
         <v>50</v>
       </c>
-      <c r="AB7" s="2" t="str">
-        <f>"9804|3|"&amp;Z7</f>
+      <c r="AC7" s="2" t="str">
+        <f>"9804|3|"&amp;AA7</f>
         <v>9804|3|50</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:28">
+    <row r="8" s="2" customFormat="1" spans="1:29">
       <c r="A8" s="5">
         <v>201</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" s="5">
         <v>250</v>
@@ -2169,10 +2193,10 @@
         <v>80</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N8" s="5">
         <v>2</v>
@@ -2184,7 +2208,7 @@
         <v>9604</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T8" s="2">
         <v>200</v>
@@ -2192,52 +2216,56 @@
       <c r="U8" s="2">
         <v>2400</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="8">
+        <f>X15</f>
+        <v>10</v>
+      </c>
+      <c r="X8" s="2">
         <v>530</v>
       </c>
-      <c r="X8" s="2">
-        <f t="shared" si="0"/>
+      <c r="Y8" s="2">
+        <f t="shared" si="1"/>
         <v>535</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Z8" s="2">
         <v>1070</v>
       </c>
-      <c r="Z8" s="2">
-        <f>W6</f>
+      <c r="AA8" s="2">
+        <f>X6</f>
         <v>85</v>
       </c>
-      <c r="AB8" s="2" t="str">
-        <f>"9605|2|"&amp;Z8</f>
+      <c r="AC8" s="2" t="str">
+        <f>"9605|2|"&amp;AA8</f>
         <v>9605|2|85</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:28">
+    <row r="9" s="2" customFormat="1" spans="1:29">
       <c r="A9" s="5">
         <v>202</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" s="5">
         <v>250</v>
@@ -2246,10 +2274,10 @@
         <v>80</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N9" s="5">
         <v>2</v>
@@ -2261,7 +2289,7 @@
         <v>9605</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T9" s="2">
         <v>350</v>
@@ -2269,52 +2297,56 @@
       <c r="U9" s="2">
         <v>6000</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="X9" s="2">
         <v>1875</v>
       </c>
-      <c r="X9" s="2">
-        <f t="shared" si="0"/>
+      <c r="Y9" s="2">
+        <f t="shared" si="1"/>
         <v>1878</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Z9" s="2">
         <v>3756</v>
       </c>
-      <c r="Z9" s="2">
-        <f t="shared" si="1"/>
+      <c r="AA9" s="2">
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="AB9" s="2" t="str">
-        <f>"9602|2|"&amp;Z9</f>
+      <c r="AC9" s="2" t="str">
+        <f>"9602|2|"&amp;AA9</f>
         <v>9602|2|85</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:28">
+    <row r="10" s="2" customFormat="1" spans="1:29">
       <c r="A10" s="5">
         <v>203</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J10" s="5">
         <v>250</v>
@@ -2323,10 +2355,10 @@
         <v>80</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N10" s="5">
         <v>3</v>
@@ -2338,7 +2370,7 @@
         <v>9701</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T10" s="2">
         <v>600</v>
@@ -2346,52 +2378,56 @@
       <c r="U10" s="2">
         <v>15000</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="X10" s="2">
         <v>6315</v>
       </c>
-      <c r="X10" s="2">
-        <f t="shared" si="0"/>
+      <c r="Y10" s="2">
+        <f t="shared" si="1"/>
         <v>6316</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Z10" s="2">
         <v>12631</v>
       </c>
-      <c r="Z10" s="2">
-        <f t="shared" si="1"/>
+      <c r="AA10" s="2">
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="AB10" s="2" t="str">
-        <f>"9701|1|"&amp;Z10&amp;";9702|1|"&amp;Z10&amp;";9703|1|"&amp;Z10</f>
+      <c r="AC10" s="2" t="str">
+        <f>"9701|1|"&amp;AA10&amp;";9702|1|"&amp;AA10&amp;";9703|1|"&amp;AA10</f>
         <v>9701|1|85;9702|1|85;9703|1|85</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:29">
+    <row r="11" s="2" customFormat="1" spans="1:30">
       <c r="A11" s="5">
         <v>204</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J11" s="5">
         <v>250</v>
@@ -2400,10 +2436,10 @@
         <v>80</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N11" s="5">
         <v>3</v>
@@ -2415,7 +2451,7 @@
         <v>9702</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T11" s="2">
         <v>1200</v>
@@ -2423,54 +2459,58 @@
       <c r="U11" s="2">
         <v>60000</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="X11" s="2">
         <v>25785</v>
       </c>
-      <c r="X11" s="2">
-        <f t="shared" si="0"/>
+      <c r="Y11" s="2">
+        <f t="shared" si="1"/>
         <v>25789</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Z11" s="2">
         <v>51577</v>
       </c>
-      <c r="Z11" s="2">
-        <f t="shared" si="1"/>
+      <c r="AA11" s="2">
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="2" t="str">
-        <f>"9804|3|"&amp;Z11</f>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="2" t="str">
+        <f>"9804|3|"&amp;AA11</f>
         <v>9804|3|85</v>
       </c>
-      <c r="AC11" s="8"/>
+      <c r="AD11" s="9"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:28">
+    <row r="12" s="2" customFormat="1" spans="1:29">
       <c r="A12" s="4">
         <v>301</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J12" s="4">
         <v>800</v>
@@ -2479,22 +2519,22 @@
         <v>120</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N12" s="4">
         <v>2</v>
       </c>
       <c r="O12" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="2">
         <v>9703</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T12" s="2">
         <v>2500</v>
@@ -2502,52 +2542,56 @@
       <c r="U12" s="2">
         <v>200000</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="8">
+        <f>X16</f>
+        <v>40</v>
+      </c>
+      <c r="X12" s="2">
         <v>128285</v>
       </c>
-      <c r="X12" s="2">
-        <f t="shared" si="0"/>
+      <c r="Y12" s="2">
+        <f t="shared" si="1"/>
         <v>128288</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Z12" s="2">
         <v>256576</v>
       </c>
-      <c r="Z12" s="2">
-        <f>W7</f>
+      <c r="AA12" s="2">
+        <f>X7</f>
         <v>195</v>
       </c>
-      <c r="AB12" s="2" t="str">
-        <f>"9605|2|"&amp;Z12</f>
+      <c r="AC12" s="2" t="str">
+        <f>"9605|2|"&amp;AA12</f>
         <v>9605|2|195</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:29">
+    <row r="13" s="2" customFormat="1" spans="1:30">
       <c r="A13" s="4">
         <v>302</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" s="4">
         <v>800</v>
@@ -2556,64 +2600,68 @@
         <v>120</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N13" s="4">
         <v>2</v>
       </c>
       <c r="O13" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="2">
         <v>9804</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="W13" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="W13" s="8">
+        <f t="shared" ref="W13:W15" si="3">W12</f>
+        <v>40</v>
+      </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="2">
-        <f t="shared" si="1"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="2">
+        <f t="shared" si="2"/>
         <v>195</v>
       </c>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="2" t="str">
-        <f>"9602|2|"&amp;Z13</f>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="2" t="str">
+        <f>"9602|2|"&amp;AA13</f>
         <v>9602|2|195</v>
       </c>
-      <c r="AC13" s="8"/>
+      <c r="AD13" s="9"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:28">
+    <row r="14" s="2" customFormat="1" spans="1:29">
       <c r="A14" s="4">
         <v>303</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4">
         <v>3</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J14" s="4">
         <v>800</v>
@@ -2622,65 +2670,73 @@
         <v>120</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N14" s="4">
         <v>3</v>
       </c>
       <c r="O14" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="2">
         <v>9901</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="W14" s="2">
+        <v>84</v>
+      </c>
+      <c r="W14" s="8">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="X14" s="2">
         <v>1</v>
       </c>
-      <c r="X14" s="2">
+      <c r="Y14" s="2">
         <v>5</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="1"/>
+        <f>Y14-X14</f>
+        <v>4</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" si="2"/>
         <v>195</v>
       </c>
-      <c r="AB14" s="2" t="str">
-        <f>"9701|1|"&amp;Z14&amp;";9702|1|"&amp;Z14&amp;";9703|1|"&amp;Z14</f>
+      <c r="AC14" s="2" t="str">
+        <f>"9701|1|"&amp;AA14&amp;";9702|1|"&amp;AA14&amp;";9703|1|"&amp;AA14</f>
         <v>9701|1|195;9702|1|195;9703|1|195</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:28">
+    <row r="15" s="2" customFormat="1" spans="1:29">
       <c r="A15" s="4">
         <v>304</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J15" s="4">
         <v>800</v>
@@ -2689,66 +2745,73 @@
         <v>120</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N15" s="4">
         <v>3</v>
       </c>
       <c r="O15" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="2">
         <v>9902</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="W15" s="3">
+        <v>86</v>
+      </c>
+      <c r="W15" s="8">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="X15" s="3">
         <v>10</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>20</v>
       </c>
-      <c r="Y15" s="3"/>
       <c r="Z15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Z15:Z21" si="4">Y15-X15</f>
+        <v>10</v>
+      </c>
+      <c r="AA15" s="2">
+        <f t="shared" si="2"/>
         <v>195</v>
       </c>
-      <c r="AB15" s="2" t="str">
-        <f>"9804|3|"&amp;Z15</f>
+      <c r="AC15" s="2" t="str">
+        <f>"9804|3|"&amp;AA15</f>
         <v>9804|3|195</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:28">
+    <row r="16" s="2" customFormat="1" spans="1:29">
       <c r="A16" s="5">
         <v>401</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5">
         <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J16" s="5">
         <v>2400</v>
@@ -2757,65 +2820,73 @@
         <v>200</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N16" s="5">
         <v>2</v>
       </c>
       <c r="O16" s="5">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="2">
         <v>9903</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="W16" s="2">
-        <v>50</v>
+        <v>89</v>
+      </c>
+      <c r="W16" s="8">
+        <f>X17</f>
+        <v>90</v>
       </c>
       <c r="X16" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y16" s="2">
         <v>60</v>
       </c>
       <c r="Z16" s="2">
-        <f>W8</f>
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AA16" s="2">
+        <f>X8</f>
         <v>530</v>
       </c>
-      <c r="AB16" s="2" t="str">
-        <f>"9605|2|"&amp;Z16</f>
+      <c r="AC16" s="2" t="str">
+        <f>"9605|2|"&amp;AA16</f>
         <v>9605|2|530</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:28">
+    <row r="17" s="2" customFormat="1" spans="1:29">
       <c r="A17" s="5">
         <v>402</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5">
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J17" s="5">
         <v>2400</v>
@@ -2824,59 +2895,67 @@
         <v>200</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N17" s="5">
         <v>2</v>
       </c>
       <c r="O17" s="5">
-        <v>100</v>
-      </c>
-      <c r="W17" s="2">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="W17" s="8">
+        <f t="shared" ref="W17:W20" si="5">W16</f>
+        <v>90</v>
       </c>
       <c r="X17" s="2">
+        <v>90</v>
+      </c>
+      <c r="Y17" s="2">
         <v>120</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="AA17" s="2">
+        <f t="shared" si="2"/>
         <v>530</v>
       </c>
-      <c r="AB17" s="2" t="str">
-        <f>"9604|2|"&amp;Z17</f>
+      <c r="AC17" s="2" t="str">
+        <f>"9604|2|"&amp;AA17</f>
         <v>9604|2|530</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:28">
+    <row r="18" s="2" customFormat="1" spans="1:29">
       <c r="A18" s="5">
         <v>403</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5">
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J18" s="5">
         <v>2400</v>
@@ -2885,71 +2964,79 @@
         <v>200</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N18" s="5">
         <v>2</v>
       </c>
       <c r="O18" s="5">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R18" s="2">
         <v>1009</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="W18" s="2">
-        <v>180</v>
+        <v>99</v>
+      </c>
+      <c r="W18" s="8">
+        <f t="shared" si="5"/>
+        <v>90</v>
       </c>
       <c r="X18" s="2">
+        <v>160</v>
+      </c>
+      <c r="Y18" s="2">
         <v>210</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="AA18" s="2">
+        <f t="shared" si="2"/>
         <v>530</v>
       </c>
-      <c r="AB18" s="2" t="str">
-        <f>"9602|2|"&amp;Z18</f>
+      <c r="AC18" s="2" t="str">
+        <f>"9602|2|"&amp;AA18</f>
         <v>9602|2|530</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:29">
+    <row r="19" s="2" customFormat="1" spans="1:30">
       <c r="A19" s="5">
         <v>404</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5">
         <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J19" s="5">
         <v>2400</v>
@@ -2958,73 +3045,81 @@
         <v>200</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N19" s="5">
         <v>3</v>
       </c>
       <c r="O19" s="5">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R19" s="2">
         <v>1011</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="W19" s="2">
-        <v>250</v>
+        <v>103</v>
+      </c>
+      <c r="W19" s="8">
+        <f t="shared" si="5"/>
+        <v>90</v>
       </c>
       <c r="X19" s="2">
+        <v>240</v>
+      </c>
+      <c r="Y19" s="2">
         <v>300</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AA19" s="2">
+        <f t="shared" si="2"/>
         <v>530</v>
       </c>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="2" t="str">
-        <f>"9701|1|"&amp;Z19&amp;";9702|1|"&amp;Z19&amp;";9703|1|"&amp;Z19</f>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="2" t="str">
+        <f>"9701|1|"&amp;AA19&amp;";9702|1|"&amp;AA19&amp;";9703|1|"&amp;AA19</f>
         <v>9701|1|530;9702|1|530;9703|1|530</v>
       </c>
-      <c r="AC19" s="8"/>
+      <c r="AD19" s="9"/>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:29">
+    <row r="20" s="2" customFormat="1" spans="1:30">
       <c r="A20" s="5">
         <v>405</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="5">
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J20" s="5">
         <v>2400</v>
@@ -3033,73 +3128,81 @@
         <v>200</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N20" s="5">
         <v>3</v>
       </c>
       <c r="O20" s="5">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R20" s="2">
         <v>1015</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="W20" s="2">
+        <v>107</v>
+      </c>
+      <c r="W20" s="8">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="X20" s="2">
         <v>360</v>
       </c>
-      <c r="X20" s="2">
+      <c r="Y20" s="2">
         <v>450</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="AA20" s="2">
+        <f t="shared" si="2"/>
         <v>530</v>
       </c>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="2" t="str">
-        <f>"9804|3|"&amp;Z20</f>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="2" t="str">
+        <f>"9804|3|"&amp;AA20</f>
         <v>9804|3|530</v>
       </c>
-      <c r="AC20" s="8"/>
+      <c r="AD20" s="9"/>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:29">
+    <row r="21" s="2" customFormat="1" spans="1:30">
       <c r="A21" s="4">
         <v>501</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4">
         <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J21" s="4">
         <v>6000</v>
@@ -3108,74 +3211,81 @@
         <v>350</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N21" s="4">
         <v>2</v>
       </c>
       <c r="O21" s="4">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R21" s="2">
         <v>1019</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="W21" s="3">
+        <v>111</v>
+      </c>
+      <c r="W21" s="8">
+        <f>X18</f>
+        <v>160</v>
+      </c>
+      <c r="X21" s="3">
         <v>480</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>600</v>
       </c>
-      <c r="Y21" s="3"/>
       <c r="Z21" s="2">
-        <f>W9</f>
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="AA21" s="2">
+        <f>X9</f>
         <v>1875</v>
       </c>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="2" t="str">
-        <f>"9605|2|"&amp;Z21</f>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="2" t="str">
+        <f>"9605|2|"&amp;AA21</f>
         <v>9605|2|1875</v>
       </c>
-      <c r="AC21" s="8"/>
+      <c r="AD21" s="9"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:28">
+    <row r="22" s="2" customFormat="1" spans="1:29">
       <c r="A22" s="4">
         <v>502</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="4">
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J22" s="4">
         <v>6000</v>
@@ -3184,68 +3294,72 @@
         <v>350</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N22" s="4">
         <v>2</v>
       </c>
       <c r="O22" s="4">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R22" s="2">
         <v>1022</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="W22" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="W22" s="8">
+        <f t="shared" ref="W22:W26" si="6">W21</f>
+        <v>160</v>
+      </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-      <c r="Z22" s="2">
-        <f t="shared" si="1"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="2">
+        <f t="shared" si="2"/>
         <v>1875</v>
       </c>
-      <c r="AB22" s="2" t="str">
-        <f>"9604|2|"&amp;Z22</f>
+      <c r="AC22" s="2" t="str">
+        <f>"9604|2|"&amp;AA22</f>
         <v>9604|2|1875</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:29">
+    <row r="23" s="2" customFormat="1" spans="1:30">
       <c r="A23" s="4">
         <v>503</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="4">
         <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J23" s="4">
         <v>6000</v>
@@ -3254,55 +3368,59 @@
         <v>350</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N23" s="4">
         <v>2</v>
       </c>
       <c r="O23" s="4">
-        <v>180</v>
-      </c>
-      <c r="Z23" s="2">
-        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="W23" s="8">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="AA23" s="2">
+        <f t="shared" si="2"/>
         <v>1875</v>
       </c>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="2" t="str">
-        <f>"9602|2|"&amp;Z23</f>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="2" t="str">
+        <f>"9602|2|"&amp;AA23</f>
         <v>9602|2|1875</v>
       </c>
-      <c r="AC23" s="8"/>
+      <c r="AD23" s="9"/>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:29">
+    <row r="24" s="2" customFormat="1" spans="1:30">
       <c r="A24" s="4">
         <v>504</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="4">
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J24" s="4">
         <v>6000</v>
@@ -3311,61 +3429,65 @@
         <v>350</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N24" s="4">
         <v>2</v>
       </c>
       <c r="O24" s="4">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="W24" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="W24" s="8">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
-      <c r="Z24" s="2">
-        <f t="shared" si="1"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="2">
+        <f t="shared" si="2"/>
         <v>1875</v>
       </c>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="2" t="str">
-        <f>"9601|2|"&amp;Z24</f>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="2" t="str">
+        <f>"9601|2|"&amp;AA24</f>
         <v>9601|2|1875</v>
       </c>
-      <c r="AC24" s="8"/>
+      <c r="AD24" s="9"/>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:28">
+    <row r="25" s="2" customFormat="1" spans="1:29">
       <c r="A25" s="4">
         <v>505</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4">
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J25" s="4">
         <v>6000</v>
@@ -3374,59 +3496,63 @@
         <v>350</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N25" s="4">
         <v>3</v>
       </c>
       <c r="O25" s="4">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W25" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="W25" s="8">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="2">
-        <f t="shared" si="1"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="2">
+        <f t="shared" si="2"/>
         <v>1875</v>
       </c>
-      <c r="AB25" s="2" t="str">
-        <f>"9701|1|"&amp;Z25&amp;";9702|1|"&amp;Z25&amp;";9703|1|"&amp;Z25</f>
+      <c r="AC25" s="2" t="str">
+        <f>"9701|1|"&amp;AA25&amp;";9702|1|"&amp;AA25&amp;";9703|1|"&amp;AA25</f>
         <v>9701|1|1875;9702|1|1875;9703|1|1875</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:28">
+    <row r="26" s="2" customFormat="1" spans="1:29">
       <c r="A26" s="4">
         <v>506</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="4">
         <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J26" s="4">
         <v>6000</v>
@@ -3435,56 +3561,60 @@
         <v>350</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N26" s="4">
         <v>3</v>
       </c>
       <c r="O26" s="4">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z26" s="2">
-        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="W26" s="8">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="AA26" s="2">
+        <f t="shared" si="2"/>
         <v>1875</v>
       </c>
-      <c r="AB26" s="2" t="str">
-        <f>"9804|3|"&amp;Z26</f>
+      <c r="AC26" s="2" t="str">
+        <f>"9804|3|"&amp;AA26</f>
         <v>9804|3|1875</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:28">
+    <row r="27" s="2" customFormat="1" spans="1:29">
       <c r="A27" s="5">
         <v>601</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5">
         <v>6</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J27" s="5">
         <v>15000</v>
@@ -3493,56 +3623,60 @@
         <v>600</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N27" s="5">
         <v>2</v>
       </c>
       <c r="O27" s="5">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z27" s="2">
-        <f>W10</f>
+        <v>129</v>
+      </c>
+      <c r="W27" s="8">
+        <f>X19</f>
+        <v>240</v>
+      </c>
+      <c r="AA27" s="2">
+        <f>X10</f>
         <v>6315</v>
       </c>
-      <c r="AB27" s="2" t="str">
-        <f>"9605|2|"&amp;Z27</f>
+      <c r="AC27" s="2" t="str">
+        <f>"9605|2|"&amp;AA27</f>
         <v>9605|2|6315</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:28">
+    <row r="28" s="2" customFormat="1" spans="1:29">
       <c r="A28" s="5">
         <v>602</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="5">
         <v>6</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J28" s="5">
         <v>15000</v>
@@ -3551,56 +3685,60 @@
         <v>600</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N28" s="5">
         <v>2</v>
       </c>
       <c r="O28" s="5">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z28" s="2">
-        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="W28" s="8">
+        <f t="shared" ref="W28:W33" si="7">W27</f>
+        <v>240</v>
+      </c>
+      <c r="AA28" s="2">
+        <f t="shared" si="2"/>
         <v>6315</v>
       </c>
-      <c r="AB28" s="2" t="str">
-        <f>"9604|2|"&amp;Z28</f>
+      <c r="AC28" s="2" t="str">
+        <f>"9604|2|"&amp;AA28</f>
         <v>9604|2|6315</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:28">
+    <row r="29" s="2" customFormat="1" spans="1:29">
       <c r="A29" s="5">
         <v>603</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="5">
         <v>6</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J29" s="5">
         <v>15000</v>
@@ -3609,65 +3747,69 @@
         <v>600</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N29" s="5">
         <v>2</v>
       </c>
       <c r="O29" s="5">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R29" s="2">
         <v>2001</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z29" s="2">
-        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="W29" s="8">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+      <c r="AA29" s="2">
+        <f t="shared" si="2"/>
         <v>6315</v>
       </c>
-      <c r="AB29" s="2" t="str">
-        <f>"9602|2|"&amp;Z29</f>
+      <c r="AC29" s="2" t="str">
+        <f>"9602|2|"&amp;AA29</f>
         <v>9602|2|6315</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:28">
+    <row r="30" s="2" customFormat="1" spans="1:29">
       <c r="A30" s="5">
         <v>604</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="5">
         <v>6</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J30" s="5">
         <v>15000</v>
@@ -3676,65 +3818,69 @@
         <v>600</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N30" s="5">
         <v>2</v>
       </c>
       <c r="O30" s="5">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R30" s="2">
         <v>2002</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z30" s="2">
-        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="W30" s="8">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+      <c r="AA30" s="2">
+        <f t="shared" si="2"/>
         <v>6315</v>
       </c>
-      <c r="AB30" s="2" t="str">
-        <f>"9603|2|"&amp;Z30</f>
+      <c r="AC30" s="2" t="str">
+        <f>"9603|2|"&amp;AA30</f>
         <v>9603|2|6315</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:28">
+    <row r="31" s="2" customFormat="1" spans="1:29">
       <c r="A31" s="5">
         <v>605</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5">
         <v>6</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J31" s="5">
         <v>15000</v>
@@ -3743,65 +3889,69 @@
         <v>600</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N31" s="5">
         <v>2</v>
       </c>
       <c r="O31" s="5">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R31" s="2">
         <v>3001</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z31" s="2">
-        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="W31" s="8">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+      <c r="AA31" s="2">
+        <f t="shared" si="2"/>
         <v>6315</v>
       </c>
-      <c r="AB31" s="2" t="str">
-        <f>"9601|2|"&amp;Z31</f>
+      <c r="AC31" s="2" t="str">
+        <f>"9601|2|"&amp;AA31</f>
         <v>9601|2|6315</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:29">
+    <row r="32" s="2" customFormat="1" spans="1:30">
       <c r="A32" s="5">
         <v>606</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5">
         <v>6</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J32" s="5">
         <v>15000</v>
@@ -3810,70 +3960,74 @@
         <v>600</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N32" s="5">
         <v>3</v>
       </c>
       <c r="O32" s="5">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R32" s="2">
         <v>3002</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="W32" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="W32" s="8">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="2">
-        <f t="shared" si="1"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="2">
+        <f t="shared" si="2"/>
         <v>6315</v>
       </c>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="2" t="str">
-        <f>"9701|1|"&amp;Z32&amp;";9702|1|"&amp;Z32&amp;";9703|1|"&amp;Z32</f>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="2" t="str">
+        <f>"9701|1|"&amp;AA32&amp;";9702|1|"&amp;AA32&amp;";9703|1|"&amp;AA32</f>
         <v>9701|1|6315;9702|1|6315;9703|1|6315</v>
       </c>
-      <c r="AC32" s="8"/>
+      <c r="AD32" s="9"/>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:29">
+    <row r="33" s="2" customFormat="1" spans="1:30">
       <c r="A33" s="5">
         <v>607</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" s="5">
         <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J33" s="5">
         <v>15000</v>
@@ -3882,70 +4036,74 @@
         <v>600</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N33" s="5">
         <v>3</v>
       </c>
       <c r="O33" s="5">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R33" s="2">
         <v>3003</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="W33" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="W33" s="8">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-      <c r="Z33" s="2">
-        <f t="shared" si="1"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="2">
+        <f t="shared" si="2"/>
         <v>6315</v>
       </c>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="2" t="str">
-        <f>"9804|3|"&amp;Z33</f>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="2" t="str">
+        <f>"9804|3|"&amp;AA33</f>
         <v>9804|3|6315</v>
       </c>
-      <c r="AC33" s="8"/>
+      <c r="AD33" s="9"/>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:29">
+    <row r="34" s="2" customFormat="1" spans="1:30">
       <c r="A34" s="4">
         <v>701</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" s="4">
         <v>7</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J34" s="4">
         <v>60000</v>
@@ -3954,10 +4112,10 @@
         <v>1200</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N34" s="4">
         <v>2</v>
@@ -3966,58 +4124,62 @@
         <v>360</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R34" s="2">
         <v>3101</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="W34" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="W34" s="8">
+        <f>X20</f>
+        <v>360</v>
+      </c>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-      <c r="Z34" s="2">
-        <f>W11</f>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="2">
+        <f>X11</f>
         <v>25785</v>
       </c>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="2" t="str">
-        <f>"9605|2|"&amp;Z34</f>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="2" t="str">
+        <f>"9605|2|"&amp;AA34</f>
         <v>9605|2|25785</v>
       </c>
-      <c r="AC34" s="8"/>
+      <c r="AD34" s="9"/>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:29">
+    <row r="35" s="2" customFormat="1" spans="1:30">
       <c r="A35" s="4">
         <v>702</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="4">
         <v>7</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J35" s="4">
         <v>60000</v>
@@ -4026,10 +4188,10 @@
         <v>1200</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N35" s="4">
         <v>2</v>
@@ -4038,58 +4200,62 @@
         <v>360</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R35" s="2">
         <v>3102</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="W35" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="W35" s="8">
+        <f t="shared" ref="W35:W41" si="8">W34</f>
+        <v>360</v>
+      </c>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
-      <c r="Z35" s="2">
-        <f t="shared" si="1"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="2">
+        <f t="shared" si="2"/>
         <v>25785</v>
       </c>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="2" t="str">
-        <f>"9604|2|"&amp;Z35</f>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="2" t="str">
+        <f>"9604|2|"&amp;AA35</f>
         <v>9604|2|25785</v>
       </c>
-      <c r="AC35" s="8"/>
+      <c r="AD35" s="9"/>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:29">
+    <row r="36" s="2" customFormat="1" spans="1:30">
       <c r="A36" s="4">
         <v>703</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="4">
         <v>7</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J36" s="4">
         <v>60000</v>
@@ -4098,10 +4264,10 @@
         <v>1200</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N36" s="4">
         <v>2</v>
@@ -4109,44 +4275,48 @@
       <c r="O36" s="4">
         <v>360</v>
       </c>
-      <c r="Z36" s="2">
-        <f t="shared" si="1"/>
+      <c r="W36" s="8">
+        <f t="shared" si="8"/>
+        <v>360</v>
+      </c>
+      <c r="AA36" s="2">
+        <f t="shared" si="2"/>
         <v>25785</v>
       </c>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="2" t="str">
-        <f>"9602|2|"&amp;Z36</f>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="2" t="str">
+        <f>"9602|2|"&amp;AA36</f>
         <v>9602|2|25785</v>
       </c>
-      <c r="AC36" s="8"/>
+      <c r="AD36" s="9"/>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:28">
+    <row r="37" s="2" customFormat="1" spans="1:29">
       <c r="A37" s="4">
         <v>704</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="4">
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J37" s="4">
         <v>60000</v>
@@ -4155,10 +4325,10 @@
         <v>1200</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N37" s="4">
         <v>2</v>
@@ -4166,45 +4336,49 @@
       <c r="O37" s="4">
         <v>360</v>
       </c>
-      <c r="W37" s="3"/>
+      <c r="W37" s="8">
+        <f t="shared" si="8"/>
+        <v>360</v>
+      </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
-      <c r="Z37" s="2">
-        <f t="shared" si="1"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="2">
+        <f t="shared" si="2"/>
         <v>25785</v>
       </c>
-      <c r="AB37" s="2" t="str">
-        <f>"9603|2|"&amp;Z37</f>
+      <c r="AC37" s="2" t="str">
+        <f>"9603|2|"&amp;AA37</f>
         <v>9603|2|25785</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:29">
+    <row r="38" s="2" customFormat="1" spans="1:30">
       <c r="A38" s="4">
         <v>705</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" s="4">
         <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J38" s="4">
         <v>60000</v>
@@ -4213,10 +4387,10 @@
         <v>1200</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N38" s="4">
         <v>2</v>
@@ -4224,59 +4398,63 @@
       <c r="O38" s="4">
         <v>360</v>
       </c>
+      <c r="R38" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="S38" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="W38" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="W38" s="8">
+        <f t="shared" si="8"/>
+        <v>360</v>
+      </c>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="2">
-        <f t="shared" si="1"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="2">
+        <f t="shared" si="2"/>
         <v>25785</v>
       </c>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="2" t="str">
-        <f>"9601|2|"&amp;Z38</f>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="2" t="str">
+        <f>"9601|2|"&amp;AA38</f>
         <v>9601|2|25785</v>
       </c>
-      <c r="AC38" s="8"/>
+      <c r="AD38" s="9"/>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:29">
+    <row r="39" s="2" customFormat="1" spans="1:30">
       <c r="A39" s="4">
         <v>706</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" s="4">
         <v>7</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J39" s="4">
         <v>60000</v>
@@ -4285,10 +4463,10 @@
         <v>1200</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N39" s="4">
         <v>3</v>
@@ -4296,56 +4474,60 @@
       <c r="O39" s="4">
         <v>360</v>
       </c>
+      <c r="R39" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="S39" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z39" s="2">
-        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="W39" s="8">
+        <f t="shared" si="8"/>
+        <v>360</v>
+      </c>
+      <c r="AA39" s="2">
+        <f t="shared" si="2"/>
         <v>25785</v>
       </c>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="2" t="str">
-        <f>"9701|1|"&amp;Z39&amp;";9702|1|"&amp;Z39&amp;";9703|1|"&amp;Z39</f>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="2" t="str">
+        <f>"9701|1|"&amp;AA39&amp;";9702|1|"&amp;AA39&amp;";9703|1|"&amp;AA39</f>
         <v>9701|1|25785;9702|1|25785;9703|1|25785</v>
       </c>
-      <c r="AC39" s="8"/>
+      <c r="AD39" s="9"/>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:28">
+    <row r="40" s="2" customFormat="1" spans="1:29">
       <c r="A40" s="4">
         <v>707</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40" s="4">
         <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J40" s="4">
         <v>60000</v>
@@ -4354,10 +4536,10 @@
         <v>1200</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N40" s="4">
         <v>3</v>
@@ -4365,51 +4547,55 @@
       <c r="O40" s="4">
         <v>360</v>
       </c>
+      <c r="R40" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="S40" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z40" s="2">
-        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="W40" s="8">
+        <f t="shared" si="8"/>
+        <v>360</v>
+      </c>
+      <c r="AA40" s="2">
+        <f t="shared" si="2"/>
         <v>25785</v>
       </c>
-      <c r="AB40" s="2" t="str">
-        <f>"9804|3|"&amp;Z40</f>
+      <c r="AC40" s="2" t="str">
+        <f>"9804|3|"&amp;AA40</f>
         <v>9804|3|25785</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:28">
+    <row r="41" s="2" customFormat="1" spans="1:29">
       <c r="A41" s="4">
         <v>708</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41" s="4">
         <v>7</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J41" s="4">
         <v>60000</v>
@@ -4418,10 +4604,10 @@
         <v>1200</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N41" s="4">
         <v>5</v>
@@ -4429,51 +4615,55 @@
       <c r="O41" s="4">
         <v>360</v>
       </c>
+      <c r="R41" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="S41" s="2" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z41" s="2">
-        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="W41" s="8">
+        <f t="shared" si="8"/>
+        <v>360</v>
+      </c>
+      <c r="AA41" s="2">
+        <f t="shared" si="2"/>
         <v>25785</v>
       </c>
-      <c r="AB41" s="2" t="str">
-        <f>"9901|1|"&amp;Z41&amp;";9902|2|"&amp;Z41&amp;";9903|2|"&amp;Z41</f>
+      <c r="AC41" s="2" t="str">
+        <f>"9901|1|"&amp;AA41&amp;";9902|2|"&amp;AA41&amp;";9903|2|"&amp;AA41</f>
         <v>9901|1|25785;9902|2|25785;9903|2|25785</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:28">
+    <row r="42" s="2" customFormat="1" spans="1:29">
       <c r="A42" s="5">
         <v>801</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" s="5">
         <v>8</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J42" s="5">
         <v>200000</v>
@@ -4482,10 +4672,10 @@
         <v>2500</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N42" s="5">
         <v>2</v>
@@ -4493,51 +4683,55 @@
       <c r="O42" s="5">
         <v>480</v>
       </c>
+      <c r="R42" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="S42" s="2" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U42" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z42" s="2">
-        <f>W12</f>
+        <v>174</v>
+      </c>
+      <c r="W42" s="8">
+        <f>X21</f>
+        <v>480</v>
+      </c>
+      <c r="AA42" s="2">
+        <f>X12</f>
         <v>128285</v>
       </c>
-      <c r="AB42" s="2" t="str">
-        <f>"9605|2|"&amp;Z42</f>
+      <c r="AC42" s="2" t="str">
+        <f>"9605|2|"&amp;AA42</f>
         <v>9605|2|128285</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:28">
+    <row r="43" s="2" customFormat="1" spans="1:29">
       <c r="A43" s="5">
         <v>802</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" s="5">
         <v>8</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J43" s="5">
         <v>200000</v>
@@ -4546,10 +4740,10 @@
         <v>2500</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N43" s="5">
         <v>2</v>
@@ -4557,51 +4751,55 @@
       <c r="O43" s="5">
         <v>480</v>
       </c>
+      <c r="R43" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="S43" s="2" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="U43" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z43" s="2">
-        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="W43" s="8">
+        <f t="shared" ref="W43:W49" si="9">W42</f>
+        <v>480</v>
+      </c>
+      <c r="AA43" s="2">
+        <f t="shared" si="2"/>
         <v>128285</v>
       </c>
-      <c r="AB43" s="2" t="str">
-        <f>"9604|2|"&amp;Z43</f>
+      <c r="AC43" s="2" t="str">
+        <f>"9604|2|"&amp;AA43</f>
         <v>9604|2|128285</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:28">
+    <row r="44" s="2" customFormat="1" spans="1:29">
       <c r="A44" s="5">
         <v>803</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" s="5">
         <v>8</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J44" s="5">
         <v>200000</v>
@@ -4610,10 +4808,10 @@
         <v>2500</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N44" s="5">
         <v>2</v>
@@ -4621,51 +4819,55 @@
       <c r="O44" s="5">
         <v>480</v>
       </c>
+      <c r="R44" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="S44" s="2" t="s">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z44" s="2">
-        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="W44" s="8">
+        <f t="shared" si="9"/>
+        <v>480</v>
+      </c>
+      <c r="AA44" s="2">
+        <f t="shared" si="2"/>
         <v>128285</v>
       </c>
-      <c r="AB44" s="2" t="str">
-        <f>"9602|2|"&amp;Z44</f>
+      <c r="AC44" s="2" t="str">
+        <f>"9602|2|"&amp;AA44</f>
         <v>9602|2|128285</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" spans="1:28">
+    <row r="45" s="2" customFormat="1" spans="1:29">
       <c r="A45" s="5">
         <v>804</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45" s="5">
         <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J45" s="5">
         <v>200000</v>
@@ -4674,10 +4876,10 @@
         <v>2500</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N45" s="5">
         <v>2</v>
@@ -4685,54 +4887,58 @@
       <c r="O45" s="5">
         <v>480</v>
       </c>
+      <c r="R45" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="S45" s="2" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="U45" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="W45" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="W45" s="8">
+        <f t="shared" si="9"/>
+        <v>480</v>
+      </c>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
-      <c r="Z45" s="2">
-        <f t="shared" si="1"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="2">
+        <f t="shared" si="2"/>
         <v>128285</v>
       </c>
-      <c r="AB45" s="2" t="str">
-        <f>"9603|2|"&amp;Z45</f>
+      <c r="AC45" s="2" t="str">
+        <f>"9603|2|"&amp;AA45</f>
         <v>9603|2|128285</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:29">
+    <row r="46" s="2" customFormat="1" spans="1:30">
       <c r="A46" s="5">
         <v>805</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" s="5">
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J46" s="5">
         <v>200000</v>
@@ -4741,10 +4947,10 @@
         <v>2500</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N46" s="5">
         <v>2</v>
@@ -4752,59 +4958,63 @@
       <c r="O46" s="5">
         <v>480</v>
       </c>
+      <c r="R46" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="S46" s="2" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="W46" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="W46" s="8">
+        <f t="shared" si="9"/>
+        <v>480</v>
+      </c>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
-      <c r="Z46" s="2">
-        <f t="shared" si="1"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="2">
+        <f t="shared" si="2"/>
         <v>128285</v>
       </c>
-      <c r="AA46" s="8"/>
-      <c r="AB46" s="2" t="str">
-        <f>"9601|2|"&amp;Z46</f>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="2" t="str">
+        <f>"9601|2|"&amp;AA46</f>
         <v>9601|2|128285</v>
       </c>
-      <c r="AC46" s="8"/>
+      <c r="AD46" s="9"/>
     </row>
-    <row r="47" s="2" customFormat="1" spans="1:29">
+    <row r="47" s="2" customFormat="1" spans="1:30">
       <c r="A47" s="5">
         <v>806</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47" s="5">
         <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J47" s="5">
         <v>200000</v>
@@ -4813,10 +5023,10 @@
         <v>2500</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N47" s="5">
         <v>3</v>
@@ -4824,59 +5034,63 @@
       <c r="O47" s="5">
         <v>480</v>
       </c>
+      <c r="R47" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="S47" s="2" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="V47" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="W47" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="W47" s="8">
+        <f t="shared" si="9"/>
+        <v>480</v>
+      </c>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
-      <c r="Z47" s="2">
-        <f t="shared" si="1"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="2">
+        <f t="shared" si="2"/>
         <v>128285</v>
       </c>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="2" t="str">
-        <f>"9701|1|"&amp;Z47&amp;";9702|1|"&amp;Z47&amp;";9703|1|"&amp;Z47</f>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="2" t="str">
+        <f>"9701|1|"&amp;AA47&amp;";9702|1|"&amp;AA47&amp;";9703|1|"&amp;AA47</f>
         <v>9701|1|128285;9702|1|128285;9703|1|128285</v>
       </c>
-      <c r="AC47" s="8"/>
+      <c r="AD47" s="9"/>
     </row>
-    <row r="48" s="2" customFormat="1" spans="1:29">
+    <row r="48" s="2" customFormat="1" spans="1:30">
       <c r="A48" s="5">
         <v>807</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" s="5">
         <v>8</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J48" s="5">
         <v>200000</v>
@@ -4885,10 +5099,10 @@
         <v>2500</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N48" s="5">
         <v>3</v>
@@ -4896,47 +5110,51 @@
       <c r="O48" s="5">
         <v>480</v>
       </c>
-      <c r="W48" s="3"/>
+      <c r="W48" s="8">
+        <f t="shared" si="9"/>
+        <v>480</v>
+      </c>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
-      <c r="Z48" s="2">
-        <f t="shared" si="1"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="2">
+        <f t="shared" si="2"/>
         <v>128285</v>
       </c>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="2" t="str">
-        <f>"9804|3|"&amp;Z48</f>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="2" t="str">
+        <f>"9804|3|"&amp;AA48</f>
         <v>9804|3|128285</v>
       </c>
-      <c r="AC48" s="8"/>
+      <c r="AD48" s="9"/>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:29">
+    <row r="49" s="2" customFormat="1" spans="1:30">
       <c r="A49" s="5">
         <v>808</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" s="5">
         <v>8</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J49" s="5">
         <v>200000</v>
@@ -4945,10 +5163,10 @@
         <v>2500</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N49" s="5">
         <v>5</v>
@@ -4956,47 +5174,51 @@
       <c r="O49" s="5">
         <v>480</v>
       </c>
-      <c r="W49" s="3"/>
+      <c r="W49" s="8">
+        <f t="shared" si="9"/>
+        <v>480</v>
+      </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
-      <c r="Z49" s="2">
-        <f t="shared" si="1"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="2">
+        <f t="shared" si="2"/>
         <v>128285</v>
       </c>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="2" t="str">
-        <f>"9901|1|"&amp;Z49&amp;";9902|2|"&amp;Z49&amp;";9903|2|"&amp;Z49</f>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="2" t="str">
+        <f>"9901|1|"&amp;AA49&amp;";9902|2|"&amp;AA49&amp;";9903|2|"&amp;AA49</f>
         <v>9901|1|128285;9902|2|128285;9903|2|128285</v>
       </c>
-      <c r="AC49" s="8"/>
+      <c r="AD49" s="9"/>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:25">
+    <row r="50" s="2" customFormat="1" spans="1:26">
       <c r="A50" s="6">
         <v>9001</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J50" s="6">
         <v>100</v>
@@ -5005,10 +5227,10 @@
         <v>50</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N50" s="6">
         <v>1</v>
@@ -5016,37 +5238,37 @@
       <c r="O50" s="6">
         <v>1</v>
       </c>
-      <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
     </row>
-    <row r="51" s="2" customFormat="1" spans="1:25">
+    <row r="51" s="2" customFormat="1" spans="1:26">
       <c r="A51" s="6">
         <v>9002</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C51" s="6">
         <v>0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J51" s="6">
         <v>100</v>
@@ -5055,10 +5277,10 @@
         <v>50</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N51" s="6">
         <v>2</v>
@@ -5066,9 +5288,9 @@
       <c r="O51" s="6">
         <v>1</v>
       </c>
-      <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
     </row>
     <row r="81" spans="16:16">
       <c r="P81" s="3"/>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="203">
   <si>
     <t>任务ID</t>
   </si>
@@ -151,7 +151,7 @@
     <t>Battle</t>
   </si>
   <si>
-    <t>Item|2001|1|20;Coin|100|80</t>
+    <t>Item|2001|1|20;Coin|50|80</t>
   </si>
   <si>
     <t>9605|2|50</t>
@@ -163,6 +163,27 @@
     <t>熊</t>
   </si>
   <si>
+    <t>boar</t>
+  </si>
+  <si>
+    <t>狩猎野猪</t>
+  </si>
+  <si>
+    <t>去池塘边抓野猪。</t>
+  </si>
+  <si>
+    <t>最近池塘边总有野猪出没，去宰了它给兄弟们加加餐。围捕的时候切记谨慎，被獠牙顶到可不是闹着玩的。</t>
+  </si>
+  <si>
+    <t>Item|1009|3_5|100</t>
+  </si>
+  <si>
+    <t>9602|2|50</t>
+  </si>
+  <si>
+    <t>野猪</t>
+  </si>
+  <si>
     <t>shanzeiboss</t>
   </si>
   <si>
@@ -175,7 +196,7 @@
     <t>最近隔壁村经常闹土匪，村民们苦不堪言，村长请我们去帮忙剿匪，事成之后必有重谢。</t>
   </si>
   <si>
-    <t>Food|10|50;Coin|100|50</t>
+    <t>Food|10|30;Coin|50|30</t>
   </si>
   <si>
     <t>9701|1|50;9702|1|50;9703|1|50</t>
@@ -184,7 +205,31 @@
     <t>山贼</t>
   </si>
   <si>
-    <t>野猪</t>
+    <t>鹿</t>
+  </si>
+  <si>
+    <t>Item|2001|1|20;Coin|60|60</t>
+  </si>
+  <si>
+    <t>9605|2|85</t>
+  </si>
+  <si>
+    <t>蛇</t>
+  </si>
+  <si>
+    <t>9602|2|85</t>
+  </si>
+  <si>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>Food|10|30;Coin|60|30</t>
+  </si>
+  <si>
+    <t>9701|1|85;9702|1|85;9703|1|85</t>
+  </si>
+  <si>
+    <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
   </si>
   <si>
     <t>cike</t>
@@ -199,66 +244,21 @@
     <t>昨晚赵员外被行刺了，好在只受了点轻伤，没有性命之忧。听说员外家挺有钱的，咱们也去帮忙抓刺客吧。</t>
   </si>
   <si>
-    <t>Coin|100|100</t>
-  </si>
-  <si>
-    <t>9804|3|50</t>
+    <t>Coin|60|70;Item|3001|1|30</t>
+  </si>
+  <si>
+    <t>9804|3|85</t>
   </si>
   <si>
     <t>刺客</t>
   </si>
   <si>
-    <t>鹿</t>
-  </si>
-  <si>
-    <t>Item|2001|1|20;Coin|100|50;Kongfu|1001|1|30</t>
-  </si>
-  <si>
-    <t>9605|2|85</t>
-  </si>
-  <si>
-    <t>蛇</t>
-  </si>
-  <si>
-    <t>boar</t>
-  </si>
-  <si>
-    <t>狩猎野猪</t>
-  </si>
-  <si>
-    <t>去池塘边抓野猪。</t>
-  </si>
-  <si>
-    <t>最近池塘边总有野猪出没，去宰了它给兄弟们加加餐。围捕的时候切记谨慎，被獠牙顶到可不是闹着玩的。</t>
-  </si>
-  <si>
-    <t>Item|1009|3_5|100</t>
-  </si>
-  <si>
-    <t>9602|2|85</t>
-  </si>
-  <si>
-    <t>狼</t>
-  </si>
-  <si>
-    <t>Food|10|30;Coin|100|30;Item|3001|1_2|40</t>
-  </si>
-  <si>
-    <t>9701|1|85;9702|1|85;9703|1|85</t>
-  </si>
-  <si>
-    <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
-  </si>
-  <si>
-    <t>Coin|100|60;Medicine|101|1|40</t>
-  </si>
-  <si>
-    <t>9804|3|85</t>
-  </si>
-  <si>
     <t>山贼喽啰</t>
   </si>
   <si>
+    <t>Item|2001|1|20;Coin|80|60</t>
+  </si>
+  <si>
     <t>9605|2|195</t>
   </si>
   <si>
@@ -268,19 +268,25 @@
     <t>刺客草上飞|刺客小旋风|刺客鼓上蚤</t>
   </si>
   <si>
+    <t>Food|10|30;Coin|80|30</t>
+  </si>
+  <si>
     <t>9701|1|195;9702|1|195;9703|1|195</t>
   </si>
   <si>
     <t>倭寇半藏|倭寇佐助|倭寇一郎|倭寇小五郎|倭寇龙马</t>
   </si>
   <si>
+    <t>Coin|80|70;Item|3001|1|30</t>
+  </si>
+  <si>
     <t>9804|3|195</t>
   </si>
   <si>
     <t>倭寇花屋|倭寇坂东|倭寇朱吉|倭寇耕二|倭寇小次郎</t>
   </si>
   <si>
-    <t>Item|2001|1|20;Coin|100|40;Kongfu|2001|1|40</t>
+    <t>Item|2001|1|20;Coin|100|60</t>
   </si>
   <si>
     <t>9605|2|530</t>
@@ -319,7 +325,7 @@
     <t>肉</t>
   </si>
   <si>
-    <t>Food|20|30;Coin|100|30;Item|3002|1_2|40</t>
+    <t>Food|20|30;Coin|100|30</t>
   </si>
   <si>
     <t>9701|1|530;9702|1|530;9703|1|530</t>
@@ -331,7 +337,7 @@
     <t>熊掌</t>
   </si>
   <si>
-    <t>Coin|100|40;Medicine|101|1|30;Medicine|102|1|30</t>
+    <t>Coin|100|70;Item|3001|1|15;Item|3002|1|15</t>
   </si>
   <si>
     <t>9804|3|530</t>
@@ -343,7 +349,7 @@
     <t>蛇胆</t>
   </si>
   <si>
-    <t>Item|2002|1|20;Coin|100|40;Kongfu|2001|1|40</t>
+    <t>Item|2002|1|20;Coin|120|60</t>
   </si>
   <si>
     <t>9605|2|1875</t>
@@ -388,19 +394,25 @@
     <t>Food</t>
   </si>
   <si>
+    <t>Food|20|30;Coin|120|30</t>
+  </si>
+  <si>
     <t>9701|1|1875;9702|1|1875;9703|1|1875</t>
   </si>
   <si>
     <t>Coin</t>
   </si>
   <si>
+    <t>Coin|120|70;Item|3001|1|15;Item|3002|1|15</t>
+  </si>
+  <si>
     <t>9804|3|1875</t>
   </si>
   <si>
     <t>Equip</t>
   </si>
   <si>
-    <t>Item|2002|1|20;Coin|100|40;Kongfu|3001|1|40</t>
+    <t>Item|2002|1|20;Coin|150|60</t>
   </si>
   <si>
     <t>9605|2|6315</t>
@@ -457,7 +469,7 @@
     <t>孔雀石</t>
   </si>
   <si>
-    <t>Food|30|30;Coin|100|30;Item|3002|1_2|40</t>
+    <t>Food|30|30;Coin|150|30</t>
   </si>
   <si>
     <t>9701|1|6315;9702|1|6315;9703|1|6315</t>
@@ -469,6 +481,9 @@
     <t>红玛瑙</t>
   </si>
   <si>
+    <t>Coin|150|70;Item|3001|1|15;Item|3002|1|15</t>
+  </si>
+  <si>
     <t>9804|3|6315</t>
   </si>
   <si>
@@ -478,6 +493,9 @@
     <t>紫龙晶</t>
   </si>
   <si>
+    <t>Item|2002|1|20;Coin|180|60</t>
+  </si>
+  <si>
     <t>9605|2|25785</t>
   </si>
   <si>
@@ -505,24 +523,99 @@
     <t>9601|2|25785</t>
   </si>
   <si>
-    <t>招募令，功夫</t>
-  </si>
-  <si>
-    <t>食物，装备石</t>
-  </si>
-  <si>
-    <t>药</t>
+    <t>Food|30|30;Coin|180|30</t>
+  </si>
+  <si>
+    <t>9701|1|25785;9702|1|25785;9703|1|25785</t>
+  </si>
+  <si>
+    <t>Coin|180|70;Item|3002|1|15;Item|3003|1|15</t>
+  </si>
+  <si>
+    <t>9804|3|25785</t>
+  </si>
+  <si>
+    <t>wokou1</t>
+  </si>
+  <si>
+    <t>战倭寇</t>
+  </si>
+  <si>
+    <t>剿灭侵犯村子的倭寇。</t>
+  </si>
+  <si>
+    <t>倭人犯我天朝百姓久已，烧杀劫掠，无恶不作，吾等习武之人倘若坐视不管，岂不被人笑话。</t>
+  </si>
+  <si>
+    <t>Coin|180|70;Item|3102|1_2|30</t>
+  </si>
+  <si>
+    <t>9901|1|25785;9902|2|25785;9903|2|25785</t>
+  </si>
+  <si>
+    <t>倭寇</t>
+  </si>
+  <si>
+    <t>Item|2002|1|20;Coin|250|60</t>
+  </si>
+  <si>
+    <t>9605|2|128285</t>
+  </si>
+  <si>
+    <t>9604|2|128285</t>
+  </si>
+  <si>
+    <t>9602|2|128285</t>
+  </si>
+  <si>
+    <t>9603|2|128285</t>
+  </si>
+  <si>
+    <t>9601|2|128285</t>
+  </si>
+  <si>
+    <t>Food|30|30;Coin|250|30</t>
+  </si>
+  <si>
+    <t>9701|1|128285;9702|1|128285;9703|1|128285</t>
+  </si>
+  <si>
+    <t>Coin|250|70;Item|3002|1|15;Item|3003|1|15</t>
+  </si>
+  <si>
+    <t>9804|3|128285</t>
+  </si>
+  <si>
+    <t>Coin|250|70;Item|3101|1_2|15;Item|3102|1_2|15</t>
+  </si>
+  <si>
+    <t>9901|1|128285;9902|2|128285;9903|2|128285</t>
+  </si>
+  <si>
+    <t>Item|2001|1|100</t>
+  </si>
+  <si>
+    <t>9605|1|60</t>
+  </si>
+  <si>
+    <t>Kongfu|1001|1|100</t>
+  </si>
+  <si>
+    <t>9701|1|80;9702|1|60</t>
+  </si>
+  <si>
+    <t>招募令</t>
+  </si>
+  <si>
+    <t>食物</t>
+  </si>
+  <si>
+    <t>装备石</t>
   </si>
   <si>
     <t>稀有材料</t>
   </si>
   <si>
-    <t>Food|30|30;Coin|100|30;Item|3003|1_2|40</t>
-  </si>
-  <si>
-    <t>9701|1|25785;9702|1|25785;9703|1|25785</t>
-  </si>
-  <si>
     <t>狼1</t>
   </si>
   <si>
@@ -533,108 +626,6 @@
   </si>
   <si>
     <t>倭寇7</t>
-  </si>
-  <si>
-    <t>Coin|100|10;Medicine|101|1|30;Medicine|102|1|30;Medicine|103|1|30</t>
-  </si>
-  <si>
-    <t>9804|3|25785</t>
-  </si>
-  <si>
-    <t>Coin|100|70;Medicine|101|1|30</t>
-  </si>
-  <si>
-    <t>wokou1</t>
-  </si>
-  <si>
-    <t>战倭寇</t>
-  </si>
-  <si>
-    <t>剿灭侵犯村子的倭寇。</t>
-  </si>
-  <si>
-    <t>倭人犯我天朝百姓久已，烧杀劫掠，无恶不作，吾等习武之人倘若坐视不管，岂不被人笑话。</t>
-  </si>
-  <si>
-    <t>Coin|100|20;Item|3102|1_2|80</t>
-  </si>
-  <si>
-    <t>9901|1|25785;9902|2|25785;9903|2|25785</t>
-  </si>
-  <si>
-    <t>倭寇</t>
-  </si>
-  <si>
-    <t>Item|2001|1|20;Coin|120|60;Arms|101|1|20</t>
-  </si>
-  <si>
-    <t>9605|2|128285</t>
-  </si>
-  <si>
-    <t>Item|2001|1|20;Coin|150|60;Arms|101|1|20</t>
-  </si>
-  <si>
-    <t>9604|2|128285</t>
-  </si>
-  <si>
-    <t>Item|2001|1|20;Coin|180|60;Arms|202|1|20</t>
-  </si>
-  <si>
-    <t>Coin|100|70;Medicine|101|1|15;Medicine|102|1|15</t>
-  </si>
-  <si>
-    <t>9602|2|128285</t>
-  </si>
-  <si>
-    <t>Item|2002|1|20;Coin|210|60;Arms|202|1|20</t>
-  </si>
-  <si>
-    <t>9603|2|128285</t>
-  </si>
-  <si>
-    <t>Item|2002|1|20;Coin|240|60;Arms|202|1|20</t>
-  </si>
-  <si>
-    <t>9601|2|128285</t>
-  </si>
-  <si>
-    <t>Item|2002|1|20;Coin|300|60;Arms|202|1|20</t>
-  </si>
-  <si>
-    <t>Coin|100|70;Medicine|102|1|15;Medicine|103|1|15</t>
-  </si>
-  <si>
-    <t>Coin|1000|40;Item|3102|1_2|60</t>
-  </si>
-  <si>
-    <t>9701|1|128285;9702|1|128285;9703|1|128285</t>
-  </si>
-  <si>
-    <t>Item|2002|1|20;Coin|500|60;Arms|202|1|20</t>
-  </si>
-  <si>
-    <t>Coin|1500|40;Item|3101|1_2|30;Item|3102|1_2|30</t>
-  </si>
-  <si>
-    <t>9804|3|128285</t>
-  </si>
-  <si>
-    <t>Coin|100|20;Item|3101|1_2|40;Item|3102|1_2|40</t>
-  </si>
-  <si>
-    <t>9901|1|128285;9902|2|128285;9903|2|128285</t>
-  </si>
-  <si>
-    <t>Item|2001|1|100</t>
-  </si>
-  <si>
-    <t>9605|1|60</t>
-  </si>
-  <si>
-    <t>Kongfu|1001|1|100</t>
-  </si>
-  <si>
-    <t>9701|1|80;9702|1|60</t>
   </si>
 </sst>
 </file>
@@ -642,10 +633,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21">
@@ -665,9 +656,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,8 +678,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,23 +732,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,16 +746,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,6 +776,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -769,40 +791,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,7 +832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,19 +844,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,13 +904,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,25 +922,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,30 +994,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -980,36 +1001,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,6 +1042,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1061,21 +1087,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,7 +1110,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,26 +1120,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,10 +1144,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1165,140 +1156,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1320,9 +1311,6 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1650,7 +1638,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1662,7 +1650,8 @@
     <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="7.375" style="3" customWidth="1"/>
     <col min="9" max="9" width="45" style="3" customWidth="1"/>
-    <col min="10" max="11" width="8.83333333333333" style="3"/>
+    <col min="10" max="10" width="43.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.83333333333333" style="3"/>
     <col min="12" max="12" width="33.125" style="3" customWidth="1"/>
     <col min="13" max="13" width="9.875" style="3" customWidth="1"/>
     <col min="14" max="15" width="8.83333333333333" style="3"/>
@@ -1973,7 +1962,7 @@
       <c r="U5" s="2">
         <v>100</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="2">
         <f>X14</f>
         <v>1</v>
       </c>
@@ -2034,10 +2023,10 @@
         <v>53</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" s="4">
         <v>1</v>
@@ -2046,7 +2035,7 @@
         <v>9602</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T6" s="2">
         <v>80</v>
@@ -2054,15 +2043,15 @@
       <c r="U6" s="2">
         <v>250</v>
       </c>
-      <c r="W6" s="8">
-        <f t="shared" ref="W6:W11" si="0">W5</f>
+      <c r="W6" s="2">
+        <f>W5</f>
         <v>1</v>
       </c>
       <c r="X6" s="2">
         <v>85</v>
       </c>
       <c r="Y6" s="2">
-        <f t="shared" ref="Y6:Y12" si="1">ROUND(Z6*0.5,0)</f>
+        <f>ROUND(Z6*0.5,0)</f>
         <v>86</v>
       </c>
       <c r="Z6" s="2">
@@ -2073,8 +2062,8 @@
         <v>50</v>
       </c>
       <c r="AC6" s="2" t="str">
-        <f>"9701|1|"&amp;AA6&amp;";9702|1|"&amp;AA6&amp;";9703|1|"&amp;AA6</f>
-        <v>9701|1|50;9702|1|50;9703|1|50</v>
+        <f>"9602|2|"&amp;AA6</f>
+        <v>9602|2|50</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:29">
@@ -2088,22 +2077,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="4">
         <v>100</v>
@@ -2112,10 +2101,10 @@
         <v>50</v>
       </c>
       <c r="L7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="N7" s="4">
         <v>3</v>
@@ -2127,7 +2116,7 @@
         <v>9603</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T7" s="2">
         <v>120</v>
@@ -2135,22 +2124,22 @@
       <c r="U7" s="2">
         <v>800</v>
       </c>
-      <c r="W7" s="8">
-        <f t="shared" si="0"/>
+      <c r="W7" s="2">
+        <f>W6</f>
         <v>1</v>
       </c>
       <c r="X7" s="2">
         <v>195</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Y7:Y12" si="0">ROUND(Z7*0.5,0)</f>
         <v>196</v>
       </c>
       <c r="Z7" s="2">
         <v>392</v>
       </c>
       <c r="AA7" s="2">
-        <f t="shared" ref="AA7:AA49" si="2">AA6</f>
+        <f>AA6</f>
         <v>50</v>
       </c>
       <c r="AC7" s="2" t="str">
@@ -2184,7 +2173,7 @@
         <v>43</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="5">
         <v>250</v>
@@ -2193,7 +2182,7 @@
         <v>80</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>46</v>
@@ -2208,7 +2197,7 @@
         <v>9604</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T8" s="2">
         <v>200</v>
@@ -2216,7 +2205,7 @@
       <c r="U8" s="2">
         <v>2400</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="2">
         <f>X15</f>
         <v>10</v>
       </c>
@@ -2224,7 +2213,7 @@
         <v>530</v>
       </c>
       <c r="Y8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>535</v>
       </c>
       <c r="Z8" s="2">
@@ -2250,22 +2239,22 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="J9" s="5">
         <v>250</v>
@@ -2274,7 +2263,7 @@
         <v>80</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>46</v>
@@ -2289,7 +2278,7 @@
         <v>9605</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="T9" s="2">
         <v>350</v>
@@ -2297,22 +2286,22 @@
       <c r="U9" s="2">
         <v>6000</v>
       </c>
-      <c r="W9" s="8">
-        <f t="shared" si="0"/>
+      <c r="W9" s="2">
+        <f>W8</f>
         <v>10</v>
       </c>
       <c r="X9" s="2">
         <v>1875</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1878</v>
       </c>
       <c r="Z9" s="2">
         <v>3756</v>
       </c>
       <c r="AA9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AA7:AA49" si="1">AA8</f>
         <v>85</v>
       </c>
       <c r="AC9" s="2" t="str">
@@ -2331,22 +2320,22 @@
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J10" s="5">
         <v>250</v>
@@ -2355,10 +2344,10 @@
         <v>80</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N10" s="5">
         <v>3</v>
@@ -2370,7 +2359,7 @@
         <v>9701</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="T10" s="2">
         <v>600</v>
@@ -2378,22 +2367,22 @@
       <c r="U10" s="2">
         <v>15000</v>
       </c>
-      <c r="W10" s="8">
-        <f t="shared" si="0"/>
+      <c r="W10" s="2">
+        <f>W9</f>
         <v>10</v>
       </c>
       <c r="X10" s="2">
         <v>6315</v>
       </c>
       <c r="Y10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6316</v>
       </c>
       <c r="Z10" s="2">
         <v>12631</v>
       </c>
       <c r="AA10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="AC10" s="2" t="str">
@@ -2412,22 +2401,22 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J11" s="5">
         <v>250</v>
@@ -2436,10 +2425,10 @@
         <v>80</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="N11" s="5">
         <v>3</v>
@@ -2451,7 +2440,7 @@
         <v>9702</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T11" s="2">
         <v>1200</v>
@@ -2459,30 +2448,30 @@
       <c r="U11" s="2">
         <v>60000</v>
       </c>
-      <c r="W11" s="8">
-        <f t="shared" si="0"/>
+      <c r="W11" s="2">
+        <f>W10</f>
         <v>10</v>
       </c>
       <c r="X11" s="2">
         <v>25785</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25789</v>
       </c>
       <c r="Z11" s="2">
         <v>51577</v>
       </c>
       <c r="AA11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="AB11" s="9"/>
+      <c r="AB11" s="8"/>
       <c r="AC11" s="2" t="str">
         <f>"9804|3|"&amp;AA11</f>
         <v>9804|3|85</v>
       </c>
-      <c r="AD11" s="9"/>
+      <c r="AD11" s="8"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:29">
       <c r="A12" s="4">
@@ -2510,7 +2499,7 @@
         <v>43</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="J12" s="4">
         <v>800</v>
@@ -2534,7 +2523,7 @@
         <v>9703</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T12" s="2">
         <v>2500</v>
@@ -2542,7 +2531,7 @@
       <c r="U12" s="2">
         <v>200000</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="2">
         <f>X16</f>
         <v>40</v>
       </c>
@@ -2550,7 +2539,7 @@
         <v>128285</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>128288</v>
       </c>
       <c r="Z12" s="2">
@@ -2576,22 +2565,22 @@
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="J13" s="4">
         <v>800</v>
@@ -2617,23 +2606,23 @@
       <c r="R13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="W13" s="8">
-        <f t="shared" ref="W13:W15" si="3">W12</f>
+      <c r="W13" s="2">
+        <f t="shared" ref="W13:W15" si="2">W12</f>
         <v>40</v>
       </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="AB13" s="9"/>
+      <c r="AB13" s="8"/>
       <c r="AC13" s="2" t="str">
         <f>"9602|2|"&amp;AA13</f>
         <v>9602|2|195</v>
       </c>
-      <c r="AD13" s="9"/>
+      <c r="AD13" s="8"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:29">
       <c r="A14" s="4">
@@ -2646,22 +2635,22 @@
         <v>3</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J14" s="4">
         <v>800</v>
@@ -2670,10 +2659,10 @@
         <v>120</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N14" s="4">
         <v>3</v>
@@ -2685,10 +2674,10 @@
         <v>9901</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W14" s="8">
-        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="X14" s="2">
@@ -2702,7 +2691,7 @@
         <v>4</v>
       </c>
       <c r="AA14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
       <c r="AC14" s="2" t="str">
@@ -2721,22 +2710,22 @@
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J15" s="4">
         <v>800</v>
@@ -2745,10 +2734,10 @@
         <v>120</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="N15" s="4">
         <v>3</v>
@@ -2760,10 +2749,10 @@
         <v>9902</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="W15" s="8">
-        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="X15" s="3">
@@ -2773,11 +2762,11 @@
         <v>20</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" ref="Z15:Z21" si="4">Y15-X15</f>
+        <f t="shared" ref="Z15:Z21" si="3">Y15-X15</f>
         <v>10</v>
       </c>
       <c r="AA15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
       <c r="AC15" s="2" t="str">
@@ -2811,7 +2800,7 @@
         <v>43</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J16" s="5">
         <v>2400</v>
@@ -2820,7 +2809,7 @@
         <v>200</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>46</v>
@@ -2835,9 +2824,9 @@
         <v>9903</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="W16" s="8">
+        <v>91</v>
+      </c>
+      <c r="W16" s="2">
         <f>X17</f>
         <v>90</v>
       </c>
@@ -2848,7 +2837,7 @@
         <v>60</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="AA16" s="2">
@@ -2871,22 +2860,22 @@
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J17" s="5">
         <v>2400</v>
@@ -2895,7 +2884,7 @@
         <v>200</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>46</v>
@@ -2906,8 +2895,8 @@
       <c r="O17" s="5">
         <v>90</v>
       </c>
-      <c r="W17" s="8">
-        <f t="shared" ref="W17:W20" si="5">W16</f>
+      <c r="W17" s="2">
+        <f t="shared" ref="W17:W20" si="4">W16</f>
         <v>90</v>
       </c>
       <c r="X17" s="2">
@@ -2917,11 +2906,11 @@
         <v>120</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="AA17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>530</v>
       </c>
       <c r="AC17" s="2" t="str">
@@ -2940,22 +2929,22 @@
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="J18" s="5">
         <v>2400</v>
@@ -2964,7 +2953,7 @@
         <v>200</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>46</v>
@@ -2976,19 +2965,19 @@
         <v>90</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R18" s="2">
         <v>1009</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="W18" s="8">
-        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="X18" s="2">
@@ -2998,11 +2987,11 @@
         <v>210</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AA18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>530</v>
       </c>
       <c r="AC18" s="2" t="str">
@@ -3021,22 +3010,22 @@
         <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J19" s="5">
         <v>2400</v>
@@ -3045,10 +3034,10 @@
         <v>200</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N19" s="5">
         <v>3</v>
@@ -3057,19 +3046,19 @@
         <v>90</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R19" s="2">
         <v>1011</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="W19" s="8">
-        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="X19" s="2">
@@ -3079,19 +3068,19 @@
         <v>300</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="AA19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>530</v>
       </c>
-      <c r="AB19" s="9"/>
+      <c r="AB19" s="8"/>
       <c r="AC19" s="2" t="str">
         <f>"9701|1|"&amp;AA19&amp;";9702|1|"&amp;AA19&amp;";9703|1|"&amp;AA19</f>
         <v>9701|1|530;9702|1|530;9703|1|530</v>
       </c>
-      <c r="AD19" s="9"/>
+      <c r="AD19" s="8"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:30">
       <c r="A20" s="5">
@@ -3104,22 +3093,22 @@
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J20" s="5">
         <v>2400</v>
@@ -3128,10 +3117,10 @@
         <v>200</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="N20" s="5">
         <v>3</v>
@@ -3140,19 +3129,19 @@
         <v>90</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R20" s="2">
         <v>1015</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="W20" s="8">
-        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="X20" s="2">
@@ -3162,19 +3151,19 @@
         <v>450</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="AA20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>530</v>
       </c>
-      <c r="AB20" s="9"/>
+      <c r="AB20" s="8"/>
       <c r="AC20" s="2" t="str">
         <f>"9804|3|"&amp;AA20</f>
         <v>9804|3|530</v>
       </c>
-      <c r="AD20" s="9"/>
+      <c r="AD20" s="8"/>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:30">
       <c r="A21" s="4">
@@ -3202,7 +3191,7 @@
         <v>43</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J21" s="4">
         <v>6000</v>
@@ -3211,7 +3200,7 @@
         <v>350</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>46</v>
@@ -3223,18 +3212,18 @@
         <v>160</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R21" s="2">
         <v>1019</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="W21" s="8">
+        <v>113</v>
+      </c>
+      <c r="W21" s="2">
         <f>X18</f>
         <v>160</v>
       </c>
@@ -3245,19 +3234,19 @@
         <v>600</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="AA21" s="2">
         <f>X9</f>
         <v>1875</v>
       </c>
-      <c r="AB21" s="9"/>
+      <c r="AB21" s="8"/>
       <c r="AC21" s="2" t="str">
         <f>"9605|2|"&amp;AA21</f>
         <v>9605|2|1875</v>
       </c>
-      <c r="AD21" s="9"/>
+      <c r="AD21" s="8"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:29">
       <c r="A22" s="4">
@@ -3270,22 +3259,22 @@
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J22" s="4">
         <v>6000</v>
@@ -3294,7 +3283,7 @@
         <v>350</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>46</v>
@@ -3306,26 +3295,26 @@
         <v>160</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R22" s="2">
         <v>1022</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="W22" s="8">
-        <f t="shared" ref="W22:W26" si="6">W21</f>
+        <v>116</v>
+      </c>
+      <c r="W22" s="2">
+        <f t="shared" ref="W22:W26" si="5">W21</f>
         <v>160</v>
       </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1875</v>
       </c>
       <c r="AC22" s="2" t="str">
@@ -3344,22 +3333,22 @@
         <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="J23" s="4">
         <v>6000</v>
@@ -3368,7 +3357,7 @@
         <v>350</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>46</v>
@@ -3379,20 +3368,20 @@
       <c r="O23" s="4">
         <v>160</v>
       </c>
-      <c r="W23" s="8">
-        <f t="shared" si="6"/>
+      <c r="W23" s="2">
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="AA23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1875</v>
       </c>
-      <c r="AB23" s="9"/>
+      <c r="AB23" s="8"/>
       <c r="AC23" s="2" t="str">
         <f>"9602|2|"&amp;AA23</f>
         <v>9602|2|1875</v>
       </c>
-      <c r="AD23" s="9"/>
+      <c r="AD23" s="8"/>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:30">
       <c r="A24" s="4">
@@ -3405,22 +3394,22 @@
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J24" s="4">
         <v>6000</v>
@@ -3429,7 +3418,7 @@
         <v>350</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>46</v>
@@ -3441,25 +3430,25 @@
         <v>160</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="W24" s="8">
-        <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+      <c r="W24" s="2">
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1875</v>
       </c>
-      <c r="AB24" s="9"/>
+      <c r="AB24" s="8"/>
       <c r="AC24" s="2" t="str">
         <f>"9601|2|"&amp;AA24</f>
         <v>9601|2|1875</v>
       </c>
-      <c r="AD24" s="9"/>
+      <c r="AD24" s="8"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:29">
       <c r="A25" s="4">
@@ -3472,22 +3461,22 @@
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J25" s="4">
         <v>6000</v>
@@ -3496,10 +3485,10 @@
         <v>350</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N25" s="4">
         <v>3</v>
@@ -3508,17 +3497,17 @@
         <v>160</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W25" s="8">
-        <f t="shared" si="6"/>
+        <v>127</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1875</v>
       </c>
       <c r="AC25" s="2" t="str">
@@ -3537,22 +3526,22 @@
         <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="J26" s="4">
         <v>6000</v>
@@ -3561,10 +3550,10 @@
         <v>350</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="N26" s="4">
         <v>3</v>
@@ -3573,14 +3562,14 @@
         <v>160</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="W26" s="8">
-        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="AA26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1875</v>
       </c>
       <c r="AC26" s="2" t="str">
@@ -3614,7 +3603,7 @@
         <v>43</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J27" s="5">
         <v>15000</v>
@@ -3623,7 +3612,7 @@
         <v>600</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>46</v>
@@ -3635,9 +3624,9 @@
         <v>240</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="W27" s="8">
+        <v>133</v>
+      </c>
+      <c r="W27" s="2">
         <f>X19</f>
         <v>240</v>
       </c>
@@ -3661,22 +3650,22 @@
         <v>6</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J28" s="5">
         <v>15000</v>
@@ -3685,7 +3674,7 @@
         <v>600</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>46</v>
@@ -3697,14 +3686,14 @@
         <v>240</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="W28" s="8">
-        <f t="shared" ref="W28:W33" si="7">W27</f>
+        <v>135</v>
+      </c>
+      <c r="W28" s="2">
+        <f t="shared" ref="W28:W33" si="6">W27</f>
         <v>240</v>
       </c>
       <c r="AA28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6315</v>
       </c>
       <c r="AC28" s="2" t="str">
@@ -3723,22 +3712,22 @@
         <v>6</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="J29" s="5">
         <v>15000</v>
@@ -3747,7 +3736,7 @@
         <v>600</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>46</v>
@@ -3759,23 +3748,23 @@
         <v>240</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R29" s="2">
         <v>2001</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="W29" s="8">
-        <f t="shared" si="7"/>
+        <v>138</v>
+      </c>
+      <c r="W29" s="2">
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="AA29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6315</v>
       </c>
       <c r="AC29" s="2" t="str">
@@ -3794,22 +3783,22 @@
         <v>6</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J30" s="5">
         <v>15000</v>
@@ -3818,7 +3807,7 @@
         <v>600</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>46</v>
@@ -3830,23 +3819,23 @@
         <v>240</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R30" s="2">
         <v>2002</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="W30" s="8">
-        <f t="shared" si="7"/>
+        <v>146</v>
+      </c>
+      <c r="W30" s="2">
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="AA30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6315</v>
       </c>
       <c r="AC30" s="2" t="str">
@@ -3865,22 +3854,22 @@
         <v>6</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J31" s="5">
         <v>15000</v>
@@ -3889,7 +3878,7 @@
         <v>600</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>46</v>
@@ -3901,23 +3890,23 @@
         <v>240</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R31" s="2">
         <v>3001</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="W31" s="8">
-        <f t="shared" si="7"/>
+        <v>149</v>
+      </c>
+      <c r="W31" s="2">
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="AA31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6315</v>
       </c>
       <c r="AC31" s="2" t="str">
@@ -3936,22 +3925,22 @@
         <v>6</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J32" s="5">
         <v>15000</v>
@@ -3960,10 +3949,10 @@
         <v>600</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N32" s="5">
         <v>3</v>
@@ -3972,34 +3961,34 @@
         <v>240</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R32" s="2">
         <v>3002</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="W32" s="8">
-        <f t="shared" si="7"/>
+        <v>153</v>
+      </c>
+      <c r="W32" s="2">
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6315</v>
       </c>
-      <c r="AB32" s="9"/>
+      <c r="AB32" s="8"/>
       <c r="AC32" s="2" t="str">
         <f>"9701|1|"&amp;AA32&amp;";9702|1|"&amp;AA32&amp;";9703|1|"&amp;AA32</f>
         <v>9701|1|6315;9702|1|6315;9703|1|6315</v>
       </c>
-      <c r="AD32" s="9"/>
+      <c r="AD32" s="8"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:30">
       <c r="A33" s="5">
@@ -4012,22 +4001,22 @@
         <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="J33" s="5">
         <v>15000</v>
@@ -4036,10 +4025,10 @@
         <v>600</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="N33" s="5">
         <v>3</v>
@@ -4048,34 +4037,34 @@
         <v>240</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R33" s="2">
         <v>3003</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="W33" s="8">
-        <f t="shared" si="7"/>
+        <v>157</v>
+      </c>
+      <c r="W33" s="2">
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6315</v>
       </c>
-      <c r="AB33" s="9"/>
+      <c r="AB33" s="8"/>
       <c r="AC33" s="2" t="str">
         <f>"9804|3|"&amp;AA33</f>
         <v>9804|3|6315</v>
       </c>
-      <c r="AD33" s="9"/>
+      <c r="AD33" s="8"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:30">
       <c r="A34" s="4">
@@ -4103,7 +4092,7 @@
         <v>43</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="J34" s="4">
         <v>60000</v>
@@ -4112,7 +4101,7 @@
         <v>1200</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>46</v>
@@ -4124,18 +4113,18 @@
         <v>360</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R34" s="2">
         <v>3101</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="W34" s="8">
+        <v>161</v>
+      </c>
+      <c r="W34" s="2">
         <f>X20</f>
         <v>360</v>
       </c>
@@ -4146,12 +4135,12 @@
         <f>X11</f>
         <v>25785</v>
       </c>
-      <c r="AB34" s="9"/>
+      <c r="AB34" s="8"/>
       <c r="AC34" s="2" t="str">
         <f>"9605|2|"&amp;AA34</f>
         <v>9605|2|25785</v>
       </c>
-      <c r="AD34" s="9"/>
+      <c r="AD34" s="8"/>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:30">
       <c r="A35" s="4">
@@ -4164,22 +4153,22 @@
         <v>7</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J35" s="4">
         <v>60000</v>
@@ -4188,7 +4177,7 @@
         <v>1200</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>46</v>
@@ -4200,34 +4189,34 @@
         <v>360</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R35" s="2">
         <v>3102</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="W35" s="8">
-        <f t="shared" ref="W35:W41" si="8">W34</f>
+        <v>164</v>
+      </c>
+      <c r="W35" s="2">
+        <f t="shared" ref="W35:W41" si="7">W34</f>
         <v>360</v>
       </c>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25785</v>
       </c>
-      <c r="AB35" s="9"/>
+      <c r="AB35" s="8"/>
       <c r="AC35" s="2" t="str">
         <f>"9604|2|"&amp;AA35</f>
         <v>9604|2|25785</v>
       </c>
-      <c r="AD35" s="9"/>
+      <c r="AD35" s="8"/>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:30">
       <c r="A36" s="4">
@@ -4240,22 +4229,22 @@
         <v>7</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="J36" s="4">
         <v>60000</v>
@@ -4264,7 +4253,7 @@
         <v>1200</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>46</v>
@@ -4275,20 +4264,20 @@
       <c r="O36" s="4">
         <v>360</v>
       </c>
-      <c r="W36" s="8">
-        <f t="shared" si="8"/>
+      <c r="W36" s="2">
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="AA36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25785</v>
       </c>
-      <c r="AB36" s="9"/>
+      <c r="AB36" s="8"/>
       <c r="AC36" s="2" t="str">
         <f>"9602|2|"&amp;AA36</f>
         <v>9602|2|25785</v>
       </c>
-      <c r="AD36" s="9"/>
+      <c r="AD36" s="8"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:29">
       <c r="A37" s="4">
@@ -4301,22 +4290,22 @@
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J37" s="4">
         <v>60000</v>
@@ -4325,7 +4314,7 @@
         <v>1200</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>46</v>
@@ -4336,15 +4325,15 @@
       <c r="O37" s="4">
         <v>360</v>
       </c>
-      <c r="W37" s="8">
-        <f t="shared" si="8"/>
+      <c r="W37" s="2">
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25785</v>
       </c>
       <c r="AC37" s="2" t="str">
@@ -4363,22 +4352,22 @@
         <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J38" s="4">
         <v>60000</v>
@@ -4387,7 +4376,7 @@
         <v>1200</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>46</v>
@@ -4398,35 +4387,23 @@
       <c r="O38" s="4">
         <v>360</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="W38" s="8">
-        <f t="shared" si="8"/>
+      <c r="W38" s="2">
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25785</v>
       </c>
-      <c r="AB38" s="9"/>
+      <c r="AB38" s="8"/>
       <c r="AC38" s="2" t="str">
         <f>"9601|2|"&amp;AA38</f>
         <v>9601|2|25785</v>
       </c>
-      <c r="AD38" s="9"/>
+      <c r="AD38" s="8"/>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:30">
       <c r="A39" s="4">
@@ -4439,22 +4416,22 @@
         <v>7</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J39" s="4">
         <v>60000</v>
@@ -4463,10 +4440,10 @@
         <v>1200</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N39" s="4">
         <v>3</v>
@@ -4474,32 +4451,20 @@
       <c r="O39" s="4">
         <v>360</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="W39" s="8">
-        <f t="shared" si="8"/>
+      <c r="W39" s="2">
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="AA39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25785</v>
       </c>
-      <c r="AB39" s="9"/>
+      <c r="AB39" s="8"/>
       <c r="AC39" s="2" t="str">
         <f>"9701|1|"&amp;AA39&amp;";9702|1|"&amp;AA39&amp;";9703|1|"&amp;AA39</f>
         <v>9701|1|25785;9702|1|25785;9703|1|25785</v>
       </c>
-      <c r="AD39" s="9"/>
+      <c r="AD39" s="8"/>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:29">
       <c r="A40" s="4">
@@ -4512,22 +4477,22 @@
         <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J40" s="4">
         <v>60000</v>
@@ -4536,10 +4501,10 @@
         <v>1200</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="N40" s="4">
         <v>3</v>
@@ -4547,21 +4512,12 @@
       <c r="O40" s="4">
         <v>360</v>
       </c>
-      <c r="R40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="W40" s="8">
-        <f t="shared" si="8"/>
+      <c r="W40" s="2">
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="AA40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25785</v>
       </c>
       <c r="AC40" s="2" t="str">
@@ -4580,22 +4536,22 @@
         <v>7</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J41" s="4">
         <v>60000</v>
@@ -4604,10 +4560,10 @@
         <v>1200</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N41" s="4">
         <v>5</v>
@@ -4615,21 +4571,12 @@
       <c r="O41" s="4">
         <v>360</v>
       </c>
-      <c r="R41" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="W41" s="8">
-        <f t="shared" si="8"/>
+      <c r="W41" s="2">
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="AA41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25785</v>
       </c>
       <c r="AC41" s="2" t="str">
@@ -4663,7 +4610,7 @@
         <v>43</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="J42" s="5">
         <v>200000</v>
@@ -4672,7 +4619,7 @@
         <v>2500</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>46</v>
@@ -4683,16 +4630,7 @@
       <c r="O42" s="5">
         <v>480</v>
       </c>
-      <c r="R42" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="W42" s="8">
+      <c r="W42" s="2">
         <f>X21</f>
         <v>480</v>
       </c>
@@ -4716,22 +4654,22 @@
         <v>8</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J43" s="5">
         <v>200000</v>
@@ -4740,7 +4678,7 @@
         <v>2500</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M43" s="5" t="s">
         <v>46</v>
@@ -4751,21 +4689,12 @@
       <c r="O43" s="5">
         <v>480</v>
       </c>
-      <c r="R43" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="W43" s="8">
-        <f t="shared" ref="W43:W49" si="9">W42</f>
+      <c r="W43" s="2">
+        <f t="shared" ref="W43:W49" si="8">W42</f>
         <v>480</v>
       </c>
       <c r="AA43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>128285</v>
       </c>
       <c r="AC43" s="2" t="str">
@@ -4784,22 +4713,22 @@
         <v>8</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="J44" s="5">
         <v>200000</v>
@@ -4808,7 +4737,7 @@
         <v>2500</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>46</v>
@@ -4819,21 +4748,12 @@
       <c r="O44" s="5">
         <v>480</v>
       </c>
-      <c r="R44" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="W44" s="8">
-        <f t="shared" si="9"/>
+      <c r="W44" s="2">
+        <f t="shared" si="8"/>
         <v>480</v>
       </c>
       <c r="AA44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>128285</v>
       </c>
       <c r="AC44" s="2" t="str">
@@ -4852,22 +4772,22 @@
         <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J45" s="5">
         <v>200000</v>
@@ -4876,7 +4796,7 @@
         <v>2500</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>46</v>
@@ -4887,24 +4807,15 @@
       <c r="O45" s="5">
         <v>480</v>
       </c>
-      <c r="R45" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="W45" s="8">
-        <f t="shared" si="9"/>
+      <c r="W45" s="2">
+        <f t="shared" si="8"/>
         <v>480</v>
       </c>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
       <c r="AA45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>128285</v>
       </c>
       <c r="AC45" s="2" t="str">
@@ -4923,22 +4834,22 @@
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J46" s="5">
         <v>200000</v>
@@ -4947,7 +4858,7 @@
         <v>2500</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>46</v>
@@ -4958,35 +4869,23 @@
       <c r="O46" s="5">
         <v>480</v>
       </c>
-      <c r="R46" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="U46" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="W46" s="8">
-        <f t="shared" si="9"/>
+      <c r="W46" s="2">
+        <f t="shared" si="8"/>
         <v>480</v>
       </c>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>128285</v>
       </c>
-      <c r="AB46" s="9"/>
+      <c r="AB46" s="8"/>
       <c r="AC46" s="2" t="str">
         <f>"9601|2|"&amp;AA46</f>
         <v>9601|2|128285</v>
       </c>
-      <c r="AD46" s="9"/>
+      <c r="AD46" s="8"/>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:30">
       <c r="A47" s="5">
@@ -4999,22 +4898,22 @@
         <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J47" s="5">
         <v>200000</v>
@@ -5023,10 +4922,10 @@
         <v>2500</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N47" s="5">
         <v>3</v>
@@ -5034,35 +4933,23 @@
       <c r="O47" s="5">
         <v>480</v>
       </c>
-      <c r="R47" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="W47" s="8">
-        <f t="shared" si="9"/>
+      <c r="W47" s="2">
+        <f t="shared" si="8"/>
         <v>480</v>
       </c>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>128285</v>
       </c>
-      <c r="AB47" s="9"/>
+      <c r="AB47" s="8"/>
       <c r="AC47" s="2" t="str">
         <f>"9701|1|"&amp;AA47&amp;";9702|1|"&amp;AA47&amp;";9703|1|"&amp;AA47</f>
         <v>9701|1|128285;9702|1|128285;9703|1|128285</v>
       </c>
-      <c r="AD47" s="9"/>
+      <c r="AD47" s="8"/>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:30">
       <c r="A48" s="5">
@@ -5075,22 +4962,22 @@
         <v>8</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="J48" s="5">
         <v>200000</v>
@@ -5099,10 +4986,10 @@
         <v>2500</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="N48" s="5">
         <v>3</v>
@@ -5110,23 +4997,23 @@
       <c r="O48" s="5">
         <v>480</v>
       </c>
-      <c r="W48" s="8">
-        <f t="shared" si="9"/>
+      <c r="W48" s="2">
+        <f t="shared" si="8"/>
         <v>480</v>
       </c>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
       <c r="AA48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>128285</v>
       </c>
-      <c r="AB48" s="9"/>
+      <c r="AB48" s="8"/>
       <c r="AC48" s="2" t="str">
         <f>"9804|3|"&amp;AA48</f>
         <v>9804|3|128285</v>
       </c>
-      <c r="AD48" s="9"/>
+      <c r="AD48" s="8"/>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:30">
       <c r="A49" s="5">
@@ -5139,22 +5026,22 @@
         <v>8</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="J49" s="5">
         <v>200000</v>
@@ -5163,10 +5050,10 @@
         <v>2500</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N49" s="5">
         <v>5</v>
@@ -5174,23 +5061,23 @@
       <c r="O49" s="5">
         <v>480</v>
       </c>
-      <c r="W49" s="8">
-        <f t="shared" si="9"/>
+      <c r="W49" s="2">
+        <f t="shared" si="8"/>
         <v>480</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>128285</v>
       </c>
-      <c r="AB49" s="9"/>
+      <c r="AB49" s="8"/>
       <c r="AC49" s="2" t="str">
         <f>"9901|1|"&amp;AA49&amp;";9902|2|"&amp;AA49&amp;";9903|2|"&amp;AA49</f>
         <v>9901|1|128285;9902|2|128285;9903|2|128285</v>
       </c>
-      <c r="AD49" s="9"/>
+      <c r="AD49" s="8"/>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:26">
       <c r="A50" s="6">
@@ -5218,7 +5105,7 @@
         <v>43</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="J50" s="6">
         <v>100</v>
@@ -5227,7 +5114,7 @@
         <v>50</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="M50" s="6" t="s">
         <v>46</v>
@@ -5253,22 +5140,22 @@
         <v>0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>43</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="J51" s="6">
         <v>100</v>
@@ -5277,10 +5164,10 @@
         <v>50</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N51" s="6">
         <v>2</v>
@@ -5291,6 +5178,132 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
+    </row>
+    <row r="56" spans="8:11">
+      <c r="H56" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="8:11">
+      <c r="H57" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="8:11">
+      <c r="H58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="8:11">
+      <c r="H59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="8:11">
+      <c r="H60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="8:11">
+      <c r="H61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="8:11">
+      <c r="H62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="8:11">
+      <c r="H63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="8:11">
+      <c r="H64" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="8:11">
+      <c r="H65" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="81" spans="16:16">
       <c r="P81" s="3"/>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -211,13 +211,13 @@
     <t>Item|2001|1|20;Coin|60|60</t>
   </si>
   <si>
-    <t>9605|2|85</t>
+    <t>9605|2|70</t>
   </si>
   <si>
     <t>蛇</t>
   </si>
   <si>
-    <t>9602|2|85</t>
+    <t>9602|2|70</t>
   </si>
   <si>
     <t>狼</t>
@@ -226,7 +226,7 @@
     <t>Food|10|30;Coin|60|30</t>
   </si>
   <si>
-    <t>9701|1|85;9702|1|85;9703|1|85</t>
+    <t>9701|1|70;9702|1|70;9703|1|70</t>
   </si>
   <si>
     <t>座山雕|云中雁|金钱豹|双头蛇|林中虎</t>
@@ -247,7 +247,7 @@
     <t>Coin|60|70;Item|3001|1|30</t>
   </si>
   <si>
-    <t>9804|3|85</t>
+    <t>9804|3|70</t>
   </si>
   <si>
     <t>刺客</t>
@@ -259,10 +259,10 @@
     <t>Item|2001|1|20;Coin|80|60</t>
   </si>
   <si>
-    <t>9605|2|195</t>
-  </si>
-  <si>
-    <t>9602|2|195</t>
+    <t>9605|2|135</t>
+  </si>
+  <si>
+    <t>9602|2|135</t>
   </si>
   <si>
     <t>刺客草上飞|刺客小旋风|刺客鼓上蚤</t>
@@ -271,7 +271,7 @@
     <t>Food|10|30;Coin|80|30</t>
   </si>
   <si>
-    <t>9701|1|195;9702|1|195;9703|1|195</t>
+    <t>9701|1|135;9702|1|135;9703|1|135</t>
   </si>
   <si>
     <t>倭寇半藏|倭寇佐助|倭寇一郎|倭寇小五郎|倭寇龙马</t>
@@ -280,7 +280,7 @@
     <t>Coin|80|70;Item|3001|1|30</t>
   </si>
   <si>
-    <t>9804|3|195</t>
+    <t>9804|3|135</t>
   </si>
   <si>
     <t>倭寇花屋|倭寇坂东|倭寇朱吉|倭寇耕二|倭寇小次郎</t>
@@ -289,7 +289,7 @@
     <t>Item|2001|1|20;Coin|100|60</t>
   </si>
   <si>
-    <t>9605|2|530</t>
+    <t>9605|2|320</t>
   </si>
   <si>
     <t>倭寇以藏|倭寇新兵卫|倭寇半次郎|倭寇彦斋|倭寇武藏</t>
@@ -310,10 +310,10 @@
     <t>Item|1015|2_3|70;Item|1022|1_2|30</t>
   </si>
   <si>
-    <t>9604|2|530</t>
-  </si>
-  <si>
-    <t>9602|2|530</t>
+    <t>9604|2|320</t>
+  </si>
+  <si>
+    <t>9602|2|320</t>
   </si>
   <si>
     <t>Item</t>
@@ -328,7 +328,7 @@
     <t>Food|20|30;Coin|100|30</t>
   </si>
   <si>
-    <t>9701|1|530;9702|1|530;9703|1|530</t>
+    <t>9701|1|320;9702|1|320;9703|1|320</t>
   </si>
   <si>
     <t>bearspaw</t>
@@ -340,7 +340,7 @@
     <t>Coin|100|70;Item|3001|1|15;Item|3002|1|15</t>
   </si>
   <si>
-    <t>9804|3|530</t>
+    <t>9804|3|320</t>
   </si>
   <si>
     <t>snakegall</t>
@@ -352,7 +352,7 @@
     <t>Item|2002|1|20;Coin|120|60</t>
   </si>
   <si>
-    <t>9605|2|1875</t>
+    <t>9605|2|940</t>
   </si>
   <si>
     <t>antier</t>
@@ -361,7 +361,7 @@
     <t>鹿茸</t>
   </si>
   <si>
-    <t>9604|2|1875</t>
+    <t>9604|2|940</t>
   </si>
   <si>
     <t>poisonfang</t>
@@ -370,7 +370,7 @@
     <t>毒牙</t>
   </si>
   <si>
-    <t>9602|2|1875</t>
+    <t>9602|2|940</t>
   </si>
   <si>
     <t>bear</t>
@@ -388,7 +388,7 @@
     <t>Item|1011|3_4|100</t>
   </si>
   <si>
-    <t>9601|2|1875</t>
+    <t>9601|2|940</t>
   </si>
   <si>
     <t>Food</t>
@@ -397,7 +397,7 @@
     <t>Food|20|30;Coin|120|30</t>
   </si>
   <si>
-    <t>9701|1|1875;9702|1|1875;9703|1|1875</t>
+    <t>9701|1|940;9702|1|940;9703|1|940</t>
   </si>
   <si>
     <t>Coin</t>
@@ -406,7 +406,7 @@
     <t>Coin|120|70;Item|3001|1|15;Item|3002|1|15</t>
   </si>
   <si>
-    <t>9804|3|1875</t>
+    <t>9804|3|940</t>
   </si>
   <si>
     <t>Equip</t>
@@ -415,19 +415,19 @@
     <t>Item|2002|1|20;Coin|150|60</t>
   </si>
   <si>
-    <t>9605|2|6315</t>
+    <t>9605|2|2525</t>
   </si>
   <si>
     <t>Kongfu</t>
   </si>
   <si>
-    <t>9604|2|6315</t>
+    <t>9604|2|2525</t>
   </si>
   <si>
     <t>Medicine</t>
   </si>
   <si>
-    <t>9602|2|6315</t>
+    <t>9602|2|2525</t>
   </si>
   <si>
     <t>SilverOlder</t>
@@ -451,7 +451,7 @@
     <t>Item|1019|3_5|100</t>
   </si>
   <si>
-    <t>9603|2|6315</t>
+    <t>9603|2|2525</t>
   </si>
   <si>
     <t>GoldOlder</t>
@@ -460,7 +460,7 @@
     <t>金牌招募令</t>
   </si>
   <si>
-    <t>9601|2|6315</t>
+    <t>9601|2|2525</t>
   </si>
   <si>
     <t>Malachite</t>
@@ -472,7 +472,7 @@
     <t>Food|30|30;Coin|150|30</t>
   </si>
   <si>
-    <t>9701|1|6315;9702|1|6315;9703|1|6315</t>
+    <t>9701|1|2525;9702|1|2525;9703|1|2525</t>
   </si>
   <si>
     <t>Agate</t>
@@ -484,7 +484,7 @@
     <t>Coin|150|70;Item|3001|1|15;Item|3002|1|15</t>
   </si>
   <si>
-    <t>9804|3|6315</t>
+    <t>9804|3|2525</t>
   </si>
   <si>
     <t>Crystal</t>
@@ -496,7 +496,7 @@
     <t>Item|2002|1|20;Coin|180|60</t>
   </si>
   <si>
-    <t>9605|2|25785</t>
+    <t>9605|2|10315</t>
   </si>
   <si>
     <t>GoldenThread</t>
@@ -505,7 +505,7 @@
     <t>金丝</t>
   </si>
   <si>
-    <t>9604|2|25785</t>
+    <t>9604|2|10315</t>
   </si>
   <si>
     <t>DragonScales</t>
@@ -514,25 +514,25 @@
     <t>龙鳞</t>
   </si>
   <si>
-    <t>9602|2|25785</t>
-  </si>
-  <si>
-    <t>9603|2|25785</t>
-  </si>
-  <si>
-    <t>9601|2|25785</t>
+    <t>9602|2|10315</t>
+  </si>
+  <si>
+    <t>9603|2|10315</t>
+  </si>
+  <si>
+    <t>9601|2|10315</t>
   </si>
   <si>
     <t>Food|30|30;Coin|180|30</t>
   </si>
   <si>
-    <t>9701|1|25785;9702|1|25785;9703|1|25785</t>
+    <t>9701|1|10315;9702|1|10315;9703|1|10315</t>
   </si>
   <si>
     <t>Coin|180|70;Item|3002|1|15;Item|3003|1|15</t>
   </si>
   <si>
-    <t>9804|3|25785</t>
+    <t>9804|3|10315</t>
   </si>
   <si>
     <t>wokou1</t>
@@ -550,7 +550,7 @@
     <t>Coin|180|70;Item|3102|1_2|30</t>
   </si>
   <si>
-    <t>9901|1|25785;9902|2|25785;9903|2|25785</t>
+    <t>9901|1|10315;9902|2|10315;9903|2|10315</t>
   </si>
   <si>
     <t>倭寇</t>
@@ -559,37 +559,37 @@
     <t>Item|2002|1|20;Coin|250|60</t>
   </si>
   <si>
-    <t>9605|2|128285</t>
-  </si>
-  <si>
-    <t>9604|2|128285</t>
-  </si>
-  <si>
-    <t>9602|2|128285</t>
-  </si>
-  <si>
-    <t>9603|2|128285</t>
-  </si>
-  <si>
-    <t>9601|2|128285</t>
+    <t>9605|2|51315</t>
+  </si>
+  <si>
+    <t>9604|2|51315</t>
+  </si>
+  <si>
+    <t>9602|2|51315</t>
+  </si>
+  <si>
+    <t>9603|2|51315</t>
+  </si>
+  <si>
+    <t>9601|2|51315</t>
   </si>
   <si>
     <t>Food|30|30;Coin|250|30</t>
   </si>
   <si>
-    <t>9701|1|128285;9702|1|128285;9703|1|128285</t>
+    <t>9701|1|51315;9702|1|51315;9703|1|51315</t>
   </si>
   <si>
     <t>Coin|250|70;Item|3002|1|15;Item|3003|1|15</t>
   </si>
   <si>
-    <t>9804|3|128285</t>
+    <t>9804|3|51315</t>
   </si>
   <si>
     <t>Coin|250|70;Item|3101|1_2|15;Item|3102|1_2|15</t>
   </si>
   <si>
-    <t>9901|1|128285;9902|2|128285;9903|2|128285</t>
+    <t>9901|1|51315;9902|2|51315;9903|2|51315</t>
   </si>
   <si>
     <t>Item|2001|1|100</t>
@@ -633,10 +633,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21">
@@ -655,8 +655,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,9 +694,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,6 +717,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -702,23 +747,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,21 +786,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,45 +794,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,13 +832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,7 +850,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +880,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,7 +982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,115 +994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,37 +1041,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,6 +1086,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1118,23 +1113,28 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,10 +1144,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1156,140 +1156,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,6 +1300,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1312,7 +1315,9 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1633,12 +1638,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD81"/>
+  <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1656,12 +1661,14 @@
     <col min="13" max="13" width="9.875" style="3" customWidth="1"/>
     <col min="14" max="15" width="8.83333333333333" style="3"/>
     <col min="16" max="23" width="8.83333333333333" style="2"/>
-    <col min="24" max="27" width="8.83333333333333" style="3"/>
-    <col min="29" max="29" width="40.375" style="3" customWidth="1"/>
-    <col min="31" max="16384" width="8.83333333333333" style="3"/>
+    <col min="24" max="28" width="8.83333333333333" style="3"/>
+    <col min="29" max="29" width="8.83333333333333" style="4"/>
+    <col min="30" max="30" width="40.375" style="3" customWidth="1"/>
+    <col min="31" max="31" width="8.83333333333333" style="4"/>
+    <col min="32" max="16384" width="8.83333333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:29">
+    <row r="1" s="1" customFormat="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1707,30 +1714,31 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7" t="s">
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7" t="s">
+      <c r="V1" s="8"/>
+      <c r="W1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AC1" s="1" t="s">
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AD1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:26">
+    <row r="2" s="1" customFormat="1" spans="1:27">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1776,19 +1784,20 @@
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:26">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:27">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1834,19 +1843,20 @@
       <c r="O3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:26">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:27">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1892,62 +1902,63 @@
       <c r="O4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:29">
-      <c r="A5" s="4">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:30">
+      <c r="A5" s="5">
         <v>101</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>100</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>50</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>2</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="5">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
@@ -1970,65 +1981,68 @@
         <v>50</v>
       </c>
       <c r="Y5" s="2">
-        <f>ROUND(Z5*0.5,0)</f>
+        <f>ROUND(Z5*AA5,0)</f>
         <v>50</v>
       </c>
       <c r="Z5" s="2">
         <v>100</v>
       </c>
       <c r="AA5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AB5" s="2">
         <f>X5</f>
         <v>50</v>
       </c>
-      <c r="AC5" s="2" t="str">
-        <f>"9605|2|"&amp;AA5</f>
+      <c r="AD5" s="2" t="str">
+        <f>"9605|2|"&amp;AB5</f>
         <v>9605|2|50</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:29">
-      <c r="A6" s="4">
+    <row r="6" s="2" customFormat="1" spans="1:30">
+      <c r="A6" s="5">
         <v>102</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>100</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <v>50</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>2</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="5">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
@@ -2048,68 +2062,71 @@
         <v>1</v>
       </c>
       <c r="X6" s="2">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="Y6" s="2">
-        <f>ROUND(Z6*0.5,0)</f>
-        <v>86</v>
+        <f t="shared" ref="Y6:Y12" si="0">ROUND(Z6*AA6,0)</f>
+        <v>69</v>
       </c>
       <c r="Z6" s="2">
         <v>172</v>
       </c>
       <c r="AA6" s="2">
-        <f>AA5</f>
+        <v>0.4</v>
+      </c>
+      <c r="AB6" s="2">
+        <f>AB5</f>
         <v>50</v>
       </c>
-      <c r="AC6" s="2" t="str">
-        <f>"9602|2|"&amp;AA6</f>
+      <c r="AD6" s="2" t="str">
+        <f>"9602|2|"&amp;AB6</f>
         <v>9602|2|50</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:29">
-      <c r="A7" s="4">
+    <row r="7" s="2" customFormat="1" spans="1:30">
+      <c r="A7" s="5">
         <v>103</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="5">
         <v>100</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <v>50</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>3</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="5">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
@@ -2129,69 +2146,72 @@
         <v>1</v>
       </c>
       <c r="X7" s="2">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" ref="Y7:Y12" si="0">ROUND(Z7*0.5,0)</f>
-        <v>196</v>
+        <f t="shared" si="0"/>
+        <v>137</v>
       </c>
       <c r="Z7" s="2">
         <v>392</v>
       </c>
       <c r="AA7" s="2">
-        <f>AA6</f>
+        <v>0.35</v>
+      </c>
+      <c r="AB7" s="2">
+        <f>AB6</f>
         <v>50</v>
       </c>
-      <c r="AC7" s="2" t="str">
-        <f>"9804|3|"&amp;AA7</f>
-        <v>9804|3|50</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:29">
-      <c r="A8" s="5">
+      <c r="AD7" s="2" t="str">
+        <f>"9701|1|"&amp;AB7&amp;";9702|1|"&amp;AB7&amp;";9703|1|"&amp;AB7</f>
+        <v>9701|1|50;9702|1|50;9703|1|50</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:30">
+      <c r="A8" s="6">
         <v>201</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>250</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>80</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="6">
         <v>2</v>
       </c>
-      <c r="O8" s="5">
-        <v>10</v>
+      <c r="O8" s="6">
+        <v>5</v>
       </c>
       <c r="Q8" s="2">
         <v>9604</v>
@@ -2207,72 +2227,75 @@
       </c>
       <c r="W8" s="2">
         <f>X15</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X8" s="2">
-        <v>530</v>
+        <v>320</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="0"/>
-        <v>535</v>
+        <v>321</v>
       </c>
       <c r="Z8" s="2">
         <v>1070</v>
       </c>
       <c r="AA8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AB8" s="2">
         <f>X6</f>
-        <v>85</v>
-      </c>
-      <c r="AC8" s="2" t="str">
-        <f>"9605|2|"&amp;AA8</f>
-        <v>9605|2|85</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:29">
-      <c r="A9" s="5">
+        <v>70</v>
+      </c>
+      <c r="AD8" s="2" t="str">
+        <f>"9605|2|"&amp;AB8</f>
+        <v>9605|2|70</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:30">
+      <c r="A9" s="6">
         <v>202</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>250</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>80</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="6">
         <v>2</v>
       </c>
-      <c r="O9" s="5">
-        <v>10</v>
+      <c r="O9" s="6">
+        <v>5</v>
       </c>
       <c r="Q9" s="2">
         <v>9605</v>
@@ -2288,72 +2311,75 @@
       </c>
       <c r="W9" s="2">
         <f>W8</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X9" s="2">
-        <v>1875</v>
+        <v>940</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="0"/>
-        <v>1878</v>
+        <v>939</v>
       </c>
       <c r="Z9" s="2">
         <v>3756</v>
       </c>
       <c r="AA9" s="2">
-        <f t="shared" ref="AA7:AA49" si="1">AA8</f>
-        <v>85</v>
-      </c>
-      <c r="AC9" s="2" t="str">
-        <f>"9602|2|"&amp;AA9</f>
-        <v>9602|2|85</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:29">
-      <c r="A10" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" ref="AB7:AB49" si="1">AB8</f>
+        <v>70</v>
+      </c>
+      <c r="AD9" s="2" t="str">
+        <f>"9602|2|"&amp;AB9</f>
+        <v>9602|2|70</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:30">
+      <c r="A10" s="6">
         <v>203</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>2</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="6">
         <v>250</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>80</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="6">
         <v>3</v>
       </c>
-      <c r="O10" s="5">
-        <v>10</v>
+      <c r="O10" s="6">
+        <v>5</v>
       </c>
       <c r="Q10" s="2">
         <v>9701</v>
@@ -2369,72 +2395,75 @@
       </c>
       <c r="W10" s="2">
         <f>W9</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X10" s="2">
-        <v>6315</v>
+        <v>2525</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="0"/>
-        <v>6316</v>
+        <v>2526</v>
       </c>
       <c r="Z10" s="2">
         <v>12631</v>
       </c>
       <c r="AA10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AB10" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="AC10" s="2" t="str">
-        <f>"9701|1|"&amp;AA10&amp;";9702|1|"&amp;AA10&amp;";9703|1|"&amp;AA10</f>
-        <v>9701|1|85;9702|1|85;9703|1|85</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:30">
-      <c r="A11" s="5">
+        <v>70</v>
+      </c>
+      <c r="AD10" s="2" t="str">
+        <f>"9701|1|"&amp;AB10&amp;";9702|1|"&amp;AB10&amp;";9703|1|"&amp;AB10</f>
+        <v>9701|1|70;9702|1|70;9703|1|70</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:31">
+      <c r="A11" s="6">
         <v>204</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>2</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <v>250</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>80</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="6">
         <v>3</v>
       </c>
-      <c r="O11" s="5">
-        <v>10</v>
+      <c r="O11" s="6">
+        <v>5</v>
       </c>
       <c r="Q11" s="2">
         <v>9702</v>
@@ -2450,74 +2479,77 @@
       </c>
       <c r="W11" s="2">
         <f>W10</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X11" s="2">
-        <v>25785</v>
+        <v>10315</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="0"/>
-        <v>25789</v>
+        <v>10315</v>
       </c>
       <c r="Z11" s="2">
         <v>51577</v>
       </c>
       <c r="AA11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AB11" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="2" t="str">
-        <f>"9804|3|"&amp;AA11</f>
-        <v>9804|3|85</v>
-      </c>
-      <c r="AD11" s="8"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:29">
-      <c r="A12" s="4">
+        <v>70</v>
+      </c>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="2" t="str">
+        <f>"9804|3|"&amp;AB11</f>
+        <v>9804|3|70</v>
+      </c>
+      <c r="AE11" s="9"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:30">
+      <c r="A12" s="5">
         <v>301</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="5">
         <v>800</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="5">
         <v>120</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <v>2</v>
       </c>
-      <c r="O12" s="4">
-        <v>40</v>
+      <c r="O12" s="5">
+        <v>30</v>
       </c>
       <c r="Q12" s="2">
         <v>9703</v>
@@ -2533,72 +2565,75 @@
       </c>
       <c r="W12" s="2">
         <f>X16</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="X12" s="2">
-        <v>128285</v>
+        <v>51315</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="0"/>
-        <v>128288</v>
+        <v>51315</v>
       </c>
       <c r="Z12" s="2">
         <v>256576</v>
       </c>
       <c r="AA12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AB12" s="2">
         <f>X7</f>
-        <v>195</v>
-      </c>
-      <c r="AC12" s="2" t="str">
-        <f>"9605|2|"&amp;AA12</f>
-        <v>9605|2|195</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:30">
-      <c r="A13" s="4">
+        <v>135</v>
+      </c>
+      <c r="AD12" s="2" t="str">
+        <f>"9605|2|"&amp;AB12</f>
+        <v>9605|2|135</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:31">
+      <c r="A13" s="5">
         <v>302</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="5">
         <v>800</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="5">
         <v>120</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>2</v>
       </c>
-      <c r="O13" s="4">
-        <v>40</v>
+      <c r="O13" s="5">
+        <v>30</v>
       </c>
       <c r="Q13" s="2">
         <v>9804</v>
@@ -2608,67 +2643,68 @@
       </c>
       <c r="W13" s="2">
         <f t="shared" ref="W13:W15" si="2">W12</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="2">
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="2">
         <f t="shared" si="1"/>
-        <v>195</v>
-      </c>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="2" t="str">
-        <f>"9602|2|"&amp;AA13</f>
-        <v>9602|2|195</v>
-      </c>
-      <c r="AD13" s="8"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:29">
-      <c r="A14" s="4">
+        <v>135</v>
+      </c>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="2" t="str">
+        <f>"9602|2|"&amp;AB13</f>
+        <v>9602|2|135</v>
+      </c>
+      <c r="AE13" s="9"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:30">
+      <c r="A14" s="5">
         <v>303</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>3</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="5">
         <v>800</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="5">
         <v>120</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>3</v>
       </c>
-      <c r="O14" s="4">
-        <v>40</v>
+      <c r="O14" s="5">
+        <v>30</v>
       </c>
       <c r="Q14" s="2">
         <v>9901</v>
@@ -2678,7 +2714,7 @@
       </c>
       <c r="W14" s="2">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="X14" s="2">
         <v>1</v>
@@ -2690,60 +2726,60 @@
         <f>Y14-X14</f>
         <v>4</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AB14" s="2">
         <f t="shared" si="1"/>
-        <v>195</v>
-      </c>
-      <c r="AC14" s="2" t="str">
-        <f>"9701|1|"&amp;AA14&amp;";9702|1|"&amp;AA14&amp;";9703|1|"&amp;AA14</f>
-        <v>9701|1|195;9702|1|195;9703|1|195</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:29">
-      <c r="A15" s="4">
+        <v>135</v>
+      </c>
+      <c r="AD14" s="2" t="str">
+        <f>"9701|1|"&amp;AB14&amp;";9702|1|"&amp;AB14&amp;";9703|1|"&amp;AB14</f>
+        <v>9701|1|135;9702|1|135;9703|1|135</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:30">
+      <c r="A15" s="5">
         <v>304</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="5">
         <v>800</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="5">
         <v>120</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>3</v>
       </c>
-      <c r="O15" s="4">
-        <v>40</v>
+      <c r="O15" s="5">
+        <v>30</v>
       </c>
       <c r="Q15" s="2">
         <v>9902</v>
@@ -2753,72 +2789,72 @@
       </c>
       <c r="W15" s="2">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="X15" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Y15" s="3">
         <v>20</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" ref="Z15:Z21" si="3">Y15-X15</f>
-        <v>10</v>
-      </c>
-      <c r="AA15" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB15" s="2">
         <f t="shared" si="1"/>
-        <v>195</v>
-      </c>
-      <c r="AC15" s="2" t="str">
-        <f>"9804|3|"&amp;AA15</f>
-        <v>9804|3|195</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:29">
-      <c r="A16" s="5">
+        <v>135</v>
+      </c>
+      <c r="AD15" s="2" t="str">
+        <f>"9804|3|"&amp;AB15</f>
+        <v>9804|3|135</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:30">
+      <c r="A16" s="6">
         <v>401</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>4</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="6">
         <v>2400</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="6">
         <v>200</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="6">
         <v>2</v>
       </c>
-      <c r="O16" s="5">
-        <v>90</v>
+      <c r="O16" s="6">
+        <v>60</v>
       </c>
       <c r="Q16" s="2">
         <v>9903</v>
@@ -2828,141 +2864,141 @@
       </c>
       <c r="W16" s="2">
         <f>X17</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="X16" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Y16" s="2">
         <v>60</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="AA16" s="2">
+        <v>30</v>
+      </c>
+      <c r="AB16" s="2">
         <f>X8</f>
-        <v>530</v>
-      </c>
-      <c r="AC16" s="2" t="str">
-        <f>"9605|2|"&amp;AA16</f>
-        <v>9605|2|530</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:29">
-      <c r="A17" s="5">
+        <v>320</v>
+      </c>
+      <c r="AD16" s="2" t="str">
+        <f>"9605|2|"&amp;AB16</f>
+        <v>9605|2|320</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:30">
+      <c r="A17" s="6">
         <v>402</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>4</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="6">
         <v>2400</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="6">
         <v>200</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="6">
         <v>2</v>
       </c>
-      <c r="O17" s="5">
-        <v>90</v>
+      <c r="O17" s="6">
+        <v>60</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" ref="W17:W20" si="4">W16</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="X17" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Y17" s="2">
         <v>120</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="AA17" s="2">
+        <v>60</v>
+      </c>
+      <c r="AB17" s="2">
         <f t="shared" si="1"/>
-        <v>530</v>
-      </c>
-      <c r="AC17" s="2" t="str">
-        <f>"9604|2|"&amp;AA17</f>
-        <v>9604|2|530</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:29">
-      <c r="A18" s="5">
+        <v>320</v>
+      </c>
+      <c r="AD17" s="2" t="str">
+        <f>"9604|2|"&amp;AB17</f>
+        <v>9604|2|320</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:30">
+      <c r="A18" s="6">
         <v>403</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <v>4</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="6">
         <v>2400</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="6">
         <v>200</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="6">
         <v>2</v>
       </c>
-      <c r="O18" s="5">
-        <v>90</v>
+      <c r="O18" s="6">
+        <v>60</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>99</v>
@@ -2978,72 +3014,72 @@
       </c>
       <c r="W18" s="2">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="X18" s="2">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="Y18" s="2">
         <v>210</v>
       </c>
       <c r="Z18" s="2">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="AA18" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB18" s="2">
         <f t="shared" si="1"/>
-        <v>530</v>
-      </c>
-      <c r="AC18" s="2" t="str">
-        <f>"9602|2|"&amp;AA18</f>
-        <v>9602|2|530</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:30">
-      <c r="A19" s="5">
+        <v>320</v>
+      </c>
+      <c r="AD18" s="2" t="str">
+        <f>"9602|2|"&amp;AB18</f>
+        <v>9602|2|320</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:31">
+      <c r="A19" s="6">
         <v>404</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="6">
         <v>2400</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="6">
         <v>200</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="6">
         <v>3</v>
       </c>
-      <c r="O19" s="5">
-        <v>90</v>
+      <c r="O19" s="6">
+        <v>60</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>99</v>
@@ -3059,74 +3095,74 @@
       </c>
       <c r="W19" s="2">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="X19" s="2">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="Y19" s="2">
         <v>300</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="2" t="str">
+        <f>"9701|1|"&amp;AB19&amp;";9702|1|"&amp;AB19&amp;";9703|1|"&amp;AB19</f>
+        <v>9701|1|320;9702|1|320;9703|1|320</v>
+      </c>
+      <c r="AE19" s="9"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:31">
+      <c r="A20" s="6">
+        <v>405</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="6">
+        <v>4</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="6">
+        <v>2400</v>
+      </c>
+      <c r="K20" s="6">
+        <v>200</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="6">
+        <v>3</v>
+      </c>
+      <c r="O20" s="6">
         <v>60</v>
-      </c>
-      <c r="AA19" s="2">
-        <f t="shared" si="1"/>
-        <v>530</v>
-      </c>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="2" t="str">
-        <f>"9701|1|"&amp;AA19&amp;";9702|1|"&amp;AA19&amp;";9703|1|"&amp;AA19</f>
-        <v>9701|1|530;9702|1|530;9703|1|530</v>
-      </c>
-      <c r="AD19" s="8"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:30">
-      <c r="A20" s="5">
-        <v>405</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="5">
-        <v>4</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" s="5">
-        <v>2400</v>
-      </c>
-      <c r="K20" s="5">
-        <v>200</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="N20" s="5">
-        <v>3</v>
-      </c>
-      <c r="O20" s="5">
-        <v>90</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>99</v>
@@ -3142,74 +3178,74 @@
       </c>
       <c r="W20" s="2">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="X20" s="2">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="Y20" s="2">
         <v>450</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="AA20" s="2">
+        <v>200</v>
+      </c>
+      <c r="AB20" s="2">
         <f t="shared" si="1"/>
-        <v>530</v>
-      </c>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="2" t="str">
-        <f>"9804|3|"&amp;AA20</f>
-        <v>9804|3|530</v>
-      </c>
-      <c r="AD20" s="8"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:30">
-      <c r="A21" s="4">
+        <v>320</v>
+      </c>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="2" t="str">
+        <f>"9804|3|"&amp;AB20</f>
+        <v>9804|3|320</v>
+      </c>
+      <c r="AE20" s="9"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:31">
+      <c r="A21" s="5">
         <v>501</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <v>5</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="5">
         <v>6000</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="5">
         <v>350</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>2</v>
       </c>
-      <c r="O21" s="4">
-        <v>160</v>
+      <c r="O21" s="5">
+        <v>120</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>99</v>
@@ -3225,74 +3261,74 @@
       </c>
       <c r="W21" s="2">
         <f>X18</f>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="X21" s="3">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="Y21" s="3">
         <v>600</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="AB21" s="2">
+        <f>X9</f>
+        <v>940</v>
+      </c>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="2" t="str">
+        <f>"9605|2|"&amp;AB21</f>
+        <v>9605|2|940</v>
+      </c>
+      <c r="AE21" s="9"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:30">
+      <c r="A22" s="5">
+        <v>502</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="5">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="5">
+        <v>6000</v>
+      </c>
+      <c r="K22" s="5">
+        <v>350</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="5">
+        <v>2</v>
+      </c>
+      <c r="O22" s="5">
         <v>120</v>
-      </c>
-      <c r="AA21" s="2">
-        <f>X9</f>
-        <v>1875</v>
-      </c>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="2" t="str">
-        <f>"9605|2|"&amp;AA21</f>
-        <v>9605|2|1875</v>
-      </c>
-      <c r="AD21" s="8"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:29">
-      <c r="A22" s="4">
-        <v>502</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="4">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" s="4">
-        <v>6000</v>
-      </c>
-      <c r="K22" s="4">
-        <v>350</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N22" s="4">
-        <v>2</v>
-      </c>
-      <c r="O22" s="4">
-        <v>160</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>99</v>
@@ -3308,444 +3344,447 @@
       </c>
       <c r="W22" s="2">
         <f t="shared" ref="W22:W26" si="5">W21</f>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
-      <c r="AA22" s="2">
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="2">
         <f t="shared" si="1"/>
-        <v>1875</v>
-      </c>
-      <c r="AC22" s="2" t="str">
-        <f>"9604|2|"&amp;AA22</f>
-        <v>9604|2|1875</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:30">
-      <c r="A23" s="4">
+        <v>940</v>
+      </c>
+      <c r="AD22" s="2" t="str">
+        <f>"9604|2|"&amp;AB22</f>
+        <v>9604|2|940</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:31">
+      <c r="A23" s="5">
         <v>503</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>5</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="5">
         <v>6000</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="5">
         <v>350</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>2</v>
       </c>
-      <c r="O23" s="4">
-        <v>160</v>
+      <c r="O23" s="5">
+        <v>120</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="5"/>
-        <v>160</v>
-      </c>
-      <c r="AA23" s="2">
+        <v>120</v>
+      </c>
+      <c r="AB23" s="2">
         <f t="shared" si="1"/>
-        <v>1875</v>
-      </c>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="2" t="str">
-        <f>"9602|2|"&amp;AA23</f>
-        <v>9602|2|1875</v>
-      </c>
-      <c r="AD23" s="8"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:30">
-      <c r="A24" s="4">
+        <v>940</v>
+      </c>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="2" t="str">
+        <f>"9602|2|"&amp;AB23</f>
+        <v>9602|2|940</v>
+      </c>
+      <c r="AE23" s="9"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:31">
+      <c r="A24" s="5">
         <v>504</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>5</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="5">
         <v>6000</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="5">
         <v>350</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>2</v>
       </c>
-      <c r="O24" s="4">
-        <v>160</v>
+      <c r="O24" s="5">
+        <v>120</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>124</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="5"/>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
-      <c r="AA24" s="2">
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="2">
         <f t="shared" si="1"/>
-        <v>1875</v>
-      </c>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="2" t="str">
-        <f>"9601|2|"&amp;AA24</f>
-        <v>9601|2|1875</v>
-      </c>
-      <c r="AD24" s="8"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:29">
-      <c r="A25" s="4">
+        <v>940</v>
+      </c>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="2" t="str">
+        <f>"9601|2|"&amp;AB24</f>
+        <v>9601|2|940</v>
+      </c>
+      <c r="AE24" s="9"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:30">
+      <c r="A25" s="5">
         <v>505</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>5</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="5">
         <v>6000</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="5">
         <v>350</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>3</v>
       </c>
-      <c r="O25" s="4">
-        <v>160</v>
+      <c r="O25" s="5">
+        <v>120</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>127</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="5"/>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
-      <c r="AA25" s="2">
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="2">
         <f t="shared" si="1"/>
-        <v>1875</v>
-      </c>
-      <c r="AC25" s="2" t="str">
-        <f>"9701|1|"&amp;AA25&amp;";9702|1|"&amp;AA25&amp;";9703|1|"&amp;AA25</f>
-        <v>9701|1|1875;9702|1|1875;9703|1|1875</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:29">
-      <c r="A26" s="4">
+        <v>940</v>
+      </c>
+      <c r="AD25" s="2" t="str">
+        <f>"9701|1|"&amp;AB25&amp;";9702|1|"&amp;AB25&amp;";9703|1|"&amp;AB25</f>
+        <v>9701|1|940;9702|1|940;9703|1|940</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:30">
+      <c r="A26" s="5">
         <v>506</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <v>5</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="5">
         <v>6000</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="5">
         <v>350</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>3</v>
       </c>
-      <c r="O26" s="4">
-        <v>160</v>
+      <c r="O26" s="5">
+        <v>120</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>130</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="5"/>
-        <v>160</v>
-      </c>
-      <c r="AA26" s="2">
+        <v>120</v>
+      </c>
+      <c r="AB26" s="2">
         <f t="shared" si="1"/>
-        <v>1875</v>
-      </c>
-      <c r="AC26" s="2" t="str">
-        <f>"9804|3|"&amp;AA26</f>
-        <v>9804|3|1875</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:29">
-      <c r="A27" s="5">
+        <v>940</v>
+      </c>
+      <c r="AD26" s="2" t="str">
+        <f>"9804|3|"&amp;AB26</f>
+        <v>9804|3|940</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:30">
+      <c r="A27" s="6">
         <v>601</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="6">
         <v>6</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="6">
         <v>15000</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="6">
         <v>600</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="6">
         <v>2</v>
       </c>
-      <c r="O27" s="5">
-        <v>240</v>
+      <c r="O27" s="6">
+        <v>180</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>133</v>
       </c>
       <c r="W27" s="2">
         <f>X19</f>
-        <v>240</v>
-      </c>
-      <c r="AA27" s="2">
+        <v>180</v>
+      </c>
+      <c r="AB27" s="2">
         <f>X10</f>
-        <v>6315</v>
-      </c>
-      <c r="AC27" s="2" t="str">
-        <f>"9605|2|"&amp;AA27</f>
-        <v>9605|2|6315</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:29">
-      <c r="A28" s="5">
+        <v>2525</v>
+      </c>
+      <c r="AD27" s="2" t="str">
+        <f>"9605|2|"&amp;AB27</f>
+        <v>9605|2|2525</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:30">
+      <c r="A28" s="6">
         <v>602</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="6">
         <v>6</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="6">
         <v>15000</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="6">
         <v>600</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="6">
         <v>2</v>
       </c>
-      <c r="O28" s="5">
-        <v>240</v>
+      <c r="O28" s="6">
+        <v>180</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>135</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" ref="W28:W33" si="6">W27</f>
-        <v>240</v>
-      </c>
-      <c r="AA28" s="2">
+        <v>180</v>
+      </c>
+      <c r="AB28" s="2">
         <f t="shared" si="1"/>
-        <v>6315</v>
-      </c>
-      <c r="AC28" s="2" t="str">
-        <f>"9604|2|"&amp;AA28</f>
-        <v>9604|2|6315</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="1:29">
-      <c r="A29" s="5">
+        <v>2525</v>
+      </c>
+      <c r="AD28" s="2" t="str">
+        <f>"9604|2|"&amp;AB28</f>
+        <v>9604|2|2525</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:30">
+      <c r="A29" s="6">
         <v>603</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="6">
         <v>6</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="6">
         <v>15000</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="6">
         <v>600</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="6">
         <v>2</v>
       </c>
-      <c r="O29" s="5">
-        <v>240</v>
+      <c r="O29" s="6">
+        <v>180</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>99</v>
@@ -3761,62 +3800,62 @@
       </c>
       <c r="W29" s="2">
         <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="AA29" s="2">
+        <v>180</v>
+      </c>
+      <c r="AB29" s="2">
         <f t="shared" si="1"/>
-        <v>6315</v>
-      </c>
-      <c r="AC29" s="2" t="str">
-        <f>"9602|2|"&amp;AA29</f>
-        <v>9602|2|6315</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="1:29">
-      <c r="A30" s="5">
+        <v>2525</v>
+      </c>
+      <c r="AD29" s="2" t="str">
+        <f>"9602|2|"&amp;AB29</f>
+        <v>9602|2|2525</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:30">
+      <c r="A30" s="6">
         <v>604</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="6">
         <v>6</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="6">
         <v>15000</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>600</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="M30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="6">
         <v>2</v>
       </c>
-      <c r="O30" s="5">
-        <v>240</v>
+      <c r="O30" s="6">
+        <v>180</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>99</v>
@@ -3832,62 +3871,62 @@
       </c>
       <c r="W30" s="2">
         <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="AA30" s="2">
+        <v>180</v>
+      </c>
+      <c r="AB30" s="2">
         <f t="shared" si="1"/>
-        <v>6315</v>
-      </c>
-      <c r="AC30" s="2" t="str">
-        <f>"9603|2|"&amp;AA30</f>
-        <v>9603|2|6315</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="1:29">
-      <c r="A31" s="5">
+        <v>2525</v>
+      </c>
+      <c r="AD30" s="2" t="str">
+        <f>"9603|2|"&amp;AB30</f>
+        <v>9603|2|2525</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:30">
+      <c r="A31" s="6">
         <v>605</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="6">
         <v>6</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="6">
         <v>15000</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="6">
         <v>600</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="6">
         <v>2</v>
       </c>
-      <c r="O31" s="5">
-        <v>240</v>
+      <c r="O31" s="6">
+        <v>180</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>99</v>
@@ -3903,62 +3942,62 @@
       </c>
       <c r="W31" s="2">
         <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="AA31" s="2">
+        <v>180</v>
+      </c>
+      <c r="AB31" s="2">
         <f t="shared" si="1"/>
-        <v>6315</v>
-      </c>
-      <c r="AC31" s="2" t="str">
-        <f>"9601|2|"&amp;AA31</f>
-        <v>9601|2|6315</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:30">
-      <c r="A32" s="5">
+        <v>2525</v>
+      </c>
+      <c r="AD31" s="2" t="str">
+        <f>"9601|2|"&amp;AB31</f>
+        <v>9601|2|2525</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:31">
+      <c r="A32" s="6">
         <v>606</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="6">
         <v>6</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="6">
         <v>15000</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="6">
         <v>600</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="6">
         <v>3</v>
       </c>
-      <c r="O32" s="5">
-        <v>240</v>
+      <c r="O32" s="6">
+        <v>180</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>99</v>
@@ -3974,67 +4013,68 @@
       </c>
       <c r="W32" s="2">
         <f t="shared" si="6"/>
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
-      <c r="AA32" s="2">
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="2">
         <f t="shared" si="1"/>
-        <v>6315</v>
-      </c>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="2" t="str">
-        <f>"9701|1|"&amp;AA32&amp;";9702|1|"&amp;AA32&amp;";9703|1|"&amp;AA32</f>
-        <v>9701|1|6315;9702|1|6315;9703|1|6315</v>
-      </c>
-      <c r="AD32" s="8"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:30">
-      <c r="A33" s="5">
+        <v>2525</v>
+      </c>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="2" t="str">
+        <f>"9701|1|"&amp;AB32&amp;";9702|1|"&amp;AB32&amp;";9703|1|"&amp;AB32</f>
+        <v>9701|1|2525;9702|1|2525;9703|1|2525</v>
+      </c>
+      <c r="AE32" s="9"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:31">
+      <c r="A33" s="6">
         <v>607</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="6">
         <v>6</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="6">
         <v>15000</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="6">
         <v>600</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="M33" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="6">
         <v>3</v>
       </c>
-      <c r="O33" s="5">
-        <v>240</v>
+      <c r="O33" s="6">
+        <v>180</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>99</v>
@@ -4050,67 +4090,68 @@
       </c>
       <c r="W33" s="2">
         <f t="shared" si="6"/>
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
-      <c r="AA33" s="2">
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="2">
         <f t="shared" si="1"/>
-        <v>6315</v>
-      </c>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="2" t="str">
-        <f>"9804|3|"&amp;AA33</f>
-        <v>9804|3|6315</v>
-      </c>
-      <c r="AD33" s="8"/>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="1:30">
-      <c r="A34" s="4">
+        <v>2525</v>
+      </c>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="2" t="str">
+        <f>"9804|3|"&amp;AB33</f>
+        <v>9804|3|2525</v>
+      </c>
+      <c r="AE33" s="9"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:31">
+      <c r="A34" s="5">
         <v>701</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="5">
         <v>7</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="5">
         <v>60000</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="5">
         <v>1200</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="5">
         <v>2</v>
       </c>
-      <c r="O34" s="4">
-        <v>360</v>
+      <c r="O34" s="5">
+        <v>250</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>99</v>
@@ -4126,67 +4167,68 @@
       </c>
       <c r="W34" s="2">
         <f>X20</f>
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
-      <c r="AA34" s="2">
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="2">
         <f>X11</f>
-        <v>25785</v>
-      </c>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="2" t="str">
-        <f>"9605|2|"&amp;AA34</f>
-        <v>9605|2|25785</v>
-      </c>
-      <c r="AD34" s="8"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:30">
-      <c r="A35" s="4">
+        <v>10315</v>
+      </c>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="2" t="str">
+        <f>"9605|2|"&amp;AB34</f>
+        <v>9605|2|10315</v>
+      </c>
+      <c r="AE34" s="9"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:31">
+      <c r="A35" s="5">
         <v>702</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="5">
         <v>7</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="5">
         <v>60000</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="5">
         <v>1200</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="5">
         <v>2</v>
       </c>
-      <c r="O35" s="4">
-        <v>360</v>
+      <c r="O35" s="5">
+        <v>250</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>99</v>
@@ -4202,982 +4244,992 @@
       </c>
       <c r="W35" s="2">
         <f t="shared" ref="W35:W41" si="7">W34</f>
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
-      <c r="AA35" s="2">
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="2">
         <f t="shared" si="1"/>
-        <v>25785</v>
-      </c>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="2" t="str">
-        <f>"9604|2|"&amp;AA35</f>
-        <v>9604|2|25785</v>
-      </c>
-      <c r="AD35" s="8"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:30">
-      <c r="A36" s="4">
+        <v>10315</v>
+      </c>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="2" t="str">
+        <f>"9604|2|"&amp;AB35</f>
+        <v>9604|2|10315</v>
+      </c>
+      <c r="AE35" s="9"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:31">
+      <c r="A36" s="5">
         <v>703</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="5">
         <v>7</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="5">
         <v>60000</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="5">
         <v>1200</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="M36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="5">
         <v>2</v>
       </c>
-      <c r="O36" s="4">
-        <v>360</v>
+      <c r="O36" s="5">
+        <v>250</v>
       </c>
       <c r="W36" s="2">
         <f t="shared" si="7"/>
-        <v>360</v>
-      </c>
-      <c r="AA36" s="2">
+        <v>250</v>
+      </c>
+      <c r="AB36" s="2">
         <f t="shared" si="1"/>
-        <v>25785</v>
-      </c>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="2" t="str">
-        <f>"9602|2|"&amp;AA36</f>
-        <v>9602|2|25785</v>
-      </c>
-      <c r="AD36" s="8"/>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="1:29">
-      <c r="A37" s="4">
+        <v>10315</v>
+      </c>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="2" t="str">
+        <f>"9602|2|"&amp;AB36</f>
+        <v>9602|2|10315</v>
+      </c>
+      <c r="AE36" s="9"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:30">
+      <c r="A37" s="5">
         <v>704</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="5">
         <v>7</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="5">
         <v>60000</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="5">
         <v>1200</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="5">
         <v>2</v>
       </c>
-      <c r="O37" s="4">
-        <v>360</v>
+      <c r="O37" s="5">
+        <v>250</v>
       </c>
       <c r="W37" s="2">
         <f t="shared" si="7"/>
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
-      <c r="AA37" s="2">
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="2">
         <f t="shared" si="1"/>
-        <v>25785</v>
-      </c>
-      <c r="AC37" s="2" t="str">
-        <f>"9603|2|"&amp;AA37</f>
-        <v>9603|2|25785</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="1:30">
-      <c r="A38" s="4">
+        <v>10315</v>
+      </c>
+      <c r="AD37" s="2" t="str">
+        <f>"9603|2|"&amp;AB37</f>
+        <v>9603|2|10315</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:31">
+      <c r="A38" s="5">
         <v>705</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="5">
         <v>7</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="5">
         <v>60000</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="5">
         <v>1200</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="5">
         <v>2</v>
       </c>
-      <c r="O38" s="4">
-        <v>360</v>
+      <c r="O38" s="5">
+        <v>250</v>
       </c>
       <c r="W38" s="2">
         <f t="shared" si="7"/>
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
-      <c r="AA38" s="2">
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="2">
         <f t="shared" si="1"/>
-        <v>25785</v>
-      </c>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="2" t="str">
-        <f>"9601|2|"&amp;AA38</f>
-        <v>9601|2|25785</v>
-      </c>
-      <c r="AD38" s="8"/>
-    </row>
-    <row r="39" s="2" customFormat="1" spans="1:30">
-      <c r="A39" s="4">
+        <v>10315</v>
+      </c>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="2" t="str">
+        <f>"9601|2|"&amp;AB38</f>
+        <v>9601|2|10315</v>
+      </c>
+      <c r="AE38" s="9"/>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:31">
+      <c r="A39" s="5">
         <v>706</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="5">
         <v>7</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="5">
         <v>60000</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="5">
         <v>1200</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="M39" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="5">
         <v>3</v>
       </c>
-      <c r="O39" s="4">
-        <v>360</v>
+      <c r="O39" s="5">
+        <v>250</v>
       </c>
       <c r="W39" s="2">
         <f t="shared" si="7"/>
-        <v>360</v>
-      </c>
-      <c r="AA39" s="2">
+        <v>250</v>
+      </c>
+      <c r="AB39" s="2">
         <f t="shared" si="1"/>
-        <v>25785</v>
-      </c>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="2" t="str">
-        <f>"9701|1|"&amp;AA39&amp;";9702|1|"&amp;AA39&amp;";9703|1|"&amp;AA39</f>
-        <v>9701|1|25785;9702|1|25785;9703|1|25785</v>
-      </c>
-      <c r="AD39" s="8"/>
-    </row>
-    <row r="40" s="2" customFormat="1" spans="1:29">
-      <c r="A40" s="4">
+        <v>10315</v>
+      </c>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="2" t="str">
+        <f>"9701|1|"&amp;AB39&amp;";9702|1|"&amp;AB39&amp;";9703|1|"&amp;AB39</f>
+        <v>9701|1|10315;9702|1|10315;9703|1|10315</v>
+      </c>
+      <c r="AE39" s="9"/>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:30">
+      <c r="A40" s="5">
         <v>707</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="5">
         <v>7</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="5">
         <v>60000</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="5">
         <v>1200</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="5">
         <v>3</v>
       </c>
-      <c r="O40" s="4">
-        <v>360</v>
+      <c r="O40" s="5">
+        <v>250</v>
       </c>
       <c r="W40" s="2">
         <f t="shared" si="7"/>
-        <v>360</v>
-      </c>
-      <c r="AA40" s="2">
+        <v>250</v>
+      </c>
+      <c r="AB40" s="2">
         <f t="shared" si="1"/>
-        <v>25785</v>
-      </c>
-      <c r="AC40" s="2" t="str">
-        <f>"9804|3|"&amp;AA40</f>
-        <v>9804|3|25785</v>
-      </c>
-    </row>
-    <row r="41" s="2" customFormat="1" spans="1:29">
-      <c r="A41" s="4">
+        <v>10315</v>
+      </c>
+      <c r="AD40" s="2" t="str">
+        <f>"9804|3|"&amp;AB40</f>
+        <v>9804|3|10315</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:30">
+      <c r="A41" s="5">
         <v>708</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="5">
         <v>7</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="5">
         <v>60000</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="5">
         <v>1200</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="M41" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="5">
         <v>5</v>
       </c>
-      <c r="O41" s="4">
-        <v>360</v>
+      <c r="O41" s="5">
+        <v>250</v>
       </c>
       <c r="W41" s="2">
         <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+      <c r="AB41" s="2">
+        <f t="shared" si="1"/>
+        <v>10315</v>
+      </c>
+      <c r="AD41" s="2" t="str">
+        <f>"9901|1|"&amp;AB41&amp;";9902|2|"&amp;AB41&amp;";9903|2|"&amp;AB41</f>
+        <v>9901|1|10315;9902|2|10315;9903|2|10315</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:30">
+      <c r="A42" s="6">
+        <v>801</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="6">
+        <v>8</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J42" s="6">
+        <v>200000</v>
+      </c>
+      <c r="K42" s="6">
+        <v>2500</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N42" s="6">
+        <v>2</v>
+      </c>
+      <c r="O42" s="6">
         <v>360</v>
-      </c>
-      <c r="AA41" s="2">
-        <f t="shared" si="1"/>
-        <v>25785</v>
-      </c>
-      <c r="AC41" s="2" t="str">
-        <f>"9901|1|"&amp;AA41&amp;";9902|2|"&amp;AA41&amp;";9903|2|"&amp;AA41</f>
-        <v>9901|1|25785;9902|2|25785;9903|2|25785</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="1" spans="1:29">
-      <c r="A42" s="5">
-        <v>801</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="5">
-        <v>8</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="J42" s="5">
-        <v>200000</v>
-      </c>
-      <c r="K42" s="5">
-        <v>2500</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N42" s="5">
-        <v>2</v>
-      </c>
-      <c r="O42" s="5">
-        <v>480</v>
       </c>
       <c r="W42" s="2">
         <f>X21</f>
-        <v>480</v>
-      </c>
-      <c r="AA42" s="2">
+        <v>360</v>
+      </c>
+      <c r="AB42" s="2">
         <f>X12</f>
-        <v>128285</v>
-      </c>
-      <c r="AC42" s="2" t="str">
-        <f>"9605|2|"&amp;AA42</f>
-        <v>9605|2|128285</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="1" spans="1:29">
-      <c r="A43" s="5">
+        <v>51315</v>
+      </c>
+      <c r="AD42" s="2" t="str">
+        <f>"9605|2|"&amp;AB42</f>
+        <v>9605|2|51315</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="1:30">
+      <c r="A43" s="6">
         <v>802</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="6">
         <v>8</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="6">
         <v>200000</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="6">
         <v>2500</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N43" s="6">
         <v>2</v>
       </c>
-      <c r="O43" s="5">
-        <v>480</v>
+      <c r="O43" s="6">
+        <v>360</v>
       </c>
       <c r="W43" s="2">
         <f t="shared" ref="W43:W49" si="8">W42</f>
-        <v>480</v>
-      </c>
-      <c r="AA43" s="2">
+        <v>360</v>
+      </c>
+      <c r="AB43" s="2">
         <f t="shared" si="1"/>
-        <v>128285</v>
-      </c>
-      <c r="AC43" s="2" t="str">
-        <f>"9604|2|"&amp;AA43</f>
-        <v>9604|2|128285</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="1" spans="1:29">
-      <c r="A44" s="5">
+        <v>51315</v>
+      </c>
+      <c r="AD43" s="2" t="str">
+        <f>"9604|2|"&amp;AB43</f>
+        <v>9604|2|51315</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="1:30">
+      <c r="A44" s="6">
         <v>803</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="6">
         <v>8</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="6">
         <v>200000</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="6">
         <v>2500</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="L44" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="M44" s="5" t="s">
+      <c r="M44" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44" s="6">
         <v>2</v>
       </c>
-      <c r="O44" s="5">
-        <v>480</v>
+      <c r="O44" s="6">
+        <v>360</v>
       </c>
       <c r="W44" s="2">
         <f t="shared" si="8"/>
-        <v>480</v>
-      </c>
-      <c r="AA44" s="2">
+        <v>360</v>
+      </c>
+      <c r="AB44" s="2">
         <f t="shared" si="1"/>
-        <v>128285</v>
-      </c>
-      <c r="AC44" s="2" t="str">
-        <f>"9602|2|"&amp;AA44</f>
-        <v>9602|2|128285</v>
-      </c>
-    </row>
-    <row r="45" s="2" customFormat="1" spans="1:29">
-      <c r="A45" s="5">
+        <v>51315</v>
+      </c>
+      <c r="AD44" s="2" t="str">
+        <f>"9602|2|"&amp;AB44</f>
+        <v>9602|2|51315</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:30">
+      <c r="A45" s="6">
         <v>804</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="6">
         <v>8</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="6">
         <v>200000</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="6">
         <v>2500</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="L45" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="M45" s="5" t="s">
+      <c r="M45" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="6">
         <v>2</v>
       </c>
-      <c r="O45" s="5">
-        <v>480</v>
+      <c r="O45" s="6">
+        <v>360</v>
       </c>
       <c r="W45" s="2">
         <f t="shared" si="8"/>
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
-      <c r="AA45" s="2">
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="2">
         <f t="shared" si="1"/>
-        <v>128285</v>
-      </c>
-      <c r="AC45" s="2" t="str">
-        <f>"9603|2|"&amp;AA45</f>
-        <v>9603|2|128285</v>
-      </c>
-    </row>
-    <row r="46" s="2" customFormat="1" spans="1:30">
-      <c r="A46" s="5">
+        <v>51315</v>
+      </c>
+      <c r="AD45" s="2" t="str">
+        <f>"9603|2|"&amp;AB45</f>
+        <v>9603|2|51315</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="1:31">
+      <c r="A46" s="6">
         <v>805</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="6">
         <v>8</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="6">
         <v>200000</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="6">
         <v>2500</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="L46" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="M46" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="6">
         <v>2</v>
       </c>
-      <c r="O46" s="5">
-        <v>480</v>
+      <c r="O46" s="6">
+        <v>360</v>
       </c>
       <c r="W46" s="2">
         <f t="shared" si="8"/>
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
-      <c r="AA46" s="2">
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="2">
         <f t="shared" si="1"/>
-        <v>128285</v>
-      </c>
-      <c r="AB46" s="8"/>
-      <c r="AC46" s="2" t="str">
-        <f>"9601|2|"&amp;AA46</f>
-        <v>9601|2|128285</v>
-      </c>
-      <c r="AD46" s="8"/>
-    </row>
-    <row r="47" s="2" customFormat="1" spans="1:30">
-      <c r="A47" s="5">
+        <v>51315</v>
+      </c>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="2" t="str">
+        <f>"9601|2|"&amp;AB46</f>
+        <v>9601|2|51315</v>
+      </c>
+      <c r="AE46" s="9"/>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:31">
+      <c r="A47" s="6">
         <v>806</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="6">
         <v>8</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="6">
         <v>200000</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="6">
         <v>2500</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="L47" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="6">
         <v>3</v>
       </c>
-      <c r="O47" s="5">
-        <v>480</v>
+      <c r="O47" s="6">
+        <v>360</v>
       </c>
       <c r="W47" s="2">
         <f t="shared" si="8"/>
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
-      <c r="AA47" s="2">
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="2">
         <f t="shared" si="1"/>
-        <v>128285</v>
-      </c>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="2" t="str">
-        <f>"9701|1|"&amp;AA47&amp;";9702|1|"&amp;AA47&amp;";9703|1|"&amp;AA47</f>
-        <v>9701|1|128285;9702|1|128285;9703|1|128285</v>
-      </c>
-      <c r="AD47" s="8"/>
-    </row>
-    <row r="48" s="2" customFormat="1" spans="1:30">
-      <c r="A48" s="5">
+        <v>51315</v>
+      </c>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="2" t="str">
+        <f>"9701|1|"&amp;AB47&amp;";9702|1|"&amp;AB47&amp;";9703|1|"&amp;AB47</f>
+        <v>9701|1|51315;9702|1|51315;9703|1|51315</v>
+      </c>
+      <c r="AE47" s="9"/>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:31">
+      <c r="A48" s="6">
         <v>807</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="6">
         <v>8</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="6">
         <v>200000</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="6">
         <v>2500</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="L48" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="M48" s="5" t="s">
+      <c r="M48" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48" s="6">
         <v>3</v>
       </c>
-      <c r="O48" s="5">
-        <v>480</v>
+      <c r="O48" s="6">
+        <v>360</v>
       </c>
       <c r="W48" s="2">
         <f t="shared" si="8"/>
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
-      <c r="AA48" s="2">
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="2">
         <f t="shared" si="1"/>
-        <v>128285</v>
-      </c>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="2" t="str">
-        <f>"9804|3|"&amp;AA48</f>
-        <v>9804|3|128285</v>
-      </c>
-      <c r="AD48" s="8"/>
-    </row>
-    <row r="49" s="2" customFormat="1" spans="1:30">
-      <c r="A49" s="5">
+        <v>51315</v>
+      </c>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="2" t="str">
+        <f>"9804|3|"&amp;AB48</f>
+        <v>9804|3|51315</v>
+      </c>
+      <c r="AE48" s="9"/>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:31">
+      <c r="A49" s="6">
         <v>808</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="6">
         <v>8</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="6">
         <v>200000</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="6">
         <v>2500</v>
       </c>
-      <c r="L49" s="5" t="s">
+      <c r="L49" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="M49" s="5" t="s">
+      <c r="M49" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="N49" s="5">
+      <c r="N49" s="6">
         <v>5</v>
       </c>
-      <c r="O49" s="5">
-        <v>480</v>
+      <c r="O49" s="6">
+        <v>360</v>
       </c>
       <c r="W49" s="2">
         <f t="shared" si="8"/>
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
-      <c r="AA49" s="2">
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="2">
         <f t="shared" si="1"/>
-        <v>128285</v>
-      </c>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="2" t="str">
-        <f>"9901|1|"&amp;AA49&amp;";9902|2|"&amp;AA49&amp;";9903|2|"&amp;AA49</f>
-        <v>9901|1|128285;9902|2|128285;9903|2|128285</v>
-      </c>
-      <c r="AD49" s="8"/>
-    </row>
-    <row r="50" s="2" customFormat="1" spans="1:26">
-      <c r="A50" s="6">
+        <v>51315</v>
+      </c>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="2" t="str">
+        <f>"9901|1|"&amp;AB49&amp;";9902|2|"&amp;AB49&amp;";9903|2|"&amp;AB49</f>
+        <v>9901|1|51315;9902|2|51315;9903|2|51315</v>
+      </c>
+      <c r="AE49" s="9"/>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:27">
+      <c r="A50" s="7">
         <v>9001</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="7">
         <v>0</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="7">
         <v>100</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="7">
         <v>50</v>
       </c>
-      <c r="L50" s="6" t="s">
+      <c r="L50" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="M50" s="6" t="s">
+      <c r="M50" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N50" s="6">
+      <c r="N50" s="7">
         <v>1</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O50" s="7">
         <v>1</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
-    </row>
-    <row r="51" s="2" customFormat="1" spans="1:26">
-      <c r="A51" s="6">
+      <c r="AA50" s="3"/>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:27">
+      <c r="A51" s="7">
         <v>9002</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="7">
         <v>0</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H51" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="7">
         <v>100</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="7">
         <v>50</v>
       </c>
-      <c r="L51" s="6" t="s">
+      <c r="L51" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M51" s="6" t="s">
+      <c r="M51" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N51" s="7">
         <v>2</v>
       </c>
-      <c r="O51" s="6">
+      <c r="O51" s="7">
         <v>1</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
     </row>
     <row r="56" spans="8:11">
       <c r="H56" s="2" t="s">

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -151,7 +151,7 @@
     <t>Battle</t>
   </si>
   <si>
-    <t>Item|2001|1|20;Coin|50|80</t>
+    <t>Item|2001|1|20;Coin|100|80</t>
   </si>
   <si>
     <t>9605|2|50</t>
@@ -196,7 +196,7 @@
     <t>最近隔壁村经常闹土匪，村民们苦不堪言，村长请我们去帮忙剿匪，事成之后必有重谢。</t>
   </si>
   <si>
-    <t>Food|10|30;Coin|50|30</t>
+    <t>Food|10|30;Coin|100|30</t>
   </si>
   <si>
     <t>9701|1|50;9702|1|50;9703|1|50</t>
@@ -208,7 +208,7 @@
     <t>鹿</t>
   </si>
   <si>
-    <t>Item|2001|1|20;Coin|60|60</t>
+    <t>Item|2001|1|20;Coin|120|60</t>
   </si>
   <si>
     <t>9605|2|70</t>
@@ -223,7 +223,7 @@
     <t>狼</t>
   </si>
   <si>
-    <t>Food|10|30;Coin|60|30</t>
+    <t>Food|10|30;Coin|120|30</t>
   </si>
   <si>
     <t>9701|1|70;9702|1|70;9703|1|70</t>
@@ -244,7 +244,7 @@
     <t>昨晚赵员外被行刺了，好在只受了点轻伤，没有性命之忧。听说员外家挺有钱的，咱们也去帮忙抓刺客吧。</t>
   </si>
   <si>
-    <t>Coin|60|70;Item|3001|1|30</t>
+    <t>Coin|120|70;Item|3001|1|30</t>
   </si>
   <si>
     <t>9804|3|70</t>
@@ -256,7 +256,7 @@
     <t>山贼喽啰</t>
   </si>
   <si>
-    <t>Item|2001|1|20;Coin|80|60</t>
+    <t>Item|2001|1|20;Coin|150|60</t>
   </si>
   <si>
     <t>9605|2|135</t>
@@ -268,7 +268,7 @@
     <t>刺客草上飞|刺客小旋风|刺客鼓上蚤</t>
   </si>
   <si>
-    <t>Food|10|30;Coin|80|30</t>
+    <t>Food|10|30;Coin|150|30</t>
   </si>
   <si>
     <t>9701|1|135;9702|1|135;9703|1|135</t>
@@ -277,7 +277,7 @@
     <t>倭寇半藏|倭寇佐助|倭寇一郎|倭寇小五郎|倭寇龙马</t>
   </si>
   <si>
-    <t>Coin|80|70;Item|3001|1|30</t>
+    <t>Coin|150|70;Item|3001|1|30</t>
   </si>
   <si>
     <t>9804|3|135</t>
@@ -286,7 +286,7 @@
     <t>倭寇花屋|倭寇坂东|倭寇朱吉|倭寇耕二|倭寇小次郎</t>
   </si>
   <si>
-    <t>Item|2001|1|20;Coin|100|60</t>
+    <t>Item|2001|1|20;Coin|200|60</t>
   </si>
   <si>
     <t>9605|2|320</t>
@@ -325,7 +325,7 @@
     <t>肉</t>
   </si>
   <si>
-    <t>Food|20|30;Coin|100|30</t>
+    <t>Food|20|30;Coin|200|30</t>
   </si>
   <si>
     <t>9701|1|320;9702|1|320;9703|1|320</t>
@@ -337,7 +337,7 @@
     <t>熊掌</t>
   </si>
   <si>
-    <t>Coin|100|70;Item|3001|1|15;Item|3002|1|15</t>
+    <t>Coin|200|70;Item|3001|1|15;Item|3002|1|15</t>
   </si>
   <si>
     <t>9804|3|320</t>
@@ -349,7 +349,7 @@
     <t>蛇胆</t>
   </si>
   <si>
-    <t>Item|2002|1|20;Coin|120|60</t>
+    <t>Item|2002|1|20;Coin|250|60</t>
   </si>
   <si>
     <t>9605|2|940</t>
@@ -394,7 +394,7 @@
     <t>Food</t>
   </si>
   <si>
-    <t>Food|20|30;Coin|120|30</t>
+    <t>Food|20|30;Coin|250|30</t>
   </si>
   <si>
     <t>9701|1|940;9702|1|940;9703|1|940</t>
@@ -403,7 +403,7 @@
     <t>Coin</t>
   </si>
   <si>
-    <t>Coin|120|70;Item|3001|1|15;Item|3002|1|15</t>
+    <t>Coin|250|70;Item|3001|1|15;Item|3002|1|15</t>
   </si>
   <si>
     <t>9804|3|940</t>
@@ -412,7 +412,7 @@
     <t>Equip</t>
   </si>
   <si>
-    <t>Item|2002|1|20;Coin|150|60</t>
+    <t>Item|2002|1|20;Coin|320|60</t>
   </si>
   <si>
     <t>9605|2|2525</t>
@@ -469,7 +469,7 @@
     <t>孔雀石</t>
   </si>
   <si>
-    <t>Food|30|30;Coin|150|30</t>
+    <t>Food|30|30;Coin|320|30</t>
   </si>
   <si>
     <t>9701|1|2525;9702|1|2525;9703|1|2525</t>
@@ -481,7 +481,7 @@
     <t>红玛瑙</t>
   </si>
   <si>
-    <t>Coin|150|70;Item|3001|1|15;Item|3002|1|15</t>
+    <t>Coin|320|70;Item|3001|1|15;Item|3002|1|15</t>
   </si>
   <si>
     <t>9804|3|2525</t>
@@ -493,7 +493,7 @@
     <t>紫龙晶</t>
   </si>
   <si>
-    <t>Item|2002|1|20;Coin|180|60</t>
+    <t>Item|2002|1|20;Coin|400|60</t>
   </si>
   <si>
     <t>9605|2|10315</t>
@@ -523,13 +523,13 @@
     <t>9601|2|10315</t>
   </si>
   <si>
-    <t>Food|30|30;Coin|180|30</t>
+    <t>Food|30|30;Coin|400|30</t>
   </si>
   <si>
     <t>9701|1|10315;9702|1|10315;9703|1|10315</t>
   </si>
   <si>
-    <t>Coin|180|70;Item|3002|1|15;Item|3003|1|15</t>
+    <t>Coin|400|70;Item|3002|1|15;Item|3003|1|15</t>
   </si>
   <si>
     <t>9804|3|10315</t>
@@ -547,7 +547,7 @@
     <t>倭人犯我天朝百姓久已，烧杀劫掠，无恶不作，吾等习武之人倘若坐视不管，岂不被人笑话。</t>
   </si>
   <si>
-    <t>Coin|180|70;Item|3102|1_2|30</t>
+    <t>Coin|320|70;Item|3102|1_2|30</t>
   </si>
   <si>
     <t>9901|1|10315;9902|2|10315;9903|2|10315</t>
@@ -556,7 +556,7 @@
     <t>倭寇</t>
   </si>
   <si>
-    <t>Item|2002|1|20;Coin|250|60</t>
+    <t>Item|2002|1|20;Coin|500|60</t>
   </si>
   <si>
     <t>9605|2|51315</t>
@@ -574,19 +574,19 @@
     <t>9601|2|51315</t>
   </si>
   <si>
-    <t>Food|30|30;Coin|250|30</t>
+    <t>Food|30|30;Coin|500|30</t>
   </si>
   <si>
     <t>9701|1|51315;9702|1|51315;9703|1|51315</t>
   </si>
   <si>
-    <t>Coin|250|70;Item|3002|1|15;Item|3003|1|15</t>
+    <t>Coin|500|70;Item|3002|1|15;Item|3003|1|15</t>
   </si>
   <si>
     <t>9804|3|51315</t>
   </si>
   <si>
-    <t>Coin|250|70;Item|3101|1_2|15;Item|3102|1_2|15</t>
+    <t>Coin|500|70;Item|3101|1_2|15;Item|3102|1_2|15</t>
   </si>
   <si>
     <t>9901|1|51315;9902|2|51315;9903|2|51315</t>
@@ -633,8 +633,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
@@ -655,24 +655,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,7 +679,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,28 +701,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -739,31 +768,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,28 +794,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,7 +832,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +904,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,19 +952,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,31 +970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,79 +982,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,13 +1000,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,17 +1041,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,17 +1080,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,54 +1138,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1156,140 +1156,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,9 +1300,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1314,9 +1311,6 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1638,12 +1632,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE81"/>
+  <dimension ref="A1:AD81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="V15" sqref="V15"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1653,7 +1647,7 @@
     <col min="5" max="5" width="8.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="45" style="3" customWidth="1"/>
     <col min="10" max="10" width="43.875" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.83333333333333" style="3"/>
@@ -1661,11 +1655,9 @@
     <col min="13" max="13" width="9.875" style="3" customWidth="1"/>
     <col min="14" max="15" width="8.83333333333333" style="3"/>
     <col min="16" max="23" width="8.83333333333333" style="2"/>
-    <col min="24" max="28" width="8.83333333333333" style="3"/>
-    <col min="29" max="29" width="8.83333333333333" style="4"/>
+    <col min="24" max="29" width="8.83333333333333" style="3"/>
     <col min="30" max="30" width="40.375" style="3" customWidth="1"/>
-    <col min="31" max="31" width="8.83333333333333" style="4"/>
-    <col min="32" max="16384" width="8.83333333333333" style="3"/>
+    <col min="31" max="16384" width="8.83333333333333" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:30">
@@ -1714,26 +1706,26 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8" t="s">
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8" t="s">
+      <c r="V1" s="7"/>
+      <c r="W1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
       <c r="AD1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1784,18 +1776,18 @@
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:27">
       <c r="A3" s="1" t="s">
@@ -1843,18 +1835,18 @@
       <c r="O3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:27">
       <c r="A4" s="1" t="s">
@@ -1902,63 +1894,63 @@
       <c r="O4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:30">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>101</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>100</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>50</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>2</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
@@ -2000,49 +1992,49 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:30">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>102</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>100</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>50</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>2</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
@@ -2084,49 +2076,49 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:30">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>103</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>100</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>50</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>3</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
@@ -2168,49 +2160,49 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:30">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>201</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>250</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>80</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>2</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>5</v>
       </c>
       <c r="Q8" s="2">
@@ -2252,49 +2244,49 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:30">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>202</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>250</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>80</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>2</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>5</v>
       </c>
       <c r="Q9" s="2">
@@ -2336,49 +2328,49 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:30">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>203</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>250</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>80</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>3</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>5</v>
       </c>
       <c r="Q10" s="2">
@@ -2419,50 +2411,50 @@
         <v>9701|1|70;9702|1|70;9703|1|70</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:31">
-      <c r="A11" s="6">
+    <row r="11" s="2" customFormat="1" spans="1:30">
+      <c r="A11" s="5">
         <v>204</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>250</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>80</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>3</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>5</v>
       </c>
       <c r="Q11" s="2">
@@ -2498,57 +2490,55 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="AC11" s="9"/>
       <c r="AD11" s="2" t="str">
         <f>"9804|3|"&amp;AB11</f>
         <v>9804|3|70</v>
       </c>
-      <c r="AE11" s="9"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:30">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>301</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>3</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>800</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>120</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>2</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <v>30</v>
       </c>
       <c r="Q12" s="2">
@@ -2589,50 +2579,50 @@
         <v>9605|2|135</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:31">
-      <c r="A13" s="5">
+    <row r="13" s="2" customFormat="1" spans="1:30">
+      <c r="A13" s="4">
         <v>302</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>3</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>800</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>120</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="4">
         <v>2</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="4">
         <v>30</v>
       </c>
       <c r="Q13" s="2">
@@ -2653,57 +2643,55 @@
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="AC13" s="9"/>
       <c r="AD13" s="2" t="str">
         <f>"9602|2|"&amp;AB13</f>
         <v>9602|2|135</v>
       </c>
-      <c r="AE13" s="9"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:30">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>303</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>3</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>800</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>120</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <v>3</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="4">
         <v>30</v>
       </c>
       <c r="Q14" s="2">
@@ -2736,49 +2724,49 @@
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:30">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>304</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>3</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>800</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>120</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <v>3</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="4">
         <v>30</v>
       </c>
       <c r="Q15" s="2">
@@ -2811,49 +2799,49 @@
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:30">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>401</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>4</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>2400</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>200</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <v>2</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>60</v>
       </c>
       <c r="Q16" s="2">
@@ -2886,49 +2874,49 @@
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:30">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>402</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>2400</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>200</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <v>2</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="5">
         <v>60</v>
       </c>
       <c r="W17" s="2">
@@ -2955,49 +2943,49 @@
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:30">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>403</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>4</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>2400</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>200</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <v>2</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <v>60</v>
       </c>
       <c r="Q18" s="2" t="s">
@@ -3035,50 +3023,50 @@
         <v>9602|2|320</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:31">
-      <c r="A19" s="6">
+    <row r="19" s="2" customFormat="1" spans="1:30">
+      <c r="A19" s="5">
         <v>404</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>4</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>2400</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>200</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <v>3</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="5">
         <v>60</v>
       </c>
       <c r="Q19" s="2" t="s">
@@ -3111,57 +3099,55 @@
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="AC19" s="9"/>
       <c r="AD19" s="2" t="str">
         <f>"9701|1|"&amp;AB19&amp;";9702|1|"&amp;AB19&amp;";9703|1|"&amp;AB19</f>
         <v>9701|1|320;9702|1|320;9703|1|320</v>
       </c>
-      <c r="AE19" s="9"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:31">
-      <c r="A20" s="6">
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:30">
+      <c r="A20" s="5">
         <v>405</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>4</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>2400</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>200</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <v>3</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <v>60</v>
       </c>
       <c r="Q20" s="2" t="s">
@@ -3194,57 +3180,55 @@
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="AC20" s="9"/>
       <c r="AD20" s="2" t="str">
         <f>"9804|3|"&amp;AB20</f>
         <v>9804|3|320</v>
       </c>
-      <c r="AE20" s="9"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:31">
-      <c r="A21" s="5">
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:30">
+      <c r="A21" s="4">
         <v>501</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>5</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>6000</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>350</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4">
         <v>2</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="4">
         <v>120</v>
       </c>
       <c r="Q21" s="2" t="s">
@@ -3277,57 +3261,55 @@
         <f>X9</f>
         <v>940</v>
       </c>
-      <c r="AC21" s="9"/>
       <c r="AD21" s="2" t="str">
         <f>"9605|2|"&amp;AB21</f>
         <v>9605|2|940</v>
       </c>
-      <c r="AE21" s="9"/>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:30">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>502</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>5</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>6000</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>350</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4">
         <v>2</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="4">
         <v>120</v>
       </c>
       <c r="Q22" s="2" t="s">
@@ -3359,50 +3341,50 @@
         <v>9604|2|940</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:31">
-      <c r="A23" s="5">
+    <row r="23" s="2" customFormat="1" spans="1:30">
+      <c r="A23" s="4">
         <v>503</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>5</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>6000</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="4">
         <v>350</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="4">
         <v>2</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="4">
         <v>120</v>
       </c>
       <c r="W23" s="2">
@@ -3413,57 +3395,55 @@
         <f t="shared" si="1"/>
         <v>940</v>
       </c>
-      <c r="AC23" s="9"/>
       <c r="AD23" s="2" t="str">
         <f>"9602|2|"&amp;AB23</f>
         <v>9602|2|940</v>
       </c>
-      <c r="AE23" s="9"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:31">
-      <c r="A24" s="5">
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:30">
+      <c r="A24" s="4">
         <v>504</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>5</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>6000</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="4">
         <v>350</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="4">
         <v>2</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="4">
         <v>120</v>
       </c>
       <c r="Q24" s="2" t="s">
@@ -3481,57 +3461,55 @@
         <f t="shared" si="1"/>
         <v>940</v>
       </c>
-      <c r="AC24" s="9"/>
       <c r="AD24" s="2" t="str">
         <f>"9601|2|"&amp;AB24</f>
         <v>9601|2|940</v>
       </c>
-      <c r="AE24" s="9"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:30">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>505</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>5</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>6000</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="4">
         <v>350</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="4">
         <v>3</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="4">
         <v>120</v>
       </c>
       <c r="Q25" s="2" t="s">
@@ -3555,49 +3533,49 @@
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:30">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>506</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>5</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>6000</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="4">
         <v>350</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="4">
         <v>3</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="4">
         <v>120</v>
       </c>
       <c r="Q26" s="2" t="s">
@@ -3617,49 +3595,49 @@
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:30">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>601</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>6</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>15000</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>600</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="5">
         <v>2</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="5">
         <v>180</v>
       </c>
       <c r="Q27" s="2" t="s">
@@ -3679,49 +3657,49 @@
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:30">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>602</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>6</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>15000</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>600</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="5">
         <v>2</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="5">
         <v>180</v>
       </c>
       <c r="Q28" s="2" t="s">
@@ -3741,49 +3719,49 @@
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:30">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>603</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>6</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>15000</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>600</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="5">
         <v>2</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="5">
         <v>180</v>
       </c>
       <c r="Q29" s="2" t="s">
@@ -3812,49 +3790,49 @@
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:30">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>604</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>6</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <v>15000</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>600</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="5">
         <v>2</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="5">
         <v>180</v>
       </c>
       <c r="Q30" s="2" t="s">
@@ -3883,49 +3861,49 @@
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:30">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>605</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>6</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <v>15000</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>600</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="5">
         <v>2</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="5">
         <v>180</v>
       </c>
       <c r="Q31" s="2" t="s">
@@ -3953,50 +3931,50 @@
         <v>9601|2|2525</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:31">
-      <c r="A32" s="6">
+    <row r="32" s="2" customFormat="1" spans="1:30">
+      <c r="A32" s="5">
         <v>606</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>6</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <v>15000</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>600</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="M32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="5">
         <v>3</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="5">
         <v>180</v>
       </c>
       <c r="Q32" s="2" t="s">
@@ -4023,57 +4001,55 @@
         <f t="shared" si="1"/>
         <v>2525</v>
       </c>
-      <c r="AC32" s="9"/>
       <c r="AD32" s="2" t="str">
         <f>"9701|1|"&amp;AB32&amp;";9702|1|"&amp;AB32&amp;";9703|1|"&amp;AB32</f>
         <v>9701|1|2525;9702|1|2525;9703|1|2525</v>
       </c>
-      <c r="AE32" s="9"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:31">
-      <c r="A33" s="6">
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:30">
+      <c r="A33" s="5">
         <v>607</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>6</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <v>15000</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>600</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="5">
         <v>3</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="5">
         <v>180</v>
       </c>
       <c r="Q33" s="2" t="s">
@@ -4100,57 +4076,55 @@
         <f t="shared" si="1"/>
         <v>2525</v>
       </c>
-      <c r="AC33" s="9"/>
       <c r="AD33" s="2" t="str">
         <f>"9804|3|"&amp;AB33</f>
         <v>9804|3|2525</v>
       </c>
-      <c r="AE33" s="9"/>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="1:31">
-      <c r="A34" s="5">
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:30">
+      <c r="A34" s="4">
         <v>701</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>7</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>60000</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="4">
         <v>1200</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="4">
         <v>2</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="4">
         <v>250</v>
       </c>
       <c r="Q34" s="2" t="s">
@@ -4177,57 +4151,55 @@
         <f>X11</f>
         <v>10315</v>
       </c>
-      <c r="AC34" s="9"/>
       <c r="AD34" s="2" t="str">
         <f>"9605|2|"&amp;AB34</f>
         <v>9605|2|10315</v>
       </c>
-      <c r="AE34" s="9"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:31">
-      <c r="A35" s="5">
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:30">
+      <c r="A35" s="4">
         <v>702</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>7</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <v>60000</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="4">
         <v>1200</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="4">
         <v>2</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="4">
         <v>250</v>
       </c>
       <c r="Q35" s="2" t="s">
@@ -4254,57 +4226,55 @@
         <f t="shared" si="1"/>
         <v>10315</v>
       </c>
-      <c r="AC35" s="9"/>
       <c r="AD35" s="2" t="str">
         <f>"9604|2|"&amp;AB35</f>
         <v>9604|2|10315</v>
       </c>
-      <c r="AE35" s="9"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:31">
-      <c r="A36" s="5">
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:30">
+      <c r="A36" s="4">
         <v>703</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>7</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <v>60000</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="4">
         <v>1200</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="4">
         <v>2</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="4">
         <v>250</v>
       </c>
       <c r="W36" s="2">
@@ -4315,57 +4285,55 @@
         <f t="shared" si="1"/>
         <v>10315</v>
       </c>
-      <c r="AC36" s="9"/>
       <c r="AD36" s="2" t="str">
         <f>"9602|2|"&amp;AB36</f>
         <v>9602|2|10315</v>
       </c>
-      <c r="AE36" s="9"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:30">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>704</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>7</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="4">
         <v>60000</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="4">
         <v>1200</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="4">
         <v>2</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="4">
         <v>250</v>
       </c>
       <c r="W37" s="2">
@@ -4385,50 +4353,50 @@
         <v>9603|2|10315</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:31">
-      <c r="A38" s="5">
+    <row r="38" s="2" customFormat="1" spans="1:30">
+      <c r="A38" s="4">
         <v>705</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>7</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="4">
         <v>60000</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="4">
         <v>1200</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="4">
         <v>2</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="4">
         <v>250</v>
       </c>
       <c r="W38" s="2">
@@ -4443,57 +4411,55 @@
         <f t="shared" si="1"/>
         <v>10315</v>
       </c>
-      <c r="AC38" s="9"/>
       <c r="AD38" s="2" t="str">
         <f>"9601|2|"&amp;AB38</f>
         <v>9601|2|10315</v>
       </c>
-      <c r="AE38" s="9"/>
-    </row>
-    <row r="39" s="2" customFormat="1" spans="1:31">
-      <c r="A39" s="5">
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:30">
+      <c r="A39" s="4">
         <v>706</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>7</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <v>60000</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="4">
         <v>1200</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="4">
         <v>3</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="4">
         <v>250</v>
       </c>
       <c r="W39" s="2">
@@ -4504,57 +4470,55 @@
         <f t="shared" si="1"/>
         <v>10315</v>
       </c>
-      <c r="AC39" s="9"/>
       <c r="AD39" s="2" t="str">
         <f>"9701|1|"&amp;AB39&amp;";9702|1|"&amp;AB39&amp;";9703|1|"&amp;AB39</f>
         <v>9701|1|10315;9702|1|10315;9703|1|10315</v>
       </c>
-      <c r="AE39" s="9"/>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:30">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>707</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>7</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="4">
         <v>60000</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="4">
         <v>1200</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="M40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="4">
         <v>3</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="4">
         <v>250</v>
       </c>
       <c r="W40" s="2">
@@ -4571,49 +4535,49 @@
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:30">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>708</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>7</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="4">
         <v>60000</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="4">
         <v>1200</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41" s="4">
         <v>5</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O41" s="4">
         <v>250</v>
       </c>
       <c r="W41" s="2">
@@ -4630,49 +4594,49 @@
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:30">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>801</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>8</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="5">
         <v>200000</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="5">
         <v>2500</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L42" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="M42" s="6" t="s">
+      <c r="M42" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="5">
         <v>2</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="5">
         <v>360</v>
       </c>
       <c r="W42" s="2">
@@ -4689,49 +4653,49 @@
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:30">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>802</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>8</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="5">
         <v>200000</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="5">
         <v>2500</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="M43" s="6" t="s">
+      <c r="M43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N43" s="5">
         <v>2</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O43" s="5">
         <v>360</v>
       </c>
       <c r="W43" s="2">
@@ -4748,49 +4712,49 @@
       </c>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:30">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>803</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>8</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="5">
         <v>200000</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="5">
         <v>2500</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L44" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="M44" s="6" t="s">
+      <c r="M44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="5">
         <v>2</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="5">
         <v>360</v>
       </c>
       <c r="W44" s="2">
@@ -4807,49 +4771,49 @@
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:30">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>804</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>8</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="5">
         <v>200000</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="5">
         <v>2500</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="M45" s="6" t="s">
+      <c r="M45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45" s="5">
         <v>2</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="5">
         <v>360</v>
       </c>
       <c r="W45" s="2">
@@ -4869,50 +4833,50 @@
         <v>9603|2|51315</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="1:31">
-      <c r="A46" s="6">
+    <row r="46" s="2" customFormat="1" spans="1:30">
+      <c r="A46" s="5">
         <v>805</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>8</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="5">
         <v>200000</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="5">
         <v>2500</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L46" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="M46" s="6" t="s">
+      <c r="M46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46" s="5">
         <v>2</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O46" s="5">
         <v>360</v>
       </c>
       <c r="W46" s="2">
@@ -4927,57 +4891,55 @@
         <f t="shared" si="1"/>
         <v>51315</v>
       </c>
-      <c r="AC46" s="9"/>
       <c r="AD46" s="2" t="str">
         <f>"9601|2|"&amp;AB46</f>
         <v>9601|2|51315</v>
       </c>
-      <c r="AE46" s="9"/>
-    </row>
-    <row r="47" s="2" customFormat="1" spans="1:31">
-      <c r="A47" s="6">
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:30">
+      <c r="A47" s="5">
         <v>806</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>8</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
         <v>200000</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="5">
         <v>2500</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="L47" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="M47" s="6" t="s">
+      <c r="M47" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N47" s="6">
+      <c r="N47" s="5">
         <v>3</v>
       </c>
-      <c r="O47" s="6">
+      <c r="O47" s="5">
         <v>360</v>
       </c>
       <c r="W47" s="2">
@@ -4992,57 +4954,55 @@
         <f t="shared" si="1"/>
         <v>51315</v>
       </c>
-      <c r="AC47" s="9"/>
       <c r="AD47" s="2" t="str">
         <f>"9701|1|"&amp;AB47&amp;";9702|1|"&amp;AB47&amp;";9703|1|"&amp;AB47</f>
         <v>9701|1|51315;9702|1|51315;9703|1|51315</v>
       </c>
-      <c r="AE47" s="9"/>
-    </row>
-    <row r="48" s="2" customFormat="1" spans="1:31">
-      <c r="A48" s="6">
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:30">
+      <c r="A48" s="5">
         <v>807</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>8</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H48" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I48" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="5">
         <v>200000</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="5">
         <v>2500</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="L48" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="M48" s="6" t="s">
+      <c r="M48" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N48" s="6">
+      <c r="N48" s="5">
         <v>3</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O48" s="5">
         <v>360</v>
       </c>
       <c r="W48" s="2">
@@ -5057,57 +5017,55 @@
         <f t="shared" si="1"/>
         <v>51315</v>
       </c>
-      <c r="AC48" s="9"/>
       <c r="AD48" s="2" t="str">
         <f>"9804|3|"&amp;AB48</f>
         <v>9804|3|51315</v>
       </c>
-      <c r="AE48" s="9"/>
-    </row>
-    <row r="49" s="2" customFormat="1" spans="1:31">
-      <c r="A49" s="6">
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:30">
+      <c r="A49" s="5">
         <v>808</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>8</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="5">
         <v>200000</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="5">
         <v>2500</v>
       </c>
-      <c r="L49" s="6" t="s">
+      <c r="L49" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M49" s="6" t="s">
+      <c r="M49" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N49" s="5">
         <v>5</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O49" s="5">
         <v>360</v>
       </c>
       <c r="W49" s="2">
@@ -5122,57 +5080,55 @@
         <f t="shared" si="1"/>
         <v>51315</v>
       </c>
-      <c r="AC49" s="9"/>
       <c r="AD49" s="2" t="str">
         <f>"9901|1|"&amp;AB49&amp;";9902|2|"&amp;AB49&amp;";9903|2|"&amp;AB49</f>
         <v>9901|1|51315;9902|2|51315;9903|2|51315</v>
       </c>
-      <c r="AE49" s="9"/>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:27">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>9001</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>0</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="6">
         <v>100</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="6">
         <v>50</v>
       </c>
-      <c r="L50" s="7" t="s">
+      <c r="L50" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="M50" s="7" t="s">
+      <c r="M50" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N50" s="6">
         <v>1</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O50" s="6">
         <v>1</v>
       </c>
       <c r="X50" s="3"/>
@@ -5181,49 +5137,49 @@
       <c r="AA50" s="3"/>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:27">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>9002</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>0</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="6">
         <v>100</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="6">
         <v>50</v>
       </c>
-      <c r="L51" s="7" t="s">
+      <c r="L51" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="M51" s="7" t="s">
+      <c r="M51" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N51" s="6">
         <v>2</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="6">
         <v>1</v>
       </c>
       <c r="X51" s="3"/>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -196,7 +196,7 @@
     <t>最近隔壁村经常闹土匪，村民们苦不堪言，村长请我们去帮忙剿匪，事成之后必有重谢。</t>
   </si>
   <si>
-    <t>Food|10|30;Coin|100|30</t>
+    <t>Food|20|30;Coin|100|30</t>
   </si>
   <si>
     <t>9701|1|50;9702|1|50;9703|1|50</t>
@@ -223,7 +223,7 @@
     <t>狼</t>
   </si>
   <si>
-    <t>Food|10|30;Coin|120|30</t>
+    <t>Food|20|30;Coin|120|30</t>
   </si>
   <si>
     <t>9701|1|70;9702|1|70;9703|1|70</t>
@@ -268,7 +268,7 @@
     <t>刺客草上飞|刺客小旋风|刺客鼓上蚤</t>
   </si>
   <si>
-    <t>Food|10|30;Coin|150|30</t>
+    <t>Food|25|30;Coin|150|30</t>
   </si>
   <si>
     <t>9701|1|135;9702|1|135;9703|1|135</t>
@@ -325,7 +325,7 @@
     <t>肉</t>
   </si>
   <si>
-    <t>Food|20|30;Coin|200|30</t>
+    <t>Food|25|30;Coin|200|30</t>
   </si>
   <si>
     <t>9701|1|320;9702|1|320;9703|1|320</t>
@@ -394,7 +394,7 @@
     <t>Food</t>
   </si>
   <si>
-    <t>Food|20|30;Coin|250|30</t>
+    <t>Food|30|30;Coin|250|30</t>
   </si>
   <si>
     <t>9701|1|940;9702|1|940;9703|1|940</t>
@@ -523,7 +523,7 @@
     <t>9601|2|10315</t>
   </si>
   <si>
-    <t>Food|30|30;Coin|400|30</t>
+    <t>Food|40|30;Coin|400|30</t>
   </si>
   <si>
     <t>9701|1|10315;9702|1|10315;9703|1|10315</t>
@@ -574,7 +574,7 @@
     <t>9601|2|51315</t>
   </si>
   <si>
-    <t>Food|30|30;Coin|500|30</t>
+    <t>Food|40|30;Coin|500|30</t>
   </si>
   <si>
     <t>9701|1|51315;9702|1|51315;9703|1|51315</t>
@@ -595,13 +595,13 @@
     <t>Item|2001|1|100</t>
   </si>
   <si>
-    <t>9605|1|60</t>
+    <t>9605|1|30</t>
   </si>
   <si>
     <t>Kongfu|1001|1|100</t>
   </si>
   <si>
-    <t>9701|1|80;9702|1|60</t>
+    <t>9701|1|80;9702|1|30</t>
   </si>
   <si>
     <t>招募令</t>
@@ -633,10 +633,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21">
@@ -656,16 +656,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -677,31 +737,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,39 +767,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,22 +793,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,7 +832,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,133 +970,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,31 +994,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,6 +1041,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1052,15 +1061,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,7 +1084,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,19 +1092,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,17 +1128,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,10 +1144,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1156,136 +1156,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1637,7 +1637,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1648,7 +1648,7 @@
     <col min="6" max="6" width="14.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="45" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.875" style="3" customWidth="1"/>
     <col min="10" max="10" width="43.875" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.83333333333333" style="3"/>
     <col min="12" max="12" width="33.125" style="3" customWidth="1"/>

--- a/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
+++ b/Tables/Sources/gameplay/MainTask/CommonTask.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="201">
   <si>
     <t>任务ID</t>
   </si>
@@ -139,13 +139,13 @@
     <t>wolf</t>
   </si>
   <si>
-    <t>狩猎狼</t>
+    <t>狩猎</t>
   </si>
   <si>
     <t>去郊外打野狼。</t>
   </si>
   <si>
-    <t>听说过狼来了的故事吗，现在狼真的来了，咱正好可以练练手，说不定还能从狼身上搜出好东西来。</t>
+    <t>最近常有恶狼袭扰村民，正适合习武之人为民除害。</t>
   </si>
   <si>
     <t>Battle</t>
@@ -166,13 +166,10 @@
     <t>boar</t>
   </si>
   <si>
-    <t>狩猎野猪</t>
-  </si>
-  <si>
     <t>去池塘边抓野猪。</t>
   </si>
   <si>
-    <t>最近池塘边总有野猪出没，去宰了它给兄弟们加加餐。围捕的时候切记谨慎，被獠牙顶到可不是闹着玩的。</t>
+    <t>野猪很不好对付，被獠牙顶到可不是闹着玩的。</t>
   </si>
   <si>
     <t>Item|1009|3_5|100</t>
@@ -187,13 +184,13 @@
     <t>shanzeiboss</t>
   </si>
   <si>
-    <t>剿匪徒</t>
+    <t>剿匪</t>
   </si>
   <si>
     <t>去隔壁村围剿土匪。</t>
   </si>
   <si>
-    <t>最近隔壁村经常闹土匪，村民们苦不堪言，村长请我们去帮忙剿匪，事成之后必有重谢。</t>
+    <t>隔壁村长请我们去帮忙剿匪，事成之后必有重谢。</t>
   </si>
   <si>
     <t>Food|20|30;Coin|100|30</t>
@@ -235,13 +232,13 @@
     <t>cike</t>
   </si>
   <si>
-    <t>抓刺客</t>
+    <t>缉凶</t>
   </si>
   <si>
     <t>帮赵员外抓刺客。</t>
   </si>
   <si>
-    <t>昨晚赵员外被行刺了，好在只受了点轻伤，没有性命之忧。听说员外家挺有钱的，咱们也去帮忙抓刺客吧。</t>
+    <t>昨晚赵员外被行刺了，正花重金悬赏刺客呢。</t>
   </si>
   <si>
     <t>Coin|120|70;Item|3001|1|30</t>
@@ -298,13 +295,13 @@
     <t>snake</t>
   </si>
   <si>
-    <t>捕捉青蛇</t>
+    <t>捕蛇</t>
   </si>
   <si>
     <t>打死闯入庄上的蛇。</t>
   </si>
   <si>
-    <t>师娘特别怕蛇，看到了就一定要打死。尸体不要扔掉，蛇肉交给伙房，蛇胆交给药房，都是好东西。</t>
+    <t>师娘特别怕蛇，看到了就一定要打死。</t>
   </si>
   <si>
     <t>Item|1015|2_3|70;Item|1022|1_2|30</t>
@@ -376,13 +373,10 @@
     <t>bear</t>
   </si>
   <si>
-    <t>狩猎熊</t>
-  </si>
-  <si>
     <t>去附近村里狩猎黑熊。</t>
   </si>
   <si>
-    <t>最近经常有黑熊到附近村子里转悠，拍死咬伤了不少妇孺老人，猎户都拿它们没办法，是时候我们出马了。</t>
+    <t>注意，前方熊出没！快去帮猎户抓住它们。</t>
   </si>
   <si>
     <t>Item|1011|3_4|100</t>
@@ -439,13 +433,13 @@
     <t>deer</t>
   </si>
   <si>
-    <t>狩猎鹿</t>
+    <t>猎鹿</t>
   </si>
   <si>
     <t>去树林里狩猎鹿。</t>
   </si>
   <si>
-    <t>鹿肉不是重点，鹿茸才是真正的好东西，师父最爱的药酒就是用它泡的，不仅延年益寿，还能壮阳。</t>
+    <t>师父最爱用鹿茸泡酒，不仅延年益寿，还能壮阳。</t>
   </si>
   <si>
     <t>Item|1019|3_5|100</t>
@@ -538,13 +532,13 @@
     <t>wokou1</t>
   </si>
   <si>
-    <t>战倭寇</t>
+    <t>抗倭</t>
   </si>
   <si>
     <t>剿灭侵犯村子的倭寇。</t>
   </si>
   <si>
-    <t>倭人犯我天朝百姓久已，烧杀劫掠，无恶不作，吾等习武之人倘若坐视不管，岂不被人笑话。</t>
+    <t>倭人犯我天朝久已，无恶不作，吾等岂能坐视不管。</t>
   </si>
   <si>
     <t>Coin|320|70;Item|3102|1_2|30</t>
@@ -633,10 +627,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21">
@@ -656,112 +650,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,7 +666,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,6 +689,97 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,19 +826,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,25 +862,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,13 +892,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,7 +952,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,97 +1000,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,15 +1035,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1061,6 +1046,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,7 +1108,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,36 +1118,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,10 +1138,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1156,136 +1150,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1637,7 +1631,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L53" sqref="L53"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1646,7 +1640,7 @@
     <col min="2" max="4" width="10" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="48.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="28.875" style="3" customWidth="1"/>
     <col min="10" max="10" width="43.875" style="3" customWidth="1"/>
@@ -2005,19 +1999,19 @@
         <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="4">
         <v>100</v>
@@ -2026,7 +2020,7 @@
         <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>46</v>
@@ -2041,7 +2035,7 @@
         <v>9602</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T6" s="2">
         <v>80</v>
@@ -2086,22 +2080,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="4">
         <v>100</v>
@@ -2110,10 +2104,10 @@
         <v>50</v>
       </c>
       <c r="L7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="N7" s="4">
         <v>3</v>
@@ -2125,7 +2119,7 @@
         <v>9603</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T7" s="2">
         <v>120</v>
@@ -2185,7 +2179,7 @@
         <v>43</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J8" s="5">
         <v>250</v>
@@ -2194,7 +2188,7 @@
         <v>80</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>46</v>
@@ -2209,7 +2203,7 @@
         <v>9604</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T8" s="2">
         <v>200</v>
@@ -2257,19 +2251,19 @@
         <v>48</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="5">
         <v>250</v>
@@ -2278,7 +2272,7 @@
         <v>80</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>46</v>
@@ -2293,7 +2287,7 @@
         <v>9605</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T9" s="2">
         <v>350</v>
@@ -2338,22 +2332,22 @@
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" s="5">
         <v>250</v>
@@ -2362,10 +2356,10 @@
         <v>80</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N10" s="5">
         <v>3</v>
@@ -2377,7 +2371,7 @@
         <v>9701</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T10" s="2">
         <v>600</v>
@@ -2422,22 +2416,22 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" s="5">
         <v>250</v>
@@ -2446,10 +2440,10 @@
         <v>80</v>
       </c>
       <c r="L11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="N11" s="5">
         <v>3</v>
@@ -2461,7 +2455,7 @@
         <v>9702</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T11" s="2">
         <v>1200</v>
@@ -2521,7 +2515,7 @@
         <v>43</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="4">
         <v>800</v>
@@ -2530,7 +2524,7 @@
         <v>120</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>46</v>
@@ -2545,7 +2539,7 @@
         <v>9703</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T12" s="2">
         <v>2500</v>
@@ -2593,19 +2587,19 @@
         <v>48</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" s="4">
         <v>800</v>
@@ -2614,7 +2608,7 @@
         <v>120</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>46</v>
@@ -2629,7 +2623,7 @@
         <v>9804</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" ref="W13:W15" si="2">W12</f>
@@ -2659,22 +2653,22 @@
         <v>3</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J14" s="4">
         <v>800</v>
@@ -2683,10 +2677,10 @@
         <v>120</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N14" s="4">
         <v>3</v>
@@ -2698,7 +2692,7 @@
         <v>9901</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="2"/>
@@ -2734,22 +2728,22 @@
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15" s="4">
         <v>800</v>
@@ -2758,10 +2752,10 @@
         <v>120</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N15" s="4">
         <v>3</v>
@@ -2773,7 +2767,7 @@
         <v>9902</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="2"/>
@@ -2824,7 +2818,7 @@
         <v>43</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" s="5">
         <v>2400</v>
@@ -2833,7 +2827,7 @@
         <v>200</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>46</v>
@@ -2848,7 +2842,7 @@
         <v>9903</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W16" s="2">
         <f>X17</f>
@@ -2884,22 +2878,22 @@
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J17" s="5">
         <v>2400</v>
@@ -2908,7 +2902,7 @@
         <v>200</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>46</v>
@@ -2956,19 +2950,19 @@
         <v>48</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J18" s="5">
         <v>2400</v>
@@ -2977,7 +2971,7 @@
         <v>200</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>46</v>
@@ -2989,16 +2983,16 @@
         <v>60</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R18" s="2">
         <v>1009</v>
       </c>
       <c r="S18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="4"/>
@@ -3034,22 +3028,22 @@
         <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J19" s="5">
         <v>2400</v>
@@ -3058,10 +3052,10 @@
         <v>200</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N19" s="5">
         <v>3</v>
@@ -3070,16 +3064,16 @@
         <v>60</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R19" s="2">
         <v>1011</v>
       </c>
       <c r="S19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T19" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="4"/>
@@ -3115,22 +3109,22 @@
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J20" s="5">
         <v>2400</v>
@@ -3139,10 +3133,10 @@
         <v>200</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N20" s="5">
         <v>3</v>
@@ -3151,16 +3145,16 @@
         <v>60</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R20" s="2">
         <v>1015</v>
       </c>
       <c r="S20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="T20" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="W20" s="2">
         <f t="shared" si="4"/>
@@ -3211,7 +3205,7 @@
         <v>43</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J21" s="4">
         <v>6000</v>
@@ -3220,7 +3214,7 @@
         <v>350</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>46</v>
@@ -3232,16 +3226,16 @@
         <v>120</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R21" s="2">
         <v>1019</v>
       </c>
       <c r="S21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="T21" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="W21" s="2">
         <f>X18</f>
@@ -3277,22 +3271,22 @@
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J22" s="4">
         <v>6000</v>
@@ -3301,7 +3295,7 @@
         <v>350</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>46</v>
@@ -3313,16 +3307,16 @@
         <v>120</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R22" s="2">
         <v>1022</v>
       </c>
       <c r="S22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="T22" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" ref="W22:W26" si="5">W21</f>
@@ -3355,19 +3349,19 @@
         <v>48</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J23" s="4">
         <v>6000</v>
@@ -3376,7 +3370,7 @@
         <v>350</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>46</v>
@@ -3411,22 +3405,22 @@
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J24" s="4">
         <v>6000</v>
@@ -3435,7 +3429,7 @@
         <v>350</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>46</v>
@@ -3447,7 +3441,7 @@
         <v>120</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="5"/>
@@ -3477,22 +3471,22 @@
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J25" s="4">
         <v>6000</v>
@@ -3501,10 +3495,10 @@
         <v>350</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N25" s="4">
         <v>3</v>
@@ -3513,7 +3507,7 @@
         <v>120</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="5"/>
@@ -3543,22 +3537,22 @@
         <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J26" s="4">
         <v>6000</v>
@@ -3567,10 +3561,10 @@
         <v>350</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N26" s="4">
         <v>3</v>
@@ -3579,7 +3573,7 @@
         <v>120</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="5"/>
@@ -3620,7 +3614,7 @@
         <v>43</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J27" s="5">
         <v>15000</v>
@@ -3629,7 +3623,7 @@
         <v>600</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>46</v>
@@ -3641,7 +3635,7 @@
         <v>180</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="W27" s="2">
         <f>X19</f>
@@ -3667,22 +3661,22 @@
         <v>6</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J28" s="5">
         <v>15000</v>
@@ -3691,7 +3685,7 @@
         <v>600</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>46</v>
@@ -3703,7 +3697,7 @@
         <v>180</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" ref="W28:W33" si="6">W27</f>
@@ -3732,19 +3726,19 @@
         <v>48</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J29" s="5">
         <v>15000</v>
@@ -3753,7 +3747,7 @@
         <v>600</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>46</v>
@@ -3765,16 +3759,16 @@
         <v>180</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R29" s="2">
         <v>2001</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="6"/>
@@ -3800,22 +3794,22 @@
         <v>6</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J30" s="5">
         <v>15000</v>
@@ -3824,7 +3818,7 @@
         <v>600</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>46</v>
@@ -3836,16 +3830,16 @@
         <v>180</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R30" s="2">
         <v>2002</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" si="6"/>
@@ -3871,22 +3865,22 @@
         <v>6</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J31" s="5">
         <v>15000</v>
@@ -3895,7 +3889,7 @@
         <v>600</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>46</v>
@@ -3907,16 +3901,16 @@
         <v>180</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R31" s="2">
         <v>3001</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="6"/>
@@ -3942,22 +3936,22 @@
         <v>6</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J32" s="5">
         <v>15000</v>
@@ -3966,10 +3960,10 @@
         <v>600</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N32" s="5">
         <v>3</v>
@@ -3978,16 +3972,16 @@
         <v>180</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R32" s="2">
         <v>3002</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="6"/>
@@ -4017,22 +4011,22 @@
         <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J33" s="5">
         <v>15000</v>
@@ -4041,10 +4035,10 @@
         <v>600</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N33" s="5">
         <v>3</v>
@@ -4053,16 +4047,16 @@
         <v>180</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R33" s="2">
         <v>3003</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="6"/>
@@ -4107,7 +4101,7 @@
         <v>43</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J34" s="4">
         <v>60000</v>
@@ -4116,7 +4110,7 @@
         <v>1200</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>46</v>
@@ -4128,16 +4122,16 @@
         <v>250</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R34" s="2">
         <v>3101</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="W34" s="2">
         <f>X20</f>
@@ -4167,22 +4161,22 @@
         <v>7</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J35" s="4">
         <v>60000</v>
@@ -4191,7 +4185,7 @@
         <v>1200</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>46</v>
@@ -4203,16 +4197,16 @@
         <v>250</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R35" s="2">
         <v>3102</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" ref="W35:W41" si="7">W34</f>
@@ -4245,19 +4239,19 @@
         <v>48</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J36" s="4">
         <v>60000</v>
@@ -4266,7 +4260,7 @@
         <v>1200</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>46</v>
@@ -4301,22 +4295,22 @@
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J37" s="4">
         <v>60000</v>
@@ -4325,7 +4319,7 @@
         <v>1200</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>46</v>
@@ -4364,22 +4358,22 @@
         <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J38" s="4">
         <v>60000</v>
@@ -4388,7 +4382,7 @@
         <v>1200</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>46</v>
@@ -4427,22 +4421,22 @@
         <v>7</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J39" s="4">
         <v>60000</v>
@@ -4451,10 +4445,10 @@
         <v>1200</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N39" s="4">
         <v>3</v>
@@ -4486,22 +4480,22 @@
         <v>7</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J40" s="4">
         <v>60000</v>
@@ -4510,10 +4504,10 @@
         <v>1200</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N40" s="4">
         <v>3</v>
@@ -4545,22 +4539,22 @@
         <v>7</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J41" s="4">
         <v>60000</v>
@@ -4569,10 +4563,10 @@
         <v>1200</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N41" s="4">
         <v>5</v>
@@ -4619,7 +4613,7 @@
         <v>43</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J42" s="5">
         <v>200000</v>
@@ -4628,7 +4622,7 @@
         <v>2500</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>46</v>
@@ -4663,22 +4657,22 @@
         <v>8</v>
       </c>
       <c r="D43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="G43" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J43" s="5">
         <v>200000</v>
@@ -4687,7 +4681,7 @@
         <v>2500</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M43" s="5" t="s">
         <v>46</v>
@@ -4725,19 +4719,19 @@
         <v>48</v>
       </c>
       <c r="E44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J44" s="5">
         <v>200000</v>
@@ -4746,7 +4740,7 @@
         <v>2500</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>46</v>
@@ -4781,22 +4775,22 @@
         <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J45" s="5">
         <v>200000</v>
@@ -4805,7 +4799,7 @@
         <v>2500</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>46</v>
@@ -4844,22 +4838,22 @@
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J46" s="5">
         <v>200000</v>
@@ -4868,7 +4862,7 @@
         <v>2500</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>46</v>
@@ -4907,22 +4901,22 @@
         <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J47" s="5">
         <v>200000</v>
@@ -4931,10 +4925,10 @@
         <v>2500</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N47" s="5">
         <v>3</v>
@@ -4970,22 +4964,22 @@
         <v>8</v>
       </c>
       <c r="D48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J48" s="5">
         <v>200000</v>
@@ -4994,10 +4988,10 @@
         <v>2500</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N48" s="5">
         <v>3</v>
@@ -5033,22 +5027,22 @@
         <v>8</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J49" s="5">
         <v>200000</v>
@@ -5057,10 +5051,10 @@
         <v>2500</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N49" s="5">
         <v>5</v>
@@ -5111,7 +5105,7 @@
         <v>43</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J50" s="6">
         <v>100</v>
@@ -5120,7 +5114,7 @@
         <v>50</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M50" s="6" t="s">
         <v>46</v>
@@ -5147,22 +5141,22 @@
         <v>0</v>
       </c>
       <c r="D51" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>43</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J51" s="6">
         <v>100</v>
@@ -5171,10 +5165,10 @@
         <v>50</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N51" s="6">
         <v>2</v>
@@ -5189,30 +5183,30 @@
     </row>
     <row r="56" spans="8:11">
       <c r="H56" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="57" spans="8:11">
       <c r="H57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="58" spans="8:11">
@@ -5220,97 +5214,97 @@
         <v>44</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="8:11">
       <c r="H59" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="8:11">
       <c r="H60" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K60" s="2"/>
     </row>
     <row r="61" spans="8:11">
       <c r="H61" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="8:11">
       <c r="H62" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="8:11">
       <c r="H63" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="8:11">
       <c r="H64" s="2" 